--- a/data-raw/Data_summaryforpackage.xlsx
+++ b/data-raw/Data_summaryforpackage.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xutaowang/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xutaowang/Desktop/curatedTBData/data-raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F04DF2E-9D02-9240-8443-DA3084B43BA6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3622E46-4C99-8D48-B920-6CD8509FB9E2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9400" yWindow="3280" windowWidth="27920" windowHeight="16320" xr2:uid="{B39B7F83-2537-C248-AAB4-54D9192DC10F}"/>
+    <workbookView xWindow="9400" yWindow="3280" windowWidth="27920" windowHeight="16320" activeTab="1" xr2:uid="{B39B7F83-2537-C248-AAB4-54D9192DC10F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="184">
   <si>
     <t>GEO accession</t>
   </si>
@@ -554,12 +555,84 @@
   <si>
     <t>Illumina RNA-seq</t>
   </si>
+  <si>
+    <t>Signature</t>
+  </si>
+  <si>
+    <t>GSE</t>
+  </si>
+  <si>
+    <t>Anderson</t>
+  </si>
+  <si>
+    <t>Berry</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GSE19439 </t>
+  </si>
+  <si>
+    <t>Blankley</t>
+  </si>
+  <si>
+    <t>GSE40553</t>
+  </si>
+  <si>
+    <t>Bloom</t>
+  </si>
+  <si>
+    <t>Esmail</t>
+  </si>
+  <si>
+    <t>Jacobsen</t>
+  </si>
+  <si>
+    <t>Lee</t>
+  </si>
+  <si>
+    <t>Leong</t>
+  </si>
+  <si>
+    <t>Maertzdorf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GSE62147 </t>
+  </si>
+  <si>
+    <t>Singhania</t>
+  </si>
+  <si>
+    <t>Sweeney</t>
+  </si>
+  <si>
+    <t>Suliman</t>
+  </si>
+  <si>
+    <t>Walter</t>
+  </si>
+  <si>
+    <t>Zak</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GSE79362 </t>
+  </si>
+  <si>
+    <t>Roe</t>
+  </si>
+  <si>
+    <t>Unable to locate GEO</t>
+  </si>
+  <si>
+    <t>Sloot</t>
+  </si>
+  <si>
+    <t>Thompson</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10">
+  <fonts count="13">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -620,6 +693,26 @@
       <color theme="5"/>
       <name val="Calibri (Body)"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -635,10 +728,69 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="6">
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -647,7 +799,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -690,6 +842,20 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1006,7 +1172,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{715BD991-25C2-914C-95C3-220CF25B2F79}">
   <dimension ref="A1:N44"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="I44" sqref="I44"/>
     </sheetView>
@@ -2644,4 +2810,459 @@
     <ignoredError sqref="E22" twoDigitTextYear="1"/>
   </ignoredErrors>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B868D855-4FCD-7E48-B184-50745CDBFAFD}">
+  <dimension ref="A1:B55"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="17">
+      <c r="A2" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="B2" s="21" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="17">
+      <c r="A3" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="B3" s="21" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="17">
+      <c r="A4" s="20" t="s">
+        <v>163</v>
+      </c>
+      <c r="B4" s="21" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="17">
+      <c r="A5" s="20" t="s">
+        <v>163</v>
+      </c>
+      <c r="B5" s="21" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="17">
+      <c r="A6" s="20" t="s">
+        <v>163</v>
+      </c>
+      <c r="B6" s="21" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="17">
+      <c r="A7" s="20" t="s">
+        <v>163</v>
+      </c>
+      <c r="B7" s="21" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="17">
+      <c r="A8" s="20" t="s">
+        <v>163</v>
+      </c>
+      <c r="B8" s="21" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="17">
+      <c r="A9" s="20" t="s">
+        <v>163</v>
+      </c>
+      <c r="B9" s="21" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="17">
+      <c r="A10" s="22" t="s">
+        <v>165</v>
+      </c>
+      <c r="B10" s="21" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="17">
+      <c r="A11" s="22" t="s">
+        <v>165</v>
+      </c>
+      <c r="B11" s="21" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="17">
+      <c r="A12" s="22" t="s">
+        <v>165</v>
+      </c>
+      <c r="B12" s="21" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="17">
+      <c r="A13" s="22" t="s">
+        <v>165</v>
+      </c>
+      <c r="B13" s="21" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="17">
+      <c r="A14" s="22" t="s">
+        <v>165</v>
+      </c>
+      <c r="B14" s="21" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="17">
+      <c r="A15" s="22" t="s">
+        <v>165</v>
+      </c>
+      <c r="B15" s="21" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="17">
+      <c r="A16" s="22" t="s">
+        <v>165</v>
+      </c>
+      <c r="B16" s="21" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="17">
+      <c r="A17" s="22" t="s">
+        <v>165</v>
+      </c>
+      <c r="B17" s="21" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="17">
+      <c r="A18" s="23" t="s">
+        <v>167</v>
+      </c>
+      <c r="B18" s="24" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="17">
+      <c r="A19" s="23" t="s">
+        <v>167</v>
+      </c>
+      <c r="B19" s="24" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="17">
+      <c r="A20" s="23" t="s">
+        <v>167</v>
+      </c>
+      <c r="B20" s="24" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="17">
+      <c r="A21" s="23" t="s">
+        <v>167</v>
+      </c>
+      <c r="B21" s="24" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="17">
+      <c r="A22" s="23" t="s">
+        <v>167</v>
+      </c>
+      <c r="B22" s="24" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="17">
+      <c r="A23" s="23" t="s">
+        <v>167</v>
+      </c>
+      <c r="B23" s="24" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="17">
+      <c r="A24" s="20" t="s">
+        <v>168</v>
+      </c>
+      <c r="B24" s="21" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="17">
+      <c r="A25" s="20" t="s">
+        <v>169</v>
+      </c>
+      <c r="B25" s="21" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="17">
+      <c r="A26" s="20" t="s">
+        <v>170</v>
+      </c>
+      <c r="B26" s="21" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="17">
+      <c r="A27" s="20" t="s">
+        <v>171</v>
+      </c>
+      <c r="B27" s="21" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="17">
+      <c r="A28" s="20" t="s">
+        <v>172</v>
+      </c>
+      <c r="B28" s="21" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="17">
+      <c r="A29" s="20" t="s">
+        <v>172</v>
+      </c>
+      <c r="B29" s="21" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="17">
+      <c r="A30" s="20" t="s">
+        <v>172</v>
+      </c>
+      <c r="B30" s="21" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="17">
+      <c r="A31" s="20" t="s">
+        <v>172</v>
+      </c>
+      <c r="B31" s="21" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="17">
+      <c r="A32" s="20" t="s">
+        <v>174</v>
+      </c>
+      <c r="B32" s="21" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="17">
+      <c r="A33" s="20" t="s">
+        <v>174</v>
+      </c>
+      <c r="B33" s="21" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="17">
+      <c r="A34" s="20" t="s">
+        <v>174</v>
+      </c>
+      <c r="B34" s="21" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="17">
+      <c r="A35" s="20" t="s">
+        <v>174</v>
+      </c>
+      <c r="B35" s="21" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" s="25" t="s">
+        <v>175</v>
+      </c>
+      <c r="B36" s="24" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" s="25" t="s">
+        <v>175</v>
+      </c>
+      <c r="B37" s="24" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" s="25" t="s">
+        <v>175</v>
+      </c>
+      <c r="B38" s="24" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" s="25" t="s">
+        <v>175</v>
+      </c>
+      <c r="B39" s="24" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" s="25" t="s">
+        <v>175</v>
+      </c>
+      <c r="B40" s="24" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" s="25" t="s">
+        <v>175</v>
+      </c>
+      <c r="B41" s="24" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" s="25" t="s">
+        <v>175</v>
+      </c>
+      <c r="B42" s="21" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" s="25" t="s">
+        <v>175</v>
+      </c>
+      <c r="B43" s="21" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" s="25" t="s">
+        <v>175</v>
+      </c>
+      <c r="B44" s="21" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" s="25" t="s">
+        <v>175</v>
+      </c>
+      <c r="B45" s="21" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" s="25" t="s">
+        <v>175</v>
+      </c>
+      <c r="B46" s="21" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" s="25" t="s">
+        <v>175</v>
+      </c>
+      <c r="B47" s="21" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" s="25" t="s">
+        <v>175</v>
+      </c>
+      <c r="B48" s="21" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" s="25" t="s">
+        <v>175</v>
+      </c>
+      <c r="B49" s="21" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" s="25" t="s">
+        <v>176</v>
+      </c>
+      <c r="B50" s="21" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" s="25" t="s">
+        <v>177</v>
+      </c>
+      <c r="B51" s="21" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" s="26" t="s">
+        <v>178</v>
+      </c>
+      <c r="B52" s="21" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" ht="17">
+      <c r="A53" s="20" t="s">
+        <v>180</v>
+      </c>
+      <c r="B53" s="27" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" s="25" t="s">
+        <v>182</v>
+      </c>
+      <c r="B54" s="27" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" s="25" t="s">
+        <v>183</v>
+      </c>
+      <c r="B55" s="21" t="s">
+        <v>129</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/data-raw/Data_summaryforpackage.xlsx
+++ b/data-raw/Data_summaryforpackage.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xutaowang/Desktop/curatedTBData/data-raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3622E46-4C99-8D48-B920-6CD8509FB9E2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D48D0932-A7CE-8E49-BD5B-E1D3EA7A7C25}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9400" yWindow="3280" windowWidth="27920" windowHeight="16320" activeTab="1" xr2:uid="{B39B7F83-2537-C248-AAB4-54D9192DC10F}"/>
+    <workbookView xWindow="3200" yWindow="3960" windowWidth="27920" windowHeight="16320" xr2:uid="{B39B7F83-2537-C248-AAB4-54D9192DC10F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="188">
   <si>
     <t>GEO accession</t>
   </si>
@@ -193,9 +193,6 @@
   </si>
   <si>
     <t>16-84</t>
-  </si>
-  <si>
-    <t>Other</t>
   </si>
   <si>
     <t>GSE28623</t>
@@ -626,6 +623,21 @@
   </si>
   <si>
     <t>Thompson</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Agilent Microarray </t>
+  </si>
+  <si>
+    <t>Phalanx Microarray</t>
+  </si>
+  <si>
+    <t>Phalanx RT-PCR</t>
+  </si>
+  <si>
+    <t>MPIIB Microarray - Two Color</t>
+  </si>
+  <si>
+    <t>Agilent Microarray - TwoColor</t>
   </si>
 </sst>
 </file>
@@ -799,7 +811,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -856,6 +868,7 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1172,9 +1185,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{715BD991-25C2-914C-95C3-220CF25B2F79}">
   <dimension ref="A1:N44"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I44" sqref="I44"/>
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="P40" sqref="P40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1210,7 +1223,7 @@
         <v>6</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I1" s="6" t="s">
         <v>7</v>
@@ -1219,7 +1232,7 @@
         <v>16</v>
       </c>
       <c r="K1" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="L1" s="6" t="s">
         <v>8</v>
@@ -1228,7 +1241,7 @@
         <v>9</v>
       </c>
       <c r="N1" s="6" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="69" customHeight="1">
@@ -1264,12 +1277,12 @@
         <v>39</v>
       </c>
       <c r="N2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="70" customHeight="1">
       <c r="A3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B3" t="s">
         <v>11</v>
@@ -1300,12 +1313,12 @@
         <v>46</v>
       </c>
       <c r="N3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="63" customHeight="1">
       <c r="A4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B4" t="s">
         <v>11</v>
@@ -1333,12 +1346,12 @@
         <v>47</v>
       </c>
       <c r="N4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B5" t="s">
         <v>17</v>
@@ -1372,30 +1385,30 @@
         <v>39</v>
       </c>
       <c r="N5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="34">
       <c r="A6" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="B6" t="s">
         <v>110</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>111</v>
-      </c>
-      <c r="C6" t="s">
-        <v>112</v>
       </c>
       <c r="D6" t="s">
         <v>19</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F6" t="s">
         <v>15</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H6">
         <v>9</v>
@@ -1411,30 +1424,30 @@
         <v>27</v>
       </c>
       <c r="N6" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="119">
       <c r="A7" s="12" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B7" t="s">
+        <v>102</v>
+      </c>
+      <c r="C7" s="10" t="s">
         <v>103</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>104</v>
       </c>
       <c r="D7" t="s">
         <v>26</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F7" t="s">
         <v>15</v>
       </c>
       <c r="G7" s="12" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H7" s="13"/>
       <c r="I7" s="13">
@@ -1449,15 +1462,15 @@
         <v>428</v>
       </c>
       <c r="M7" s="14" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="N7" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="170">
       <c r="A8" s="18" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B8" t="s">
         <v>24</v>
@@ -1488,15 +1501,15 @@
         <v>264</v>
       </c>
       <c r="M8" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="N8" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="102">
       <c r="A9" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B9" t="s">
         <v>24</v>
@@ -1509,7 +1522,7 @@
         <v>15</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H9">
         <v>35</v>
@@ -1525,15 +1538,15 @@
         <v>446</v>
       </c>
       <c r="M9" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="N9" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="51">
       <c r="A10" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B10" t="s">
         <v>25</v>
@@ -1567,12 +1580,12 @@
         <v>33</v>
       </c>
       <c r="N10" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="51">
       <c r="A11" s="5" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B11" t="s">
         <v>25</v>
@@ -1606,12 +1619,12 @@
         <v>45</v>
       </c>
       <c r="N11" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="12" spans="1:14" ht="62" customHeight="1">
       <c r="A12" s="18" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B12" t="s">
         <v>25</v>
@@ -1642,15 +1655,15 @@
         <v>138</v>
       </c>
       <c r="M12" s="17" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="N12" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="13" spans="1:14" ht="49" customHeight="1">
       <c r="A13" s="18" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B13" t="s">
         <v>25</v>
@@ -1684,33 +1697,33 @@
         <v>175</v>
       </c>
       <c r="M13" s="17" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="N13" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="14" spans="1:14" ht="49" customHeight="1">
       <c r="A14" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B14" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D14" t="s">
         <v>26</v>
       </c>
       <c r="E14" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F14" t="s">
         <v>15</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="I14">
         <v>16</v>
@@ -1724,12 +1737,12 @@
       </c>
       <c r="M14" s="4"/>
       <c r="N14" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="15" spans="1:14" ht="49" customHeight="1">
       <c r="A15" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B15" t="s">
         <v>24</v>
@@ -1741,10 +1754,10 @@
         <v>32</v>
       </c>
       <c r="F15" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G15" s="16" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="J15">
         <v>17</v>
@@ -1757,30 +1770,30 @@
         <v>33</v>
       </c>
       <c r="M15" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="N15" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="16" spans="1:14" ht="49" customHeight="1">
       <c r="A16" s="17" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B16" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C16" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D16" t="s">
         <v>12</v>
       </c>
       <c r="F16" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I16">
         <v>37</v>
@@ -1793,10 +1806,10 @@
         <v>51</v>
       </c>
       <c r="M16" s="17" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="N16" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1819,7 +1832,7 @@
         <v>15</v>
       </c>
       <c r="G17" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H17">
         <v>12</v>
@@ -1835,7 +1848,7 @@
         <v>54</v>
       </c>
       <c r="N17" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1858,7 +1871,7 @@
         <v>15</v>
       </c>
       <c r="G18" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H18">
         <v>16</v>
@@ -1871,7 +1884,7 @@
         <v>44</v>
       </c>
       <c r="N18" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="19" spans="1:14" ht="86" customHeight="1">
@@ -1894,7 +1907,7 @@
         <v>15</v>
       </c>
       <c r="G19" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I19">
         <v>31</v>
@@ -1910,7 +1923,7 @@
         <v>38</v>
       </c>
       <c r="N19" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1933,7 +1946,7 @@
         <v>15</v>
       </c>
       <c r="G20" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H20">
         <v>12</v>
@@ -1949,7 +1962,7 @@
         <v>42</v>
       </c>
       <c r="N20" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="21" spans="1:14" ht="86" customHeight="1">
@@ -1969,7 +1982,7 @@
         <v>15</v>
       </c>
       <c r="G21" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H21">
         <v>12</v>
@@ -1985,7 +1998,7 @@
         <v>42</v>
       </c>
       <c r="N21" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="22" spans="1:14" ht="102">
@@ -2005,7 +2018,7 @@
         <v>15</v>
       </c>
       <c r="G22" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H22">
         <v>81</v>
@@ -2021,30 +2034,30 @@
         <v>48</v>
       </c>
       <c r="N22" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="23" spans="1:14" ht="69" customHeight="1">
       <c r="A23" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="B23" t="s">
         <v>76</v>
       </c>
-      <c r="B23" t="s">
+      <c r="C23" t="s">
         <v>77</v>
-      </c>
-      <c r="C23" t="s">
-        <v>78</v>
       </c>
       <c r="D23" t="s">
         <v>26</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F23" t="s">
         <v>15</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H23">
         <v>18</v>
@@ -2057,30 +2070,30 @@
         <v>36</v>
       </c>
       <c r="M23" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="N23" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="24" spans="1:14">
       <c r="A24" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B24" t="s">
+        <v>69</v>
+      </c>
+      <c r="C24" t="s">
         <v>70</v>
-      </c>
-      <c r="C24" t="s">
-        <v>71</v>
       </c>
       <c r="D24" t="s">
         <v>26</v>
       </c>
       <c r="E24" t="s">
+        <v>72</v>
+      </c>
+      <c r="F24" s="15" t="s">
         <v>73</v>
-      </c>
-      <c r="F24" s="15" t="s">
-        <v>74</v>
       </c>
       <c r="G24" t="s">
         <v>23</v>
@@ -2099,30 +2112,30 @@
         <v>157</v>
       </c>
       <c r="M24" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="N24" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="25" spans="1:14" ht="34">
       <c r="A25" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="B25" t="s">
         <v>69</v>
       </c>
-      <c r="B25" t="s">
-        <v>70</v>
-      </c>
       <c r="C25" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D25" t="s">
         <v>26</v>
       </c>
       <c r="E25" t="s">
+        <v>72</v>
+      </c>
+      <c r="F25" s="15" t="s">
         <v>73</v>
-      </c>
-      <c r="F25" s="15" t="s">
-        <v>74</v>
       </c>
       <c r="G25" t="s">
         <v>23</v>
@@ -2141,18 +2154,18 @@
         <v>334</v>
       </c>
       <c r="M25" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="N25" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="26" spans="1:14" ht="51">
       <c r="A26" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B26" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C26" t="s">
         <v>22</v>
@@ -2164,7 +2177,7 @@
         <v>20</v>
       </c>
       <c r="F26" s="15" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I26">
         <v>25</v>
@@ -2177,18 +2190,18 @@
         <v>40</v>
       </c>
       <c r="M26" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="N26" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="27" spans="1:14">
       <c r="A27" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B27" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C27" t="s">
         <v>22</v>
@@ -2197,10 +2210,10 @@
         <v>12</v>
       </c>
       <c r="E27" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F27" s="15" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I27">
         <v>21</v>
@@ -2213,18 +2226,18 @@
         <v>44</v>
       </c>
       <c r="N27" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="28" spans="1:14">
       <c r="A28" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B28" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C28" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D28" t="s">
         <v>26</v>
@@ -2233,7 +2246,7 @@
         <v>20</v>
       </c>
       <c r="F28" s="15" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G28" t="s">
         <v>23</v>
@@ -2252,18 +2265,18 @@
         <v>537</v>
       </c>
       <c r="N28" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="29" spans="1:14" ht="113" customHeight="1">
       <c r="A29" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="B29" t="s">
+        <v>69</v>
+      </c>
+      <c r="C29" s="4" t="s">
         <v>87</v>
-      </c>
-      <c r="B29" t="s">
-        <v>70</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>88</v>
       </c>
       <c r="D29" t="s">
         <v>26</v>
@@ -2279,21 +2292,21 @@
         <v>75</v>
       </c>
       <c r="M29" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="N29" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="30" spans="1:14" ht="68">
       <c r="A30" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B30" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C30" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D30" t="s">
         <v>26</v>
@@ -2321,21 +2334,21 @@
         <v>42</v>
       </c>
       <c r="M30" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="N30" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="31" spans="1:14" ht="85">
       <c r="A31" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B31" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C31" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D31" t="s">
         <v>26</v>
@@ -2363,21 +2376,21 @@
         <v>102</v>
       </c>
       <c r="M31" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="N31" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="32" spans="1:14" ht="17">
       <c r="A32" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B32" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C32" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D32" t="s">
         <v>26</v>
@@ -2399,21 +2412,21 @@
         <v>27</v>
       </c>
       <c r="M32" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="N32" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="33" spans="1:14" ht="85">
       <c r="A33" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B33" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C33" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D33" t="s">
         <v>26</v>
@@ -2441,21 +2454,21 @@
         <v>95</v>
       </c>
       <c r="M33" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="N33" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="34" spans="1:14" ht="17">
       <c r="A34" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B34" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C34" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D34" t="s">
         <v>26</v>
@@ -2477,24 +2490,24 @@
         <v>17</v>
       </c>
       <c r="M34" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="N34" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="35" spans="1:14" ht="51">
       <c r="A35" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B35" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C35" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E35" t="s">
         <v>20</v>
@@ -2519,30 +2532,30 @@
         <v>90</v>
       </c>
       <c r="M35" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="N35" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="36" spans="1:14" ht="34">
       <c r="A36" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B36" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C36" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D36" t="s">
         <v>26</v>
       </c>
       <c r="E36" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F36" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G36" t="s">
         <v>23</v>
@@ -2561,33 +2574,33 @@
         <v>110</v>
       </c>
       <c r="M36" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="N36" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="37" spans="1:14" ht="51">
       <c r="A37" t="s">
+        <v>51</v>
+      </c>
+      <c r="B37" t="s">
         <v>52</v>
       </c>
-      <c r="B37" t="s">
-        <v>53</v>
-      </c>
       <c r="C37" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D37" t="s">
         <v>26</v>
       </c>
       <c r="E37" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F37" t="s">
         <v>15</v>
       </c>
       <c r="G37" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H37">
         <v>37</v>
@@ -2603,24 +2616,24 @@
         <v>108</v>
       </c>
       <c r="N37" t="s">
-        <v>51</v>
+        <v>183</v>
       </c>
     </row>
     <row r="38" spans="1:14">
       <c r="A38" t="s">
+        <v>53</v>
+      </c>
+      <c r="B38" t="s">
         <v>54</v>
       </c>
-      <c r="B38" t="s">
-        <v>55</v>
-      </c>
       <c r="C38" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D38" t="s">
         <v>26</v>
       </c>
       <c r="E38" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F38" t="s">
         <v>15</v>
@@ -2639,18 +2652,18 @@
         <v>44</v>
       </c>
       <c r="N38" t="s">
-        <v>51</v>
+        <v>183</v>
       </c>
     </row>
     <row r="39" spans="1:14">
       <c r="A39" t="s">
+        <v>55</v>
+      </c>
+      <c r="B39" t="s">
         <v>56</v>
       </c>
-      <c r="B39" t="s">
-        <v>57</v>
-      </c>
       <c r="C39" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D39" t="s">
         <v>12</v>
@@ -2671,19 +2684,19 @@
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
-      <c r="N39" t="s">
-        <v>51</v>
+      <c r="N39" s="28" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="40" spans="1:14" ht="85">
       <c r="A40" t="s">
+        <v>57</v>
+      </c>
+      <c r="B40" t="s">
         <v>58</v>
       </c>
-      <c r="B40" t="s">
-        <v>59</v>
-      </c>
       <c r="C40" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D40" t="s">
         <v>26</v>
@@ -2702,18 +2715,18 @@
         <v>189</v>
       </c>
       <c r="M40" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="N40" t="s">
-        <v>51</v>
+        <v>185</v>
       </c>
     </row>
     <row r="41" spans="1:14" ht="68">
       <c r="A41" t="s">
+        <v>65</v>
+      </c>
+      <c r="B41" t="s">
         <v>66</v>
-      </c>
-      <c r="B41" t="s">
-        <v>67</v>
       </c>
       <c r="D41" t="s">
         <v>12</v>
@@ -2722,7 +2735,7 @@
         <v>15</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H41">
         <v>36</v>
@@ -2738,18 +2751,18 @@
         <v>72</v>
       </c>
       <c r="M41" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="N41" t="s">
-        <v>51</v>
+        <v>106</v>
+      </c>
+      <c r="N41" s="28" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="42" spans="1:14">
       <c r="A42" t="s">
+        <v>115</v>
+      </c>
+      <c r="B42" t="s">
         <v>116</v>
-      </c>
-      <c r="B42" t="s">
-        <v>117</v>
       </c>
       <c r="D42" t="s">
         <v>26</v>
@@ -2770,15 +2783,15 @@
       </c>
       <c r="M42" s="4"/>
       <c r="N42" t="s">
-        <v>51</v>
+        <v>187</v>
       </c>
     </row>
     <row r="43" spans="1:14">
       <c r="A43" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B43" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D43" t="s">
         <v>12</v>
@@ -2796,7 +2809,7 @@
       </c>
       <c r="M43" s="4"/>
       <c r="N43" t="s">
-        <v>51</v>
+        <v>183</v>
       </c>
     </row>
     <row r="44" spans="1:14">
@@ -2816,7 +2829,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B868D855-4FCD-7E48-B184-50745CDBFAFD}">
   <dimension ref="A1:B55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
@@ -2824,31 +2837,31 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B1" t="s">
         <v>160</v>
-      </c>
-      <c r="B1" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17">
       <c r="A2" s="20" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B2" s="21" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17">
       <c r="A3" s="20" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="17">
       <c r="A4" s="20" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B4" s="21" t="s">
         <v>29</v>
@@ -2856,7 +2869,7 @@
     </row>
     <row r="5" spans="1:2" ht="17">
       <c r="A5" s="20" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B5" s="21" t="s">
         <v>30</v>
@@ -2864,7 +2877,7 @@
     </row>
     <row r="6" spans="1:2" ht="17">
       <c r="A6" s="20" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B6" s="21" t="s">
         <v>34</v>
@@ -2872,15 +2885,15 @@
     </row>
     <row r="7" spans="1:2" ht="17">
       <c r="A7" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="B7" s="21" t="s">
         <v>163</v>
-      </c>
-      <c r="B7" s="21" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="17">
       <c r="A8" s="20" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B8" s="21" t="s">
         <v>36</v>
@@ -2888,7 +2901,7 @@
     </row>
     <row r="9" spans="1:2" ht="17">
       <c r="A9" s="20" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B9" s="21" t="s">
         <v>37</v>
@@ -2896,7 +2909,7 @@
     </row>
     <row r="10" spans="1:2" ht="17">
       <c r="A10" s="22" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B10" s="21" t="s">
         <v>10</v>
@@ -2904,255 +2917,255 @@
     </row>
     <row r="11" spans="1:2" ht="17">
       <c r="A11" s="22" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B11" s="21" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="17">
       <c r="A12" s="22" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B12" s="21" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="17">
       <c r="A13" s="22" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B13" s="21" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="17">
       <c r="A14" s="22" t="s">
+        <v>164</v>
+      </c>
+      <c r="B14" s="21" t="s">
         <v>165</v>
-      </c>
-      <c r="B14" s="21" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="17">
       <c r="A15" s="22" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B15" s="21" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="17">
       <c r="A16" s="22" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B16" s="21" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="17">
       <c r="A17" s="22" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B17" s="21" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="17">
       <c r="A18" s="23" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B18" s="24" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="17">
       <c r="A19" s="23" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B19" s="24" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="17">
       <c r="A20" s="23" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B20" s="24" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="17">
       <c r="A21" s="23" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B21" s="24" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="17">
       <c r="A22" s="23" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B22" s="24" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="17">
       <c r="A23" s="23" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B23" s="24" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="17">
       <c r="A24" s="20" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B24" s="21" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="17">
       <c r="A25" s="20" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B25" s="21" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="17">
       <c r="A26" s="20" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B26" s="21" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="17">
       <c r="A27" s="20" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B27" s="21" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="17">
       <c r="A28" s="20" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B28" s="21" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="17">
       <c r="A29" s="20" t="s">
+        <v>171</v>
+      </c>
+      <c r="B29" s="21" t="s">
         <v>172</v>
-      </c>
-      <c r="B29" s="21" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="17">
       <c r="A30" s="20" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B30" s="21" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="17">
       <c r="A31" s="20" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B31" s="21" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="17">
       <c r="A32" s="20" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B32" s="21" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="17">
       <c r="A33" s="20" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B33" s="21" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="17">
       <c r="A34" s="20" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B34" s="21" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="17">
       <c r="A35" s="20" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B35" s="21" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="25" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B36" s="24" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="25" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B37" s="24" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="25" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B38" s="24" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="25" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B39" s="24" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="25" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B40" s="24" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="25" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B41" s="24" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="25" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B42" s="21" t="s">
         <v>29</v>
@@ -3160,7 +3173,7 @@
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="25" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B43" s="21" t="s">
         <v>30</v>
@@ -3168,7 +3181,7 @@
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="25" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B44" s="21" t="s">
         <v>34</v>
@@ -3176,7 +3189,7 @@
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="25" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B45" s="21" t="s">
         <v>35</v>
@@ -3184,7 +3197,7 @@
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="25" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B46" s="21" t="s">
         <v>36</v>
@@ -3192,7 +3205,7 @@
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="25" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B47" s="21" t="s">
         <v>37</v>
@@ -3200,66 +3213,66 @@
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="25" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B48" s="21" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="25" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B49" s="21" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="25" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B50" s="21" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="25" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B51" s="21" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="26" t="s">
+        <v>177</v>
+      </c>
+      <c r="B52" s="21" t="s">
         <v>178</v>
-      </c>
-      <c r="B52" s="21" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="17">
       <c r="A53" s="20" t="s">
+        <v>179</v>
+      </c>
+      <c r="B53" s="27" t="s">
         <v>180</v>
-      </c>
-      <c r="B53" s="27" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="25" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B54" s="27" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="25" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B55" s="21" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
   </sheetData>

--- a/data-raw/Data_summaryforpackage.xlsx
+++ b/data-raw/Data_summaryforpackage.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xutaowang/Desktop/curatedTBData/data-raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D48D0932-A7CE-8E49-BD5B-E1D3EA7A7C25}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B455512-C059-5A43-876A-92CD9F1561A7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3200" yWindow="3960" windowWidth="27920" windowHeight="16320" xr2:uid="{B39B7F83-2537-C248-AAB4-54D9192DC10F}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="187">
   <si>
     <t>GEO accession</t>
   </si>
@@ -301,9 +301,6 @@
   </si>
   <si>
     <t>30-40</t>
-  </si>
-  <si>
-    <t>GSE40553**</t>
   </si>
   <si>
     <t xml:space="preserve">UK, South Afirca
@@ -1185,9 +1182,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{715BD991-25C2-914C-95C3-220CF25B2F79}">
   <dimension ref="A1:N44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P40" sqref="P40"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1223,7 +1220,7 @@
         <v>6</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="I1" s="6" t="s">
         <v>7</v>
@@ -1232,7 +1229,7 @@
         <v>16</v>
       </c>
       <c r="K1" s="6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="L1" s="6" t="s">
         <v>8</v>
@@ -1241,7 +1238,7 @@
         <v>9</v>
       </c>
       <c r="N1" s="6" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="69" customHeight="1">
@@ -1277,12 +1274,12 @@
         <v>39</v>
       </c>
       <c r="N2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="70" customHeight="1">
       <c r="A3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B3" t="s">
         <v>11</v>
@@ -1313,12 +1310,12 @@
         <v>46</v>
       </c>
       <c r="N3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="63" customHeight="1">
       <c r="A4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B4" t="s">
         <v>11</v>
@@ -1346,12 +1343,12 @@
         <v>47</v>
       </c>
       <c r="N4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B5" t="s">
         <v>17</v>
@@ -1385,30 +1382,30 @@
         <v>39</v>
       </c>
       <c r="N5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="34">
       <c r="A6" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="B6" t="s">
         <v>109</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>110</v>
-      </c>
-      <c r="C6" t="s">
-        <v>111</v>
       </c>
       <c r="D6" t="s">
         <v>19</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F6" t="s">
         <v>15</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H6">
         <v>9</v>
@@ -1424,30 +1421,30 @@
         <v>27</v>
       </c>
       <c r="N6" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="119">
       <c r="A7" s="12" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B7" t="s">
+        <v>101</v>
+      </c>
+      <c r="C7" s="10" t="s">
         <v>102</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>103</v>
       </c>
       <c r="D7" t="s">
         <v>26</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F7" t="s">
         <v>15</v>
       </c>
       <c r="G7" s="12" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H7" s="13"/>
       <c r="I7" s="13">
@@ -1462,15 +1459,15 @@
         <v>428</v>
       </c>
       <c r="M7" s="14" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="N7" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="170">
       <c r="A8" s="18" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B8" t="s">
         <v>24</v>
@@ -1501,15 +1498,15 @@
         <v>264</v>
       </c>
       <c r="M8" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="N8" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="102">
       <c r="A9" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B9" t="s">
         <v>24</v>
@@ -1522,7 +1519,7 @@
         <v>15</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H9">
         <v>35</v>
@@ -1538,15 +1535,15 @@
         <v>446</v>
       </c>
       <c r="M9" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="N9" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="51">
       <c r="A10" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B10" t="s">
         <v>25</v>
@@ -1580,12 +1577,12 @@
         <v>33</v>
       </c>
       <c r="N10" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="51">
       <c r="A11" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B11" t="s">
         <v>25</v>
@@ -1619,12 +1616,12 @@
         <v>45</v>
       </c>
       <c r="N11" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="12" spans="1:14" ht="62" customHeight="1">
       <c r="A12" s="18" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B12" t="s">
         <v>25</v>
@@ -1655,15 +1652,15 @@
         <v>138</v>
       </c>
       <c r="M12" s="17" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="N12" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="13" spans="1:14" ht="49" customHeight="1">
       <c r="A13" s="18" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B13" t="s">
         <v>25</v>
@@ -1697,33 +1694,33 @@
         <v>175</v>
       </c>
       <c r="M13" s="17" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="N13" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="14" spans="1:14" ht="49" customHeight="1">
       <c r="A14" s="5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B14" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C14" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D14" t="s">
         <v>26</v>
       </c>
       <c r="E14" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F14" t="s">
         <v>15</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I14">
         <v>16</v>
@@ -1737,12 +1734,12 @@
       </c>
       <c r="M14" s="4"/>
       <c r="N14" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="15" spans="1:14" ht="49" customHeight="1">
       <c r="A15" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B15" t="s">
         <v>24</v>
@@ -1757,7 +1754,7 @@
         <v>83</v>
       </c>
       <c r="G15" s="16" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J15">
         <v>17</v>
@@ -1770,30 +1767,30 @@
         <v>33</v>
       </c>
       <c r="M15" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="N15" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="16" spans="1:14" ht="49" customHeight="1">
       <c r="A16" s="17" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B16" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C16" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D16" t="s">
         <v>12</v>
       </c>
       <c r="F16" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="I16">
         <v>37</v>
@@ -1806,10 +1803,10 @@
         <v>51</v>
       </c>
       <c r="M16" s="17" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="N16" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1832,7 +1829,7 @@
         <v>15</v>
       </c>
       <c r="G17" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H17">
         <v>12</v>
@@ -1848,7 +1845,7 @@
         <v>54</v>
       </c>
       <c r="N17" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1871,7 +1868,7 @@
         <v>15</v>
       </c>
       <c r="G18" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H18">
         <v>16</v>
@@ -1884,7 +1881,7 @@
         <v>44</v>
       </c>
       <c r="N18" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="19" spans="1:14" ht="86" customHeight="1">
@@ -1907,7 +1904,7 @@
         <v>15</v>
       </c>
       <c r="G19" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="I19">
         <v>31</v>
@@ -1923,7 +1920,7 @@
         <v>38</v>
       </c>
       <c r="N19" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1946,7 +1943,7 @@
         <v>15</v>
       </c>
       <c r="G20" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H20">
         <v>12</v>
@@ -1962,7 +1959,7 @@
         <v>42</v>
       </c>
       <c r="N20" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="21" spans="1:14" ht="86" customHeight="1">
@@ -1982,7 +1979,7 @@
         <v>15</v>
       </c>
       <c r="G21" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H21">
         <v>12</v>
@@ -1998,7 +1995,7 @@
         <v>42</v>
       </c>
       <c r="N21" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="22" spans="1:14" ht="102">
@@ -2018,7 +2015,7 @@
         <v>15</v>
       </c>
       <c r="G22" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H22">
         <v>81</v>
@@ -2034,7 +2031,7 @@
         <v>48</v>
       </c>
       <c r="N22" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="23" spans="1:14" ht="69" customHeight="1">
@@ -2073,7 +2070,7 @@
         <v>79</v>
       </c>
       <c r="N23" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -2115,7 +2112,7 @@
         <v>74</v>
       </c>
       <c r="N24" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="25" spans="1:14" ht="34">
@@ -2126,7 +2123,7 @@
         <v>69</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D25" t="s">
         <v>26</v>
@@ -2157,7 +2154,7 @@
         <v>74</v>
       </c>
       <c r="N25" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="26" spans="1:14" ht="51">
@@ -2193,7 +2190,7 @@
         <v>84</v>
       </c>
       <c r="N26" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="27" spans="1:14">
@@ -2226,7 +2223,7 @@
         <v>44</v>
       </c>
       <c r="N27" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="28" spans="1:14">
@@ -2265,18 +2262,18 @@
         <v>537</v>
       </c>
       <c r="N28" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="29" spans="1:14" ht="113" customHeight="1">
       <c r="A29" s="5" t="s">
-        <v>86</v>
+        <v>164</v>
       </c>
       <c r="B29" t="s">
         <v>69</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D29" t="s">
         <v>26</v>
@@ -2292,15 +2289,15 @@
         <v>75</v>
       </c>
       <c r="M29" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="N29" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="30" spans="1:14" ht="68">
       <c r="A30" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B30" t="s">
         <v>69</v>
@@ -2334,15 +2331,15 @@
         <v>42</v>
       </c>
       <c r="M30" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="N30" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="31" spans="1:14" ht="85">
       <c r="A31" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B31" t="s">
         <v>69</v>
@@ -2376,15 +2373,15 @@
         <v>102</v>
       </c>
       <c r="M31" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="N31" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="32" spans="1:14" ht="17">
       <c r="A32" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B32" t="s">
         <v>69</v>
@@ -2412,15 +2409,15 @@
         <v>27</v>
       </c>
       <c r="M32" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="N32" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="33" spans="1:14" ht="85">
       <c r="A33" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B33" t="s">
         <v>69</v>
@@ -2454,15 +2451,15 @@
         <v>95</v>
       </c>
       <c r="M33" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="N33" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="34" spans="1:14" ht="17">
       <c r="A34" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B34" t="s">
         <v>69</v>
@@ -2490,15 +2487,15 @@
         <v>17</v>
       </c>
       <c r="M34" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="N34" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="35" spans="1:14" ht="51">
       <c r="A35" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B35" t="s">
         <v>69</v>
@@ -2507,7 +2504,7 @@
         <v>62</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E35" t="s">
         <v>20</v>
@@ -2532,30 +2529,30 @@
         <v>90</v>
       </c>
       <c r="M35" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="N35" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="36" spans="1:14" ht="34">
       <c r="A36" s="5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B36" t="s">
         <v>69</v>
       </c>
       <c r="C36" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D36" t="s">
         <v>26</v>
       </c>
       <c r="E36" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F36" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G36" t="s">
         <v>23</v>
@@ -2574,10 +2571,10 @@
         <v>110</v>
       </c>
       <c r="M36" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="N36" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="37" spans="1:14" ht="51">
@@ -2616,7 +2613,7 @@
         <v>108</v>
       </c>
       <c r="N37" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="38" spans="1:14">
@@ -2652,7 +2649,7 @@
         <v>44</v>
       </c>
       <c r="N38" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="39" spans="1:14">
@@ -2685,7 +2682,7 @@
         <v>42</v>
       </c>
       <c r="N39" s="28" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="40" spans="1:14" ht="85">
@@ -2696,7 +2693,7 @@
         <v>58</v>
       </c>
       <c r="C40" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D40" t="s">
         <v>26</v>
@@ -2715,10 +2712,10 @@
         <v>189</v>
       </c>
       <c r="M40" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="N40" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="41" spans="1:14" ht="68">
@@ -2735,7 +2732,7 @@
         <v>15</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H41">
         <v>36</v>
@@ -2751,18 +2748,18 @@
         <v>72</v>
       </c>
       <c r="M41" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="N41" s="28" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="42" spans="1:14">
       <c r="A42" t="s">
+        <v>114</v>
+      </c>
+      <c r="B42" t="s">
         <v>115</v>
-      </c>
-      <c r="B42" t="s">
-        <v>116</v>
       </c>
       <c r="D42" t="s">
         <v>26</v>
@@ -2783,12 +2780,12 @@
       </c>
       <c r="M42" s="4"/>
       <c r="N42" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="43" spans="1:14">
       <c r="A43" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B43" t="s">
         <v>54</v>
@@ -2809,7 +2806,7 @@
       </c>
       <c r="M43" s="4"/>
       <c r="N43" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="44" spans="1:14">
@@ -2837,15 +2834,15 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B1" t="s">
         <v>159</v>
-      </c>
-      <c r="B1" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17">
       <c r="A2" s="20" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B2" s="21" t="s">
         <v>67</v>
@@ -2853,7 +2850,7 @@
     </row>
     <row r="3" spans="1:2" ht="17">
       <c r="A3" s="20" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B3" s="21" t="s">
         <v>68</v>
@@ -2861,7 +2858,7 @@
     </row>
     <row r="4" spans="1:2" ht="17">
       <c r="A4" s="20" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B4" s="21" t="s">
         <v>29</v>
@@ -2869,7 +2866,7 @@
     </row>
     <row r="5" spans="1:2" ht="17">
       <c r="A5" s="20" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B5" s="21" t="s">
         <v>30</v>
@@ -2877,7 +2874,7 @@
     </row>
     <row r="6" spans="1:2" ht="17">
       <c r="A6" s="20" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B6" s="21" t="s">
         <v>34</v>
@@ -2885,15 +2882,15 @@
     </row>
     <row r="7" spans="1:2" ht="17">
       <c r="A7" s="20" t="s">
+        <v>161</v>
+      </c>
+      <c r="B7" s="21" t="s">
         <v>162</v>
-      </c>
-      <c r="B7" s="21" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="17">
       <c r="A8" s="20" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B8" s="21" t="s">
         <v>36</v>
@@ -2901,7 +2898,7 @@
     </row>
     <row r="9" spans="1:2" ht="17">
       <c r="A9" s="20" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B9" s="21" t="s">
         <v>37</v>
@@ -2909,7 +2906,7 @@
     </row>
     <row r="10" spans="1:2" ht="17">
       <c r="A10" s="22" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B10" s="21" t="s">
         <v>10</v>
@@ -2917,23 +2914,23 @@
     </row>
     <row r="11" spans="1:2" ht="17">
       <c r="A11" s="22" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B11" s="21" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="17">
       <c r="A12" s="22" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B12" s="21" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="17">
       <c r="A13" s="22" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B13" s="21" t="s">
         <v>80</v>
@@ -2941,15 +2938,15 @@
     </row>
     <row r="14" spans="1:2" ht="17">
       <c r="A14" s="22" t="s">
+        <v>163</v>
+      </c>
+      <c r="B14" s="21" t="s">
         <v>164</v>
-      </c>
-      <c r="B14" s="21" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="17">
       <c r="A15" s="22" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B15" s="21" t="s">
         <v>75</v>
@@ -2957,7 +2954,7 @@
     </row>
     <row r="16" spans="1:2" ht="17">
       <c r="A16" s="22" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B16" s="21" t="s">
         <v>53</v>
@@ -2965,7 +2962,7 @@
     </row>
     <row r="17" spans="1:2" ht="17">
       <c r="A17" s="22" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B17" s="21" t="s">
         <v>51</v>
@@ -2973,55 +2970,55 @@
     </row>
     <row r="18" spans="1:2" ht="17">
       <c r="A18" s="23" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B18" s="24" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="17">
       <c r="A19" s="23" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B19" s="24" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="17">
       <c r="A20" s="23" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B20" s="24" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="17">
       <c r="A21" s="23" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B21" s="24" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="17">
       <c r="A22" s="23" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B22" s="24" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="17">
       <c r="A23" s="23" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B23" s="24" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="17">
       <c r="A24" s="20" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B24" s="21" t="s">
         <v>81</v>
@@ -3029,7 +3026,7 @@
     </row>
     <row r="25" spans="1:2" ht="17">
       <c r="A25" s="20" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B25" s="21" t="s">
         <v>65</v>
@@ -3037,7 +3034,7 @@
     </row>
     <row r="26" spans="1:2" ht="17">
       <c r="A26" s="20" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B26" s="21" t="s">
         <v>55</v>
@@ -3045,15 +3042,15 @@
     </row>
     <row r="27" spans="1:2" ht="17">
       <c r="A27" s="20" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B27" s="21" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="17">
       <c r="A28" s="20" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B28" s="21" t="s">
         <v>57</v>
@@ -3061,23 +3058,23 @@
     </row>
     <row r="29" spans="1:2" ht="17">
       <c r="A29" s="20" t="s">
+        <v>170</v>
+      </c>
+      <c r="B29" s="21" t="s">
         <v>171</v>
-      </c>
-      <c r="B29" s="21" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="17">
       <c r="A30" s="20" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B30" s="21" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="17">
       <c r="A31" s="20" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B31" s="21" t="s">
         <v>82</v>
@@ -3085,87 +3082,87 @@
     </row>
     <row r="32" spans="1:2" ht="17">
       <c r="A32" s="20" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B32" s="21" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="17">
       <c r="A33" s="20" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B33" s="21" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="17">
       <c r="A34" s="20" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B34" s="21" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="17">
       <c r="A35" s="20" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B35" s="21" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="25" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B36" s="24" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="25" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B37" s="24" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="25" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B38" s="24" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="25" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B39" s="24" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="25" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B40" s="24" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="25" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B41" s="24" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="25" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B42" s="21" t="s">
         <v>29</v>
@@ -3173,7 +3170,7 @@
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="25" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B43" s="21" t="s">
         <v>30</v>
@@ -3181,7 +3178,7 @@
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="25" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B44" s="21" t="s">
         <v>34</v>
@@ -3189,7 +3186,7 @@
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="25" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B45" s="21" t="s">
         <v>35</v>
@@ -3197,7 +3194,7 @@
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="25" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B46" s="21" t="s">
         <v>36</v>
@@ -3205,7 +3202,7 @@
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="25" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B47" s="21" t="s">
         <v>37</v>
@@ -3213,15 +3210,15 @@
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="25" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B48" s="21" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="25" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B49" s="21" t="s">
         <v>80</v>
@@ -3229,50 +3226,50 @@
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="25" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B50" s="21" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="25" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B51" s="21" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="26" t="s">
+        <v>176</v>
+      </c>
+      <c r="B52" s="21" t="s">
         <v>177</v>
-      </c>
-      <c r="B52" s="21" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="17">
       <c r="A53" s="20" t="s">
+        <v>178</v>
+      </c>
+      <c r="B53" s="27" t="s">
         <v>179</v>
-      </c>
-      <c r="B53" s="27" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="25" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B54" s="27" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="25" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B55" s="21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
   </sheetData>

--- a/data-raw/Data_summaryforpackage.xlsx
+++ b/data-raw/Data_summaryforpackage.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xutaowang/Desktop/curatedTBData/data-raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B455512-C059-5A43-876A-92CD9F1561A7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BF0A0FB-67B0-2341-9B5E-4D467CBC0188}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3200" yWindow="3960" windowWidth="27920" windowHeight="16320" xr2:uid="{B39B7F83-2537-C248-AAB4-54D9192DC10F}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="188">
   <si>
     <t>GEO accession</t>
   </si>
@@ -635,6 +635,9 @@
   </si>
   <si>
     <t>Agilent Microarray - TwoColor</t>
+  </si>
+  <si>
+    <t>All Positive</t>
   </si>
 </sst>
 </file>
@@ -1184,7 +1187,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A29" sqref="A29"/>
+      <selection pane="bottomLeft" activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2174,7 +2177,7 @@
         <v>20</v>
       </c>
       <c r="F26" s="15" t="s">
-        <v>83</v>
+        <v>187</v>
       </c>
       <c r="I26">
         <v>25</v>
@@ -2210,7 +2213,7 @@
         <v>85</v>
       </c>
       <c r="F27" s="15" t="s">
-        <v>83</v>
+        <v>187</v>
       </c>
       <c r="I27">
         <v>21</v>

--- a/data-raw/Data_summaryforpackage.xlsx
+++ b/data-raw/Data_summaryforpackage.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10510"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10614"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xutaowang/Desktop/curatedTBData/data-raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BF0A0FB-67B0-2341-9B5E-4D467CBC0188}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7ED6150-81C8-AB46-94F6-D6D853541461}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3200" yWindow="3960" windowWidth="27920" windowHeight="16320" xr2:uid="{B39B7F83-2537-C248-AAB4-54D9192DC10F}"/>
+    <workbookView xWindow="2020" yWindow="1200" windowWidth="27920" windowHeight="16320" xr2:uid="{B39B7F83-2537-C248-AAB4-54D9192DC10F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="189">
   <si>
     <t>GEO accession</t>
   </si>
@@ -638,6 +638,9 @@
   </si>
   <si>
     <t>All Positive</t>
+  </si>
+  <si>
+    <t>Sputum culture/ Sputum Smears</t>
   </si>
 </sst>
 </file>
@@ -1186,8 +1189,8 @@
   <dimension ref="A1:N44"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G26" sqref="G26"/>
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1488,7 +1491,7 @@
         <v>15</v>
       </c>
       <c r="G8" t="s">
-        <v>23</v>
+        <v>188</v>
       </c>
       <c r="I8">
         <v>166</v>

--- a/data-raw/Data_summaryforpackage.xlsx
+++ b/data-raw/Data_summaryforpackage.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xutaowang/Desktop/curatedTBData/data-raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7ED6150-81C8-AB46-94F6-D6D853541461}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B41A95AD-0220-5442-81FE-ED09934F0EE3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2020" yWindow="1200" windowWidth="27920" windowHeight="16320" xr2:uid="{B39B7F83-2537-C248-AAB4-54D9192DC10F}"/>
+    <workbookView xWindow="2020" yWindow="460" windowWidth="27920" windowHeight="16320" xr2:uid="{B39B7F83-2537-C248-AAB4-54D9192DC10F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -365,9 +365,6 @@
     <t>10-18</t>
   </si>
   <si>
-    <t>IGRA+, TST+</t>
-  </si>
-  <si>
     <t xml:space="preserve">
 Use normalized reads, unable to find gene annotation information from raw counts</t>
   </si>
@@ -641,6 +638,9 @@
   </si>
   <si>
     <t>Sputum culture/ Sputum Smears</t>
+  </si>
+  <si>
+    <t>Sputum culture/ Smear microscopy/ Clinical signs</t>
   </si>
 </sst>
 </file>
@@ -1190,7 +1190,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G8" sqref="G8"/>
+      <selection pane="bottomLeft" activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1226,7 +1226,7 @@
         <v>6</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I1" s="6" t="s">
         <v>7</v>
@@ -1235,7 +1235,7 @@
         <v>16</v>
       </c>
       <c r="K1" s="6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="L1" s="6" t="s">
         <v>8</v>
@@ -1244,7 +1244,7 @@
         <v>9</v>
       </c>
       <c r="N1" s="6" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="69" customHeight="1">
@@ -1280,12 +1280,12 @@
         <v>39</v>
       </c>
       <c r="N2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="70" customHeight="1">
       <c r="A3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B3" t="s">
         <v>11</v>
@@ -1316,12 +1316,12 @@
         <v>46</v>
       </c>
       <c r="N3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="63" customHeight="1">
       <c r="A4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B4" t="s">
         <v>11</v>
@@ -1349,12 +1349,12 @@
         <v>47</v>
       </c>
       <c r="N4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B5" t="s">
         <v>17</v>
@@ -1388,30 +1388,30 @@
         <v>39</v>
       </c>
       <c r="N5" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="34">
       <c r="A6" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="B6" t="s">
         <v>108</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>109</v>
-      </c>
-      <c r="C6" t="s">
-        <v>110</v>
       </c>
       <c r="D6" t="s">
         <v>19</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F6" t="s">
         <v>15</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H6">
         <v>9</v>
@@ -1427,12 +1427,12 @@
         <v>27</v>
       </c>
       <c r="N6" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="119">
       <c r="A7" s="12" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B7" t="s">
         <v>101</v>
@@ -1450,7 +1450,7 @@
         <v>15</v>
       </c>
       <c r="G7" s="12" t="s">
-        <v>104</v>
+        <v>188</v>
       </c>
       <c r="H7" s="13"/>
       <c r="I7" s="13">
@@ -1465,15 +1465,15 @@
         <v>428</v>
       </c>
       <c r="M7" s="14" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="N7" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="170">
       <c r="A8" s="18" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B8" t="s">
         <v>24</v>
@@ -1491,7 +1491,7 @@
         <v>15</v>
       </c>
       <c r="G8" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="I8">
         <v>166</v>
@@ -1504,15 +1504,15 @@
         <v>264</v>
       </c>
       <c r="M8" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="N8" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="102">
       <c r="A9" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B9" t="s">
         <v>24</v>
@@ -1525,7 +1525,7 @@
         <v>15</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H9">
         <v>35</v>
@@ -1541,15 +1541,15 @@
         <v>446</v>
       </c>
       <c r="M9" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="N9" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="51">
       <c r="A10" s="5" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B10" t="s">
         <v>25</v>
@@ -1583,12 +1583,12 @@
         <v>33</v>
       </c>
       <c r="N10" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="51">
       <c r="A11" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B11" t="s">
         <v>25</v>
@@ -1622,12 +1622,12 @@
         <v>45</v>
       </c>
       <c r="N11" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="12" spans="1:14" ht="62" customHeight="1">
       <c r="A12" s="18" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B12" t="s">
         <v>25</v>
@@ -1658,15 +1658,15 @@
         <v>138</v>
       </c>
       <c r="M12" s="17" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="N12" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="13" spans="1:14" ht="49" customHeight="1">
       <c r="A13" s="18" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B13" t="s">
         <v>25</v>
@@ -1700,33 +1700,33 @@
         <v>175</v>
       </c>
       <c r="M13" s="17" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="N13" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="14" spans="1:14" ht="49" customHeight="1">
       <c r="A14" s="5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B14" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C14" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D14" t="s">
         <v>26</v>
       </c>
       <c r="E14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F14" t="s">
         <v>15</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I14">
         <v>16</v>
@@ -1740,12 +1740,12 @@
       </c>
       <c r="M14" s="4"/>
       <c r="N14" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="15" spans="1:14" ht="49" customHeight="1">
       <c r="A15" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B15" t="s">
         <v>24</v>
@@ -1760,7 +1760,7 @@
         <v>83</v>
       </c>
       <c r="G15" s="16" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J15">
         <v>17</v>
@@ -1773,30 +1773,30 @@
         <v>33</v>
       </c>
       <c r="M15" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="N15" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="16" spans="1:14" ht="49" customHeight="1">
       <c r="A16" s="17" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B16" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C16" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D16" t="s">
         <v>12</v>
       </c>
       <c r="F16" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="I16">
         <v>37</v>
@@ -1809,10 +1809,10 @@
         <v>51</v>
       </c>
       <c r="M16" s="17" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="N16" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1835,7 +1835,7 @@
         <v>15</v>
       </c>
       <c r="G17" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H17">
         <v>12</v>
@@ -1851,7 +1851,7 @@
         <v>54</v>
       </c>
       <c r="N17" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1874,7 +1874,7 @@
         <v>15</v>
       </c>
       <c r="G18" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H18">
         <v>16</v>
@@ -1887,7 +1887,7 @@
         <v>44</v>
       </c>
       <c r="N18" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="19" spans="1:14" ht="86" customHeight="1">
@@ -1910,7 +1910,7 @@
         <v>15</v>
       </c>
       <c r="G19" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="I19">
         <v>31</v>
@@ -1926,7 +1926,7 @@
         <v>38</v>
       </c>
       <c r="N19" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1949,7 +1949,7 @@
         <v>15</v>
       </c>
       <c r="G20" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H20">
         <v>12</v>
@@ -1965,7 +1965,7 @@
         <v>42</v>
       </c>
       <c r="N20" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="21" spans="1:14" ht="86" customHeight="1">
@@ -1985,7 +1985,7 @@
         <v>15</v>
       </c>
       <c r="G21" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H21">
         <v>12</v>
@@ -2001,7 +2001,7 @@
         <v>42</v>
       </c>
       <c r="N21" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="22" spans="1:14" ht="102">
@@ -2021,7 +2021,7 @@
         <v>15</v>
       </c>
       <c r="G22" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H22">
         <v>81</v>
@@ -2037,7 +2037,7 @@
         <v>48</v>
       </c>
       <c r="N22" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="23" spans="1:14" ht="69" customHeight="1">
@@ -2076,7 +2076,7 @@
         <v>79</v>
       </c>
       <c r="N23" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -2118,7 +2118,7 @@
         <v>74</v>
       </c>
       <c r="N24" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="25" spans="1:14" ht="34">
@@ -2129,7 +2129,7 @@
         <v>69</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D25" t="s">
         <v>26</v>
@@ -2160,7 +2160,7 @@
         <v>74</v>
       </c>
       <c r="N25" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="26" spans="1:14" ht="51">
@@ -2180,7 +2180,7 @@
         <v>20</v>
       </c>
       <c r="F26" s="15" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="I26">
         <v>25</v>
@@ -2196,7 +2196,7 @@
         <v>84</v>
       </c>
       <c r="N26" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="27" spans="1:14">
@@ -2216,7 +2216,7 @@
         <v>85</v>
       </c>
       <c r="F27" s="15" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="I27">
         <v>21</v>
@@ -2229,7 +2229,7 @@
         <v>44</v>
       </c>
       <c r="N27" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="28" spans="1:14">
@@ -2268,12 +2268,12 @@
         <v>537</v>
       </c>
       <c r="N28" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="29" spans="1:14" ht="113" customHeight="1">
       <c r="A29" s="5" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B29" t="s">
         <v>69</v>
@@ -2298,7 +2298,7 @@
         <v>87</v>
       </c>
       <c r="N29" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="30" spans="1:14" ht="68">
@@ -2340,7 +2340,7 @@
         <v>94</v>
       </c>
       <c r="N30" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="31" spans="1:14" ht="85">
@@ -2382,7 +2382,7 @@
         <v>95</v>
       </c>
       <c r="N31" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="32" spans="1:14" ht="17">
@@ -2418,7 +2418,7 @@
         <v>96</v>
       </c>
       <c r="N32" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="33" spans="1:14" ht="85">
@@ -2460,7 +2460,7 @@
         <v>97</v>
       </c>
       <c r="N33" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="34" spans="1:14" ht="17">
@@ -2496,7 +2496,7 @@
         <v>96</v>
       </c>
       <c r="N34" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="35" spans="1:14" ht="51">
@@ -2535,15 +2535,15 @@
         <v>90</v>
       </c>
       <c r="M35" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="N35" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="36" spans="1:14" ht="34">
       <c r="A36" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B36" t="s">
         <v>69</v>
@@ -2555,10 +2555,10 @@
         <v>26</v>
       </c>
       <c r="E36" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F36" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G36" t="s">
         <v>23</v>
@@ -2577,10 +2577,10 @@
         <v>110</v>
       </c>
       <c r="M36" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="N36" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="37" spans="1:14" ht="51">
@@ -2619,7 +2619,7 @@
         <v>108</v>
       </c>
       <c r="N37" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="38" spans="1:14">
@@ -2655,7 +2655,7 @@
         <v>44</v>
       </c>
       <c r="N38" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="39" spans="1:14">
@@ -2688,7 +2688,7 @@
         <v>42</v>
       </c>
       <c r="N39" s="28" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="40" spans="1:14" ht="85">
@@ -2718,10 +2718,10 @@
         <v>189</v>
       </c>
       <c r="M40" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="N40" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="41" spans="1:14" ht="68">
@@ -2754,18 +2754,18 @@
         <v>72</v>
       </c>
       <c r="M41" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="N41" s="28" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="42" spans="1:14">
       <c r="A42" t="s">
+        <v>113</v>
+      </c>
+      <c r="B42" t="s">
         <v>114</v>
-      </c>
-      <c r="B42" t="s">
-        <v>115</v>
       </c>
       <c r="D42" t="s">
         <v>26</v>
@@ -2786,12 +2786,12 @@
       </c>
       <c r="M42" s="4"/>
       <c r="N42" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="43" spans="1:14">
       <c r="A43" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B43" t="s">
         <v>54</v>
@@ -2812,7 +2812,7 @@
       </c>
       <c r="M43" s="4"/>
       <c r="N43" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="44" spans="1:14">
@@ -2840,15 +2840,15 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B1" t="s">
         <v>158</v>
-      </c>
-      <c r="B1" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17">
       <c r="A2" s="20" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B2" s="21" t="s">
         <v>67</v>
@@ -2856,7 +2856,7 @@
     </row>
     <row r="3" spans="1:2" ht="17">
       <c r="A3" s="20" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B3" s="21" t="s">
         <v>68</v>
@@ -2864,7 +2864,7 @@
     </row>
     <row r="4" spans="1:2" ht="17">
       <c r="A4" s="20" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B4" s="21" t="s">
         <v>29</v>
@@ -2872,7 +2872,7 @@
     </row>
     <row r="5" spans="1:2" ht="17">
       <c r="A5" s="20" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B5" s="21" t="s">
         <v>30</v>
@@ -2880,7 +2880,7 @@
     </row>
     <row r="6" spans="1:2" ht="17">
       <c r="A6" s="20" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B6" s="21" t="s">
         <v>34</v>
@@ -2888,15 +2888,15 @@
     </row>
     <row r="7" spans="1:2" ht="17">
       <c r="A7" s="20" t="s">
+        <v>160</v>
+      </c>
+      <c r="B7" s="21" t="s">
         <v>161</v>
-      </c>
-      <c r="B7" s="21" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="17">
       <c r="A8" s="20" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B8" s="21" t="s">
         <v>36</v>
@@ -2904,7 +2904,7 @@
     </row>
     <row r="9" spans="1:2" ht="17">
       <c r="A9" s="20" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B9" s="21" t="s">
         <v>37</v>
@@ -2912,7 +2912,7 @@
     </row>
     <row r="10" spans="1:2" ht="17">
       <c r="A10" s="22" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B10" s="21" t="s">
         <v>10</v>
@@ -2920,23 +2920,23 @@
     </row>
     <row r="11" spans="1:2" ht="17">
       <c r="A11" s="22" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B11" s="21" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="17">
       <c r="A12" s="22" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B12" s="21" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="17">
       <c r="A13" s="22" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B13" s="21" t="s">
         <v>80</v>
@@ -2944,15 +2944,15 @@
     </row>
     <row r="14" spans="1:2" ht="17">
       <c r="A14" s="22" t="s">
+        <v>162</v>
+      </c>
+      <c r="B14" s="21" t="s">
         <v>163</v>
-      </c>
-      <c r="B14" s="21" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="17">
       <c r="A15" s="22" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B15" s="21" t="s">
         <v>75</v>
@@ -2960,7 +2960,7 @@
     </row>
     <row r="16" spans="1:2" ht="17">
       <c r="A16" s="22" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B16" s="21" t="s">
         <v>53</v>
@@ -2968,7 +2968,7 @@
     </row>
     <row r="17" spans="1:2" ht="17">
       <c r="A17" s="22" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B17" s="21" t="s">
         <v>51</v>
@@ -2976,7 +2976,7 @@
     </row>
     <row r="18" spans="1:2" ht="17">
       <c r="A18" s="23" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B18" s="24" t="s">
         <v>88</v>
@@ -2984,7 +2984,7 @@
     </row>
     <row r="19" spans="1:2" ht="17">
       <c r="A19" s="23" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B19" s="24" t="s">
         <v>89</v>
@@ -2992,7 +2992,7 @@
     </row>
     <row r="20" spans="1:2" ht="17">
       <c r="A20" s="23" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B20" s="24" t="s">
         <v>90</v>
@@ -3000,7 +3000,7 @@
     </row>
     <row r="21" spans="1:2" ht="17">
       <c r="A21" s="23" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B21" s="24" t="s">
         <v>91</v>
@@ -3008,7 +3008,7 @@
     </row>
     <row r="22" spans="1:2" ht="17">
       <c r="A22" s="23" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B22" s="24" t="s">
         <v>92</v>
@@ -3016,7 +3016,7 @@
     </row>
     <row r="23" spans="1:2" ht="17">
       <c r="A23" s="23" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B23" s="24" t="s">
         <v>93</v>
@@ -3024,7 +3024,7 @@
     </row>
     <row r="24" spans="1:2" ht="17">
       <c r="A24" s="20" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B24" s="21" t="s">
         <v>81</v>
@@ -3032,7 +3032,7 @@
     </row>
     <row r="25" spans="1:2" ht="17">
       <c r="A25" s="20" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B25" s="21" t="s">
         <v>65</v>
@@ -3040,7 +3040,7 @@
     </row>
     <row r="26" spans="1:2" ht="17">
       <c r="A26" s="20" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B26" s="21" t="s">
         <v>55</v>
@@ -3048,15 +3048,15 @@
     </row>
     <row r="27" spans="1:2" ht="17">
       <c r="A27" s="20" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B27" s="21" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="17">
       <c r="A28" s="20" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B28" s="21" t="s">
         <v>57</v>
@@ -3064,23 +3064,23 @@
     </row>
     <row r="29" spans="1:2" ht="17">
       <c r="A29" s="20" t="s">
+        <v>169</v>
+      </c>
+      <c r="B29" s="21" t="s">
         <v>170</v>
-      </c>
-      <c r="B29" s="21" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="17">
       <c r="A30" s="20" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B30" s="21" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="17">
       <c r="A31" s="20" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B31" s="21" t="s">
         <v>82</v>
@@ -3088,39 +3088,39 @@
     </row>
     <row r="32" spans="1:2" ht="17">
       <c r="A32" s="20" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B32" s="21" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="17">
       <c r="A33" s="20" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B33" s="21" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="17">
       <c r="A34" s="20" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B34" s="21" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="17">
       <c r="A35" s="20" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B35" s="21" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="25" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B36" s="24" t="s">
         <v>88</v>
@@ -3128,7 +3128,7 @@
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="25" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B37" s="24" t="s">
         <v>89</v>
@@ -3136,7 +3136,7 @@
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="25" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B38" s="24" t="s">
         <v>90</v>
@@ -3144,7 +3144,7 @@
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="25" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B39" s="24" t="s">
         <v>91</v>
@@ -3152,7 +3152,7 @@
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="25" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B40" s="24" t="s">
         <v>92</v>
@@ -3160,7 +3160,7 @@
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="25" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B41" s="24" t="s">
         <v>93</v>
@@ -3168,7 +3168,7 @@
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="25" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B42" s="21" t="s">
         <v>29</v>
@@ -3176,7 +3176,7 @@
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="25" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B43" s="21" t="s">
         <v>30</v>
@@ -3184,7 +3184,7 @@
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="25" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B44" s="21" t="s">
         <v>34</v>
@@ -3192,7 +3192,7 @@
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="25" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B45" s="21" t="s">
         <v>35</v>
@@ -3200,7 +3200,7 @@
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="25" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B46" s="21" t="s">
         <v>36</v>
@@ -3208,7 +3208,7 @@
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="25" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B47" s="21" t="s">
         <v>37</v>
@@ -3216,15 +3216,15 @@
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="25" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B48" s="21" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="25" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B49" s="21" t="s">
         <v>80</v>
@@ -3232,50 +3232,50 @@
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="25" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B50" s="21" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="25" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B51" s="21" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="26" t="s">
+        <v>175</v>
+      </c>
+      <c r="B52" s="21" t="s">
         <v>176</v>
-      </c>
-      <c r="B52" s="21" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="17">
       <c r="A53" s="20" t="s">
+        <v>177</v>
+      </c>
+      <c r="B53" s="27" t="s">
         <v>178</v>
-      </c>
-      <c r="B53" s="27" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="25" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B54" s="27" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="25" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B55" s="21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
   </sheetData>

--- a/data-raw/Data_summaryforpackage.xlsx
+++ b/data-raw/Data_summaryforpackage.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xutaowang/Desktop/curatedTBData/data-raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B41A95AD-0220-5442-81FE-ED09934F0EE3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{890D4A5D-46D9-9E4C-9216-E59A87167386}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2020" yWindow="460" windowWidth="27920" windowHeight="16320" xr2:uid="{B39B7F83-2537-C248-AAB4-54D9192DC10F}"/>
+    <workbookView xWindow="9340" yWindow="2140" windowWidth="27920" windowHeight="16320" xr2:uid="{B39B7F83-2537-C248-AAB4-54D9192DC10F}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="DataSummary" sheetId="1" r:id="rId1"/>
+    <sheet name="SignatureInfo" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -637,10 +637,10 @@
     <t>All Positive</t>
   </si>
   <si>
-    <t>Sputum culture/ Sputum Smears</t>
-  </si>
-  <si>
-    <t>Sputum culture/ Smear microscopy/ Clinical signs</t>
+    <t>Sputum culture, Smear microscopy, Clinical signs</t>
+  </si>
+  <si>
+    <t>Sputum culture, Sputum Smears</t>
   </si>
 </sst>
 </file>
@@ -1189,8 +1189,8 @@
   <dimension ref="A1:N44"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G7" sqref="G7"/>
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1449,8 +1449,8 @@
       <c r="F7" t="s">
         <v>15</v>
       </c>
-      <c r="G7" s="12" t="s">
-        <v>188</v>
+      <c r="G7" s="10" t="s">
+        <v>187</v>
       </c>
       <c r="H7" s="13"/>
       <c r="I7" s="13">
@@ -1490,8 +1490,8 @@
       <c r="F8" t="s">
         <v>15</v>
       </c>
-      <c r="G8" t="s">
-        <v>187</v>
+      <c r="G8" s="4" t="s">
+        <v>188</v>
       </c>
       <c r="I8">
         <v>166</v>
@@ -3051,7 +3051,7 @@
         <v>168</v>
       </c>
       <c r="B27" s="21" t="s">
-        <v>137</v>
+        <v>176</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="17">

--- a/data-raw/Data_summaryforpackage.xlsx
+++ b/data-raw/Data_summaryforpackage.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xutaowang/Desktop/curatedTBData/data-raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{890D4A5D-46D9-9E4C-9216-E59A87167386}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{525081AD-76F8-2F49-8C3B-EB38E55FD485}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9340" yWindow="2140" windowWidth="27920" windowHeight="16320" xr2:uid="{B39B7F83-2537-C248-AAB4-54D9192DC10F}"/>
+    <workbookView xWindow="3540" yWindow="4540" windowWidth="31260" windowHeight="16320" xr2:uid="{B39B7F83-2537-C248-AAB4-54D9192DC10F}"/>
   </bookViews>
   <sheets>
     <sheet name="DataSummary" sheetId="1" r:id="rId1"/>
@@ -177,14 +177,6 @@
     <t>43 of the 47 samples in this series were re-analyzed from GSE19442</t>
   </si>
   <si>
-    <t xml:space="preserve">
-These samples are from 9 successfully cured patients at diagnosis and end-of-treatment at 26 weeks (n=9)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-Ex vivo blood samples analysed at diagnosis and after 1, 2, 4 and 26 weeks of treatment (n=27).</t>
-  </si>
-  <si>
     <t xml:space="preserve">12 pediatric streptococcus, 40 pediatric staphylococcus, 31 still’s disease, 82 pediatric systemic lupus erythematosus (SLE), 28 adult SLE patients.
 </t>
   </si>
@@ -296,10 +288,6 @@
     <t>Positive</t>
   </si>
   <si>
-    <t xml:space="preserve">Data also includeed samples with subclinical TB
-</t>
-  </si>
-  <si>
     <t>30-40</t>
   </si>
   <si>
@@ -477,6 +465,152 @@
   </si>
   <si>
     <t xml:space="preserve">Longitudinal Study from Leicester cohort for control vs. non-progressor
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Some NAs in TBStatus; longitudinal study, GC6-74. Samples are collected every 6 months up to 18 months.   Latent: Non-progressor.         PTB: Progressor
+</t>
+  </si>
+  <si>
+    <t>ODs was sarcoidosis</t>
+  </si>
+  <si>
+    <t>Sputum culture etc.</t>
+  </si>
+  <si>
+    <t>GSE36238</t>
+  </si>
+  <si>
+    <t>GSE31348</t>
+  </si>
+  <si>
+    <t>GSE73408</t>
+  </si>
+  <si>
+    <t>GSE94438</t>
+  </si>
+  <si>
+    <t>GSE79362</t>
+  </si>
+  <si>
+    <t>GSE107991</t>
+  </si>
+  <si>
+    <t>GSE107992</t>
+  </si>
+  <si>
+    <t>GSE107993</t>
+  </si>
+  <si>
+    <t>GSE107994</t>
+  </si>
+  <si>
+    <t>GeneralType</t>
+  </si>
+  <si>
+    <t>Affymertirx Microarray</t>
+  </si>
+  <si>
+    <t>Illumina RNA-seq</t>
+  </si>
+  <si>
+    <t>Signature</t>
+  </si>
+  <si>
+    <t>GSE</t>
+  </si>
+  <si>
+    <t>Anderson</t>
+  </si>
+  <si>
+    <t>Berry</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GSE19439 </t>
+  </si>
+  <si>
+    <t>Blankley</t>
+  </si>
+  <si>
+    <t>GSE40553</t>
+  </si>
+  <si>
+    <t>Bloom</t>
+  </si>
+  <si>
+    <t>Esmail</t>
+  </si>
+  <si>
+    <t>Jacobsen</t>
+  </si>
+  <si>
+    <t>Lee</t>
+  </si>
+  <si>
+    <t>Leong</t>
+  </si>
+  <si>
+    <t>Maertzdorf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GSE62147 </t>
+  </si>
+  <si>
+    <t>Singhania</t>
+  </si>
+  <si>
+    <t>Sweeney</t>
+  </si>
+  <si>
+    <t>Suliman</t>
+  </si>
+  <si>
+    <t>Walter</t>
+  </si>
+  <si>
+    <t>Zak</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GSE79362 </t>
+  </si>
+  <si>
+    <t>Roe</t>
+  </si>
+  <si>
+    <t>Unable to locate GEO</t>
+  </si>
+  <si>
+    <t>Sloot</t>
+  </si>
+  <si>
+    <t>Thompson</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Agilent Microarray </t>
+  </si>
+  <si>
+    <t>Phalanx Microarray</t>
+  </si>
+  <si>
+    <t>Phalanx RT-PCR</t>
+  </si>
+  <si>
+    <t>MPIIB Microarray - Two Color</t>
+  </si>
+  <si>
+    <t>Agilent Microarray - TwoColor</t>
+  </si>
+  <si>
+    <t>All Positive</t>
+  </si>
+  <si>
+    <t>Sputum culture, Smear microscopy, Clinical signs</t>
+  </si>
+  <si>
+    <t>Sputum culture, Sputum Smears</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Data contain information about TB subtypes: active, latent,  subclinical TB
 </t>
   </si>
   <si>
@@ -486,7 +620,7 @@
         <color theme="5"/>
         <rFont val="Calibri (Body)"/>
       </rPr>
-      <t>Follow up healthy participants who were infected with M tuberculosis for 2 yrs, collected blood samples every 6 months. Not all samples are included in the raw counts (264/355), some of them are replicates. Non-progressor vs. Progressor                Adolescent Cohort Study (ACS)</t>
+      <t>Follow up healthy participants who were infected with M tuberculosis for 2 yrs, collected blood samples every 6 months.  Non-progressor vs. Progressor                Adolescent Cohort Study (ACS)</t>
     </r>
     <r>
       <rPr>
@@ -501,146 +635,12 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Some NAs in TBStatus; longitudinal study, GC6-74. Samples are collected every 6 months up to 18 months.   Latent: Non-progressor.         PTB: Progressor
-</t>
-  </si>
-  <si>
-    <t>ODs was sarcoidosis</t>
-  </si>
-  <si>
-    <t>Sputum culture etc.</t>
-  </si>
-  <si>
-    <t>GSE36238</t>
-  </si>
-  <si>
-    <t>GSE31348</t>
-  </si>
-  <si>
-    <t>GSE73408</t>
-  </si>
-  <si>
-    <t>GSE94438</t>
-  </si>
-  <si>
-    <t>GSE79362</t>
-  </si>
-  <si>
-    <t>GSE107991</t>
-  </si>
-  <si>
-    <t>GSE107992</t>
-  </si>
-  <si>
-    <t>GSE107993</t>
-  </si>
-  <si>
-    <t>GSE107994</t>
-  </si>
-  <si>
-    <t>GeneralType</t>
-  </si>
-  <si>
-    <t>Affymertirx Microarray</t>
-  </si>
-  <si>
-    <t>Illumina RNA-seq</t>
-  </si>
-  <si>
-    <t>Signature</t>
-  </si>
-  <si>
-    <t>GSE</t>
-  </si>
-  <si>
-    <t>Anderson</t>
-  </si>
-  <si>
-    <t>Berry</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GSE19439 </t>
-  </si>
-  <si>
-    <t>Blankley</t>
-  </si>
-  <si>
-    <t>GSE40553</t>
-  </si>
-  <si>
-    <t>Bloom</t>
-  </si>
-  <si>
-    <t>Esmail</t>
-  </si>
-  <si>
-    <t>Jacobsen</t>
-  </si>
-  <si>
-    <t>Lee</t>
-  </si>
-  <si>
-    <t>Leong</t>
-  </si>
-  <si>
-    <t>Maertzdorf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GSE62147 </t>
-  </si>
-  <si>
-    <t>Singhania</t>
-  </si>
-  <si>
-    <t>Sweeney</t>
-  </si>
-  <si>
-    <t>Suliman</t>
-  </si>
-  <si>
-    <t>Walter</t>
-  </si>
-  <si>
-    <t>Zak</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GSE79362 </t>
-  </si>
-  <si>
-    <t>Roe</t>
-  </si>
-  <si>
-    <t>Unable to locate GEO</t>
-  </si>
-  <si>
-    <t>Sloot</t>
-  </si>
-  <si>
-    <t>Thompson</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Agilent Microarray </t>
-  </si>
-  <si>
-    <t>Phalanx Microarray</t>
-  </si>
-  <si>
-    <t>Phalanx RT-PCR</t>
-  </si>
-  <si>
-    <t>MPIIB Microarray - Two Color</t>
-  </si>
-  <si>
-    <t>Agilent Microarray - TwoColor</t>
-  </si>
-  <si>
-    <t>All Positive</t>
-  </si>
-  <si>
-    <t>Sputum culture, Smear microscopy, Clinical signs</t>
-  </si>
-  <si>
-    <t>Sputum culture, Sputum Smears</t>
+    <t xml:space="preserve">
+These samples are from 9 successfully cured patients at diagnosis and end-of-treatment at 26 weeks (Total Sample=9)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Ex vivo blood samples analysed at diagnosis and after 1, 2, 4 and 26 weeks of treatment (Total Sample=135).</t>
   </si>
 </sst>
 </file>
@@ -1189,8 +1189,8 @@
   <dimension ref="A1:N44"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G9" sqref="G9"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1226,7 +1226,7 @@
         <v>6</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="I1" s="6" t="s">
         <v>7</v>
@@ -1235,7 +1235,7 @@
         <v>16</v>
       </c>
       <c r="K1" s="6" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="L1" s="6" t="s">
         <v>8</v>
@@ -1244,7 +1244,7 @@
         <v>9</v>
       </c>
       <c r="N1" s="6" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="69" customHeight="1">
@@ -1280,12 +1280,12 @@
         <v>39</v>
       </c>
       <c r="N2" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="70" customHeight="1">
       <c r="A3" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="B3" t="s">
         <v>11</v>
@@ -1306,22 +1306,22 @@
         <v>23</v>
       </c>
       <c r="J3">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="L3">
         <f t="shared" ref="L3:L43" si="0">H3+I3+J3+K3</f>
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>46</v>
+        <v>187</v>
       </c>
       <c r="N3" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="63" customHeight="1">
       <c r="A4" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="B4" t="s">
         <v>11</v>
@@ -1339,22 +1339,22 @@
         <v>15</v>
       </c>
       <c r="J4">
-        <v>108</v>
+        <v>27</v>
       </c>
       <c r="L4">
         <f t="shared" si="0"/>
-        <v>108</v>
+        <v>27</v>
       </c>
       <c r="M4" s="7" t="s">
-        <v>47</v>
+        <v>188</v>
       </c>
       <c r="N4" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="5" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="B5" t="s">
         <v>17</v>
@@ -1388,30 +1388,30 @@
         <v>39</v>
       </c>
       <c r="N5" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="34">
       <c r="A6" s="5" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B6" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C6" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="D6" t="s">
         <v>19</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="F6" t="s">
         <v>15</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="H6">
         <v>9</v>
@@ -1427,30 +1427,30 @@
         <v>27</v>
       </c>
       <c r="N6" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="119">
       <c r="A7" s="12" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="B7" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D7" t="s">
         <v>26</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="F7" t="s">
         <v>15</v>
       </c>
       <c r="G7" s="10" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="H7" s="13"/>
       <c r="I7" s="13">
@@ -1465,15 +1465,15 @@
         <v>428</v>
       </c>
       <c r="M7" s="14" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="N7" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" ht="170">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="119">
       <c r="A8" s="18" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="B8" t="s">
         <v>24</v>
@@ -1491,28 +1491,28 @@
         <v>15</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="I8">
-        <v>166</v>
+        <v>104</v>
       </c>
       <c r="J8">
-        <v>98</v>
+        <v>40</v>
       </c>
       <c r="L8">
         <f t="shared" si="0"/>
-        <v>264</v>
+        <v>144</v>
       </c>
       <c r="M8" s="4" t="s">
-        <v>141</v>
+        <v>186</v>
       </c>
       <c r="N8" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="102">
       <c r="A9" s="5" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B9" t="s">
         <v>24</v>
@@ -1525,7 +1525,7 @@
         <v>15</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="H9">
         <v>35</v>
@@ -1541,15 +1541,15 @@
         <v>446</v>
       </c>
       <c r="M9" s="4" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="N9" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="51">
       <c r="A10" s="5" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="B10" t="s">
         <v>25</v>
@@ -1583,12 +1583,12 @@
         <v>33</v>
       </c>
       <c r="N10" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="51">
       <c r="A11" s="5" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="B11" t="s">
         <v>25</v>
@@ -1622,12 +1622,12 @@
         <v>45</v>
       </c>
       <c r="N11" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="12" spans="1:14" ht="62" customHeight="1">
       <c r="A12" s="18" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="B12" t="s">
         <v>25</v>
@@ -1639,7 +1639,7 @@
         <v>26</v>
       </c>
       <c r="E12" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F12" t="s">
         <v>15</v>
@@ -1658,15 +1658,15 @@
         <v>138</v>
       </c>
       <c r="M12" s="17" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="N12" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="13" spans="1:14" ht="49" customHeight="1">
       <c r="A13" s="18" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="B13" t="s">
         <v>25</v>
@@ -1678,7 +1678,7 @@
         <v>26</v>
       </c>
       <c r="E13" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F13" t="s">
         <v>15</v>
@@ -1700,33 +1700,33 @@
         <v>175</v>
       </c>
       <c r="M13" s="17" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="N13" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="14" spans="1:14" ht="49" customHeight="1">
       <c r="A14" s="5" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B14" t="s">
+        <v>115</v>
+      </c>
+      <c r="C14" t="s">
         <v>118</v>
-      </c>
-      <c r="C14" t="s">
-        <v>121</v>
       </c>
       <c r="D14" t="s">
         <v>26</v>
       </c>
       <c r="E14" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="F14" t="s">
         <v>15</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="I14">
         <v>16</v>
@@ -1740,12 +1740,12 @@
       </c>
       <c r="M14" s="4"/>
       <c r="N14" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="15" spans="1:14" ht="49" customHeight="1">
       <c r="A15" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B15" t="s">
         <v>24</v>
@@ -1757,10 +1757,10 @@
         <v>32</v>
       </c>
       <c r="F15" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G15" s="16" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="J15">
         <v>17</v>
@@ -1773,30 +1773,30 @@
         <v>33</v>
       </c>
       <c r="M15" s="4" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="N15" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="16" spans="1:14" ht="49" customHeight="1">
       <c r="A16" s="17" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B16" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C16" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D16" t="s">
         <v>12</v>
       </c>
       <c r="F16" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="I16">
         <v>37</v>
@@ -1809,10 +1809,10 @@
         <v>51</v>
       </c>
       <c r="M16" s="17" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="N16" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1835,7 +1835,7 @@
         <v>15</v>
       </c>
       <c r="G17" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="H17">
         <v>12</v>
@@ -1851,7 +1851,7 @@
         <v>54</v>
       </c>
       <c r="N17" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1874,7 +1874,7 @@
         <v>15</v>
       </c>
       <c r="G18" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="H18">
         <v>16</v>
@@ -1887,7 +1887,7 @@
         <v>44</v>
       </c>
       <c r="N18" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="19" spans="1:14" ht="86" customHeight="1">
@@ -1910,7 +1910,7 @@
         <v>15</v>
       </c>
       <c r="G19" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="I19">
         <v>31</v>
@@ -1926,7 +1926,7 @@
         <v>38</v>
       </c>
       <c r="N19" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1949,7 +1949,7 @@
         <v>15</v>
       </c>
       <c r="G20" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="H20">
         <v>12</v>
@@ -1965,7 +1965,7 @@
         <v>42</v>
       </c>
       <c r="N20" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="21" spans="1:14" ht="86" customHeight="1">
@@ -1985,7 +1985,7 @@
         <v>15</v>
       </c>
       <c r="G21" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="H21">
         <v>12</v>
@@ -2001,7 +2001,7 @@
         <v>42</v>
       </c>
       <c r="N21" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="22" spans="1:14" ht="102">
@@ -2021,7 +2021,7 @@
         <v>15</v>
       </c>
       <c r="G22" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="H22">
         <v>81</v>
@@ -2034,33 +2034,33 @@
         <v>274</v>
       </c>
       <c r="M22" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="N22" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="23" spans="1:14" ht="69" customHeight="1">
       <c r="A23" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="B23" t="s">
+        <v>74</v>
+      </c>
+      <c r="C23" t="s">
         <v>75</v>
-      </c>
-      <c r="B23" t="s">
-        <v>76</v>
-      </c>
-      <c r="C23" t="s">
-        <v>77</v>
       </c>
       <c r="D23" t="s">
         <v>26</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F23" t="s">
         <v>15</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H23">
         <v>18</v>
@@ -2073,30 +2073,30 @@
         <v>36</v>
       </c>
       <c r="M23" s="7" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="N23" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="24" spans="1:14">
       <c r="A24" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="B24" t="s">
         <v>67</v>
       </c>
-      <c r="B24" t="s">
-        <v>69</v>
-      </c>
       <c r="C24" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D24" t="s">
         <v>26</v>
       </c>
       <c r="E24" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F24" s="15" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="G24" t="s">
         <v>23</v>
@@ -2115,30 +2115,30 @@
         <v>157</v>
       </c>
       <c r="M24" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="N24" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="25" spans="1:14" ht="34">
       <c r="A25" s="5" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B25" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D25" t="s">
         <v>26</v>
       </c>
       <c r="E25" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F25" s="15" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="G25" t="s">
         <v>23</v>
@@ -2157,18 +2157,18 @@
         <v>334</v>
       </c>
       <c r="M25" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="N25" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" ht="51">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" ht="68">
       <c r="A26" s="5" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B26" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C26" t="s">
         <v>22</v>
@@ -2180,31 +2180,31 @@
         <v>20</v>
       </c>
       <c r="F26" s="15" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="I26">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="J26">
         <v>15</v>
       </c>
       <c r="L26">
         <f t="shared" si="0"/>
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="M26" s="4" t="s">
-        <v>84</v>
+        <v>185</v>
       </c>
       <c r="N26" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="27" spans="1:14">
       <c r="A27" s="5" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B27" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C27" t="s">
         <v>22</v>
@@ -2213,10 +2213,10 @@
         <v>12</v>
       </c>
       <c r="E27" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="F27" s="15" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="I27">
         <v>21</v>
@@ -2229,18 +2229,18 @@
         <v>44</v>
       </c>
       <c r="N27" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="28" spans="1:14">
       <c r="A28" s="5" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B28" t="s">
+        <v>67</v>
+      </c>
+      <c r="C28" t="s">
         <v>69</v>
-      </c>
-      <c r="C28" t="s">
-        <v>71</v>
       </c>
       <c r="D28" t="s">
         <v>26</v>
@@ -2249,7 +2249,7 @@
         <v>20</v>
       </c>
       <c r="F28" s="15" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="G28" t="s">
         <v>23</v>
@@ -2268,18 +2268,18 @@
         <v>537</v>
       </c>
       <c r="N28" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="29" spans="1:14" ht="113" customHeight="1">
       <c r="A29" s="5" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="B29" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D29" t="s">
         <v>26</v>
@@ -2295,21 +2295,21 @@
         <v>75</v>
       </c>
       <c r="M29" s="4" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="N29" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="30" spans="1:14" ht="68">
       <c r="A30" s="5" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B30" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C30" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D30" t="s">
         <v>26</v>
@@ -2337,21 +2337,21 @@
         <v>42</v>
       </c>
       <c r="M30" s="4" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="N30" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="31" spans="1:14" ht="85">
       <c r="A31" s="5" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B31" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C31" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D31" t="s">
         <v>26</v>
@@ -2379,21 +2379,21 @@
         <v>102</v>
       </c>
       <c r="M31" s="4" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="N31" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="32" spans="1:14" ht="17">
       <c r="A32" s="5" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B32" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C32" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D32" t="s">
         <v>26</v>
@@ -2415,21 +2415,21 @@
         <v>27</v>
       </c>
       <c r="M32" s="4" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="N32" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="33" spans="1:14" ht="85">
       <c r="A33" s="5" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B33" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C33" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D33" t="s">
         <v>26</v>
@@ -2457,21 +2457,21 @@
         <v>95</v>
       </c>
       <c r="M33" s="4" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="N33" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="34" spans="1:14" ht="17">
       <c r="A34" s="5" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B34" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C34" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D34" t="s">
         <v>26</v>
@@ -2493,24 +2493,24 @@
         <v>17</v>
       </c>
       <c r="M34" s="4" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="N34" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="35" spans="1:14" ht="51">
       <c r="A35" s="5" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B35" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C35" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="E35" t="s">
         <v>20</v>
@@ -2535,30 +2535,30 @@
         <v>90</v>
       </c>
       <c r="M35" s="4" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="N35" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="36" spans="1:14" ht="34">
       <c r="A36" s="5" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B36" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C36" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D36" t="s">
         <v>26</v>
       </c>
       <c r="E36" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="F36" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="G36" t="s">
         <v>23</v>
@@ -2577,33 +2577,33 @@
         <v>110</v>
       </c>
       <c r="M36" s="4" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="N36" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="37" spans="1:14" ht="51">
       <c r="A37" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B37" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C37" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D37" t="s">
         <v>26</v>
       </c>
       <c r="E37" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F37" t="s">
         <v>15</v>
       </c>
       <c r="G37" s="9" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H37">
         <v>37</v>
@@ -2619,24 +2619,24 @@
         <v>108</v>
       </c>
       <c r="N37" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
     </row>
     <row r="38" spans="1:14">
       <c r="A38" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B38" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C38" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D38" t="s">
         <v>26</v>
       </c>
       <c r="E38" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F38" t="s">
         <v>15</v>
@@ -2655,18 +2655,18 @@
         <v>44</v>
       </c>
       <c r="N38" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
     </row>
     <row r="39" spans="1:14">
       <c r="A39" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B39" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C39" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D39" t="s">
         <v>12</v>
@@ -2688,18 +2688,18 @@
         <v>42</v>
       </c>
       <c r="N39" s="28" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
     </row>
     <row r="40" spans="1:14" ht="85">
       <c r="A40" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B40" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C40" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D40" t="s">
         <v>26</v>
@@ -2718,18 +2718,18 @@
         <v>189</v>
       </c>
       <c r="M40" s="4" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="N40" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
     </row>
     <row r="41" spans="1:14" ht="68">
       <c r="A41" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B41" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D41" t="s">
         <v>12</v>
@@ -2738,7 +2738,7 @@
         <v>15</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="H41">
         <v>36</v>
@@ -2754,18 +2754,18 @@
         <v>72</v>
       </c>
       <c r="M41" s="4" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="N41" s="28" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
     </row>
     <row r="42" spans="1:14">
       <c r="A42" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B42" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D42" t="s">
         <v>26</v>
@@ -2786,15 +2786,15 @@
       </c>
       <c r="M42" s="4"/>
       <c r="N42" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
     </row>
     <row r="43" spans="1:14">
       <c r="A43" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B43" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D43" t="s">
         <v>12</v>
@@ -2812,7 +2812,7 @@
       </c>
       <c r="M43" s="4"/>
       <c r="N43" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
     </row>
     <row r="44" spans="1:14">
@@ -2840,31 +2840,31 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="B1" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17">
       <c r="A2" s="20" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="B2" s="21" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17">
       <c r="A3" s="20" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="17">
       <c r="A4" s="20" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="B4" s="21" t="s">
         <v>29</v>
@@ -2872,7 +2872,7 @@
     </row>
     <row r="5" spans="1:2" ht="17">
       <c r="A5" s="20" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="B5" s="21" t="s">
         <v>30</v>
@@ -2880,7 +2880,7 @@
     </row>
     <row r="6" spans="1:2" ht="17">
       <c r="A6" s="20" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="B6" s="21" t="s">
         <v>34</v>
@@ -2888,15 +2888,15 @@
     </row>
     <row r="7" spans="1:2" ht="17">
       <c r="A7" s="20" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="B7" s="21" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="17">
       <c r="A8" s="20" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="B8" s="21" t="s">
         <v>36</v>
@@ -2904,7 +2904,7 @@
     </row>
     <row r="9" spans="1:2" ht="17">
       <c r="A9" s="20" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="B9" s="21" t="s">
         <v>37</v>
@@ -2912,7 +2912,7 @@
     </row>
     <row r="10" spans="1:2" ht="17">
       <c r="A10" s="22" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="B10" s="21" t="s">
         <v>10</v>
@@ -2920,255 +2920,255 @@
     </row>
     <row r="11" spans="1:2" ht="17">
       <c r="A11" s="22" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="B11" s="21" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="17">
       <c r="A12" s="22" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="B12" s="21" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="17">
       <c r="A13" s="22" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="B13" s="21" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="17">
       <c r="A14" s="22" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="B14" s="21" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="17">
       <c r="A15" s="22" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="B15" s="21" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="17">
       <c r="A16" s="22" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="B16" s="21" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="17">
       <c r="A17" s="22" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="B17" s="21" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="17">
       <c r="A18" s="23" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="B18" s="24" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="17">
       <c r="A19" s="23" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="B19" s="24" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="17">
       <c r="A20" s="23" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="B20" s="24" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="17">
       <c r="A21" s="23" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="B21" s="24" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="17">
       <c r="A22" s="23" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="B22" s="24" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="17">
       <c r="A23" s="23" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="B23" s="24" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="17">
       <c r="A24" s="20" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="B24" s="21" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="17">
       <c r="A25" s="20" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="B25" s="21" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="17">
       <c r="A26" s="20" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="B26" s="21" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="17">
       <c r="A27" s="20" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="B27" s="21" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="17">
       <c r="A28" s="20" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="B28" s="21" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="17">
       <c r="A29" s="20" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="B29" s="21" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="17">
       <c r="A30" s="20" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="B30" s="21" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="17">
       <c r="A31" s="20" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="B31" s="21" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="17">
       <c r="A32" s="20" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="B32" s="21" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="17">
       <c r="A33" s="20" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="B33" s="21" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="17">
       <c r="A34" s="20" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="B34" s="21" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="17">
       <c r="A35" s="20" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="B35" s="21" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="25" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="B36" s="24" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="25" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="B37" s="24" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="25" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="B38" s="24" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="25" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="B39" s="24" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="25" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="B40" s="24" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="25" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="B41" s="24" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="25" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="B42" s="21" t="s">
         <v>29</v>
@@ -3176,7 +3176,7 @@
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="25" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="B43" s="21" t="s">
         <v>30</v>
@@ -3184,7 +3184,7 @@
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="25" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="B44" s="21" t="s">
         <v>34</v>
@@ -3192,7 +3192,7 @@
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="25" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="B45" s="21" t="s">
         <v>35</v>
@@ -3200,7 +3200,7 @@
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="25" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="B46" s="21" t="s">
         <v>36</v>
@@ -3208,7 +3208,7 @@
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="25" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="B47" s="21" t="s">
         <v>37</v>
@@ -3216,66 +3216,66 @@
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="25" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="B48" s="21" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="25" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="B49" s="21" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="25" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="B50" s="21" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="25" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="B51" s="21" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="26" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="B52" s="21" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="17">
       <c r="A53" s="20" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="B53" s="27" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="25" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="B54" s="27" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="25" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="B55" s="21" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>

--- a/data-raw/Data_summaryforpackage.xlsx
+++ b/data-raw/Data_summaryforpackage.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xutaowang/Desktop/curatedTBData/data-raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{525081AD-76F8-2F49-8C3B-EB38E55FD485}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9D38709-8E29-A645-9573-F0E9F523438F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3540" yWindow="4540" windowWidth="31260" windowHeight="16320" xr2:uid="{B39B7F83-2537-C248-AAB4-54D9192DC10F}"/>
+    <workbookView xWindow="6540" yWindow="4960" windowWidth="31260" windowHeight="16320" xr2:uid="{B39B7F83-2537-C248-AAB4-54D9192DC10F}"/>
   </bookViews>
   <sheets>
     <sheet name="DataSummary" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="191">
   <si>
     <t>GEO accession</t>
   </si>
@@ -435,9 +435,6 @@
   </si>
   <si>
     <t>OD</t>
-  </si>
-  <si>
-    <t>MGIT, XPERT, TGRV, culture confirmed</t>
   </si>
   <si>
     <t>Samples from the TB cases have been collected on the start day of TB treatment and on 1,4 and 24 weeks after treatment as well. ODs was Lung Dx or MTP. 2 NA's in TB status</t>
@@ -641,6 +638,15 @@
   <si>
     <t xml:space="preserve">
 Ex vivo blood samples analysed at diagnosis and after 1, 2, 4 and 26 weeks of treatment (Total Sample=135).</t>
+  </si>
+  <si>
+    <t>OD was sarcoidosis (n=18)</t>
+  </si>
+  <si>
+    <t>MGIT, XPERT, TGRV, sputum culture</t>
+  </si>
+  <si>
+    <t>GenXpert assay</t>
   </si>
 </sst>
 </file>
@@ -729,7 +735,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -739,6 +745,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -814,7 +826,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -872,6 +884,7 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1189,8 +1202,8 @@
   <dimension ref="A1:N44"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D2" sqref="D2"/>
+      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H12" sqref="H12:I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1244,7 +1257,7 @@
         <v>9</v>
       </c>
       <c r="N1" s="6" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="69" customHeight="1">
@@ -1280,12 +1293,12 @@
         <v>39</v>
       </c>
       <c r="N2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="70" customHeight="1">
       <c r="A3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B3" t="s">
         <v>11</v>
@@ -1313,15 +1326,15 @@
         <v>9</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="N3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="63" customHeight="1">
       <c r="A4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B4" t="s">
         <v>11</v>
@@ -1346,15 +1359,15 @@
         <v>27</v>
       </c>
       <c r="M4" s="7" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="N4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="5" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B5" t="s">
         <v>17</v>
@@ -1388,7 +1401,7 @@
         <v>39</v>
       </c>
       <c r="N5" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="34">
@@ -1427,12 +1440,12 @@
         <v>27</v>
       </c>
       <c r="N6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="119">
       <c r="A7" s="12" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B7" t="s">
         <v>98</v>
@@ -1450,7 +1463,7 @@
         <v>15</v>
       </c>
       <c r="G7" s="10" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H7" s="13"/>
       <c r="I7" s="13">
@@ -1465,15 +1478,15 @@
         <v>428</v>
       </c>
       <c r="M7" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="119">
       <c r="A8" s="18" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B8" t="s">
         <v>24</v>
@@ -1491,7 +1504,7 @@
         <v>15</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="I8">
         <v>104</v>
@@ -1504,10 +1517,10 @@
         <v>144</v>
       </c>
       <c r="M8" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="N8" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="102">
@@ -1525,31 +1538,28 @@
         <v>15</v>
       </c>
       <c r="G9" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="H9">
+        <v>100</v>
+      </c>
+      <c r="J9">
+        <v>38</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="0"/>
+        <v>138</v>
+      </c>
+      <c r="M9" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="H9">
-        <v>35</v>
-      </c>
-      <c r="J9">
-        <v>373</v>
-      </c>
-      <c r="K9">
-        <v>38</v>
-      </c>
-      <c r="L9">
-        <f t="shared" si="0"/>
-        <v>446</v>
-      </c>
-      <c r="M9" s="4" t="s">
-        <v>129</v>
-      </c>
       <c r="N9" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="51">
       <c r="A10" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B10" t="s">
         <v>25</v>
@@ -1583,12 +1593,12 @@
         <v>33</v>
       </c>
       <c r="N10" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="51">
       <c r="A11" s="5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B11" t="s">
         <v>25</v>
@@ -1622,12 +1632,12 @@
         <v>45</v>
       </c>
       <c r="N11" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="12" spans="1:14" ht="62" customHeight="1">
       <c r="A12" s="18" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B12" t="s">
         <v>25</v>
@@ -1658,15 +1668,15 @@
         <v>138</v>
       </c>
       <c r="M12" s="17" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="N12" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="13" spans="1:14" ht="49" customHeight="1">
       <c r="A13" s="18" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B13" t="s">
         <v>25</v>
@@ -1703,7 +1713,7 @@
         <v>102</v>
       </c>
       <c r="N13" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="14" spans="1:14" ht="49" customHeight="1">
@@ -1740,7 +1750,7 @@
       </c>
       <c r="M14" s="4"/>
       <c r="N14" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="15" spans="1:14" ht="49" customHeight="1">
@@ -1776,12 +1786,12 @@
         <v>125</v>
       </c>
       <c r="N15" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="16" spans="1:14" ht="49" customHeight="1">
       <c r="A16" s="17" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B16" t="s">
         <v>114</v>
@@ -1809,10 +1819,10 @@
         <v>51</v>
       </c>
       <c r="M16" s="17" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="N16" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1835,7 +1845,7 @@
         <v>15</v>
       </c>
       <c r="G17" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H17">
         <v>12</v>
@@ -1874,7 +1884,7 @@
         <v>15</v>
       </c>
       <c r="G18" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H18">
         <v>16</v>
@@ -1910,7 +1920,7 @@
         <v>15</v>
       </c>
       <c r="G19" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="I19">
         <v>31</v>
@@ -1949,7 +1959,7 @@
         <v>15</v>
       </c>
       <c r="G20" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H20">
         <v>12</v>
@@ -1985,7 +1995,7 @@
         <v>15</v>
       </c>
       <c r="G21" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H21">
         <v>12</v>
@@ -2021,7 +2031,7 @@
         <v>15</v>
       </c>
       <c r="G22" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H22">
         <v>81</v>
@@ -2180,7 +2190,7 @@
         <v>20</v>
       </c>
       <c r="F26" s="15" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="I26">
         <v>35</v>
@@ -2193,7 +2203,7 @@
         <v>50</v>
       </c>
       <c r="M26" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="N26" t="s">
         <v>103</v>
@@ -2216,7 +2226,7 @@
         <v>82</v>
       </c>
       <c r="F27" s="15" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="I27">
         <v>21</v>
@@ -2273,7 +2283,7 @@
     </row>
     <row r="29" spans="1:14" ht="113" customHeight="1">
       <c r="A29" s="5" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B29" t="s">
         <v>67</v>
@@ -2386,7 +2396,7 @@
       </c>
     </row>
     <row r="32" spans="1:14" ht="17">
-      <c r="A32" s="5" t="s">
+      <c r="A32" s="29" t="s">
         <v>87</v>
       </c>
       <c r="B32" t="s">
@@ -2403,9 +2413,6 @@
       </c>
       <c r="F32" t="s">
         <v>15</v>
-      </c>
-      <c r="G32" t="s">
-        <v>23</v>
       </c>
       <c r="K32">
         <v>27</v>
@@ -2464,7 +2471,7 @@
       </c>
     </row>
     <row r="34" spans="1:14" ht="17">
-      <c r="A34" s="5" t="s">
+      <c r="A34" s="29" t="s">
         <v>89</v>
       </c>
       <c r="B34" t="s">
@@ -2481,9 +2488,6 @@
       </c>
       <c r="F34" t="s">
         <v>15</v>
-      </c>
-      <c r="G34" t="s">
-        <v>23</v>
       </c>
       <c r="K34">
         <v>17</v>
@@ -2535,7 +2539,7 @@
         <v>90</v>
       </c>
       <c r="M35" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="N35" t="s">
         <v>103</v>
@@ -2543,7 +2547,7 @@
     </row>
     <row r="36" spans="1:14" ht="34">
       <c r="A36" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B36" t="s">
         <v>67</v>
@@ -2555,10 +2559,10 @@
         <v>26</v>
       </c>
       <c r="E36" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F36" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G36" t="s">
         <v>23</v>
@@ -2577,7 +2581,7 @@
         <v>110</v>
       </c>
       <c r="M36" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="N36" t="s">
         <v>103</v>
@@ -2619,10 +2623,10 @@
         <v>108</v>
       </c>
       <c r="N37" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="38" spans="1:14">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" ht="17">
       <c r="A38" t="s">
         <v>51</v>
       </c>
@@ -2654,8 +2658,11 @@
         <f t="shared" si="0"/>
         <v>44</v>
       </c>
+      <c r="M38" s="4" t="s">
+        <v>188</v>
+      </c>
       <c r="N38" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="39" spans="1:14">
@@ -2688,7 +2695,7 @@
         <v>42</v>
       </c>
       <c r="N39" s="28" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="40" spans="1:14" ht="85">
@@ -2707,6 +2714,9 @@
       <c r="F40" t="s">
         <v>15</v>
       </c>
+      <c r="G40" t="s">
+        <v>190</v>
+      </c>
       <c r="H40">
         <v>76</v>
       </c>
@@ -2718,10 +2728,10 @@
         <v>189</v>
       </c>
       <c r="M40" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="N40" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="41" spans="1:14" ht="68">
@@ -2757,7 +2767,7 @@
         <v>101</v>
       </c>
       <c r="N41" s="28" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="42" spans="1:14">
@@ -2786,7 +2796,7 @@
       </c>
       <c r="M42" s="4"/>
       <c r="N42" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="43" spans="1:14">
@@ -2812,7 +2822,7 @@
       </c>
       <c r="M43" s="4"/>
       <c r="N43" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="44" spans="1:14">
@@ -2840,15 +2850,15 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B1" t="s">
         <v>153</v>
-      </c>
-      <c r="B1" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17">
       <c r="A2" s="20" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B2" s="21" t="s">
         <v>65</v>
@@ -2856,7 +2866,7 @@
     </row>
     <row r="3" spans="1:2" ht="17">
       <c r="A3" s="20" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B3" s="21" t="s">
         <v>66</v>
@@ -2864,7 +2874,7 @@
     </row>
     <row r="4" spans="1:2" ht="17">
       <c r="A4" s="20" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B4" s="21" t="s">
         <v>29</v>
@@ -2872,7 +2882,7 @@
     </row>
     <row r="5" spans="1:2" ht="17">
       <c r="A5" s="20" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B5" s="21" t="s">
         <v>30</v>
@@ -2880,7 +2890,7 @@
     </row>
     <row r="6" spans="1:2" ht="17">
       <c r="A6" s="20" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B6" s="21" t="s">
         <v>34</v>
@@ -2888,15 +2898,15 @@
     </row>
     <row r="7" spans="1:2" ht="17">
       <c r="A7" s="20" t="s">
+        <v>155</v>
+      </c>
+      <c r="B7" s="21" t="s">
         <v>156</v>
-      </c>
-      <c r="B7" s="21" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="17">
       <c r="A8" s="20" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B8" s="21" t="s">
         <v>36</v>
@@ -2904,7 +2914,7 @@
     </row>
     <row r="9" spans="1:2" ht="17">
       <c r="A9" s="20" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B9" s="21" t="s">
         <v>37</v>
@@ -2912,7 +2922,7 @@
     </row>
     <row r="10" spans="1:2" ht="17">
       <c r="A10" s="22" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B10" s="21" t="s">
         <v>10</v>
@@ -2920,23 +2930,23 @@
     </row>
     <row r="11" spans="1:2" ht="17">
       <c r="A11" s="22" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B11" s="21" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="17">
       <c r="A12" s="22" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B12" s="21" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="17">
       <c r="A13" s="22" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B13" s="21" t="s">
         <v>78</v>
@@ -2944,15 +2954,15 @@
     </row>
     <row r="14" spans="1:2" ht="17">
       <c r="A14" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="B14" s="21" t="s">
         <v>158</v>
-      </c>
-      <c r="B14" s="21" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="17">
       <c r="A15" s="22" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B15" s="21" t="s">
         <v>73</v>
@@ -2960,7 +2970,7 @@
     </row>
     <row r="16" spans="1:2" ht="17">
       <c r="A16" s="22" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B16" s="21" t="s">
         <v>51</v>
@@ -2968,7 +2978,7 @@
     </row>
     <row r="17" spans="1:2" ht="17">
       <c r="A17" s="22" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B17" s="21" t="s">
         <v>49</v>
@@ -2976,7 +2986,7 @@
     </row>
     <row r="18" spans="1:2" ht="17">
       <c r="A18" s="23" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B18" s="24" t="s">
         <v>85</v>
@@ -2984,7 +2994,7 @@
     </row>
     <row r="19" spans="1:2" ht="17">
       <c r="A19" s="23" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B19" s="24" t="s">
         <v>86</v>
@@ -2992,7 +3002,7 @@
     </row>
     <row r="20" spans="1:2" ht="17">
       <c r="A20" s="23" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B20" s="24" t="s">
         <v>87</v>
@@ -3000,7 +3010,7 @@
     </row>
     <row r="21" spans="1:2" ht="17">
       <c r="A21" s="23" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B21" s="24" t="s">
         <v>88</v>
@@ -3008,7 +3018,7 @@
     </row>
     <row r="22" spans="1:2" ht="17">
       <c r="A22" s="23" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B22" s="24" t="s">
         <v>89</v>
@@ -3016,7 +3026,7 @@
     </row>
     <row r="23" spans="1:2" ht="17">
       <c r="A23" s="23" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B23" s="24" t="s">
         <v>90</v>
@@ -3024,7 +3034,7 @@
     </row>
     <row r="24" spans="1:2" ht="17">
       <c r="A24" s="20" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B24" s="21" t="s">
         <v>79</v>
@@ -3032,7 +3042,7 @@
     </row>
     <row r="25" spans="1:2" ht="17">
       <c r="A25" s="20" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B25" s="21" t="s">
         <v>63</v>
@@ -3040,7 +3050,7 @@
     </row>
     <row r="26" spans="1:2" ht="17">
       <c r="A26" s="20" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B26" s="21" t="s">
         <v>53</v>
@@ -3048,15 +3058,15 @@
     </row>
     <row r="27" spans="1:2" ht="17">
       <c r="A27" s="20" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B27" s="21" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="17">
       <c r="A28" s="20" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B28" s="21" t="s">
         <v>55</v>
@@ -3064,15 +3074,15 @@
     </row>
     <row r="29" spans="1:2" ht="17">
       <c r="A29" s="20" t="s">
+        <v>164</v>
+      </c>
+      <c r="B29" s="21" t="s">
         <v>165</v>
-      </c>
-      <c r="B29" s="21" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="17">
       <c r="A30" s="20" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B30" s="21" t="s">
         <v>110</v>
@@ -3080,7 +3090,7 @@
     </row>
     <row r="31" spans="1:2" ht="17">
       <c r="A31" s="20" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B31" s="21" t="s">
         <v>80</v>
@@ -3088,39 +3098,39 @@
     </row>
     <row r="32" spans="1:2" ht="17">
       <c r="A32" s="20" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B32" s="21" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="17">
       <c r="A33" s="20" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B33" s="21" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="17">
       <c r="A34" s="20" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B34" s="21" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="17">
       <c r="A35" s="20" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B35" s="21" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="25" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B36" s="24" t="s">
         <v>85</v>
@@ -3128,7 +3138,7 @@
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="25" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B37" s="24" t="s">
         <v>86</v>
@@ -3136,7 +3146,7 @@
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="25" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B38" s="24" t="s">
         <v>87</v>
@@ -3144,7 +3154,7 @@
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="25" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B39" s="24" t="s">
         <v>88</v>
@@ -3152,7 +3162,7 @@
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="25" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B40" s="24" t="s">
         <v>89</v>
@@ -3160,7 +3170,7 @@
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="25" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B41" s="24" t="s">
         <v>90</v>
@@ -3168,7 +3178,7 @@
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="25" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B42" s="21" t="s">
         <v>29</v>
@@ -3176,7 +3186,7 @@
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="25" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B43" s="21" t="s">
         <v>30</v>
@@ -3184,7 +3194,7 @@
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="25" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B44" s="21" t="s">
         <v>34</v>
@@ -3192,7 +3202,7 @@
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="25" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B45" s="21" t="s">
         <v>35</v>
@@ -3200,7 +3210,7 @@
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="25" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B46" s="21" t="s">
         <v>36</v>
@@ -3208,7 +3218,7 @@
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="25" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B47" s="21" t="s">
         <v>37</v>
@@ -3216,7 +3226,7 @@
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="25" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B48" s="21" t="s">
         <v>104</v>
@@ -3224,7 +3234,7 @@
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="25" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B49" s="21" t="s">
         <v>78</v>
@@ -3232,47 +3242,47 @@
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="25" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B50" s="21" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="25" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B51" s="21" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="26" t="s">
+        <v>170</v>
+      </c>
+      <c r="B52" s="21" t="s">
         <v>171</v>
-      </c>
-      <c r="B52" s="21" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="17">
       <c r="A53" s="20" t="s">
+        <v>172</v>
+      </c>
+      <c r="B53" s="27" t="s">
         <v>173</v>
-      </c>
-      <c r="B53" s="27" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="25" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B54" s="27" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="25" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B55" s="21" t="s">
         <v>123</v>

--- a/data-raw/Data_summaryforpackage.xlsx
+++ b/data-raw/Data_summaryforpackage.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xutaowang/Desktop/curatedTBData/data-raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9D38709-8E29-A645-9573-F0E9F523438F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F92D1B55-EBB4-CE4C-A380-22040798DADF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6540" yWindow="4960" windowWidth="31260" windowHeight="16320" xr2:uid="{B39B7F83-2537-C248-AAB4-54D9192DC10F}"/>
+    <workbookView xWindow="6460" yWindow="4740" windowWidth="31260" windowHeight="16320" xr2:uid="{B39B7F83-2537-C248-AAB4-54D9192DC10F}"/>
   </bookViews>
   <sheets>
     <sheet name="DataSummary" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="193">
   <si>
     <t>GEO accession</t>
   </si>
@@ -272,10 +272,6 @@
     <t>&gt;15</t>
   </si>
   <si>
-    <t xml:space="preserve">
-TB patients longitudinally sampled along 3 time-points: active, treatment recover</t>
-  </si>
-  <si>
     <t>GSE37250</t>
   </si>
   <si>
@@ -467,9 +463,6 @@
   <si>
     <t xml:space="preserve">Some NAs in TBStatus; longitudinal study, GC6-74. Samples are collected every 6 months up to 18 months.   Latent: Non-progressor.         PTB: Progressor
 </t>
-  </si>
-  <si>
-    <t>ODs was sarcoidosis</t>
   </si>
   <si>
     <t>Sputum culture etc.</t>
@@ -647,6 +640,19 @@
   </si>
   <si>
     <t>GenXpert assay</t>
+  </si>
+  <si>
+    <t>ODs was Sarcoid, involve repeated measurement</t>
+  </si>
+  <si>
+    <t>ODs was sarcoidosis, involve repeated measurement. Could not locate patient ID. 5 patients in each group of healthy controls, tuberculosis and sarcoidosis with 6 cell types.</t>
+  </si>
+  <si>
+    <t>Measurement of tuberculosis patients prior to and following treatment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+TB patients longitudinally sampled along 3 time-points: active, treatment recover. Could not locate patient ID.</t>
   </si>
 </sst>
 </file>
@@ -826,7 +832,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -885,6 +891,9 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1202,8 +1211,8 @@
   <dimension ref="A1:N44"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H12" sqref="H12:I12"/>
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M23" sqref="M23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1239,7 +1248,7 @@
         <v>6</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I1" s="6" t="s">
         <v>7</v>
@@ -1248,7 +1257,7 @@
         <v>16</v>
       </c>
       <c r="K1" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="L1" s="6" t="s">
         <v>8</v>
@@ -1257,7 +1266,7 @@
         <v>9</v>
       </c>
       <c r="N1" s="6" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="69" customHeight="1">
@@ -1293,12 +1302,12 @@
         <v>39</v>
       </c>
       <c r="N2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="70" customHeight="1">
       <c r="A3" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B3" t="s">
         <v>11</v>
@@ -1326,15 +1335,15 @@
         <v>9</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="N3" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="63" customHeight="1">
       <c r="A4" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B4" t="s">
         <v>11</v>
@@ -1359,15 +1368,15 @@
         <v>27</v>
       </c>
       <c r="M4" s="7" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="N4" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="5" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B5" t="s">
         <v>17</v>
@@ -1401,30 +1410,30 @@
         <v>39</v>
       </c>
       <c r="N5" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="34">
       <c r="A6" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="B6" t="s">
         <v>104</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>105</v>
-      </c>
-      <c r="C6" t="s">
-        <v>106</v>
       </c>
       <c r="D6" t="s">
         <v>19</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F6" t="s">
         <v>15</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H6">
         <v>9</v>
@@ -1440,30 +1449,30 @@
         <v>27</v>
       </c>
       <c r="N6" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="119">
       <c r="A7" s="12" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B7" t="s">
+        <v>97</v>
+      </c>
+      <c r="C7" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="D7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" s="11" t="s">
         <v>99</v>
-      </c>
-      <c r="D7" t="s">
-        <v>26</v>
-      </c>
-      <c r="E7" s="11" t="s">
-        <v>100</v>
       </c>
       <c r="F7" t="s">
         <v>15</v>
       </c>
       <c r="G7" s="10" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="H7" s="13"/>
       <c r="I7" s="13">
@@ -1478,15 +1487,15 @@
         <v>428</v>
       </c>
       <c r="M7" s="14" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="N7" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="119">
       <c r="A8" s="18" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B8" t="s">
         <v>24</v>
@@ -1504,7 +1513,7 @@
         <v>15</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="I8">
         <v>104</v>
@@ -1517,15 +1526,15 @@
         <v>144</v>
       </c>
       <c r="M8" s="4" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="N8" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="102">
       <c r="A9" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B9" t="s">
         <v>24</v>
@@ -1538,7 +1547,7 @@
         <v>15</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="H9">
         <v>100</v>
@@ -1551,15 +1560,15 @@
         <v>138</v>
       </c>
       <c r="M9" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="N9" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="51">
       <c r="A10" s="5" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B10" t="s">
         <v>25</v>
@@ -1593,12 +1602,12 @@
         <v>33</v>
       </c>
       <c r="N10" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="51">
       <c r="A11" s="5" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B11" t="s">
         <v>25</v>
@@ -1632,12 +1641,12 @@
         <v>45</v>
       </c>
       <c r="N11" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="12" spans="1:14" ht="62" customHeight="1">
       <c r="A12" s="18" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B12" t="s">
         <v>25</v>
@@ -1668,15 +1677,15 @@
         <v>138</v>
       </c>
       <c r="M12" s="17" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="N12" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="13" spans="1:14" ht="49" customHeight="1">
       <c r="A13" s="18" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B13" t="s">
         <v>25</v>
@@ -1710,33 +1719,33 @@
         <v>175</v>
       </c>
       <c r="M13" s="17" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="N13" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="14" spans="1:14" ht="49" customHeight="1">
       <c r="A14" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B14" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C14" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D14" t="s">
         <v>26</v>
       </c>
       <c r="E14" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F14" t="s">
         <v>15</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="I14">
         <v>16</v>
@@ -1750,12 +1759,12 @@
       </c>
       <c r="M14" s="4"/>
       <c r="N14" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="15" spans="1:14" ht="49" customHeight="1">
       <c r="A15" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B15" t="s">
         <v>24</v>
@@ -1767,10 +1776,10 @@
         <v>32</v>
       </c>
       <c r="F15" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G15" s="16" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="J15">
         <v>17</v>
@@ -1783,30 +1792,30 @@
         <v>33</v>
       </c>
       <c r="M15" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="N15" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="16" spans="1:14" ht="49" customHeight="1">
       <c r="A16" s="17" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B16" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C16" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D16" t="s">
         <v>12</v>
       </c>
       <c r="F16" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="I16">
         <v>37</v>
@@ -1819,10 +1828,10 @@
         <v>51</v>
       </c>
       <c r="M16" s="17" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="N16" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1845,7 +1854,7 @@
         <v>15</v>
       </c>
       <c r="G17" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="H17">
         <v>12</v>
@@ -1861,7 +1870,7 @@
         <v>54</v>
       </c>
       <c r="N17" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1884,7 +1893,7 @@
         <v>15</v>
       </c>
       <c r="G18" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="H18">
         <v>16</v>
@@ -1897,7 +1906,7 @@
         <v>44</v>
       </c>
       <c r="N18" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="19" spans="1:14" ht="86" customHeight="1">
@@ -1920,7 +1929,7 @@
         <v>15</v>
       </c>
       <c r="G19" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="I19">
         <v>31</v>
@@ -1936,7 +1945,7 @@
         <v>38</v>
       </c>
       <c r="N19" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1959,7 +1968,7 @@
         <v>15</v>
       </c>
       <c r="G20" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="H20">
         <v>12</v>
@@ -1975,7 +1984,7 @@
         <v>42</v>
       </c>
       <c r="N20" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="21" spans="1:14" ht="86" customHeight="1">
@@ -1995,7 +2004,7 @@
         <v>15</v>
       </c>
       <c r="G21" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="H21">
         <v>12</v>
@@ -2011,7 +2020,7 @@
         <v>42</v>
       </c>
       <c r="N21" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="22" spans="1:14" ht="102">
@@ -2031,7 +2040,7 @@
         <v>15</v>
       </c>
       <c r="G22" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="H22">
         <v>81</v>
@@ -2047,7 +2056,7 @@
         <v>46</v>
       </c>
       <c r="N22" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="23" spans="1:14" ht="69" customHeight="1">
@@ -2083,10 +2092,10 @@
         <v>36</v>
       </c>
       <c r="M23" s="7" t="s">
-        <v>77</v>
+        <v>192</v>
       </c>
       <c r="N23" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -2128,7 +2137,7 @@
         <v>72</v>
       </c>
       <c r="N24" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="25" spans="1:14" ht="34">
@@ -2139,7 +2148,7 @@
         <v>67</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D25" t="s">
         <v>26</v>
@@ -2170,12 +2179,12 @@
         <v>72</v>
       </c>
       <c r="N25" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="26" spans="1:14" ht="68">
       <c r="A26" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B26" t="s">
         <v>67</v>
@@ -2190,7 +2199,7 @@
         <v>20</v>
       </c>
       <c r="F26" s="15" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="I26">
         <v>35</v>
@@ -2203,15 +2212,15 @@
         <v>50</v>
       </c>
       <c r="M26" s="4" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="N26" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="27" spans="1:14">
       <c r="A27" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B27" t="s">
         <v>67</v>
@@ -2223,10 +2232,10 @@
         <v>12</v>
       </c>
       <c r="E27" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F27" s="15" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="I27">
         <v>21</v>
@@ -2239,12 +2248,12 @@
         <v>44</v>
       </c>
       <c r="N27" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="28" spans="1:14">
       <c r="A28" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B28" t="s">
         <v>67</v>
@@ -2278,18 +2287,18 @@
         <v>537</v>
       </c>
       <c r="N28" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="29" spans="1:14" ht="113" customHeight="1">
       <c r="A29" s="5" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B29" t="s">
         <v>67</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D29" t="s">
         <v>26</v>
@@ -2305,15 +2314,15 @@
         <v>75</v>
       </c>
       <c r="M29" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N29" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="30" spans="1:14" ht="68">
       <c r="A30" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B30" t="s">
         <v>67</v>
@@ -2347,15 +2356,15 @@
         <v>42</v>
       </c>
       <c r="M30" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="N30" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="31" spans="1:14" ht="85">
       <c r="A31" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B31" t="s">
         <v>67</v>
@@ -2389,15 +2398,15 @@
         <v>102</v>
       </c>
       <c r="M31" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N31" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="32" spans="1:14" ht="17">
       <c r="A32" s="29" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B32" t="s">
         <v>67</v>
@@ -2422,15 +2431,15 @@
         <v>27</v>
       </c>
       <c r="M32" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="N32" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="33" spans="1:14" ht="85">
       <c r="A33" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B33" t="s">
         <v>67</v>
@@ -2464,15 +2473,15 @@
         <v>95</v>
       </c>
       <c r="M33" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="N33" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="34" spans="1:14" ht="17">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" ht="34">
       <c r="A34" s="29" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B34" t="s">
         <v>67</v>
@@ -2490,22 +2499,22 @@
         <v>15</v>
       </c>
       <c r="K34">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="L34">
         <f t="shared" si="0"/>
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="M34" s="4" t="s">
-        <v>93</v>
+        <v>189</v>
       </c>
       <c r="N34" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="35" spans="1:14" ht="51">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" ht="102">
       <c r="A35" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B35" t="s">
         <v>67</v>
@@ -2514,7 +2523,7 @@
         <v>60</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E35" t="s">
         <v>20</v>
@@ -2526,43 +2535,43 @@
         <v>23</v>
       </c>
       <c r="H35">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="J35">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="K35">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="L35">
         <f>H35+I35+J35+K35</f>
-        <v>90</v>
+        <v>15</v>
       </c>
       <c r="M35" s="4" t="s">
-        <v>138</v>
+        <v>190</v>
       </c>
       <c r="N35" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="36" spans="1:14" ht="34">
       <c r="A36" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B36" t="s">
         <v>67</v>
       </c>
       <c r="C36" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D36" t="s">
         <v>26</v>
       </c>
       <c r="E36" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F36" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G36" t="s">
         <v>23</v>
@@ -2581,10 +2590,10 @@
         <v>110</v>
       </c>
       <c r="M36" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="N36" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="37" spans="1:14" ht="51">
@@ -2623,7 +2632,7 @@
         <v>108</v>
       </c>
       <c r="N37" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="38" spans="1:14" ht="17">
@@ -2659,10 +2668,10 @@
         <v>44</v>
       </c>
       <c r="M38" s="4" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="N38" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="39" spans="1:14">
@@ -2695,7 +2704,7 @@
         <v>42</v>
       </c>
       <c r="N39" s="28" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="40" spans="1:14" ht="85">
@@ -2706,7 +2715,7 @@
         <v>56</v>
       </c>
       <c r="C40" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D40" t="s">
         <v>26</v>
@@ -2715,7 +2724,7 @@
         <v>15</v>
       </c>
       <c r="G40" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="H40">
         <v>76</v>
@@ -2728,10 +2737,10 @@
         <v>189</v>
       </c>
       <c r="M40" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="N40" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="41" spans="1:14" ht="68">
@@ -2748,7 +2757,7 @@
         <v>15</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H41">
         <v>36</v>
@@ -2764,18 +2773,18 @@
         <v>72</v>
       </c>
       <c r="M41" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="N41" s="28" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="42" spans="1:14">
       <c r="A42" t="s">
+        <v>109</v>
+      </c>
+      <c r="B42" t="s">
         <v>110</v>
-      </c>
-      <c r="B42" t="s">
-        <v>111</v>
       </c>
       <c r="D42" t="s">
         <v>26</v>
@@ -2796,37 +2805,67 @@
       </c>
       <c r="M42" s="4"/>
       <c r="N42" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="43" spans="1:14">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" ht="51">
       <c r="A43" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B43" t="s">
         <v>52</v>
       </c>
+      <c r="C43" t="s">
+        <v>57</v>
+      </c>
       <c r="D43" t="s">
         <v>12</v>
       </c>
       <c r="F43" t="s">
         <v>15</v>
       </c>
-      <c r="G43" s="4"/>
+      <c r="G43" s="4" t="s">
+        <v>181</v>
+      </c>
       <c r="J43">
-        <v>52</v>
+        <v>26</v>
       </c>
       <c r="L43">
         <f t="shared" si="0"/>
-        <v>52</v>
-      </c>
-      <c r="M43" s="4"/>
+        <v>26</v>
+      </c>
+      <c r="M43" s="30" t="s">
+        <v>191</v>
+      </c>
       <c r="N43" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="44" spans="1:14">
+      <c r="A44" t="s">
+        <v>8</v>
+      </c>
       <c r="G44" s="4"/>
+      <c r="H44">
+        <f t="shared" ref="H44:K44" si="1">SUM(H2:H43)</f>
+        <v>726</v>
+      </c>
+      <c r="I44">
+        <f t="shared" si="1"/>
+        <v>1238</v>
+      </c>
+      <c r="J44">
+        <f t="shared" si="1"/>
+        <v>1356</v>
+      </c>
+      <c r="K44">
+        <f t="shared" si="1"/>
+        <v>855</v>
+      </c>
+      <c r="L44">
+        <f>SUM(L2:L43)</f>
+        <v>4175</v>
+      </c>
       <c r="M44" s="4"/>
     </row>
   </sheetData>
@@ -2850,15 +2889,15 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17">
       <c r="A2" s="20" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B2" s="21" t="s">
         <v>65</v>
@@ -2866,7 +2905,7 @@
     </row>
     <row r="3" spans="1:2" ht="17">
       <c r="A3" s="20" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B3" s="21" t="s">
         <v>66</v>
@@ -2874,7 +2913,7 @@
     </row>
     <row r="4" spans="1:2" ht="17">
       <c r="A4" s="20" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B4" s="21" t="s">
         <v>29</v>
@@ -2882,7 +2921,7 @@
     </row>
     <row r="5" spans="1:2" ht="17">
       <c r="A5" s="20" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B5" s="21" t="s">
         <v>30</v>
@@ -2890,7 +2929,7 @@
     </row>
     <row r="6" spans="1:2" ht="17">
       <c r="A6" s="20" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B6" s="21" t="s">
         <v>34</v>
@@ -2898,15 +2937,15 @@
     </row>
     <row r="7" spans="1:2" ht="17">
       <c r="A7" s="20" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B7" s="21" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="17">
       <c r="A8" s="20" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B8" s="21" t="s">
         <v>36</v>
@@ -2914,7 +2953,7 @@
     </row>
     <row r="9" spans="1:2" ht="17">
       <c r="A9" s="20" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B9" s="21" t="s">
         <v>37</v>
@@ -2922,7 +2961,7 @@
     </row>
     <row r="10" spans="1:2" ht="17">
       <c r="A10" s="22" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B10" s="21" t="s">
         <v>10</v>
@@ -2930,39 +2969,39 @@
     </row>
     <row r="11" spans="1:2" ht="17">
       <c r="A11" s="22" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B11" s="21" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="17">
       <c r="A12" s="22" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B12" s="21" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="17">
       <c r="A13" s="22" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B13" s="21" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="17">
       <c r="A14" s="22" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B14" s="21" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="17">
       <c r="A15" s="22" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B15" s="21" t="s">
         <v>73</v>
@@ -2970,7 +3009,7 @@
     </row>
     <row r="16" spans="1:2" ht="17">
       <c r="A16" s="22" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B16" s="21" t="s">
         <v>51</v>
@@ -2978,7 +3017,7 @@
     </row>
     <row r="17" spans="1:2" ht="17">
       <c r="A17" s="22" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B17" s="21" t="s">
         <v>49</v>
@@ -2986,63 +3025,63 @@
     </row>
     <row r="18" spans="1:2" ht="17">
       <c r="A18" s="23" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B18" s="24" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="17">
       <c r="A19" s="23" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B19" s="24" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="17">
       <c r="A20" s="23" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B20" s="24" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="17">
       <c r="A21" s="23" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B21" s="24" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="17">
       <c r="A22" s="23" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B22" s="24" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="17">
       <c r="A23" s="23" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B23" s="24" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="17">
       <c r="A24" s="20" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B24" s="21" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="17">
       <c r="A25" s="20" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B25" s="21" t="s">
         <v>63</v>
@@ -3050,7 +3089,7 @@
     </row>
     <row r="26" spans="1:2" ht="17">
       <c r="A26" s="20" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B26" s="21" t="s">
         <v>53</v>
@@ -3058,15 +3097,15 @@
     </row>
     <row r="27" spans="1:2" ht="17">
       <c r="A27" s="20" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B27" s="21" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="17">
       <c r="A28" s="20" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B28" s="21" t="s">
         <v>55</v>
@@ -3074,111 +3113,111 @@
     </row>
     <row r="29" spans="1:2" ht="17">
       <c r="A29" s="20" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B29" s="21" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="17">
       <c r="A30" s="20" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B30" s="21" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="17">
       <c r="A31" s="20" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B31" s="21" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="17">
       <c r="A32" s="20" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B32" s="21" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="17">
       <c r="A33" s="20" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B33" s="21" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="17">
       <c r="A34" s="20" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B34" s="21" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="17">
       <c r="A35" s="20" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B35" s="21" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="25" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B36" s="24" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="25" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B37" s="24" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="25" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B38" s="24" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="25" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B39" s="24" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="25" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B40" s="24" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="25" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B41" s="24" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="25" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B42" s="21" t="s">
         <v>29</v>
@@ -3186,7 +3225,7 @@
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="25" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B43" s="21" t="s">
         <v>30</v>
@@ -3194,7 +3233,7 @@
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="25" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B44" s="21" t="s">
         <v>34</v>
@@ -3202,7 +3241,7 @@
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="25" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B45" s="21" t="s">
         <v>35</v>
@@ -3210,7 +3249,7 @@
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="25" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B46" s="21" t="s">
         <v>36</v>
@@ -3218,7 +3257,7 @@
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="25" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B47" s="21" t="s">
         <v>37</v>
@@ -3226,66 +3265,66 @@
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="25" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B48" s="21" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="25" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B49" s="21" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="25" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B50" s="21" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="25" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B51" s="21" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="26" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B52" s="21" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="17">
       <c r="A53" s="20" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B53" s="27" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="25" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B54" s="27" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="25" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B55" s="21" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
   </sheetData>

--- a/data-raw/Data_summaryforpackage.xlsx
+++ b/data-raw/Data_summaryforpackage.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xutaowang/Desktop/curatedTBData/data-raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F92D1B55-EBB4-CE4C-A380-22040798DADF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65071F22-7CF3-7E4B-B4FB-AEBD89EBD6A3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6460" yWindow="4740" windowWidth="31260" windowHeight="16320" xr2:uid="{B39B7F83-2537-C248-AAB4-54D9192DC10F}"/>
   </bookViews>
@@ -1211,8 +1211,8 @@
   <dimension ref="A1:N44"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M23" sqref="M23"/>
+      <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1476,15 +1476,15 @@
       </c>
       <c r="H7" s="13"/>
       <c r="I7" s="13">
-        <v>327</v>
+        <v>259</v>
       </c>
       <c r="J7" s="13">
-        <v>101</v>
+        <v>75</v>
       </c>
       <c r="K7" s="13"/>
       <c r="L7">
         <f t="shared" si="0"/>
-        <v>428</v>
+        <v>334</v>
       </c>
       <c r="M7" s="14" t="s">
         <v>136</v>
@@ -1667,14 +1667,14 @@
         <v>23</v>
       </c>
       <c r="H12">
-        <v>69</v>
+        <v>15</v>
       </c>
       <c r="I12">
-        <v>69</v>
+        <v>16</v>
       </c>
       <c r="L12">
         <f t="shared" si="0"/>
-        <v>138</v>
+        <v>31</v>
       </c>
       <c r="M12" s="17" t="s">
         <v>135</v>
@@ -1709,14 +1709,14 @@
         <v>50</v>
       </c>
       <c r="I13">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="J13">
         <v>53</v>
       </c>
       <c r="L13">
         <f t="shared" si="0"/>
-        <v>175</v>
+        <v>161</v>
       </c>
       <c r="M13" s="17" t="s">
         <v>101</v>
@@ -2848,15 +2848,15 @@
       <c r="G44" s="4"/>
       <c r="H44">
         <f t="shared" ref="H44:K44" si="1">SUM(H2:H43)</f>
-        <v>726</v>
+        <v>672</v>
       </c>
       <c r="I44">
         <f t="shared" si="1"/>
-        <v>1238</v>
+        <v>1103</v>
       </c>
       <c r="J44">
         <f t="shared" si="1"/>
-        <v>1356</v>
+        <v>1330</v>
       </c>
       <c r="K44">
         <f t="shared" si="1"/>
@@ -2864,7 +2864,7 @@
       </c>
       <c r="L44">
         <f>SUM(L2:L43)</f>
-        <v>4175</v>
+        <v>3960</v>
       </c>
       <c r="M44" s="4"/>
     </row>

--- a/data-raw/Data_summaryforpackage.xlsx
+++ b/data-raw/Data_summaryforpackage.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xutaowang/Desktop/curatedTBData/data-raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65071F22-7CF3-7E4B-B4FB-AEBD89EBD6A3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2D1DB03-E7D0-CE4C-B9F9-B5A0F2601621}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6460" yWindow="4740" windowWidth="31260" windowHeight="16320" xr2:uid="{B39B7F83-2537-C248-AAB4-54D9192DC10F}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="32760" windowHeight="16380" xr2:uid="{B39B7F83-2537-C248-AAB4-54D9192DC10F}"/>
   </bookViews>
   <sheets>
     <sheet name="DataSummary" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="466" uniqueCount="195">
   <si>
     <t>GEO accession</t>
   </si>
@@ -653,6 +653,12 @@
   <si>
     <t xml:space="preserve">
 TB patients longitudinally sampled along 3 time-points: active, treatment recover. Could not locate patient ID.</t>
+  </si>
+  <si>
+    <t>Each patient was repeatedly measured twice</t>
+  </si>
+  <si>
+    <t>Sputum culture, chest radiography</t>
   </si>
 </sst>
 </file>
@@ -1211,8 +1217,8 @@
   <dimension ref="A1:N44"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A15" sqref="A15"/>
+      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2098,7 +2104,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="24" spans="1:14">
+    <row r="24" spans="1:14" ht="34">
       <c r="A24" s="5" t="s">
         <v>65</v>
       </c>
@@ -2117,8 +2123,8 @@
       <c r="F24" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="G24" t="s">
-        <v>23</v>
+      <c r="G24" s="4" t="s">
+        <v>194</v>
       </c>
       <c r="I24">
         <v>14</v>
@@ -2674,7 +2680,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="39" spans="1:14">
+    <row r="39" spans="1:14" ht="34">
       <c r="A39" t="s">
         <v>53</v>
       </c>
@@ -2691,17 +2697,20 @@
         <v>15</v>
       </c>
       <c r="H39">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="I39">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="J39">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="L39">
         <f t="shared" si="0"/>
-        <v>42</v>
+        <v>21</v>
+      </c>
+      <c r="M39" s="4" t="s">
+        <v>193</v>
       </c>
       <c r="N39" s="28" t="s">
         <v>175</v>
@@ -2848,15 +2857,15 @@
       <c r="G44" s="4"/>
       <c r="H44">
         <f t="shared" ref="H44:K44" si="1">SUM(H2:H43)</f>
-        <v>672</v>
+        <v>665</v>
       </c>
       <c r="I44">
         <f t="shared" si="1"/>
-        <v>1103</v>
+        <v>1096</v>
       </c>
       <c r="J44">
         <f t="shared" si="1"/>
-        <v>1330</v>
+        <v>1323</v>
       </c>
       <c r="K44">
         <f t="shared" si="1"/>
@@ -2864,7 +2873,7 @@
       </c>
       <c r="L44">
         <f>SUM(L2:L43)</f>
-        <v>3960</v>
+        <v>3939</v>
       </c>
       <c r="M44" s="4"/>
     </row>

--- a/data-raw/Data_summaryforpackage.xlsx
+++ b/data-raw/Data_summaryforpackage.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xutaowang/Desktop/curatedTBData/data-raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2D1DB03-E7D0-CE4C-B9F9-B5A0F2601621}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7740442-5AC7-2F4F-A0AF-9FF3DF4A968C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="32760" windowHeight="16380" xr2:uid="{B39B7F83-2537-C248-AAB4-54D9192DC10F}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="466" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="469" uniqueCount="197">
   <si>
     <t>GEO accession</t>
   </si>
@@ -349,10 +349,6 @@
     <t>10-18</t>
   </si>
   <si>
-    <t xml:space="preserve">
-Use normalized reads, unable to find gene annotation information from raw counts</t>
-  </si>
-  <si>
     <t xml:space="preserve">Longitudinal Study from Leicester for progressor
 </t>
   </si>
@@ -433,9 +429,6 @@
     <t>OD</t>
   </si>
   <si>
-    <t>Samples from the TB cases have been collected on the start day of TB treatment and on 1,4 and 24 weeks after treatment as well. ODs was Lung Dx or MTP. 2 NA's in TB status</t>
-  </si>
-  <si>
     <t>ODs was comorbid diabetes mellitus</t>
   </si>
   <si>
@@ -452,9 +445,6 @@
   </si>
   <si>
     <t>Some Latent in Controls, could not discrimniate, paper mentioned 200 samples. Only 281 genes mapped, because it is a RT-PCR study</t>
-  </si>
-  <si>
-    <t>Study for progressor</t>
   </si>
   <si>
     <t xml:space="preserve">Longitudinal Study from Leicester cohort for control vs. non-progressor
@@ -659,6 +649,23 @@
   </si>
   <si>
     <t>Sputum culture, chest radiography</t>
+  </si>
+  <si>
+    <t>Samples from the TB cases have been collected on the start day of TB treatment (DX) and on 1,4 and 24 weeks after treatment as well. ODs was Lung Dx or MTP. 2 NA's in TB status</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chest radiograph, sputum culture, TST
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Use normalized reads</t>
+  </si>
+  <si>
+    <t>Study for progressor. 16 out of 30 cases are progressor</t>
+  </si>
+  <si>
+    <t>1-72</t>
   </si>
 </sst>
 </file>
@@ -838,7 +845,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -900,6 +907,7 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1217,8 +1225,8 @@
   <dimension ref="A1:N44"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E6" sqref="E6"/>
+      <pane ySplit="1" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1254,7 +1262,7 @@
         <v>6</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I1" s="6" t="s">
         <v>7</v>
@@ -1263,7 +1271,7 @@
         <v>16</v>
       </c>
       <c r="K1" s="6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="L1" s="6" t="s">
         <v>8</v>
@@ -1272,7 +1280,7 @@
         <v>9</v>
       </c>
       <c r="N1" s="6" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="69" customHeight="1">
@@ -1308,12 +1316,12 @@
         <v>39</v>
       </c>
       <c r="N2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="70" customHeight="1">
       <c r="A3" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B3" t="s">
         <v>11</v>
@@ -1341,15 +1349,15 @@
         <v>9</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="N3" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="63" customHeight="1">
       <c r="A4" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B4" t="s">
         <v>11</v>
@@ -1374,15 +1382,15 @@
         <v>27</v>
       </c>
       <c r="M4" s="7" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="N4" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="5" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B5" t="s">
         <v>17</v>
@@ -1416,30 +1424,30 @@
         <v>39</v>
       </c>
       <c r="N5" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="34">
       <c r="A6" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="B6" t="s">
         <v>103</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>104</v>
-      </c>
-      <c r="C6" t="s">
-        <v>105</v>
       </c>
       <c r="D6" t="s">
         <v>19</v>
       </c>
       <c r="E6" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="F6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6" s="4" t="s">
         <v>106</v>
-      </c>
-      <c r="F6" t="s">
-        <v>15</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>107</v>
       </c>
       <c r="H6">
         <v>9</v>
@@ -1455,12 +1463,12 @@
         <v>27</v>
       </c>
       <c r="N6" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="119">
       <c r="A7" s="12" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B7" t="s">
         <v>97</v>
@@ -1478,7 +1486,7 @@
         <v>15</v>
       </c>
       <c r="G7" s="10" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="H7" s="13"/>
       <c r="I7" s="13">
@@ -1493,15 +1501,15 @@
         <v>334</v>
       </c>
       <c r="M7" s="14" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="N7" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="119">
       <c r="A8" s="18" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B8" t="s">
         <v>24</v>
@@ -1519,7 +1527,7 @@
         <v>15</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="I8">
         <v>104</v>
@@ -1532,19 +1540,22 @@
         <v>144</v>
       </c>
       <c r="M8" s="4" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="N8" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" ht="102">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="119">
       <c r="A9" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B9" t="s">
         <v>24</v>
       </c>
+      <c r="C9" t="s">
+        <v>22</v>
+      </c>
       <c r="D9" t="s">
         <v>26</v>
       </c>
@@ -1553,7 +1564,7 @@
         <v>15</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="H9">
         <v>100</v>
@@ -1566,15 +1577,15 @@
         <v>138</v>
       </c>
       <c r="M9" s="4" t="s">
-        <v>127</v>
+        <v>192</v>
       </c>
       <c r="N9" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="51">
       <c r="A10" s="5" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B10" t="s">
         <v>25</v>
@@ -1608,12 +1619,12 @@
         <v>33</v>
       </c>
       <c r="N10" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="51">
       <c r="A11" s="5" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B11" t="s">
         <v>25</v>
@@ -1647,12 +1658,12 @@
         <v>45</v>
       </c>
       <c r="N11" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="12" spans="1:14" ht="62" customHeight="1">
       <c r="A12" s="18" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B12" t="s">
         <v>25</v>
@@ -1683,15 +1694,15 @@
         <v>31</v>
       </c>
       <c r="M12" s="17" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="N12" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="13" spans="1:14" ht="49" customHeight="1">
       <c r="A13" s="18" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B13" t="s">
         <v>25</v>
@@ -1725,33 +1736,33 @@
         <v>161</v>
       </c>
       <c r="M13" s="17" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="N13" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="14" spans="1:14" ht="49" customHeight="1">
       <c r="A14" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B14" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C14" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D14" t="s">
         <v>26</v>
       </c>
       <c r="E14" t="s">
+        <v>118</v>
+      </c>
+      <c r="F14" t="s">
+        <v>15</v>
+      </c>
+      <c r="G14" s="4" t="s">
         <v>119</v>
-      </c>
-      <c r="F14" t="s">
-        <v>15</v>
-      </c>
-      <c r="G14" s="4" t="s">
-        <v>120</v>
       </c>
       <c r="I14">
         <v>16</v>
@@ -1765,12 +1776,12 @@
       </c>
       <c r="M14" s="4"/>
       <c r="N14" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="15" spans="1:14" ht="49" customHeight="1">
       <c r="A15" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B15" t="s">
         <v>24</v>
@@ -1785,7 +1796,7 @@
         <v>80</v>
       </c>
       <c r="G15" s="16" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="J15">
         <v>17</v>
@@ -1798,46 +1809,49 @@
         <v>33</v>
       </c>
       <c r="M15" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="N15" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="16" spans="1:14" ht="49" customHeight="1">
       <c r="A16" s="17" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B16" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C16" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D16" t="s">
         <v>12</v>
       </c>
+      <c r="E16" s="31" t="s">
+        <v>196</v>
+      </c>
       <c r="F16" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="I16">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="J16">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="L16">
         <f t="shared" si="0"/>
         <v>51</v>
       </c>
       <c r="M16" s="17" t="s">
-        <v>134</v>
+        <v>195</v>
       </c>
       <c r="N16" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1860,7 +1874,7 @@
         <v>15</v>
       </c>
       <c r="G17" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="H17">
         <v>12</v>
@@ -1876,7 +1890,7 @@
         <v>54</v>
       </c>
       <c r="N17" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1899,7 +1913,7 @@
         <v>15</v>
       </c>
       <c r="G18" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="H18">
         <v>16</v>
@@ -1912,7 +1926,7 @@
         <v>44</v>
       </c>
       <c r="N18" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="19" spans="1:14" ht="86" customHeight="1">
@@ -1935,7 +1949,7 @@
         <v>15</v>
       </c>
       <c r="G19" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="I19">
         <v>31</v>
@@ -1951,7 +1965,7 @@
         <v>38</v>
       </c>
       <c r="N19" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1974,7 +1988,7 @@
         <v>15</v>
       </c>
       <c r="G20" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="H20">
         <v>12</v>
@@ -1990,7 +2004,7 @@
         <v>42</v>
       </c>
       <c r="N20" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="21" spans="1:14" ht="86" customHeight="1">
@@ -2010,7 +2024,7 @@
         <v>15</v>
       </c>
       <c r="G21" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="H21">
         <v>12</v>
@@ -2026,7 +2040,7 @@
         <v>42</v>
       </c>
       <c r="N21" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="22" spans="1:14" ht="102">
@@ -2046,7 +2060,7 @@
         <v>15</v>
       </c>
       <c r="G22" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="H22">
         <v>81</v>
@@ -2062,7 +2076,7 @@
         <v>46</v>
       </c>
       <c r="N22" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="23" spans="1:14" ht="69" customHeight="1">
@@ -2098,10 +2112,10 @@
         <v>36</v>
       </c>
       <c r="M23" s="7" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="N23" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="24" spans="1:14" ht="34">
@@ -2124,7 +2138,7 @@
         <v>71</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="I24">
         <v>14</v>
@@ -2143,7 +2157,7 @@
         <v>72</v>
       </c>
       <c r="N24" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="25" spans="1:14" ht="34">
@@ -2154,7 +2168,7 @@
         <v>67</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D25" t="s">
         <v>26</v>
@@ -2185,7 +2199,7 @@
         <v>72</v>
       </c>
       <c r="N25" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="26" spans="1:14" ht="68">
@@ -2205,7 +2219,7 @@
         <v>20</v>
       </c>
       <c r="F26" s="15" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="I26">
         <v>35</v>
@@ -2218,10 +2232,10 @@
         <v>50</v>
       </c>
       <c r="M26" s="4" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="N26" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="27" spans="1:14">
@@ -2241,7 +2255,7 @@
         <v>81</v>
       </c>
       <c r="F27" s="15" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="I27">
         <v>21</v>
@@ -2254,7 +2268,7 @@
         <v>44</v>
       </c>
       <c r="N27" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="28" spans="1:14">
@@ -2293,12 +2307,12 @@
         <v>537</v>
       </c>
       <c r="N28" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="29" spans="1:14" ht="113" customHeight="1">
       <c r="A29" s="5" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B29" t="s">
         <v>67</v>
@@ -2323,7 +2337,7 @@
         <v>83</v>
       </c>
       <c r="N29" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="30" spans="1:14" ht="68">
@@ -2365,7 +2379,7 @@
         <v>90</v>
       </c>
       <c r="N30" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="31" spans="1:14" ht="85">
@@ -2407,7 +2421,7 @@
         <v>91</v>
       </c>
       <c r="N31" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="32" spans="1:14" ht="17">
@@ -2440,7 +2454,7 @@
         <v>92</v>
       </c>
       <c r="N32" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="33" spans="1:14" ht="85">
@@ -2482,7 +2496,7 @@
         <v>93</v>
       </c>
       <c r="N33" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="34" spans="1:14" ht="34">
@@ -2512,10 +2526,10 @@
         <v>7</v>
       </c>
       <c r="M34" s="4" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="N34" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="35" spans="1:14" ht="102">
@@ -2554,15 +2568,15 @@
         <v>15</v>
       </c>
       <c r="M35" s="4" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="N35" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="36" spans="1:14" ht="34">
       <c r="A36" s="5" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B36" t="s">
         <v>67</v>
@@ -2574,10 +2588,10 @@
         <v>26</v>
       </c>
       <c r="E36" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F36" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="G36" t="s">
         <v>23</v>
@@ -2596,10 +2610,10 @@
         <v>110</v>
       </c>
       <c r="M36" s="4" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="N36" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="37" spans="1:14" ht="51">
@@ -2638,7 +2652,7 @@
         <v>108</v>
       </c>
       <c r="N37" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
     </row>
     <row r="38" spans="1:14" ht="17">
@@ -2674,10 +2688,10 @@
         <v>44</v>
       </c>
       <c r="M38" s="4" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="N38" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
     </row>
     <row r="39" spans="1:14" ht="34">
@@ -2710,10 +2724,10 @@
         <v>21</v>
       </c>
       <c r="M39" s="4" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="N39" s="28" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="40" spans="1:14" ht="85">
@@ -2733,7 +2747,7 @@
         <v>15</v>
       </c>
       <c r="G40" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="H40">
         <v>76</v>
@@ -2746,13 +2760,13 @@
         <v>189</v>
       </c>
       <c r="M40" s="4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="N40" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="41" spans="1:14" ht="68">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" ht="51">
       <c r="A41" t="s">
         <v>63</v>
       </c>
@@ -2782,23 +2796,25 @@
         <v>72</v>
       </c>
       <c r="M41" s="4" t="s">
-        <v>100</v>
+        <v>194</v>
       </c>
       <c r="N41" s="28" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="42" spans="1:14">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" ht="51">
       <c r="A42" t="s">
+        <v>108</v>
+      </c>
+      <c r="B42" t="s">
         <v>109</v>
       </c>
-      <c r="B42" t="s">
-        <v>110</v>
-      </c>
       <c r="D42" t="s">
         <v>26</v>
       </c>
-      <c r="G42" s="4"/>
+      <c r="G42" s="4" t="s">
+        <v>193</v>
+      </c>
       <c r="H42">
         <v>13</v>
       </c>
@@ -2814,12 +2830,12 @@
       </c>
       <c r="M42" s="4"/>
       <c r="N42" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
     </row>
     <row r="43" spans="1:14" ht="51">
       <c r="A43" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B43" t="s">
         <v>52</v>
@@ -2834,7 +2850,7 @@
         <v>15</v>
       </c>
       <c r="G43" s="4" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="J43">
         <v>26</v>
@@ -2844,10 +2860,10 @@
         <v>26</v>
       </c>
       <c r="M43" s="30" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="N43" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
     </row>
     <row r="44" spans="1:14">
@@ -2861,11 +2877,11 @@
       </c>
       <c r="I44">
         <f t="shared" si="1"/>
-        <v>1096</v>
+        <v>1080</v>
       </c>
       <c r="J44">
         <f t="shared" si="1"/>
-        <v>1323</v>
+        <v>1339</v>
       </c>
       <c r="K44">
         <f t="shared" si="1"/>
@@ -2898,15 +2914,15 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B1" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17">
       <c r="A2" s="20" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B2" s="21" t="s">
         <v>65</v>
@@ -2914,7 +2930,7 @@
     </row>
     <row r="3" spans="1:2" ht="17">
       <c r="A3" s="20" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B3" s="21" t="s">
         <v>66</v>
@@ -2922,7 +2938,7 @@
     </row>
     <row r="4" spans="1:2" ht="17">
       <c r="A4" s="20" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B4" s="21" t="s">
         <v>29</v>
@@ -2930,7 +2946,7 @@
     </row>
     <row r="5" spans="1:2" ht="17">
       <c r="A5" s="20" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B5" s="21" t="s">
         <v>30</v>
@@ -2938,7 +2954,7 @@
     </row>
     <row r="6" spans="1:2" ht="17">
       <c r="A6" s="20" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B6" s="21" t="s">
         <v>34</v>
@@ -2946,15 +2962,15 @@
     </row>
     <row r="7" spans="1:2" ht="17">
       <c r="A7" s="20" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B7" s="21" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="17">
       <c r="A8" s="20" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B8" s="21" t="s">
         <v>36</v>
@@ -2962,7 +2978,7 @@
     </row>
     <row r="9" spans="1:2" ht="17">
       <c r="A9" s="20" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B9" s="21" t="s">
         <v>37</v>
@@ -2970,7 +2986,7 @@
     </row>
     <row r="10" spans="1:2" ht="17">
       <c r="A10" s="22" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B10" s="21" t="s">
         <v>10</v>
@@ -2978,23 +2994,23 @@
     </row>
     <row r="11" spans="1:2" ht="17">
       <c r="A11" s="22" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B11" s="21" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="17">
       <c r="A12" s="22" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B12" s="21" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="17">
       <c r="A13" s="22" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B13" s="21" t="s">
         <v>77</v>
@@ -3002,15 +3018,15 @@
     </row>
     <row r="14" spans="1:2" ht="17">
       <c r="A14" s="22" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B14" s="21" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="17">
       <c r="A15" s="22" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B15" s="21" t="s">
         <v>73</v>
@@ -3018,7 +3034,7 @@
     </row>
     <row r="16" spans="1:2" ht="17">
       <c r="A16" s="22" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B16" s="21" t="s">
         <v>51</v>
@@ -3026,7 +3042,7 @@
     </row>
     <row r="17" spans="1:2" ht="17">
       <c r="A17" s="22" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B17" s="21" t="s">
         <v>49</v>
@@ -3034,7 +3050,7 @@
     </row>
     <row r="18" spans="1:2" ht="17">
       <c r="A18" s="23" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B18" s="24" t="s">
         <v>84</v>
@@ -3042,7 +3058,7 @@
     </row>
     <row r="19" spans="1:2" ht="17">
       <c r="A19" s="23" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B19" s="24" t="s">
         <v>85</v>
@@ -3050,7 +3066,7 @@
     </row>
     <row r="20" spans="1:2" ht="17">
       <c r="A20" s="23" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B20" s="24" t="s">
         <v>86</v>
@@ -3058,7 +3074,7 @@
     </row>
     <row r="21" spans="1:2" ht="17">
       <c r="A21" s="23" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B21" s="24" t="s">
         <v>87</v>
@@ -3066,7 +3082,7 @@
     </row>
     <row r="22" spans="1:2" ht="17">
       <c r="A22" s="23" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B22" s="24" t="s">
         <v>88</v>
@@ -3074,7 +3090,7 @@
     </row>
     <row r="23" spans="1:2" ht="17">
       <c r="A23" s="23" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B23" s="24" t="s">
         <v>89</v>
@@ -3082,7 +3098,7 @@
     </row>
     <row r="24" spans="1:2" ht="17">
       <c r="A24" s="20" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B24" s="21" t="s">
         <v>78</v>
@@ -3090,7 +3106,7 @@
     </row>
     <row r="25" spans="1:2" ht="17">
       <c r="A25" s="20" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B25" s="21" t="s">
         <v>63</v>
@@ -3098,7 +3114,7 @@
     </row>
     <row r="26" spans="1:2" ht="17">
       <c r="A26" s="20" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B26" s="21" t="s">
         <v>53</v>
@@ -3106,15 +3122,15 @@
     </row>
     <row r="27" spans="1:2" ht="17">
       <c r="A27" s="20" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B27" s="21" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="17">
       <c r="A28" s="20" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B28" s="21" t="s">
         <v>55</v>
@@ -3122,23 +3138,23 @@
     </row>
     <row r="29" spans="1:2" ht="17">
       <c r="A29" s="20" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B29" s="21" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="17">
       <c r="A30" s="20" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B30" s="21" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="17">
       <c r="A31" s="20" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B31" s="21" t="s">
         <v>79</v>
@@ -3146,39 +3162,39 @@
     </row>
     <row r="32" spans="1:2" ht="17">
       <c r="A32" s="20" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B32" s="21" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="17">
       <c r="A33" s="20" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B33" s="21" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="17">
       <c r="A34" s="20" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B34" s="21" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="17">
       <c r="A35" s="20" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B35" s="21" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="25" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B36" s="24" t="s">
         <v>84</v>
@@ -3186,7 +3202,7 @@
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="25" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B37" s="24" t="s">
         <v>85</v>
@@ -3194,7 +3210,7 @@
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="25" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B38" s="24" t="s">
         <v>86</v>
@@ -3202,7 +3218,7 @@
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="25" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B39" s="24" t="s">
         <v>87</v>
@@ -3210,7 +3226,7 @@
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="25" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B40" s="24" t="s">
         <v>88</v>
@@ -3218,7 +3234,7 @@
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="25" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B41" s="24" t="s">
         <v>89</v>
@@ -3226,7 +3242,7 @@
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="25" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B42" s="21" t="s">
         <v>29</v>
@@ -3234,7 +3250,7 @@
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="25" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B43" s="21" t="s">
         <v>30</v>
@@ -3242,7 +3258,7 @@
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="25" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B44" s="21" t="s">
         <v>34</v>
@@ -3250,7 +3266,7 @@
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="25" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B45" s="21" t="s">
         <v>35</v>
@@ -3258,7 +3274,7 @@
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="25" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B46" s="21" t="s">
         <v>36</v>
@@ -3266,7 +3282,7 @@
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="25" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B47" s="21" t="s">
         <v>37</v>
@@ -3274,15 +3290,15 @@
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="25" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B48" s="21" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="25" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B49" s="21" t="s">
         <v>77</v>
@@ -3290,50 +3306,50 @@
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="25" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B50" s="21" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="25" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="B51" s="21" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="26" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B52" s="21" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="17">
       <c r="A53" s="20" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B53" s="27" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="25" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B54" s="27" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="25" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B55" s="21" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>

--- a/data-raw/Data_summaryforpackage.xlsx
+++ b/data-raw/Data_summaryforpackage.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xutaowang/Desktop/curatedTBData/data-raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7740442-5AC7-2F4F-A0AF-9FF3DF4A968C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05EF1EA4-6CD8-0048-AEBE-B32949E4FCE6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="32760" windowHeight="16380" xr2:uid="{B39B7F83-2537-C248-AAB4-54D9192DC10F}"/>
   </bookViews>
@@ -1225,8 +1225,8 @@
   <dimension ref="A1:N44"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C14" sqref="C14"/>
+      <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2897,7 +2897,7 @@
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="E22" twoDigitTextYear="1"/>
+    <ignoredError sqref="E22 E16" twoDigitTextYear="1"/>
   </ignoredErrors>
 </worksheet>
 </file>

--- a/data-raw/Data_summaryforpackage.xlsx
+++ b/data-raw/Data_summaryforpackage.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10614"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xutaowang/Desktop/curatedTBData/data-raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05EF1EA4-6CD8-0048-AEBE-B32949E4FCE6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9107590-9E06-DD4C-8D2F-1A165C19EC7F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="32760" windowHeight="16380" xr2:uid="{B39B7F83-2537-C248-AAB4-54D9192DC10F}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="469" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="199">
   <si>
     <t>GEO accession</t>
   </si>
@@ -255,9 +255,6 @@
   </si>
   <si>
     <t>Some positive</t>
-  </si>
-  <si>
-    <t>ODs was HIV</t>
   </si>
   <si>
     <t>GSE56153</t>
@@ -666,6 +663,15 @@
   </si>
   <si>
     <t>1-72</t>
+  </si>
+  <si>
+    <t>Sputum culture, chest radiography, TST</t>
+  </si>
+  <si>
+    <t>OD: children received a definitive alternative diagnosis or had no clinical deterioration on follow-up in the absence of tuberculosis therapy</t>
+  </si>
+  <si>
+    <t>OD: any case with an established alternative diagnosis to TB, no microbiological evidence of TB, and an absence of TB symptoms at the time of follow-up or with an observed improvement of clinical symptoms on follow-up without TB treatment</t>
   </si>
 </sst>
 </file>
@@ -1225,8 +1231,8 @@
   <dimension ref="A1:N44"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D18" sqref="D18"/>
+      <pane ySplit="1" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1262,7 +1268,7 @@
         <v>6</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="I1" s="6" t="s">
         <v>7</v>
@@ -1271,7 +1277,7 @@
         <v>16</v>
       </c>
       <c r="K1" s="6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="L1" s="6" t="s">
         <v>8</v>
@@ -1280,7 +1286,7 @@
         <v>9</v>
       </c>
       <c r="N1" s="6" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="69" customHeight="1">
@@ -1316,12 +1322,12 @@
         <v>39</v>
       </c>
       <c r="N2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="70" customHeight="1">
       <c r="A3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B3" t="s">
         <v>11</v>
@@ -1349,15 +1355,15 @@
         <v>9</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="N3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="63" customHeight="1">
       <c r="A4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B4" t="s">
         <v>11</v>
@@ -1382,15 +1388,15 @@
         <v>27</v>
       </c>
       <c r="M4" s="7" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="N4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B5" t="s">
         <v>17</v>
@@ -1424,30 +1430,30 @@
         <v>39</v>
       </c>
       <c r="N5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="34">
       <c r="A6" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="B6" t="s">
         <v>102</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>103</v>
-      </c>
-      <c r="C6" t="s">
-        <v>104</v>
       </c>
       <c r="D6" t="s">
         <v>19</v>
       </c>
       <c r="E6" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="F6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6" s="4" t="s">
         <v>105</v>
-      </c>
-      <c r="F6" t="s">
-        <v>15</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>106</v>
       </c>
       <c r="H6">
         <v>9</v>
@@ -1463,30 +1469,30 @@
         <v>27</v>
       </c>
       <c r="N6" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="119">
       <c r="A7" s="12" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B7" t="s">
+        <v>96</v>
+      </c>
+      <c r="C7" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="D7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="D7" t="s">
-        <v>26</v>
-      </c>
-      <c r="E7" s="11" t="s">
-        <v>99</v>
-      </c>
       <c r="F7" t="s">
         <v>15</v>
       </c>
       <c r="G7" s="10" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="H7" s="13"/>
       <c r="I7" s="13">
@@ -1501,15 +1507,15 @@
         <v>334</v>
       </c>
       <c r="M7" s="14" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="N7" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="119">
       <c r="A8" s="18" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B8" t="s">
         <v>24</v>
@@ -1527,7 +1533,7 @@
         <v>15</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I8">
         <v>104</v>
@@ -1540,15 +1546,15 @@
         <v>144</v>
       </c>
       <c r="M8" s="4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="N8" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="119">
       <c r="A9" s="5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B9" t="s">
         <v>24</v>
@@ -1564,7 +1570,7 @@
         <v>15</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="H9">
         <v>100</v>
@@ -1577,15 +1583,15 @@
         <v>138</v>
       </c>
       <c r="M9" s="4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="N9" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="51">
       <c r="A10" s="5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B10" t="s">
         <v>25</v>
@@ -1619,12 +1625,12 @@
         <v>33</v>
       </c>
       <c r="N10" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="51">
       <c r="A11" s="5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B11" t="s">
         <v>25</v>
@@ -1658,12 +1664,12 @@
         <v>45</v>
       </c>
       <c r="N11" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="12" spans="1:14" ht="62" customHeight="1">
       <c r="A12" s="18" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B12" t="s">
         <v>25</v>
@@ -1694,15 +1700,15 @@
         <v>31</v>
       </c>
       <c r="M12" s="17" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="N12" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="13" spans="1:14" ht="49" customHeight="1">
       <c r="A13" s="18" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B13" t="s">
         <v>25</v>
@@ -1736,33 +1742,33 @@
         <v>161</v>
       </c>
       <c r="M13" s="17" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="N13" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="14" spans="1:14" ht="49" customHeight="1">
       <c r="A14" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B14" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C14" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D14" t="s">
         <v>26</v>
       </c>
       <c r="E14" t="s">
+        <v>117</v>
+      </c>
+      <c r="F14" t="s">
+        <v>15</v>
+      </c>
+      <c r="G14" s="4" t="s">
         <v>118</v>
-      </c>
-      <c r="F14" t="s">
-        <v>15</v>
-      </c>
-      <c r="G14" s="4" t="s">
-        <v>119</v>
       </c>
       <c r="I14">
         <v>16</v>
@@ -1776,12 +1782,12 @@
       </c>
       <c r="M14" s="4"/>
       <c r="N14" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="15" spans="1:14" ht="49" customHeight="1">
       <c r="A15" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B15" t="s">
         <v>24</v>
@@ -1792,11 +1798,11 @@
       <c r="E15" t="s">
         <v>32</v>
       </c>
-      <c r="F15" t="s">
-        <v>80</v>
+      <c r="F15" s="15" t="s">
+        <v>79</v>
       </c>
       <c r="G15" s="16" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="J15">
         <v>17</v>
@@ -1809,33 +1815,33 @@
         <v>33</v>
       </c>
       <c r="M15" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="N15" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="16" spans="1:14" ht="49" customHeight="1">
       <c r="A16" s="17" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B16" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C16" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D16" t="s">
         <v>12</v>
       </c>
       <c r="E16" s="31" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F16" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I16">
         <v>21</v>
@@ -1848,10 +1854,10 @@
         <v>51</v>
       </c>
       <c r="M16" s="17" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="N16" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1874,7 +1880,7 @@
         <v>15</v>
       </c>
       <c r="G17" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H17">
         <v>12</v>
@@ -1890,7 +1896,7 @@
         <v>54</v>
       </c>
       <c r="N17" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1913,7 +1919,7 @@
         <v>15</v>
       </c>
       <c r="G18" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H18">
         <v>16</v>
@@ -1926,7 +1932,7 @@
         <v>44</v>
       </c>
       <c r="N18" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="19" spans="1:14" ht="86" customHeight="1">
@@ -1949,7 +1955,7 @@
         <v>15</v>
       </c>
       <c r="G19" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I19">
         <v>31</v>
@@ -1965,7 +1971,7 @@
         <v>38</v>
       </c>
       <c r="N19" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1988,7 +1994,7 @@
         <v>15</v>
       </c>
       <c r="G20" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H20">
         <v>12</v>
@@ -2004,7 +2010,7 @@
         <v>42</v>
       </c>
       <c r="N20" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="21" spans="1:14" ht="86" customHeight="1">
@@ -2024,7 +2030,7 @@
         <v>15</v>
       </c>
       <c r="G21" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H21">
         <v>12</v>
@@ -2040,7 +2046,7 @@
         <v>42</v>
       </c>
       <c r="N21" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="22" spans="1:14" ht="102">
@@ -2060,7 +2066,7 @@
         <v>15</v>
       </c>
       <c r="G22" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H22">
         <v>81</v>
@@ -2076,24 +2082,24 @@
         <v>46</v>
       </c>
       <c r="N22" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="23" spans="1:14" ht="69" customHeight="1">
       <c r="A23" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="B23" t="s">
         <v>73</v>
       </c>
-      <c r="B23" t="s">
+      <c r="C23" t="s">
         <v>74</v>
       </c>
-      <c r="C23" t="s">
+      <c r="D23" t="s">
+        <v>26</v>
+      </c>
+      <c r="E23" s="8" t="s">
         <v>75</v>
-      </c>
-      <c r="D23" t="s">
-        <v>26</v>
-      </c>
-      <c r="E23" s="8" t="s">
-        <v>76</v>
       </c>
       <c r="F23" t="s">
         <v>15</v>
@@ -2112,13 +2118,13 @@
         <v>36</v>
       </c>
       <c r="M23" s="7" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="N23" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" ht="34">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" ht="85">
       <c r="A24" s="5" t="s">
         <v>65</v>
       </c>
@@ -2138,7 +2144,7 @@
         <v>71</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="I24">
         <v>14</v>
@@ -2153,14 +2159,14 @@
         <f t="shared" si="0"/>
         <v>157</v>
       </c>
-      <c r="M24" t="s">
-        <v>72</v>
+      <c r="M24" s="4" t="s">
+        <v>197</v>
       </c>
       <c r="N24" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" ht="34">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" ht="85">
       <c r="A25" s="5" t="s">
         <v>66</v>
       </c>
@@ -2168,7 +2174,7 @@
         <v>67</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D25" t="s">
         <v>26</v>
@@ -2179,8 +2185,8 @@
       <c r="F25" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="G25" t="s">
-        <v>23</v>
+      <c r="G25" s="4" t="s">
+        <v>196</v>
       </c>
       <c r="I25">
         <v>54</v>
@@ -2195,16 +2201,16 @@
         <f t="shared" si="0"/>
         <v>334</v>
       </c>
-      <c r="M25" t="s">
-        <v>72</v>
+      <c r="M25" s="4" t="s">
+        <v>197</v>
       </c>
       <c r="N25" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="26" spans="1:14" ht="68">
       <c r="A26" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B26" t="s">
         <v>67</v>
@@ -2219,7 +2225,7 @@
         <v>20</v>
       </c>
       <c r="F26" s="15" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="I26">
         <v>35</v>
@@ -2232,15 +2238,15 @@
         <v>50</v>
       </c>
       <c r="M26" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="N26" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="27" spans="1:14">
       <c r="A27" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B27" t="s">
         <v>67</v>
@@ -2252,10 +2258,10 @@
         <v>12</v>
       </c>
       <c r="E27" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F27" s="15" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="I27">
         <v>21</v>
@@ -2268,12 +2274,12 @@
         <v>44</v>
       </c>
       <c r="N27" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" ht="153">
       <c r="A28" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B28" t="s">
         <v>67</v>
@@ -2291,7 +2297,7 @@
         <v>71</v>
       </c>
       <c r="G28" t="s">
-        <v>23</v>
+        <v>190</v>
       </c>
       <c r="I28">
         <v>167</v>
@@ -2306,19 +2312,22 @@
         <f t="shared" si="0"/>
         <v>537</v>
       </c>
+      <c r="M28" s="4" t="s">
+        <v>198</v>
+      </c>
       <c r="N28" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="29" spans="1:14" ht="113" customHeight="1">
       <c r="A29" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B29" t="s">
         <v>67</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D29" t="s">
         <v>26</v>
@@ -2334,15 +2343,15 @@
         <v>75</v>
       </c>
       <c r="M29" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="N29" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="30" spans="1:14" ht="68">
       <c r="A30" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B30" t="s">
         <v>67</v>
@@ -2376,15 +2385,15 @@
         <v>42</v>
       </c>
       <c r="M30" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="N30" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="31" spans="1:14" ht="85">
       <c r="A31" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B31" t="s">
         <v>67</v>
@@ -2418,15 +2427,15 @@
         <v>102</v>
       </c>
       <c r="M31" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="N31" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="32" spans="1:14" ht="17">
       <c r="A32" s="29" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B32" t="s">
         <v>67</v>
@@ -2451,15 +2460,15 @@
         <v>27</v>
       </c>
       <c r="M32" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N32" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="33" spans="1:14" ht="85">
       <c r="A33" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B33" t="s">
         <v>67</v>
@@ -2493,15 +2502,15 @@
         <v>95</v>
       </c>
       <c r="M33" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="N33" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="34" spans="1:14" ht="34">
       <c r="A34" s="29" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B34" t="s">
         <v>67</v>
@@ -2526,15 +2535,15 @@
         <v>7</v>
       </c>
       <c r="M34" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="N34" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="35" spans="1:14" ht="102">
       <c r="A35" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B35" t="s">
         <v>67</v>
@@ -2543,7 +2552,7 @@
         <v>60</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E35" t="s">
         <v>20</v>
@@ -2568,30 +2577,30 @@
         <v>15</v>
       </c>
       <c r="M35" s="4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="N35" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="36" spans="1:14" ht="34">
       <c r="A36" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B36" t="s">
         <v>67</v>
       </c>
       <c r="C36" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D36" t="s">
         <v>26</v>
       </c>
       <c r="E36" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F36" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G36" t="s">
         <v>23</v>
@@ -2610,10 +2619,10 @@
         <v>110</v>
       </c>
       <c r="M36" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="N36" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="37" spans="1:14" ht="51">
@@ -2652,7 +2661,7 @@
         <v>108</v>
       </c>
       <c r="N37" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="38" spans="1:14" ht="17">
@@ -2688,10 +2697,10 @@
         <v>44</v>
       </c>
       <c r="M38" s="4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="N38" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="39" spans="1:14" ht="34">
@@ -2724,10 +2733,10 @@
         <v>21</v>
       </c>
       <c r="M39" s="4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="N39" s="28" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="40" spans="1:14" ht="85">
@@ -2738,7 +2747,7 @@
         <v>56</v>
       </c>
       <c r="C40" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D40" t="s">
         <v>26</v>
@@ -2747,7 +2756,7 @@
         <v>15</v>
       </c>
       <c r="G40" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="H40">
         <v>76</v>
@@ -2760,10 +2769,10 @@
         <v>189</v>
       </c>
       <c r="M40" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="N40" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="41" spans="1:14" ht="51">
@@ -2780,7 +2789,7 @@
         <v>15</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H41">
         <v>36</v>
@@ -2796,24 +2805,24 @@
         <v>72</v>
       </c>
       <c r="M41" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="N41" s="28" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="42" spans="1:14" ht="51">
       <c r="A42" t="s">
+        <v>107</v>
+      </c>
+      <c r="B42" t="s">
         <v>108</v>
       </c>
-      <c r="B42" t="s">
-        <v>109</v>
-      </c>
       <c r="D42" t="s">
         <v>26</v>
       </c>
       <c r="G42" s="4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H42">
         <v>13</v>
@@ -2830,12 +2839,12 @@
       </c>
       <c r="M42" s="4"/>
       <c r="N42" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="43" spans="1:14" ht="51">
       <c r="A43" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B43" t="s">
         <v>52</v>
@@ -2850,7 +2859,7 @@
         <v>15</v>
       </c>
       <c r="G43" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="J43">
         <v>26</v>
@@ -2860,10 +2869,10 @@
         <v>26</v>
       </c>
       <c r="M43" s="30" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="N43" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="44" spans="1:14">
@@ -2907,22 +2916,22 @@
   <dimension ref="A1:B55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B1" t="s">
         <v>147</v>
-      </c>
-      <c r="B1" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17">
       <c r="A2" s="20" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B2" s="21" t="s">
         <v>65</v>
@@ -2930,7 +2939,7 @@
     </row>
     <row r="3" spans="1:2" ht="17">
       <c r="A3" s="20" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B3" s="21" t="s">
         <v>66</v>
@@ -2938,103 +2947,103 @@
     </row>
     <row r="4" spans="1:2" ht="17">
       <c r="A4" s="20" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B4" s="21" t="s">
-        <v>29</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="17">
       <c r="A5" s="20" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B5" s="21" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="17">
       <c r="A6" s="20" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B6" s="21" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="17">
       <c r="A7" s="20" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B7" s="21" t="s">
-        <v>151</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="17">
       <c r="A8" s="20" t="s">
+        <v>149</v>
+      </c>
+      <c r="B8" s="21" t="s">
         <v>150</v>
-      </c>
-      <c r="B8" s="21" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="17">
       <c r="A9" s="20" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B9" s="21" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="17">
+      <c r="A10" s="20" t="s">
+        <v>149</v>
+      </c>
+      <c r="B10" s="21" t="s">
         <v>37</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="17">
-      <c r="A10" s="22" t="s">
-        <v>152</v>
-      </c>
-      <c r="B10" s="21" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="17">
       <c r="A11" s="22" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B11" s="21" t="s">
-        <v>135</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="17">
       <c r="A12" s="22" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B12" s="21" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="17">
       <c r="A13" s="22" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B13" s="21" t="s">
-        <v>77</v>
+        <v>135</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="17">
       <c r="A14" s="22" t="s">
+        <v>151</v>
+      </c>
+      <c r="B14" s="21" t="s">
         <v>152</v>
-      </c>
-      <c r="B14" s="21" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="17">
       <c r="A15" s="22" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B15" s="21" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="17">
       <c r="A16" s="22" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B16" s="21" t="s">
         <v>51</v>
@@ -3042,7 +3051,7 @@
     </row>
     <row r="17" spans="1:2" ht="17">
       <c r="A17" s="22" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B17" s="21" t="s">
         <v>49</v>
@@ -3050,63 +3059,63 @@
     </row>
     <row r="18" spans="1:2" ht="17">
       <c r="A18" s="23" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B18" s="24" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="17">
       <c r="A19" s="23" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B19" s="24" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="17">
       <c r="A20" s="23" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B20" s="24" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="17">
       <c r="A21" s="23" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B21" s="24" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="17">
       <c r="A22" s="23" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B22" s="24" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="17">
       <c r="A23" s="23" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B23" s="24" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="17">
       <c r="A24" s="20" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B24" s="21" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="17">
       <c r="A25" s="20" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B25" s="21" t="s">
         <v>63</v>
@@ -3114,7 +3123,7 @@
     </row>
     <row r="26" spans="1:2" ht="17">
       <c r="A26" s="20" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B26" s="21" t="s">
         <v>53</v>
@@ -3122,15 +3131,15 @@
     </row>
     <row r="27" spans="1:2" ht="17">
       <c r="A27" s="20" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B27" s="21" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="17">
       <c r="A28" s="20" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B28" s="21" t="s">
         <v>55</v>
@@ -3138,111 +3147,111 @@
     </row>
     <row r="29" spans="1:2" ht="17">
       <c r="A29" s="20" t="s">
+        <v>158</v>
+      </c>
+      <c r="B29" s="21" t="s">
         <v>159</v>
-      </c>
-      <c r="B29" s="21" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="17">
       <c r="A30" s="20" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B30" s="21" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="17">
       <c r="A31" s="20" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B31" s="21" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="17">
       <c r="A32" s="20" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B32" s="21" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="17">
       <c r="A33" s="20" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B33" s="21" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="17">
       <c r="A34" s="20" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B34" s="21" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="17">
       <c r="A35" s="20" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B35" s="21" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="25" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B36" s="24" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="25" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B37" s="24" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="25" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B38" s="24" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="25" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B39" s="24" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="25" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B40" s="24" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="25" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B41" s="24" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="25" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B42" s="21" t="s">
         <v>29</v>
@@ -3250,7 +3259,7 @@
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="25" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B43" s="21" t="s">
         <v>30</v>
@@ -3258,7 +3267,7 @@
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="25" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B44" s="21" t="s">
         <v>34</v>
@@ -3266,7 +3275,7 @@
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="25" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B45" s="21" t="s">
         <v>35</v>
@@ -3274,7 +3283,7 @@
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="25" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B46" s="21" t="s">
         <v>36</v>
@@ -3282,7 +3291,7 @@
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="25" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B47" s="21" t="s">
         <v>37</v>
@@ -3290,66 +3299,66 @@
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="25" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B48" s="21" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="25" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B49" s="21" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="25" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B50" s="21" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="25" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B51" s="21" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="26" t="s">
+        <v>164</v>
+      </c>
+      <c r="B52" s="21" t="s">
         <v>165</v>
-      </c>
-      <c r="B52" s="21" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="17">
       <c r="A53" s="20" t="s">
+        <v>166</v>
+      </c>
+      <c r="B53" s="27" t="s">
         <v>167</v>
-      </c>
-      <c r="B53" s="27" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="25" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B54" s="27" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="25" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B55" s="21" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
   </sheetData>

--- a/data-raw/Data_summaryforpackage.xlsx
+++ b/data-raw/Data_summaryforpackage.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xutaowang/Desktop/curatedTBData/data-raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9107590-9E06-DD4C-8D2F-1A165C19EC7F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD3D3FEF-F333-C349-BAEB-BDF29666DFDF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="32760" windowHeight="16380" xr2:uid="{B39B7F83-2537-C248-AAB4-54D9192DC10F}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="473" uniqueCount="199">
   <si>
     <t>GEO accession</t>
   </si>
@@ -278,9 +278,6 @@
     <t>GSE50834</t>
   </si>
   <si>
-    <t>Positive</t>
-  </si>
-  <si>
     <t>30-40</t>
   </si>
   <si>
@@ -405,9 +402,6 @@
     <t>&gt;18 (one 16)</t>
   </si>
   <si>
-    <t>TST, sputum AFB, culture</t>
-  </si>
-  <si>
     <t>GSE107104</t>
   </si>
   <si>
@@ -415,9 +409,6 @@
   </si>
   <si>
     <t xml:space="preserve">smear or microbiologically-confirmed TB </t>
-  </si>
-  <si>
-    <t>OD was HIV</t>
   </si>
   <si>
     <t>Control</t>
@@ -673,12 +664,31 @@
   <si>
     <t>OD: any case with an established alternative diagnosis to TB, no microbiological evidence of TB, and an absence of TB symptoms at the time of follow-up or with an observed improvement of clinical symptoms on follow-up without TB treatment</t>
   </si>
+  <si>
+    <t>Sputum culture, sputum Xpert MTB-RIF</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Repeated measure for GSM1230903 and GSM1230904. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="4"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>This study identifies 251 Gene Expression Signature that tan qccurately detect M. tuberculosis in patients with and without HIV co-Infection. Consider to add in TBsignatureProfiler?</t>
+    </r>
+  </si>
+  <si>
+    <t>TST, sputum AFB and culture</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13">
+  <fonts count="14">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -758,6 +768,11 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="4"/>
+      <name val="Calibri (Body)"/>
     </font>
   </fonts>
   <fills count="4">
@@ -1231,8 +1246,8 @@
   <dimension ref="A1:N44"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G28" sqref="G28"/>
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1268,7 +1283,7 @@
         <v>6</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="I1" s="6" t="s">
         <v>7</v>
@@ -1277,7 +1292,7 @@
         <v>16</v>
       </c>
       <c r="K1" s="6" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="L1" s="6" t="s">
         <v>8</v>
@@ -1286,7 +1301,7 @@
         <v>9</v>
       </c>
       <c r="N1" s="6" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="69" customHeight="1">
@@ -1322,12 +1337,12 @@
         <v>39</v>
       </c>
       <c r="N2" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="70" customHeight="1">
       <c r="A3" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B3" t="s">
         <v>11</v>
@@ -1355,15 +1370,15 @@
         <v>9</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="N3" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="63" customHeight="1">
       <c r="A4" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B4" t="s">
         <v>11</v>
@@ -1388,15 +1403,15 @@
         <v>27</v>
       </c>
       <c r="M4" s="7" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="N4" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="5" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B5" t="s">
         <v>17</v>
@@ -1430,30 +1445,30 @@
         <v>39</v>
       </c>
       <c r="N5" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="34">
       <c r="A6" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="B6" t="s">
         <v>101</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>102</v>
-      </c>
-      <c r="C6" t="s">
-        <v>103</v>
       </c>
       <c r="D6" t="s">
         <v>19</v>
       </c>
       <c r="E6" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="F6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6" s="4" t="s">
         <v>104</v>
-      </c>
-      <c r="F6" t="s">
-        <v>15</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>105</v>
       </c>
       <c r="H6">
         <v>9</v>
@@ -1469,30 +1484,30 @@
         <v>27</v>
       </c>
       <c r="N6" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="119">
       <c r="A7" s="12" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B7" t="s">
+        <v>95</v>
+      </c>
+      <c r="C7" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="D7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="D7" t="s">
-        <v>26</v>
-      </c>
-      <c r="E7" s="11" t="s">
-        <v>98</v>
-      </c>
       <c r="F7" t="s">
         <v>15</v>
       </c>
       <c r="G7" s="10" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="H7" s="13"/>
       <c r="I7" s="13">
@@ -1507,15 +1522,15 @@
         <v>334</v>
       </c>
       <c r="M7" s="14" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="N7" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="119">
       <c r="A8" s="18" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B8" t="s">
         <v>24</v>
@@ -1533,7 +1548,7 @@
         <v>15</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="I8">
         <v>104</v>
@@ -1546,15 +1561,15 @@
         <v>144</v>
       </c>
       <c r="M8" s="4" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="N8" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="119">
       <c r="A9" s="5" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B9" t="s">
         <v>24</v>
@@ -1570,7 +1585,7 @@
         <v>15</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="H9">
         <v>100</v>
@@ -1583,15 +1598,15 @@
         <v>138</v>
       </c>
       <c r="M9" s="4" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="N9" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="51">
       <c r="A10" s="5" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B10" t="s">
         <v>25</v>
@@ -1625,12 +1640,12 @@
         <v>33</v>
       </c>
       <c r="N10" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="51">
       <c r="A11" s="5" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B11" t="s">
         <v>25</v>
@@ -1664,12 +1679,12 @@
         <v>45</v>
       </c>
       <c r="N11" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="12" spans="1:14" ht="62" customHeight="1">
       <c r="A12" s="18" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B12" t="s">
         <v>25</v>
@@ -1700,15 +1715,15 @@
         <v>31</v>
       </c>
       <c r="M12" s="17" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="N12" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="13" spans="1:14" ht="49" customHeight="1">
       <c r="A13" s="18" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B13" t="s">
         <v>25</v>
@@ -1742,33 +1757,33 @@
         <v>161</v>
       </c>
       <c r="M13" s="17" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="N13" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="14" spans="1:14" ht="49" customHeight="1">
       <c r="A14" s="5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B14" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C14" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D14" t="s">
         <v>26</v>
       </c>
       <c r="E14" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F14" t="s">
         <v>15</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>118</v>
+        <v>198</v>
       </c>
       <c r="I14">
         <v>16</v>
@@ -1782,12 +1797,12 @@
       </c>
       <c r="M14" s="4"/>
       <c r="N14" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="15" spans="1:14" ht="49" customHeight="1">
       <c r="A15" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B15" t="s">
         <v>24</v>
@@ -1799,49 +1814,47 @@
         <v>32</v>
       </c>
       <c r="F15" s="15" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="G15" s="16" t="s">
-        <v>121</v>
+        <v>119</v>
+      </c>
+      <c r="H15">
+        <v>16</v>
       </c>
       <c r="J15">
         <v>17</v>
       </c>
-      <c r="K15">
-        <v>16</v>
-      </c>
       <c r="L15">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
-      <c r="M15" s="4" t="s">
-        <v>122</v>
-      </c>
+      <c r="M15" s="4"/>
       <c r="N15" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="16" spans="1:14" ht="49" customHeight="1">
       <c r="A16" s="17" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B16" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C16" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D16" t="s">
         <v>12</v>
       </c>
       <c r="E16" s="31" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="F16" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I16">
         <v>21</v>
@@ -1854,10 +1867,10 @@
         <v>51</v>
       </c>
       <c r="M16" s="17" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="N16" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1880,7 +1893,7 @@
         <v>15</v>
       </c>
       <c r="G17" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="H17">
         <v>12</v>
@@ -1896,7 +1909,7 @@
         <v>54</v>
       </c>
       <c r="N17" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1919,7 +1932,7 @@
         <v>15</v>
       </c>
       <c r="G18" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="H18">
         <v>16</v>
@@ -1932,7 +1945,7 @@
         <v>44</v>
       </c>
       <c r="N18" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="19" spans="1:14" ht="86" customHeight="1">
@@ -1955,7 +1968,7 @@
         <v>15</v>
       </c>
       <c r="G19" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="I19">
         <v>31</v>
@@ -1971,7 +1984,7 @@
         <v>38</v>
       </c>
       <c r="N19" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1994,7 +2007,7 @@
         <v>15</v>
       </c>
       <c r="G20" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="H20">
         <v>12</v>
@@ -2010,7 +2023,7 @@
         <v>42</v>
       </c>
       <c r="N20" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="21" spans="1:14" ht="86" customHeight="1">
@@ -2030,7 +2043,7 @@
         <v>15</v>
       </c>
       <c r="G21" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="H21">
         <v>12</v>
@@ -2046,7 +2059,7 @@
         <v>42</v>
       </c>
       <c r="N21" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="22" spans="1:14" ht="102">
@@ -2066,7 +2079,7 @@
         <v>15</v>
       </c>
       <c r="G22" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="H22">
         <v>81</v>
@@ -2082,7 +2095,7 @@
         <v>46</v>
       </c>
       <c r="N22" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="23" spans="1:14" ht="69" customHeight="1">
@@ -2118,10 +2131,10 @@
         <v>36</v>
       </c>
       <c r="M23" s="7" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="N23" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="24" spans="1:14" ht="85">
@@ -2144,7 +2157,7 @@
         <v>71</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="I24">
         <v>14</v>
@@ -2160,10 +2173,10 @@
         <v>157</v>
       </c>
       <c r="M24" s="4" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="N24" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="25" spans="1:14" ht="85">
@@ -2174,7 +2187,7 @@
         <v>67</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D25" t="s">
         <v>26</v>
@@ -2186,7 +2199,7 @@
         <v>71</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="I25">
         <v>54</v>
@@ -2202,10 +2215,10 @@
         <v>334</v>
       </c>
       <c r="M25" s="4" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="N25" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="26" spans="1:14" ht="68">
@@ -2225,7 +2238,10 @@
         <v>20</v>
       </c>
       <c r="F26" s="15" t="s">
-        <v>175</v>
+        <v>172</v>
+      </c>
+      <c r="G26" s="4" t="s">
+        <v>196</v>
       </c>
       <c r="I26">
         <v>35</v>
@@ -2238,13 +2254,13 @@
         <v>50</v>
       </c>
       <c r="M26" s="4" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="N26" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" ht="153">
       <c r="A27" s="5" t="s">
         <v>78</v>
       </c>
@@ -2258,23 +2274,26 @@
         <v>12</v>
       </c>
       <c r="E27" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F27" s="15" t="s">
-        <v>175</v>
+        <v>172</v>
+      </c>
+      <c r="H27">
+        <v>22</v>
       </c>
       <c r="I27">
         <v>21</v>
       </c>
-      <c r="K27">
-        <v>23</v>
-      </c>
       <c r="L27">
         <f t="shared" si="0"/>
-        <v>44</v>
+        <v>43</v>
+      </c>
+      <c r="M27" s="4" t="s">
+        <v>197</v>
       </c>
       <c r="N27" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="28" spans="1:14" ht="153">
@@ -2296,8 +2315,8 @@
       <c r="F28" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="G28" t="s">
-        <v>190</v>
+      <c r="G28" s="4" t="s">
+        <v>187</v>
       </c>
       <c r="I28">
         <v>167</v>
@@ -2313,21 +2332,21 @@
         <v>537</v>
       </c>
       <c r="M28" s="4" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="N28" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="29" spans="1:14" ht="113" customHeight="1">
       <c r="A29" s="5" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B29" t="s">
         <v>67</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D29" t="s">
         <v>26</v>
@@ -2343,15 +2362,15 @@
         <v>75</v>
       </c>
       <c r="M29" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="N29" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="30" spans="1:14" ht="68">
       <c r="A30" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B30" t="s">
         <v>67</v>
@@ -2385,15 +2404,15 @@
         <v>42</v>
       </c>
       <c r="M30" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="N30" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="31" spans="1:14" ht="85">
       <c r="A31" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B31" t="s">
         <v>67</v>
@@ -2427,15 +2446,15 @@
         <v>102</v>
       </c>
       <c r="M31" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="N31" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="32" spans="1:14" ht="17">
       <c r="A32" s="29" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B32" t="s">
         <v>67</v>
@@ -2460,15 +2479,15 @@
         <v>27</v>
       </c>
       <c r="M32" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="N32" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="33" spans="1:14" ht="85">
       <c r="A33" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B33" t="s">
         <v>67</v>
@@ -2502,15 +2521,15 @@
         <v>95</v>
       </c>
       <c r="M33" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N33" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="34" spans="1:14" ht="34">
       <c r="A34" s="29" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B34" t="s">
         <v>67</v>
@@ -2535,15 +2554,15 @@
         <v>7</v>
       </c>
       <c r="M34" s="4" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="N34" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="35" spans="1:14" ht="102">
       <c r="A35" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B35" t="s">
         <v>67</v>
@@ -2552,7 +2571,7 @@
         <v>60</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E35" t="s">
         <v>20</v>
@@ -2577,30 +2596,30 @@
         <v>15</v>
       </c>
       <c r="M35" s="4" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="N35" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="36" spans="1:14" ht="34">
       <c r="A36" s="5" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B36" t="s">
         <v>67</v>
       </c>
       <c r="C36" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D36" t="s">
         <v>26</v>
       </c>
       <c r="E36" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="F36" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="G36" t="s">
         <v>23</v>
@@ -2619,10 +2638,10 @@
         <v>110</v>
       </c>
       <c r="M36" s="4" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="N36" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="37" spans="1:14" ht="51">
@@ -2661,7 +2680,7 @@
         <v>108</v>
       </c>
       <c r="N37" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="38" spans="1:14" ht="17">
@@ -2697,10 +2716,10 @@
         <v>44</v>
       </c>
       <c r="M38" s="4" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="N38" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="39" spans="1:14" ht="34">
@@ -2733,10 +2752,10 @@
         <v>21</v>
       </c>
       <c r="M39" s="4" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="N39" s="28" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
     <row r="40" spans="1:14" ht="85">
@@ -2747,7 +2766,7 @@
         <v>56</v>
       </c>
       <c r="C40" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D40" t="s">
         <v>26</v>
@@ -2756,7 +2775,7 @@
         <v>15</v>
       </c>
       <c r="G40" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="H40">
         <v>76</v>
@@ -2769,10 +2788,10 @@
         <v>189</v>
       </c>
       <c r="M40" s="4" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="N40" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="41" spans="1:14" ht="51">
@@ -2789,7 +2808,7 @@
         <v>15</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H41">
         <v>36</v>
@@ -2805,24 +2824,24 @@
         <v>72</v>
       </c>
       <c r="M41" s="4" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="N41" s="28" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
     </row>
     <row r="42" spans="1:14" ht="51">
       <c r="A42" t="s">
+        <v>106</v>
+      </c>
+      <c r="B42" t="s">
         <v>107</v>
       </c>
-      <c r="B42" t="s">
-        <v>108</v>
-      </c>
       <c r="D42" t="s">
         <v>26</v>
       </c>
       <c r="G42" s="4" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="H42">
         <v>13</v>
@@ -2839,12 +2858,12 @@
       </c>
       <c r="M42" s="4"/>
       <c r="N42" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
     </row>
     <row r="43" spans="1:14" ht="51">
       <c r="A43" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B43" t="s">
         <v>52</v>
@@ -2859,7 +2878,7 @@
         <v>15</v>
       </c>
       <c r="G43" s="4" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="J43">
         <v>26</v>
@@ -2869,10 +2888,10 @@
         <v>26</v>
       </c>
       <c r="M43" s="30" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="N43" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="44" spans="1:14">
@@ -2882,7 +2901,7 @@
       <c r="G44" s="4"/>
       <c r="H44">
         <f t="shared" ref="H44:K44" si="1">SUM(H2:H43)</f>
-        <v>665</v>
+        <v>703</v>
       </c>
       <c r="I44">
         <f t="shared" si="1"/>
@@ -2894,11 +2913,11 @@
       </c>
       <c r="K44">
         <f t="shared" si="1"/>
-        <v>855</v>
+        <v>816</v>
       </c>
       <c r="L44">
         <f>SUM(L2:L43)</f>
-        <v>3939</v>
+        <v>3938</v>
       </c>
       <c r="M44" s="4"/>
     </row>
@@ -2913,25 +2932,25 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B868D855-4FCD-7E48-B184-50745CDBFAFD}">
-  <dimension ref="A1:B55"/>
+  <dimension ref="A1:B56"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B1" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17">
       <c r="A2" s="20" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B2" s="21" t="s">
         <v>65</v>
@@ -2939,7 +2958,7 @@
     </row>
     <row r="3" spans="1:2" ht="17">
       <c r="A3" s="20" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B3" s="21" t="s">
         <v>66</v>
@@ -2947,7 +2966,7 @@
     </row>
     <row r="4" spans="1:2" ht="17">
       <c r="A4" s="20" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B4" s="21" t="s">
         <v>76</v>
@@ -2955,7 +2974,7 @@
     </row>
     <row r="5" spans="1:2" ht="17">
       <c r="A5" s="20" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B5" s="21" t="s">
         <v>29</v>
@@ -2963,7 +2982,7 @@
     </row>
     <row r="6" spans="1:2" ht="17">
       <c r="A6" s="20" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B6" s="21" t="s">
         <v>30</v>
@@ -2971,7 +2990,7 @@
     </row>
     <row r="7" spans="1:2" ht="17">
       <c r="A7" s="20" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B7" s="21" t="s">
         <v>34</v>
@@ -2979,15 +2998,15 @@
     </row>
     <row r="8" spans="1:2" ht="17">
       <c r="A8" s="20" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B8" s="21" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="17">
       <c r="A9" s="20" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B9" s="21" t="s">
         <v>36</v>
@@ -2995,7 +3014,7 @@
     </row>
     <row r="10" spans="1:2" ht="17">
       <c r="A10" s="20" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B10" s="21" t="s">
         <v>37</v>
@@ -3003,7 +3022,7 @@
     </row>
     <row r="11" spans="1:2" ht="17">
       <c r="A11" s="22" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B11" s="21" t="s">
         <v>10</v>
@@ -3011,31 +3030,31 @@
     </row>
     <row r="12" spans="1:2" ht="17">
       <c r="A12" s="22" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B12" s="21" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="17">
       <c r="A13" s="22" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B13" s="21" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="17">
       <c r="A14" s="22" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B14" s="21" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="17">
       <c r="A15" s="22" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B15" s="21" t="s">
         <v>72</v>
@@ -3043,7 +3062,7 @@
     </row>
     <row r="16" spans="1:2" ht="17">
       <c r="A16" s="22" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B16" s="21" t="s">
         <v>51</v>
@@ -3051,7 +3070,7 @@
     </row>
     <row r="17" spans="1:2" ht="17">
       <c r="A17" s="22" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B17" s="21" t="s">
         <v>49</v>
@@ -3059,55 +3078,55 @@
     </row>
     <row r="18" spans="1:2" ht="17">
       <c r="A18" s="23" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B18" s="24" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="17">
       <c r="A19" s="23" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B19" s="24" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="17">
       <c r="A20" s="23" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B20" s="24" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="17">
       <c r="A21" s="23" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B21" s="24" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="17">
       <c r="A22" s="23" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B22" s="24" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="17">
       <c r="A23" s="23" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B23" s="24" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="17">
       <c r="A24" s="20" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B24" s="21" t="s">
         <v>77</v>
@@ -3115,7 +3134,7 @@
     </row>
     <row r="25" spans="1:2" ht="17">
       <c r="A25" s="20" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B25" s="21" t="s">
         <v>63</v>
@@ -3123,7 +3142,7 @@
     </row>
     <row r="26" spans="1:2" ht="17">
       <c r="A26" s="20" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B26" s="21" t="s">
         <v>53</v>
@@ -3131,234 +3150,242 @@
     </row>
     <row r="27" spans="1:2" ht="17">
       <c r="A27" s="20" t="s">
-        <v>157</v>
-      </c>
-      <c r="B27" s="21" t="s">
-        <v>165</v>
+        <v>154</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="17">
       <c r="A28" s="20" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="B28" s="21" t="s">
-        <v>55</v>
+        <v>162</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="17">
       <c r="A29" s="20" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B29" s="21" t="s">
-        <v>159</v>
+        <v>55</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="17">
       <c r="A30" s="20" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B30" s="21" t="s">
-        <v>107</v>
+        <v>156</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="17">
       <c r="A31" s="20" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B31" s="21" t="s">
-        <v>78</v>
+        <v>106</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="17">
       <c r="A32" s="20" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="B32" s="21" t="s">
-        <v>139</v>
+        <v>78</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="17">
       <c r="A33" s="20" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B33" s="21" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="17">
       <c r="A34" s="20" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B34" s="21" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="17">
       <c r="A35" s="20" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B35" s="21" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
-      <c r="A36" s="25" t="s">
-        <v>161</v>
-      </c>
-      <c r="B36" s="24" t="s">
-        <v>83</v>
+        <v>138</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="17">
+      <c r="A36" s="20" t="s">
+        <v>157</v>
+      </c>
+      <c r="B36" s="21" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="25" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B37" s="24" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="25" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B38" s="24" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="25" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B39" s="24" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="25" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B40" s="24" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="25" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B41" s="24" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="25" t="s">
-        <v>161</v>
-      </c>
-      <c r="B42" s="21" t="s">
-        <v>29</v>
+        <v>158</v>
+      </c>
+      <c r="B42" s="24" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="25" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B43" s="21" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="25" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B44" s="21" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="25" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B45" s="21" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="25" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B46" s="21" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="25" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B47" s="21" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="25" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B48" s="21" t="s">
-        <v>101</v>
+        <v>37</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="25" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B49" s="21" t="s">
-        <v>76</v>
+        <v>100</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="25" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="B50" s="21" t="s">
-        <v>137</v>
+        <v>76</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="25" t="s">
+        <v>159</v>
+      </c>
+      <c r="B51" s="21" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" s="25" t="s">
+        <v>160</v>
+      </c>
+      <c r="B52" s="21" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" s="26" t="s">
+        <v>161</v>
+      </c>
+      <c r="B53" s="21" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" ht="17">
+      <c r="A54" s="20" t="s">
         <v>163</v>
       </c>
-      <c r="B51" s="21" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
-      <c r="A52" s="26" t="s">
+      <c r="B54" s="27" t="s">
         <v>164</v>
-      </c>
-      <c r="B52" s="21" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" ht="17">
-      <c r="A53" s="20" t="s">
-        <v>166</v>
-      </c>
-      <c r="B53" s="27" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
-      <c r="A54" s="25" t="s">
-        <v>168</v>
-      </c>
-      <c r="B54" s="27" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="25" t="s">
-        <v>169</v>
-      </c>
-      <c r="B55" s="21" t="s">
-        <v>120</v>
+        <v>165</v>
+      </c>
+      <c r="B55" s="27" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" s="25" t="s">
+        <v>166</v>
+      </c>
+      <c r="B56" s="21" t="s">
+        <v>118</v>
       </c>
     </row>
   </sheetData>

--- a/data-raw/Data_summaryforpackage.xlsx
+++ b/data-raw/Data_summaryforpackage.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xutaowang/Desktop/curatedTBData/data-raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD3D3FEF-F333-C349-BAEB-BDF29666DFDF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E07E3844-1CB1-1542-9919-743F163C3957}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="32760" windowHeight="16380" xr2:uid="{B39B7F83-2537-C248-AAB4-54D9192DC10F}"/>
+    <workbookView xWindow="1360" yWindow="460" windowWidth="32760" windowHeight="16380" xr2:uid="{B39B7F83-2537-C248-AAB4-54D9192DC10F}"/>
   </bookViews>
   <sheets>
     <sheet name="DataSummary" sheetId="1" r:id="rId1"/>
@@ -168,17 +168,10 @@
 Longitudinal Study. Blood was taken from the active TB patients at baseline, pre-treatment, 2 months after treatment inititation, and 12 months after treatment initiation. n(PTB)=7</t>
   </si>
   <si>
-    <t>&gt;21</t>
-  </si>
-  <si>
     <t>1-84</t>
   </si>
   <si>
     <t>43 of the 47 samples in this series were re-analyzed from GSE19442</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12 pediatric streptococcus, 40 pediatric staphylococcus, 31 still’s disease, 82 pediatric systemic lupus erythematosus (SLE), 28 adult SLE patients.
-</t>
   </si>
   <si>
     <t>17-65</t>
@@ -683,12 +676,37 @@
   <si>
     <t>TST, sputum AFB and culture</t>
   </si>
+  <si>
+    <r>
+      <t xml:space="preserve">12 pediatric streptococcus, 40 pediatric staphylococcus, 31 still’s disease, 82 pediatric systemic lupus erythematosus (SLE), 28 adult SLE patients. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="7"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t xml:space="preserve">Special handling for counts </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <t>20-55</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14">
+  <fonts count="15">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -772,6 +790,11 @@
     <font>
       <sz val="12"/>
       <color theme="4"/>
+      <name val="Calibri (Body)"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="7"/>
       <name val="Calibri (Body)"/>
     </font>
   </fonts>
@@ -1246,8 +1269,8 @@
   <dimension ref="A1:N44"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G15" sqref="G15"/>
+      <pane ySplit="1" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1283,7 +1306,7 @@
         <v>6</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="I1" s="6" t="s">
         <v>7</v>
@@ -1292,7 +1315,7 @@
         <v>16</v>
       </c>
       <c r="K1" s="6" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="L1" s="6" t="s">
         <v>8</v>
@@ -1301,7 +1324,7 @@
         <v>9</v>
       </c>
       <c r="N1" s="6" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="69" customHeight="1">
@@ -1337,12 +1360,12 @@
         <v>39</v>
       </c>
       <c r="N2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="70" customHeight="1">
       <c r="A3" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B3" t="s">
         <v>11</v>
@@ -1370,15 +1393,15 @@
         <v>9</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="N3" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="63" customHeight="1">
       <c r="A4" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B4" t="s">
         <v>11</v>
@@ -1403,15 +1426,15 @@
         <v>27</v>
       </c>
       <c r="M4" s="7" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="N4" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="5" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B5" t="s">
         <v>17</v>
@@ -1445,30 +1468,30 @@
         <v>39</v>
       </c>
       <c r="N5" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="34">
       <c r="A6" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="B6" t="s">
+        <v>99</v>
+      </c>
+      <c r="C6" t="s">
         <v>100</v>
-      </c>
-      <c r="B6" t="s">
-        <v>101</v>
-      </c>
-      <c r="C6" t="s">
-        <v>102</v>
       </c>
       <c r="D6" t="s">
         <v>19</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F6" t="s">
         <v>15</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="H6">
         <v>9</v>
@@ -1484,30 +1507,30 @@
         <v>27</v>
       </c>
       <c r="N6" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="119">
       <c r="A7" s="12" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B7" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D7" t="s">
         <v>26</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F7" t="s">
         <v>15</v>
       </c>
       <c r="G7" s="10" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="H7" s="13"/>
       <c r="I7" s="13">
@@ -1522,15 +1545,15 @@
         <v>334</v>
       </c>
       <c r="M7" s="14" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="N7" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="119">
       <c r="A8" s="18" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B8" t="s">
         <v>24</v>
@@ -1548,7 +1571,7 @@
         <v>15</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="I8">
         <v>104</v>
@@ -1561,15 +1584,15 @@
         <v>144</v>
       </c>
       <c r="M8" s="4" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="N8" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="119">
       <c r="A9" s="5" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B9" t="s">
         <v>24</v>
@@ -1585,7 +1608,7 @@
         <v>15</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="H9">
         <v>100</v>
@@ -1598,15 +1621,15 @@
         <v>138</v>
       </c>
       <c r="M9" s="4" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="N9" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="51">
       <c r="A10" s="5" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B10" t="s">
         <v>25</v>
@@ -1640,12 +1663,12 @@
         <v>33</v>
       </c>
       <c r="N10" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="51">
       <c r="A11" s="5" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B11" t="s">
         <v>25</v>
@@ -1676,15 +1699,15 @@
         <v>47</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="N11" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="12" spans="1:14" ht="62" customHeight="1">
       <c r="A12" s="18" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B12" t="s">
         <v>25</v>
@@ -1696,7 +1719,7 @@
         <v>26</v>
       </c>
       <c r="E12" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F12" t="s">
         <v>15</v>
@@ -1715,15 +1738,15 @@
         <v>31</v>
       </c>
       <c r="M12" s="17" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="N12" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="13" spans="1:14" ht="49" customHeight="1">
       <c r="A13" s="18" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B13" t="s">
         <v>25</v>
@@ -1735,7 +1758,7 @@
         <v>26</v>
       </c>
       <c r="E13" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F13" t="s">
         <v>15</v>
@@ -1757,33 +1780,33 @@
         <v>161</v>
       </c>
       <c r="M13" s="17" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="N13" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="14" spans="1:14" ht="49" customHeight="1">
       <c r="A14" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="B14" t="s">
         <v>109</v>
       </c>
-      <c r="B14" t="s">
-        <v>111</v>
-      </c>
       <c r="C14" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D14" t="s">
         <v>26</v>
       </c>
       <c r="E14" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F14" t="s">
         <v>15</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="I14">
         <v>16</v>
@@ -1797,12 +1820,12 @@
       </c>
       <c r="M14" s="4"/>
       <c r="N14" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="15" spans="1:14" ht="49" customHeight="1">
       <c r="A15" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B15" t="s">
         <v>24</v>
@@ -1814,10 +1837,10 @@
         <v>32</v>
       </c>
       <c r="F15" s="15" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G15" s="16" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="H15">
         <v>16</v>
@@ -1831,30 +1854,30 @@
       </c>
       <c r="M15" s="4"/>
       <c r="N15" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="16" spans="1:14" ht="49" customHeight="1">
       <c r="A16" s="17" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B16" t="s">
+        <v>108</v>
+      </c>
+      <c r="C16" t="s">
         <v>110</v>
-      </c>
-      <c r="C16" t="s">
-        <v>112</v>
       </c>
       <c r="D16" t="s">
         <v>12</v>
       </c>
       <c r="E16" s="31" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="F16" t="s">
+        <v>111</v>
+      </c>
+      <c r="G16" s="4" t="s">
         <v>113</v>
-      </c>
-      <c r="G16" s="4" t="s">
-        <v>115</v>
       </c>
       <c r="I16">
         <v>21</v>
@@ -1867,10 +1890,10 @@
         <v>51</v>
       </c>
       <c r="M16" s="17" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="N16" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1893,7 +1916,7 @@
         <v>15</v>
       </c>
       <c r="G17" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="H17">
         <v>12</v>
@@ -1909,7 +1932,7 @@
         <v>54</v>
       </c>
       <c r="N17" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1932,7 +1955,7 @@
         <v>15</v>
       </c>
       <c r="G18" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="H18">
         <v>16</v>
@@ -1945,7 +1968,7 @@
         <v>44</v>
       </c>
       <c r="N18" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="19" spans="1:14" ht="86" customHeight="1">
@@ -1968,7 +1991,7 @@
         <v>15</v>
       </c>
       <c r="G19" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="I19">
         <v>31</v>
@@ -1984,7 +2007,7 @@
         <v>38</v>
       </c>
       <c r="N19" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -2007,7 +2030,7 @@
         <v>15</v>
       </c>
       <c r="G20" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="H20">
         <v>12</v>
@@ -2023,7 +2046,7 @@
         <v>42</v>
       </c>
       <c r="N20" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="21" spans="1:14" ht="86" customHeight="1">
@@ -2037,13 +2060,13 @@
         <v>26</v>
       </c>
       <c r="E21" t="s">
-        <v>43</v>
+        <v>198</v>
       </c>
       <c r="F21" t="s">
         <v>15</v>
       </c>
       <c r="G21" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="H21">
         <v>12</v>
@@ -2059,10 +2082,10 @@
         <v>42</v>
       </c>
       <c r="N21" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" ht="102">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" ht="119">
       <c r="A22" s="5" t="s">
         <v>37</v>
       </c>
@@ -2073,13 +2096,13 @@
         <v>26</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F22" t="s">
         <v>15</v>
       </c>
       <c r="G22" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="H22">
         <v>81</v>
@@ -2092,33 +2115,33 @@
         <v>274</v>
       </c>
       <c r="M22" s="1" t="s">
-        <v>46</v>
+        <v>197</v>
       </c>
       <c r="N22" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="23" spans="1:14" ht="69" customHeight="1">
       <c r="A23" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B23" t="s">
+        <v>71</v>
+      </c>
+      <c r="C23" t="s">
         <v>72</v>
-      </c>
-      <c r="B23" t="s">
-        <v>73</v>
-      </c>
-      <c r="C23" t="s">
-        <v>74</v>
       </c>
       <c r="D23" t="s">
         <v>26</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F23" t="s">
         <v>15</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H23">
         <v>18</v>
@@ -2131,33 +2154,33 @@
         <v>36</v>
       </c>
       <c r="M23" s="7" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="N23" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="24" spans="1:14" ht="85">
       <c r="A24" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B24" t="s">
         <v>65</v>
       </c>
-      <c r="B24" t="s">
-        <v>67</v>
-      </c>
       <c r="C24" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D24" t="s">
         <v>26</v>
       </c>
       <c r="E24" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F24" s="15" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="I24">
         <v>14</v>
@@ -2173,33 +2196,33 @@
         <v>157</v>
       </c>
       <c r="M24" s="4" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="N24" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="25" spans="1:14" ht="85">
       <c r="A25" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B25" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D25" t="s">
         <v>26</v>
       </c>
       <c r="E25" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F25" s="15" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="I25">
         <v>54</v>
@@ -2215,18 +2238,18 @@
         <v>334</v>
       </c>
       <c r="M25" s="4" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="N25" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="26" spans="1:14" ht="68">
       <c r="A26" s="5" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B26" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C26" t="s">
         <v>22</v>
@@ -2238,10 +2261,10 @@
         <v>20</v>
       </c>
       <c r="F26" s="15" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="I26">
         <v>35</v>
@@ -2254,18 +2277,18 @@
         <v>50</v>
       </c>
       <c r="M26" s="4" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="N26" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="27" spans="1:14" ht="153">
       <c r="A27" s="5" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B27" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C27" t="s">
         <v>22</v>
@@ -2274,10 +2297,10 @@
         <v>12</v>
       </c>
       <c r="E27" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F27" s="15" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="H27">
         <v>22</v>
@@ -2290,21 +2313,21 @@
         <v>43</v>
       </c>
       <c r="M27" s="4" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="N27" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="28" spans="1:14" ht="153">
       <c r="A28" s="5" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B28" t="s">
+        <v>65</v>
+      </c>
+      <c r="C28" t="s">
         <v>67</v>
-      </c>
-      <c r="C28" t="s">
-        <v>69</v>
       </c>
       <c r="D28" t="s">
         <v>26</v>
@@ -2313,10 +2336,10 @@
         <v>20</v>
       </c>
       <c r="F28" s="15" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="I28">
         <v>167</v>
@@ -2332,21 +2355,21 @@
         <v>537</v>
       </c>
       <c r="M28" s="4" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="N28" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="29" spans="1:14" ht="113" customHeight="1">
       <c r="A29" s="5" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B29" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D29" t="s">
         <v>26</v>
@@ -2362,21 +2385,21 @@
         <v>75</v>
       </c>
       <c r="M29" s="4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="N29" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="30" spans="1:14" ht="68">
       <c r="A30" s="5" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B30" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C30" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D30" t="s">
         <v>26</v>
@@ -2404,21 +2427,21 @@
         <v>42</v>
       </c>
       <c r="M30" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="N30" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="31" spans="1:14" ht="85">
       <c r="A31" s="5" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B31" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C31" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D31" t="s">
         <v>26</v>
@@ -2446,21 +2469,21 @@
         <v>102</v>
       </c>
       <c r="M31" s="4" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="N31" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="32" spans="1:14" ht="17">
       <c r="A32" s="29" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B32" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C32" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D32" t="s">
         <v>26</v>
@@ -2479,21 +2502,21 @@
         <v>27</v>
       </c>
       <c r="M32" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="N32" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="33" spans="1:14" ht="85">
       <c r="A33" s="5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B33" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C33" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D33" t="s">
         <v>26</v>
@@ -2521,21 +2544,21 @@
         <v>95</v>
       </c>
       <c r="M33" s="4" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="N33" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="34" spans="1:14" ht="34">
       <c r="A34" s="29" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B34" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C34" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D34" t="s">
         <v>26</v>
@@ -2554,24 +2577,24 @@
         <v>7</v>
       </c>
       <c r="M34" s="4" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="N34" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="35" spans="1:14" ht="102">
       <c r="A35" s="5" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B35" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C35" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E35" t="s">
         <v>20</v>
@@ -2596,30 +2619,30 @@
         <v>15</v>
       </c>
       <c r="M35" s="4" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="N35" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="36" spans="1:14" ht="34">
       <c r="A36" s="5" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B36" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C36" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D36" t="s">
         <v>26</v>
       </c>
       <c r="E36" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F36" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="G36" t="s">
         <v>23</v>
@@ -2638,33 +2661,33 @@
         <v>110</v>
       </c>
       <c r="M36" s="4" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="N36" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="37" spans="1:14" ht="51">
       <c r="A37" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B37" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C37" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D37" t="s">
         <v>26</v>
       </c>
       <c r="E37" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F37" t="s">
         <v>15</v>
       </c>
       <c r="G37" s="9" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H37">
         <v>37</v>
@@ -2680,24 +2703,24 @@
         <v>108</v>
       </c>
       <c r="N37" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="38" spans="1:14" ht="17">
       <c r="A38" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B38" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C38" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D38" t="s">
         <v>26</v>
       </c>
       <c r="E38" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F38" t="s">
         <v>15</v>
@@ -2716,21 +2739,21 @@
         <v>44</v>
       </c>
       <c r="M38" s="4" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="N38" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="39" spans="1:14" ht="34">
       <c r="A39" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B39" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C39" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D39" t="s">
         <v>12</v>
@@ -2752,21 +2775,21 @@
         <v>21</v>
       </c>
       <c r="M39" s="4" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="N39" s="28" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="40" spans="1:14" ht="85">
       <c r="A40" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B40" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C40" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D40" t="s">
         <v>26</v>
@@ -2775,7 +2798,7 @@
         <v>15</v>
       </c>
       <c r="G40" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="H40">
         <v>76</v>
@@ -2788,18 +2811,18 @@
         <v>189</v>
       </c>
       <c r="M40" s="4" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="N40" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="41" spans="1:14" ht="51">
       <c r="A41" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B41" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D41" t="s">
         <v>12</v>
@@ -2808,7 +2831,7 @@
         <v>15</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="H41">
         <v>36</v>
@@ -2824,24 +2847,24 @@
         <v>72</v>
       </c>
       <c r="M41" s="4" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="N41" s="28" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="42" spans="1:14" ht="51">
       <c r="A42" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B42" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D42" t="s">
         <v>26</v>
       </c>
       <c r="G42" s="4" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="H42">
         <v>13</v>
@@ -2858,18 +2881,18 @@
       </c>
       <c r="M42" s="4"/>
       <c r="N42" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="43" spans="1:14" ht="51">
       <c r="A43" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B43" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C43" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D43" t="s">
         <v>12</v>
@@ -2878,7 +2901,7 @@
         <v>15</v>
       </c>
       <c r="G43" s="4" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="J43">
         <v>26</v>
@@ -2888,10 +2911,10 @@
         <v>26</v>
       </c>
       <c r="M43" s="30" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="N43" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="44" spans="1:14">
@@ -2934,7 +2957,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B868D855-4FCD-7E48-B184-50745CDBFAFD}">
   <dimension ref="A1:B56"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
@@ -2942,39 +2965,39 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17">
       <c r="A2" s="20" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B2" s="21" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17">
       <c r="A3" s="20" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="17">
       <c r="A4" s="20" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B4" s="21" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="17">
       <c r="A5" s="20" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B5" s="21" t="s">
         <v>29</v>
@@ -2982,7 +3005,7 @@
     </row>
     <row r="6" spans="1:2" ht="17">
       <c r="A6" s="20" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B6" s="21" t="s">
         <v>30</v>
@@ -2990,7 +3013,7 @@
     </row>
     <row r="7" spans="1:2" ht="17">
       <c r="A7" s="20" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B7" s="21" t="s">
         <v>34</v>
@@ -2998,15 +3021,15 @@
     </row>
     <row r="8" spans="1:2" ht="17">
       <c r="A8" s="20" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B8" s="21" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="17">
       <c r="A9" s="20" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B9" s="21" t="s">
         <v>36</v>
@@ -3014,7 +3037,7 @@
     </row>
     <row r="10" spans="1:2" ht="17">
       <c r="A10" s="20" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B10" s="21" t="s">
         <v>37</v>
@@ -3022,7 +3045,7 @@
     </row>
     <row r="11" spans="1:2" ht="17">
       <c r="A11" s="22" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B11" s="21" t="s">
         <v>10</v>
@@ -3030,255 +3053,255 @@
     </row>
     <row r="12" spans="1:2" ht="17">
       <c r="A12" s="22" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B12" s="21" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="17">
       <c r="A13" s="22" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B13" s="21" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="17">
       <c r="A14" s="22" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B14" s="21" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="17">
       <c r="A15" s="22" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B15" s="21" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="17">
       <c r="A16" s="22" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B16" s="21" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="17">
       <c r="A17" s="22" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B17" s="21" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="17">
       <c r="A18" s="23" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B18" s="24" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="17">
       <c r="A19" s="23" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B19" s="24" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="17">
       <c r="A20" s="23" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B20" s="24" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="17">
       <c r="A21" s="23" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B21" s="24" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="17">
       <c r="A22" s="23" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B22" s="24" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="17">
       <c r="A23" s="23" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B23" s="24" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="17">
       <c r="A24" s="20" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B24" s="21" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="17">
       <c r="A25" s="20" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B25" s="21" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="17">
       <c r="A26" s="20" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B26" s="21" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="17">
       <c r="A27" s="20" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="17">
       <c r="A28" s="20" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B28" s="21" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="17">
       <c r="A29" s="20" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B29" s="21" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="17">
       <c r="A30" s="20" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B30" s="21" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="17">
       <c r="A31" s="20" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B31" s="21" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="17">
       <c r="A32" s="20" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B32" s="21" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="17">
       <c r="A33" s="20" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B33" s="21" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="17">
       <c r="A34" s="20" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B34" s="21" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="17">
       <c r="A35" s="20" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B35" s="21" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="17">
       <c r="A36" s="20" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B36" s="21" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="25" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B37" s="24" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="25" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B38" s="24" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="25" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B39" s="24" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="25" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B40" s="24" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="25" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B41" s="24" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="25" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B42" s="24" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="25" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B43" s="21" t="s">
         <v>29</v>
@@ -3286,7 +3309,7 @@
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="25" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B44" s="21" t="s">
         <v>30</v>
@@ -3294,7 +3317,7 @@
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="25" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B45" s="21" t="s">
         <v>34</v>
@@ -3302,7 +3325,7 @@
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="25" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B46" s="21" t="s">
         <v>35</v>
@@ -3310,7 +3333,7 @@
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="25" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B47" s="21" t="s">
         <v>36</v>
@@ -3318,7 +3341,7 @@
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="25" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B48" s="21" t="s">
         <v>37</v>
@@ -3326,66 +3349,66 @@
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="25" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B49" s="21" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="25" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B50" s="21" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="25" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B51" s="21" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="25" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B52" s="21" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="26" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B53" s="21" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="17">
       <c r="A54" s="20" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B54" s="27" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="25" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B55" s="27" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="25" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B56" s="21" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
   </sheetData>

--- a/data-raw/Data_summaryforpackage.xlsx
+++ b/data-raw/Data_summaryforpackage.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xutaowang/Desktop/curatedTBData/data-raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E07E3844-1CB1-1542-9919-743F163C3957}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C851E482-6C8D-0C42-BC45-A44E51A7CFE4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1360" yWindow="460" windowWidth="32760" windowHeight="16380" xr2:uid="{B39B7F83-2537-C248-AAB4-54D9192DC10F}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="473" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="481" uniqueCount="203">
   <si>
     <t>GEO accession</t>
   </si>
@@ -700,6 +700,18 @@
   </si>
   <si>
     <t>20-55</t>
+  </si>
+  <si>
+    <t>2-14</t>
+  </si>
+  <si>
+    <t>TST, IGRA</t>
+  </si>
+  <si>
+    <t>Study for progressor. 13 out of 32 controls developed LTBI during follow up, including one control progressed to PTB.</t>
+  </si>
+  <si>
+    <t>GSEIndia</t>
   </si>
 </sst>
 </file>
@@ -889,7 +901,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -952,6 +964,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1266,11 +1281,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{715BD991-25C2-914C-95C3-220CF25B2F79}">
-  <dimension ref="A1:N44"/>
+  <dimension ref="A1:N45"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C22" sqref="C22"/>
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1389,7 +1404,7 @@
         <v>9</v>
       </c>
       <c r="L3">
-        <f t="shared" ref="L3:L43" si="0">H3+I3+J3+K3</f>
+        <f t="shared" ref="L3:L44" si="0">H3+I3+J3+K3</f>
         <v>9</v>
       </c>
       <c r="M3" s="1" t="s">
@@ -1896,54 +1911,51 @@
         <v>140</v>
       </c>
     </row>
-    <row r="17" spans="1:14">
-      <c r="A17" s="5" t="s">
-        <v>29</v>
+    <row r="17" spans="1:14" ht="49" customHeight="1">
+      <c r="A17" s="32" t="s">
+        <v>202</v>
       </c>
       <c r="B17" t="s">
-        <v>31</v>
+        <v>108</v>
       </c>
       <c r="C17" t="s">
-        <v>28</v>
+        <v>91</v>
       </c>
       <c r="D17" t="s">
-        <v>26</v>
-      </c>
-      <c r="E17" t="s">
+        <v>19</v>
+      </c>
+      <c r="E17" s="31" t="s">
+        <v>199</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="H17">
         <v>32</v>
       </c>
-      <c r="F17" t="s">
-        <v>15</v>
-      </c>
-      <c r="G17" t="s">
-        <v>128</v>
-      </c>
-      <c r="H17">
-        <v>12</v>
-      </c>
-      <c r="I17">
-        <v>21</v>
-      </c>
       <c r="J17">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="L17">
         <f t="shared" si="0"/>
-        <v>54</v>
+        <v>48</v>
+      </c>
+      <c r="M17" s="17" t="s">
+        <v>201</v>
       </c>
       <c r="N17" t="s">
-        <v>97</v>
+        <v>140</v>
       </c>
     </row>
     <row r="18" spans="1:14">
       <c r="A18" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B18" t="s">
         <v>31</v>
       </c>
       <c r="C18" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="D18" t="s">
         <v>26</v>
@@ -1958,22 +1970,25 @@
         <v>128</v>
       </c>
       <c r="H18">
-        <v>16</v>
+        <v>12</v>
+      </c>
+      <c r="I18">
+        <v>21</v>
       </c>
       <c r="J18">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="L18">
         <f t="shared" si="0"/>
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="N18" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="19" spans="1:14" ht="86" customHeight="1">
+    <row r="19" spans="1:14">
       <c r="A19" s="5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B19" t="s">
         <v>31</v>
@@ -1985,7 +2000,7 @@
         <v>26</v>
       </c>
       <c r="E19" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="F19" t="s">
         <v>15</v>
@@ -1993,38 +2008,35 @@
       <c r="G19" t="s">
         <v>128</v>
       </c>
-      <c r="I19">
-        <v>31</v>
+      <c r="H19">
+        <v>16</v>
       </c>
       <c r="J19">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="L19">
         <f t="shared" si="0"/>
-        <v>51</v>
-      </c>
-      <c r="M19" s="1" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="N19" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="20" spans="1:14">
+    <row r="20" spans="1:14" ht="86" customHeight="1">
       <c r="A20" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B20" t="s">
         <v>31</v>
       </c>
       <c r="C20" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="D20" t="s">
         <v>26</v>
       </c>
       <c r="E20" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F20" t="s">
         <v>15</v>
@@ -2032,35 +2044,38 @@
       <c r="G20" t="s">
         <v>128</v>
       </c>
-      <c r="H20">
-        <v>12</v>
-      </c>
       <c r="I20">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="J20">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="L20">
         <f t="shared" si="0"/>
-        <v>42</v>
+        <v>51</v>
+      </c>
+      <c r="M20" s="1" t="s">
+        <v>38</v>
       </c>
       <c r="N20" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="21" spans="1:14" ht="86" customHeight="1">
+    <row r="21" spans="1:14">
       <c r="A21" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B21" t="s">
         <v>31</v>
       </c>
+      <c r="C21" t="s">
+        <v>28</v>
+      </c>
       <c r="D21" t="s">
         <v>26</v>
       </c>
       <c r="E21" t="s">
-        <v>198</v>
+        <v>41</v>
       </c>
       <c r="F21" t="s">
         <v>15</v>
@@ -2071,23 +2086,23 @@
       <c r="H21">
         <v>12</v>
       </c>
+      <c r="I21">
+        <v>17</v>
+      </c>
       <c r="J21">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="L21">
         <f t="shared" si="0"/>
-        <v>33</v>
-      </c>
-      <c r="M21" s="7" t="s">
         <v>42</v>
       </c>
       <c r="N21" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="22" spans="1:14" ht="119">
+    <row r="22" spans="1:14" ht="86" customHeight="1">
       <c r="A22" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B22" t="s">
         <v>31</v>
@@ -2095,8 +2110,8 @@
       <c r="D22" t="s">
         <v>26</v>
       </c>
-      <c r="E22" s="8" t="s">
-        <v>43</v>
+      <c r="E22" t="s">
+        <v>198</v>
       </c>
       <c r="F22" t="s">
         <v>15</v>
@@ -2105,98 +2120,92 @@
         <v>128</v>
       </c>
       <c r="H22">
-        <v>81</v>
-      </c>
-      <c r="K22">
-        <v>193</v>
+        <v>12</v>
+      </c>
+      <c r="J22">
+        <v>21</v>
       </c>
       <c r="L22">
         <f t="shared" si="0"/>
-        <v>274</v>
-      </c>
-      <c r="M22" s="1" t="s">
-        <v>197</v>
+        <v>33</v>
+      </c>
+      <c r="M22" s="7" t="s">
+        <v>42</v>
       </c>
       <c r="N22" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="23" spans="1:14" ht="69" customHeight="1">
+    <row r="23" spans="1:14" ht="119">
       <c r="A23" s="5" t="s">
-        <v>70</v>
+        <v>37</v>
       </c>
       <c r="B23" t="s">
-        <v>71</v>
-      </c>
-      <c r="C23" t="s">
-        <v>72</v>
+        <v>31</v>
       </c>
       <c r="D23" t="s">
         <v>26</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>73</v>
+        <v>43</v>
       </c>
       <c r="F23" t="s">
         <v>15</v>
       </c>
-      <c r="G23" s="4" t="s">
-        <v>57</v>
+      <c r="G23" t="s">
+        <v>128</v>
       </c>
       <c r="H23">
-        <v>18</v>
-      </c>
-      <c r="J23">
-        <v>18</v>
+        <v>81</v>
+      </c>
+      <c r="K23">
+        <v>193</v>
       </c>
       <c r="L23">
         <f t="shared" si="0"/>
-        <v>36</v>
-      </c>
-      <c r="M23" s="7" t="s">
-        <v>183</v>
+        <v>274</v>
+      </c>
+      <c r="M23" s="1" t="s">
+        <v>197</v>
       </c>
       <c r="N23" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="24" spans="1:14" ht="85">
+    <row r="24" spans="1:14" ht="69" customHeight="1">
       <c r="A24" s="5" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="B24" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="C24" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="D24" t="s">
         <v>26</v>
       </c>
-      <c r="E24" t="s">
-        <v>68</v>
-      </c>
-      <c r="F24" s="15" t="s">
-        <v>69</v>
+      <c r="E24" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="F24" t="s">
+        <v>15</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="I24">
-        <v>14</v>
+        <v>57</v>
+      </c>
+      <c r="H24">
+        <v>18</v>
       </c>
       <c r="J24">
-        <v>79</v>
-      </c>
-      <c r="K24">
-        <v>64</v>
+        <v>18</v>
       </c>
       <c r="L24">
         <f t="shared" si="0"/>
-        <v>157</v>
-      </c>
-      <c r="M24" s="4" t="s">
-        <v>192</v>
+        <v>36</v>
+      </c>
+      <c r="M24" s="7" t="s">
+        <v>183</v>
       </c>
       <c r="N24" t="s">
         <v>97</v>
@@ -2204,13 +2213,13 @@
     </row>
     <row r="25" spans="1:14" ht="85">
       <c r="A25" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B25" t="s">
         <v>65</v>
       </c>
-      <c r="C25" s="4" t="s">
-        <v>106</v>
+      <c r="C25" t="s">
+        <v>66</v>
       </c>
       <c r="D25" t="s">
         <v>26</v>
@@ -2225,17 +2234,17 @@
         <v>191</v>
       </c>
       <c r="I25">
-        <v>54</v>
+        <v>14</v>
       </c>
       <c r="J25">
-        <v>111</v>
+        <v>79</v>
       </c>
       <c r="K25">
-        <v>169</v>
+        <v>64</v>
       </c>
       <c r="L25">
         <f t="shared" si="0"/>
-        <v>334</v>
+        <v>157</v>
       </c>
       <c r="M25" s="4" t="s">
         <v>192</v>
@@ -2244,48 +2253,51 @@
         <v>97</v>
       </c>
     </row>
-    <row r="26" spans="1:14" ht="68">
+    <row r="26" spans="1:14" ht="85">
       <c r="A26" s="5" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="B26" t="s">
         <v>65</v>
       </c>
-      <c r="C26" t="s">
-        <v>22</v>
+      <c r="C26" s="4" t="s">
+        <v>106</v>
       </c>
       <c r="D26" t="s">
         <v>26</v>
       </c>
       <c r="E26" t="s">
-        <v>20</v>
+        <v>68</v>
       </c>
       <c r="F26" s="15" t="s">
-        <v>170</v>
+        <v>69</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="I26">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="J26">
-        <v>15</v>
+        <v>111</v>
+      </c>
+      <c r="K26">
+        <v>169</v>
       </c>
       <c r="L26">
         <f t="shared" si="0"/>
-        <v>50</v>
+        <v>334</v>
       </c>
       <c r="M26" s="4" t="s">
-        <v>173</v>
+        <v>192</v>
       </c>
       <c r="N26" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="27" spans="1:14" ht="153">
+    <row r="27" spans="1:14" ht="68">
       <c r="A27" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B27" t="s">
         <v>65</v>
@@ -2294,26 +2306,29 @@
         <v>22</v>
       </c>
       <c r="D27" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>77</v>
+        <v>20</v>
       </c>
       <c r="F27" s="15" t="s">
         <v>170</v>
       </c>
-      <c r="H27">
-        <v>22</v>
+      <c r="G27" s="4" t="s">
+        <v>194</v>
       </c>
       <c r="I27">
-        <v>21</v>
+        <v>35</v>
+      </c>
+      <c r="J27">
+        <v>15</v>
       </c>
       <c r="L27">
         <f t="shared" si="0"/>
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="M27" s="4" t="s">
-        <v>195</v>
+        <v>173</v>
       </c>
       <c r="N27" t="s">
         <v>97</v>
@@ -2321,121 +2336,115 @@
     </row>
     <row r="28" spans="1:14" ht="153">
       <c r="A28" s="5" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B28" t="s">
         <v>65</v>
       </c>
       <c r="C28" t="s">
-        <v>67</v>
+        <v>22</v>
       </c>
       <c r="D28" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="E28" t="s">
-        <v>20</v>
+        <v>77</v>
       </c>
       <c r="F28" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="G28" s="4" t="s">
-        <v>185</v>
+        <v>170</v>
+      </c>
+      <c r="H28">
+        <v>22</v>
       </c>
       <c r="I28">
-        <v>167</v>
-      </c>
-      <c r="J28">
+        <v>21</v>
+      </c>
+      <c r="L28">
+        <f t="shared" si="0"/>
+        <v>43</v>
+      </c>
+      <c r="M28" s="4" t="s">
         <v>195</v>
-      </c>
-      <c r="K28">
-        <v>175</v>
-      </c>
-      <c r="L28">
-        <f t="shared" si="0"/>
-        <v>537</v>
-      </c>
-      <c r="M28" s="4" t="s">
-        <v>193</v>
       </c>
       <c r="N28" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="29" spans="1:14" ht="113" customHeight="1">
+    <row r="29" spans="1:14" ht="153">
       <c r="A29" s="5" t="s">
-        <v>147</v>
+        <v>74</v>
       </c>
       <c r="B29" t="s">
         <v>65</v>
       </c>
-      <c r="C29" s="4" t="s">
-        <v>78</v>
+      <c r="C29" t="s">
+        <v>67</v>
       </c>
       <c r="D29" t="s">
         <v>26</v>
       </c>
+      <c r="E29" t="s">
+        <v>20</v>
+      </c>
+      <c r="F29" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="G29" s="4" t="s">
+        <v>185</v>
+      </c>
       <c r="I29">
-        <v>38</v>
+        <v>167</v>
       </c>
       <c r="J29">
-        <v>37</v>
+        <v>195</v>
+      </c>
+      <c r="K29">
+        <v>175</v>
       </c>
       <c r="L29">
         <f t="shared" si="0"/>
-        <v>75</v>
+        <v>537</v>
       </c>
       <c r="M29" s="4" t="s">
-        <v>79</v>
+        <v>193</v>
       </c>
       <c r="N29" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="30" spans="1:14" ht="68">
+    <row r="30" spans="1:14" ht="113" customHeight="1">
       <c r="A30" s="5" t="s">
-        <v>80</v>
+        <v>147</v>
       </c>
       <c r="B30" t="s">
         <v>65</v>
       </c>
-      <c r="C30" t="s">
-        <v>58</v>
+      <c r="C30" s="4" t="s">
+        <v>78</v>
       </c>
       <c r="D30" t="s">
         <v>26</v>
       </c>
-      <c r="E30" t="s">
-        <v>20</v>
-      </c>
-      <c r="F30" t="s">
-        <v>15</v>
-      </c>
-      <c r="G30" t="s">
-        <v>23</v>
-      </c>
-      <c r="H30">
-        <v>23</v>
+      <c r="I30">
+        <v>38</v>
       </c>
       <c r="J30">
-        <v>8</v>
-      </c>
-      <c r="K30">
-        <v>11</v>
+        <v>37</v>
       </c>
       <c r="L30">
         <f t="shared" si="0"/>
-        <v>42</v>
+        <v>75</v>
       </c>
       <c r="M30" s="4" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="N30" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="31" spans="1:14" ht="85">
+    <row r="31" spans="1:14" ht="68">
       <c r="A31" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B31" t="s">
         <v>65</v>
@@ -2456,28 +2465,28 @@
         <v>23</v>
       </c>
       <c r="H31">
-        <v>52</v>
+        <v>23</v>
       </c>
       <c r="J31">
+        <v>8</v>
+      </c>
+      <c r="K31">
         <v>11</v>
       </c>
-      <c r="K31">
-        <v>39</v>
-      </c>
       <c r="L31">
         <f t="shared" si="0"/>
-        <v>102</v>
+        <v>42</v>
       </c>
       <c r="M31" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="N31" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="32" spans="1:14" ht="17">
-      <c r="A32" s="29" t="s">
-        <v>82</v>
+    <row r="32" spans="1:14" ht="85">
+      <c r="A32" s="5" t="s">
+        <v>81</v>
       </c>
       <c r="B32" t="s">
         <v>65</v>
@@ -2494,23 +2503,32 @@
       <c r="F32" t="s">
         <v>15</v>
       </c>
+      <c r="G32" t="s">
+        <v>23</v>
+      </c>
+      <c r="H32">
+        <v>52</v>
+      </c>
+      <c r="J32">
+        <v>11</v>
+      </c>
       <c r="K32">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="L32">
         <f t="shared" si="0"/>
-        <v>27</v>
+        <v>102</v>
       </c>
       <c r="M32" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="N32" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="33" spans="1:14" ht="85">
-      <c r="A33" s="5" t="s">
-        <v>83</v>
+    <row r="33" spans="1:14" ht="17">
+      <c r="A33" s="29" t="s">
+        <v>82</v>
       </c>
       <c r="B33" t="s">
         <v>65</v>
@@ -2527,32 +2545,23 @@
       <c r="F33" t="s">
         <v>15</v>
       </c>
-      <c r="G33" t="s">
-        <v>23</v>
-      </c>
-      <c r="H33">
-        <v>38</v>
-      </c>
-      <c r="J33">
-        <v>16</v>
-      </c>
       <c r="K33">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="L33">
         <f t="shared" si="0"/>
-        <v>95</v>
+        <v>27</v>
       </c>
       <c r="M33" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="N33" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="34" spans="1:14" ht="34">
-      <c r="A34" s="29" t="s">
-        <v>84</v>
+    <row r="34" spans="1:14" ht="85">
+      <c r="A34" s="5" t="s">
+        <v>83</v>
       </c>
       <c r="B34" t="s">
         <v>65</v>
@@ -2569,23 +2578,32 @@
       <c r="F34" t="s">
         <v>15</v>
       </c>
+      <c r="G34" t="s">
+        <v>23</v>
+      </c>
+      <c r="H34">
+        <v>38</v>
+      </c>
+      <c r="J34">
+        <v>16</v>
+      </c>
       <c r="K34">
-        <v>7</v>
+        <v>41</v>
       </c>
       <c r="L34">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>95</v>
       </c>
       <c r="M34" s="4" t="s">
-        <v>180</v>
+        <v>89</v>
       </c>
       <c r="N34" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="35" spans="1:14" ht="102">
-      <c r="A35" s="5" t="s">
-        <v>85</v>
+    <row r="35" spans="1:14" ht="34">
+      <c r="A35" s="29" t="s">
+        <v>84</v>
       </c>
       <c r="B35" t="s">
         <v>65</v>
@@ -2593,8 +2611,8 @@
       <c r="C35" t="s">
         <v>58</v>
       </c>
-      <c r="D35" s="4" t="s">
-        <v>90</v>
+      <c r="D35" t="s">
+        <v>26</v>
       </c>
       <c r="E35" t="s">
         <v>20</v>
@@ -2602,353 +2620,386 @@
       <c r="F35" t="s">
         <v>15</v>
       </c>
-      <c r="G35" t="s">
-        <v>23</v>
-      </c>
-      <c r="H35">
-        <v>5</v>
-      </c>
-      <c r="J35">
-        <v>5</v>
-      </c>
       <c r="K35">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="L35">
-        <f>H35+I35+J35+K35</f>
-        <v>15</v>
+        <f t="shared" si="0"/>
+        <v>7</v>
       </c>
       <c r="M35" s="4" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="N35" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="36" spans="1:14" ht="34">
+    <row r="36" spans="1:14" ht="102">
       <c r="A36" s="5" t="s">
-        <v>123</v>
+        <v>85</v>
       </c>
       <c r="B36" t="s">
         <v>65</v>
       </c>
       <c r="C36" t="s">
-        <v>91</v>
-      </c>
-      <c r="D36" t="s">
-        <v>26</v>
+        <v>58</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>90</v>
       </c>
       <c r="E36" t="s">
-        <v>122</v>
+        <v>20</v>
       </c>
       <c r="F36" t="s">
-        <v>121</v>
+        <v>15</v>
       </c>
       <c r="G36" t="s">
         <v>23</v>
       </c>
       <c r="H36">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="J36">
-        <v>53</v>
+        <v>5</v>
       </c>
       <c r="K36">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="L36">
         <f>H36+I36+J36+K36</f>
-        <v>110</v>
+        <v>15</v>
       </c>
       <c r="M36" s="4" t="s">
-        <v>120</v>
+        <v>181</v>
       </c>
       <c r="N36" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="37" spans="1:14" ht="51">
-      <c r="A37" t="s">
-        <v>47</v>
+    <row r="37" spans="1:14" ht="34">
+      <c r="A37" s="5" t="s">
+        <v>123</v>
       </c>
       <c r="B37" t="s">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="C37" t="s">
-        <v>55</v>
+        <v>91</v>
       </c>
       <c r="D37" t="s">
         <v>26</v>
       </c>
       <c r="E37" t="s">
-        <v>56</v>
+        <v>122</v>
       </c>
       <c r="F37" t="s">
-        <v>15</v>
-      </c>
-      <c r="G37" s="9" t="s">
-        <v>57</v>
+        <v>121</v>
+      </c>
+      <c r="G37" t="s">
+        <v>23</v>
       </c>
       <c r="H37">
-        <v>37</v>
-      </c>
-      <c r="I37">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="J37">
-        <v>46</v>
+        <v>53</v>
+      </c>
+      <c r="K37">
+        <v>28</v>
       </c>
       <c r="L37">
-        <f t="shared" si="0"/>
-        <v>108</v>
+        <f>H37+I37+J37+K37</f>
+        <v>110</v>
+      </c>
+      <c r="M37" s="4" t="s">
+        <v>120</v>
       </c>
       <c r="N37" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="38" spans="1:14" ht="17">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" ht="51">
       <c r="A38" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B38" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C38" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D38" t="s">
         <v>26</v>
       </c>
       <c r="E38" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F38" t="s">
         <v>15</v>
       </c>
+      <c r="G38" s="9" t="s">
+        <v>57</v>
+      </c>
       <c r="H38">
-        <v>18</v>
+        <v>37</v>
+      </c>
+      <c r="I38">
+        <v>25</v>
       </c>
       <c r="J38">
-        <v>8</v>
-      </c>
-      <c r="K38">
-        <v>18</v>
+        <v>46</v>
       </c>
       <c r="L38">
         <f t="shared" si="0"/>
-        <v>44</v>
-      </c>
-      <c r="M38" s="4" t="s">
-        <v>177</v>
+        <v>108</v>
       </c>
       <c r="N38" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="39" spans="1:14" ht="34">
+    <row r="39" spans="1:14" ht="17">
       <c r="A39" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B39" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C39" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D39" t="s">
-        <v>12</v>
+        <v>26</v>
+      </c>
+      <c r="E39" t="s">
+        <v>59</v>
       </c>
       <c r="F39" t="s">
         <v>15</v>
       </c>
       <c r="H39">
-        <v>7</v>
-      </c>
-      <c r="I39">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="J39">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="K39">
+        <v>18</v>
       </c>
       <c r="L39">
         <f t="shared" si="0"/>
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="M39" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="N39" s="28" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="40" spans="1:14" ht="85">
+        <v>177</v>
+      </c>
+      <c r="N39" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" ht="34">
       <c r="A40" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B40" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C40" t="s">
-        <v>91</v>
+        <v>60</v>
       </c>
       <c r="D40" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="F40" t="s">
         <v>15</v>
       </c>
-      <c r="G40" t="s">
-        <v>179</v>
-      </c>
       <c r="H40">
-        <v>76</v>
+        <v>7</v>
+      </c>
+      <c r="I40">
+        <v>7</v>
       </c>
       <c r="J40">
-        <v>113</v>
+        <v>7</v>
       </c>
       <c r="L40">
         <f t="shared" si="0"/>
-        <v>189</v>
+        <v>21</v>
       </c>
       <c r="M40" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="N40" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="41" spans="1:14" ht="51">
+        <v>184</v>
+      </c>
+      <c r="N40" s="28" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" ht="85">
       <c r="A41" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="B41" t="s">
-        <v>62</v>
+        <v>54</v>
+      </c>
+      <c r="C41" t="s">
+        <v>91</v>
       </c>
       <c r="D41" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="F41" t="s">
         <v>15</v>
       </c>
-      <c r="G41" s="4" t="s">
-        <v>92</v>
+      <c r="G41" t="s">
+        <v>179</v>
       </c>
       <c r="H41">
-        <v>36</v>
-      </c>
-      <c r="I41">
-        <v>17</v>
+        <v>76</v>
       </c>
       <c r="J41">
-        <v>19</v>
+        <v>113</v>
       </c>
       <c r="L41">
         <f t="shared" si="0"/>
-        <v>72</v>
+        <v>189</v>
       </c>
       <c r="M41" s="4" t="s">
-        <v>188</v>
-      </c>
-      <c r="N41" s="28" t="s">
-        <v>168</v>
+        <v>125</v>
+      </c>
+      <c r="N41" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="42" spans="1:14" ht="51">
       <c r="A42" t="s">
-        <v>104</v>
+        <v>61</v>
       </c>
       <c r="B42" t="s">
-        <v>105</v>
+        <v>62</v>
       </c>
       <c r="D42" t="s">
-        <v>26</v>
+        <v>12</v>
+      </c>
+      <c r="F42" t="s">
+        <v>15</v>
       </c>
       <c r="G42" s="4" t="s">
-        <v>187</v>
+        <v>92</v>
       </c>
       <c r="H42">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="I42">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="J42">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="L42">
         <f t="shared" si="0"/>
-        <v>102</v>
-      </c>
-      <c r="M42" s="4"/>
-      <c r="N42" t="s">
-        <v>169</v>
+        <v>72</v>
+      </c>
+      <c r="M42" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="N42" s="28" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="43" spans="1:14" ht="51">
       <c r="A43" t="s">
+        <v>104</v>
+      </c>
+      <c r="B43" t="s">
+        <v>105</v>
+      </c>
+      <c r="D43" t="s">
+        <v>26</v>
+      </c>
+      <c r="G43" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="H43">
+        <v>13</v>
+      </c>
+      <c r="I43">
+        <v>45</v>
+      </c>
+      <c r="J43">
+        <v>44</v>
+      </c>
+      <c r="L43">
+        <f t="shared" si="0"/>
+        <v>102</v>
+      </c>
+      <c r="M43" s="4"/>
+      <c r="N43" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" ht="51">
+      <c r="A44" t="s">
         <v>103</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B44" t="s">
         <v>50</v>
       </c>
-      <c r="C43" t="s">
+      <c r="C44" t="s">
         <v>55</v>
       </c>
-      <c r="D43" t="s">
+      <c r="D44" t="s">
         <v>12</v>
       </c>
-      <c r="F43" t="s">
+      <c r="F44" t="s">
         <v>15</v>
       </c>
-      <c r="G43" s="4" t="s">
+      <c r="G44" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="J43">
+      <c r="J44">
         <v>26</v>
       </c>
-      <c r="L43">
+      <c r="L44">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="M43" s="30" t="s">
+      <c r="M44" s="30" t="s">
         <v>182</v>
       </c>
-      <c r="N43" t="s">
+      <c r="N44" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="44" spans="1:14">
-      <c r="A44" t="s">
+    <row r="45" spans="1:14">
+      <c r="A45" t="s">
         <v>8</v>
       </c>
-      <c r="G44" s="4"/>
-      <c r="H44">
-        <f t="shared" ref="H44:K44" si="1">SUM(H2:H43)</f>
-        <v>703</v>
-      </c>
-      <c r="I44">
+      <c r="G45" s="4"/>
+      <c r="H45">
+        <f t="shared" ref="H45:K45" si="1">SUM(H2:H44)</f>
+        <v>735</v>
+      </c>
+      <c r="I45">
         <f t="shared" si="1"/>
         <v>1080</v>
       </c>
-      <c r="J44">
+      <c r="J45">
         <f t="shared" si="1"/>
-        <v>1339</v>
-      </c>
-      <c r="K44">
+        <v>1355</v>
+      </c>
+      <c r="K45">
         <f t="shared" si="1"/>
         <v>816</v>
       </c>
-      <c r="L44">
-        <f>SUM(L2:L43)</f>
-        <v>3938</v>
-      </c>
-      <c r="M44" s="4"/>
+      <c r="L45">
+        <f>SUM(L2:L44)</f>
+        <v>3986</v>
+      </c>
+      <c r="M45" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="E22 E16" twoDigitTextYear="1"/>
+    <ignoredError sqref="E23 E16" twoDigitTextYear="1"/>
   </ignoredErrors>
 </worksheet>
 </file>

--- a/data-raw/Data_summaryforpackage.xlsx
+++ b/data-raw/Data_summaryforpackage.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xutaowang/Desktop/curatedTBData/data-raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C851E482-6C8D-0C42-BC45-A44E51A7CFE4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90F40D50-B076-1F41-B667-C1B04D4DFB9D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1360" yWindow="460" windowWidth="32760" windowHeight="16380" xr2:uid="{B39B7F83-2537-C248-AAB4-54D9192DC10F}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="481" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="483" uniqueCount="204">
   <si>
     <t>GEO accession</t>
   </si>
@@ -598,10 +598,6 @@
   <si>
     <t xml:space="preserve">
 These samples are from 9 successfully cured patients at diagnosis and end-of-treatment at 26 weeks (Total Sample=9)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-Ex vivo blood samples analysed at diagnosis and after 1, 2, 4 and 26 weeks of treatment (Total Sample=135).</t>
   </si>
   <si>
     <t>OD was sarcoidosis (n=18)</t>
@@ -712,6 +708,13 @@
   </si>
   <si>
     <t>GSEIndia</t>
+  </si>
+  <si>
+    <t>Repeated measure for TB patients at baseline, 3 months, and 6 months after anti-TB chemotherapy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Ex vivo blood samples analysed at diagnosis and after 1, 2, 4 and 26 weeks of treatment (Total Measure=135).</t>
   </si>
 </sst>
 </file>
@@ -1284,8 +1287,8 @@
   <dimension ref="A1:N45"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C17" sqref="C17"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1361,6 +1364,9 @@
       <c r="F2" t="s">
         <v>15</v>
       </c>
+      <c r="G2" s="4" t="s">
+        <v>184</v>
+      </c>
       <c r="H2">
         <v>6</v>
       </c>
@@ -1368,11 +1374,14 @@
         <v>6</v>
       </c>
       <c r="J2">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="L2">
         <f>H2+I2+J2+K2</f>
-        <v>39</v>
+        <v>21</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>202</v>
       </c>
       <c r="N2" t="s">
         <v>139</v>
@@ -1441,7 +1450,7 @@
         <v>27</v>
       </c>
       <c r="M4" s="7" t="s">
-        <v>176</v>
+        <v>203</v>
       </c>
       <c r="N4" t="s">
         <v>139</v>
@@ -1623,7 +1632,7 @@
         <v>15</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H9">
         <v>100</v>
@@ -1636,7 +1645,7 @@
         <v>138</v>
       </c>
       <c r="M9" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="N9" t="s">
         <v>140</v>
@@ -1821,7 +1830,7 @@
         <v>15</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I14">
         <v>16</v>
@@ -1886,7 +1895,7 @@
         <v>12</v>
       </c>
       <c r="E16" s="31" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F16" t="s">
         <v>111</v>
@@ -1905,7 +1914,7 @@
         <v>51</v>
       </c>
       <c r="M16" s="17" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="N16" t="s">
         <v>140</v>
@@ -1913,7 +1922,7 @@
     </row>
     <row r="17" spans="1:14" ht="49" customHeight="1">
       <c r="A17" s="32" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B17" t="s">
         <v>108</v>
@@ -1925,10 +1934,10 @@
         <v>19</v>
       </c>
       <c r="E17" s="31" t="s">
+        <v>198</v>
+      </c>
+      <c r="G17" s="4" t="s">
         <v>199</v>
-      </c>
-      <c r="G17" s="4" t="s">
-        <v>200</v>
       </c>
       <c r="H17">
         <v>32</v>
@@ -1941,7 +1950,7 @@
         <v>48</v>
       </c>
       <c r="M17" s="17" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="N17" t="s">
         <v>140</v>
@@ -2111,7 +2120,7 @@
         <v>26</v>
       </c>
       <c r="E22" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F22" t="s">
         <v>15</v>
@@ -2166,7 +2175,7 @@
         <v>274</v>
       </c>
       <c r="M23" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="N23" t="s">
         <v>97</v>
@@ -2205,7 +2214,7 @@
         <v>36</v>
       </c>
       <c r="M24" s="7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="N24" t="s">
         <v>97</v>
@@ -2231,7 +2240,7 @@
         <v>69</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="I25">
         <v>14</v>
@@ -2247,7 +2256,7 @@
         <v>157</v>
       </c>
       <c r="M25" s="4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="N25" t="s">
         <v>97</v>
@@ -2273,7 +2282,7 @@
         <v>69</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="I26">
         <v>54</v>
@@ -2289,7 +2298,7 @@
         <v>334</v>
       </c>
       <c r="M26" s="4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="N26" t="s">
         <v>97</v>
@@ -2315,7 +2324,7 @@
         <v>170</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="I27">
         <v>35</v>
@@ -2364,7 +2373,7 @@
         <v>43</v>
       </c>
       <c r="M28" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="N28" t="s">
         <v>97</v>
@@ -2390,7 +2399,7 @@
         <v>69</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="I29">
         <v>167</v>
@@ -2406,7 +2415,7 @@
         <v>537</v>
       </c>
       <c r="M29" s="4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="N29" t="s">
         <v>97</v>
@@ -2628,7 +2637,7 @@
         <v>7</v>
       </c>
       <c r="M35" s="4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="N35" t="s">
         <v>97</v>
@@ -2670,7 +2679,7 @@
         <v>15</v>
       </c>
       <c r="M36" s="4" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="N36" t="s">
         <v>97</v>
@@ -2790,7 +2799,7 @@
         <v>44</v>
       </c>
       <c r="M39" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="N39" t="s">
         <v>165</v>
@@ -2826,7 +2835,7 @@
         <v>21</v>
       </c>
       <c r="M40" s="4" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="N40" s="28" t="s">
         <v>166</v>
@@ -2849,7 +2858,7 @@
         <v>15</v>
       </c>
       <c r="G41" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="H41">
         <v>76</v>
@@ -2898,7 +2907,7 @@
         <v>72</v>
       </c>
       <c r="M42" s="4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="N42" s="28" t="s">
         <v>168</v>
@@ -2915,7 +2924,7 @@
         <v>26</v>
       </c>
       <c r="G43" s="4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H43">
         <v>13</v>
@@ -2962,7 +2971,7 @@
         <v>26</v>
       </c>
       <c r="M44" s="30" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="N44" t="s">
         <v>165</v>
@@ -2983,7 +2992,7 @@
       </c>
       <c r="J45">
         <f t="shared" si="1"/>
-        <v>1355</v>
+        <v>1337</v>
       </c>
       <c r="K45">
         <f t="shared" si="1"/>
@@ -2991,7 +3000,7 @@
       </c>
       <c r="L45">
         <f>SUM(L2:L44)</f>
-        <v>3986</v>
+        <v>3968</v>
       </c>
       <c r="M45" s="4"/>
     </row>

--- a/data-raw/Data_summaryforpackage.xlsx
+++ b/data-raw/Data_summaryforpackage.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xutaowang/Desktop/curatedTBData/data-raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90F40D50-B076-1F41-B667-C1B04D4DFB9D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A369B8DC-3FFC-3D4E-87C1-E176BD775C87}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1360" yWindow="460" windowWidth="32760" windowHeight="16380" xr2:uid="{B39B7F83-2537-C248-AAB4-54D9192DC10F}"/>
   </bookViews>
@@ -355,9 +355,6 @@
     <t>1-15</t>
   </si>
   <si>
-    <t>Sputum culture, TST, QFT-GIT</t>
-  </si>
-  <si>
     <t>GSE62147</t>
   </si>
   <si>
@@ -715,6 +712,9 @@
   <si>
     <t xml:space="preserve">
 Ex vivo blood samples analysed at diagnosis and after 1, 2, 4 and 26 weeks of treatment (Total Measure=135).</t>
+  </si>
+  <si>
+    <t>Sputum culture, TST, IGRA(QFT-GIT)</t>
   </si>
 </sst>
 </file>
@@ -1288,7 +1288,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I4" sqref="I4"/>
+      <selection pane="bottomLeft" activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1324,7 +1324,7 @@
         <v>6</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="I1" s="6" t="s">
         <v>7</v>
@@ -1333,7 +1333,7 @@
         <v>16</v>
       </c>
       <c r="K1" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="L1" s="6" t="s">
         <v>8</v>
@@ -1342,7 +1342,7 @@
         <v>9</v>
       </c>
       <c r="N1" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="69" customHeight="1">
@@ -1365,7 +1365,7 @@
         <v>15</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="H2">
         <v>6</v>
@@ -1381,15 +1381,15 @@
         <v>21</v>
       </c>
       <c r="M2" s="4" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="N2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="70" customHeight="1">
       <c r="A3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B3" t="s">
         <v>11</v>
@@ -1417,15 +1417,15 @@
         <v>9</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="N3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="63" customHeight="1">
       <c r="A4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B4" t="s">
         <v>11</v>
@@ -1450,15 +1450,15 @@
         <v>27</v>
       </c>
       <c r="M4" s="7" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="N4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B5" t="s">
         <v>17</v>
@@ -1492,7 +1492,7 @@
         <v>39</v>
       </c>
       <c r="N5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="34">
@@ -1515,7 +1515,7 @@
         <v>15</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>102</v>
+        <v>203</v>
       </c>
       <c r="H6">
         <v>9</v>
@@ -1531,12 +1531,12 @@
         <v>27</v>
       </c>
       <c r="N6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="119">
       <c r="A7" s="12" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B7" t="s">
         <v>93</v>
@@ -1554,7 +1554,7 @@
         <v>15</v>
       </c>
       <c r="G7" s="10" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H7" s="13"/>
       <c r="I7" s="13">
@@ -1569,15 +1569,15 @@
         <v>334</v>
       </c>
       <c r="M7" s="14" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="N7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="119">
       <c r="A8" s="18" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B8" t="s">
         <v>24</v>
@@ -1595,7 +1595,7 @@
         <v>15</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="I8">
         <v>104</v>
@@ -1608,15 +1608,15 @@
         <v>144</v>
       </c>
       <c r="M8" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="N8" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="119">
       <c r="A9" s="5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B9" t="s">
         <v>24</v>
@@ -1632,7 +1632,7 @@
         <v>15</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="H9">
         <v>100</v>
@@ -1645,15 +1645,15 @@
         <v>138</v>
       </c>
       <c r="M9" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="N9" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="51">
       <c r="A10" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B10" t="s">
         <v>25</v>
@@ -1687,12 +1687,12 @@
         <v>33</v>
       </c>
       <c r="N10" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="51">
       <c r="A11" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B11" t="s">
         <v>25</v>
@@ -1726,12 +1726,12 @@
         <v>44</v>
       </c>
       <c r="N11" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="12" spans="1:14" ht="62" customHeight="1">
       <c r="A12" s="18" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B12" t="s">
         <v>25</v>
@@ -1762,15 +1762,15 @@
         <v>31</v>
       </c>
       <c r="M12" s="17" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="N12" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="13" spans="1:14" ht="49" customHeight="1">
       <c r="A13" s="18" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B13" t="s">
         <v>25</v>
@@ -1807,30 +1807,30 @@
         <v>96</v>
       </c>
       <c r="N13" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="14" spans="1:14" ht="49" customHeight="1">
       <c r="A14" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B14" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C14" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D14" t="s">
         <v>26</v>
       </c>
       <c r="E14" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F14" t="s">
         <v>15</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="I14">
         <v>16</v>
@@ -1844,12 +1844,12 @@
       </c>
       <c r="M14" s="4"/>
       <c r="N14" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="15" spans="1:14" ht="49" customHeight="1">
       <c r="A15" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B15" t="s">
         <v>24</v>
@@ -1864,7 +1864,7 @@
         <v>69</v>
       </c>
       <c r="G15" s="16" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H15">
         <v>16</v>
@@ -1878,30 +1878,30 @@
       </c>
       <c r="M15" s="4"/>
       <c r="N15" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="16" spans="1:14" ht="49" customHeight="1">
       <c r="A16" s="17" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B16" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C16" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D16" t="s">
         <v>12</v>
       </c>
       <c r="E16" s="31" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F16" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I16">
         <v>21</v>
@@ -1914,18 +1914,18 @@
         <v>51</v>
       </c>
       <c r="M16" s="17" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="N16" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="17" spans="1:14" ht="49" customHeight="1">
       <c r="A17" s="32" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B17" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C17" t="s">
         <v>91</v>
@@ -1934,10 +1934,10 @@
         <v>19</v>
       </c>
       <c r="E17" s="31" t="s">
+        <v>197</v>
+      </c>
+      <c r="G17" s="4" t="s">
         <v>198</v>
-      </c>
-      <c r="G17" s="4" t="s">
-        <v>199</v>
       </c>
       <c r="H17">
         <v>32</v>
@@ -1950,10 +1950,10 @@
         <v>48</v>
       </c>
       <c r="M17" s="17" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="N17" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1976,7 +1976,7 @@
         <v>15</v>
       </c>
       <c r="G18" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H18">
         <v>12</v>
@@ -2015,7 +2015,7 @@
         <v>15</v>
       </c>
       <c r="G19" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H19">
         <v>16</v>
@@ -2051,7 +2051,7 @@
         <v>15</v>
       </c>
       <c r="G20" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I20">
         <v>31</v>
@@ -2090,7 +2090,7 @@
         <v>15</v>
       </c>
       <c r="G21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H21">
         <v>12</v>
@@ -2120,13 +2120,13 @@
         <v>26</v>
       </c>
       <c r="E22" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F22" t="s">
         <v>15</v>
       </c>
       <c r="G22" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H22">
         <v>12</v>
@@ -2162,7 +2162,7 @@
         <v>15</v>
       </c>
       <c r="G23" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H23">
         <v>81</v>
@@ -2175,7 +2175,7 @@
         <v>274</v>
       </c>
       <c r="M23" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="N23" t="s">
         <v>97</v>
@@ -2214,7 +2214,7 @@
         <v>36</v>
       </c>
       <c r="M24" s="7" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="N24" t="s">
         <v>97</v>
@@ -2240,7 +2240,7 @@
         <v>69</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="I25">
         <v>14</v>
@@ -2256,7 +2256,7 @@
         <v>157</v>
       </c>
       <c r="M25" s="4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="N25" t="s">
         <v>97</v>
@@ -2270,7 +2270,7 @@
         <v>65</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D26" t="s">
         <v>26</v>
@@ -2282,7 +2282,7 @@
         <v>69</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="I26">
         <v>54</v>
@@ -2298,7 +2298,7 @@
         <v>334</v>
       </c>
       <c r="M26" s="4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="N26" t="s">
         <v>97</v>
@@ -2321,10 +2321,10 @@
         <v>20</v>
       </c>
       <c r="F27" s="15" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="I27">
         <v>35</v>
@@ -2337,7 +2337,7 @@
         <v>50</v>
       </c>
       <c r="M27" s="4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="N27" t="s">
         <v>97</v>
@@ -2360,7 +2360,7 @@
         <v>77</v>
       </c>
       <c r="F28" s="15" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H28">
         <v>22</v>
@@ -2373,7 +2373,7 @@
         <v>43</v>
       </c>
       <c r="M28" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="N28" t="s">
         <v>97</v>
@@ -2399,7 +2399,7 @@
         <v>69</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="I29">
         <v>167</v>
@@ -2415,7 +2415,7 @@
         <v>537</v>
       </c>
       <c r="M29" s="4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="N29" t="s">
         <v>97</v>
@@ -2423,7 +2423,7 @@
     </row>
     <row r="30" spans="1:14" ht="113" customHeight="1">
       <c r="A30" s="5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B30" t="s">
         <v>65</v>
@@ -2637,7 +2637,7 @@
         <v>7</v>
       </c>
       <c r="M35" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="N35" t="s">
         <v>97</v>
@@ -2679,7 +2679,7 @@
         <v>15</v>
       </c>
       <c r="M36" s="4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="N36" t="s">
         <v>97</v>
@@ -2687,7 +2687,7 @@
     </row>
     <row r="37" spans="1:14" ht="34">
       <c r="A37" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B37" t="s">
         <v>65</v>
@@ -2699,10 +2699,10 @@
         <v>26</v>
       </c>
       <c r="E37" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F37" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G37" t="s">
         <v>23</v>
@@ -2721,7 +2721,7 @@
         <v>110</v>
       </c>
       <c r="M37" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="N37" t="s">
         <v>97</v>
@@ -2763,7 +2763,7 @@
         <v>108</v>
       </c>
       <c r="N38" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="39" spans="1:14" ht="17">
@@ -2799,10 +2799,10 @@
         <v>44</v>
       </c>
       <c r="M39" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="N39" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="40" spans="1:14" ht="34">
@@ -2835,10 +2835,10 @@
         <v>21</v>
       </c>
       <c r="M40" s="4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="N40" s="28" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="41" spans="1:14" ht="85">
@@ -2858,7 +2858,7 @@
         <v>15</v>
       </c>
       <c r="G41" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H41">
         <v>76</v>
@@ -2871,10 +2871,10 @@
         <v>189</v>
       </c>
       <c r="M41" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="N41" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="42" spans="1:14" ht="51">
@@ -2907,24 +2907,24 @@
         <v>72</v>
       </c>
       <c r="M42" s="4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="N42" s="28" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="43" spans="1:14" ht="51">
       <c r="A43" t="s">
+        <v>103</v>
+      </c>
+      <c r="B43" t="s">
         <v>104</v>
-      </c>
-      <c r="B43" t="s">
-        <v>105</v>
       </c>
       <c r="D43" t="s">
         <v>26</v>
       </c>
       <c r="G43" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="H43">
         <v>13</v>
@@ -2941,12 +2941,12 @@
       </c>
       <c r="M43" s="4"/>
       <c r="N43" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="44" spans="1:14" ht="51">
       <c r="A44" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B44" t="s">
         <v>50</v>
@@ -2961,7 +2961,7 @@
         <v>15</v>
       </c>
       <c r="G44" s="4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="J44">
         <v>26</v>
@@ -2971,10 +2971,10 @@
         <v>26</v>
       </c>
       <c r="M44" s="30" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="N44" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="45" spans="1:14">
@@ -3025,15 +3025,15 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B1" t="s">
         <v>141</v>
-      </c>
-      <c r="B1" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17">
       <c r="A2" s="20" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B2" s="21" t="s">
         <v>63</v>
@@ -3041,7 +3041,7 @@
     </row>
     <row r="3" spans="1:2" ht="17">
       <c r="A3" s="20" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B3" s="21" t="s">
         <v>64</v>
@@ -3049,7 +3049,7 @@
     </row>
     <row r="4" spans="1:2" ht="17">
       <c r="A4" s="20" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B4" s="21" t="s">
         <v>74</v>
@@ -3057,7 +3057,7 @@
     </row>
     <row r="5" spans="1:2" ht="17">
       <c r="A5" s="20" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B5" s="21" t="s">
         <v>29</v>
@@ -3065,7 +3065,7 @@
     </row>
     <row r="6" spans="1:2" ht="17">
       <c r="A6" s="20" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B6" s="21" t="s">
         <v>30</v>
@@ -3073,7 +3073,7 @@
     </row>
     <row r="7" spans="1:2" ht="17">
       <c r="A7" s="20" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B7" s="21" t="s">
         <v>34</v>
@@ -3081,15 +3081,15 @@
     </row>
     <row r="8" spans="1:2" ht="17">
       <c r="A8" s="20" t="s">
+        <v>143</v>
+      </c>
+      <c r="B8" s="21" t="s">
         <v>144</v>
-      </c>
-      <c r="B8" s="21" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="17">
       <c r="A9" s="20" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B9" s="21" t="s">
         <v>36</v>
@@ -3097,7 +3097,7 @@
     </row>
     <row r="10" spans="1:2" ht="17">
       <c r="A10" s="20" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B10" s="21" t="s">
         <v>37</v>
@@ -3105,7 +3105,7 @@
     </row>
     <row r="11" spans="1:2" ht="17">
       <c r="A11" s="22" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B11" s="21" t="s">
         <v>10</v>
@@ -3113,31 +3113,31 @@
     </row>
     <row r="12" spans="1:2" ht="17">
       <c r="A12" s="22" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B12" s="21" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="17">
       <c r="A13" s="22" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B13" s="21" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="17">
       <c r="A14" s="22" t="s">
+        <v>145</v>
+      </c>
+      <c r="B14" s="21" t="s">
         <v>146</v>
-      </c>
-      <c r="B14" s="21" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="17">
       <c r="A15" s="22" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B15" s="21" t="s">
         <v>70</v>
@@ -3145,7 +3145,7 @@
     </row>
     <row r="16" spans="1:2" ht="17">
       <c r="A16" s="22" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B16" s="21" t="s">
         <v>49</v>
@@ -3153,7 +3153,7 @@
     </row>
     <row r="17" spans="1:2" ht="17">
       <c r="A17" s="22" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B17" s="21" t="s">
         <v>47</v>
@@ -3161,7 +3161,7 @@
     </row>
     <row r="18" spans="1:2" ht="17">
       <c r="A18" s="23" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B18" s="24" t="s">
         <v>80</v>
@@ -3169,7 +3169,7 @@
     </row>
     <row r="19" spans="1:2" ht="17">
       <c r="A19" s="23" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B19" s="24" t="s">
         <v>81</v>
@@ -3177,7 +3177,7 @@
     </row>
     <row r="20" spans="1:2" ht="17">
       <c r="A20" s="23" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B20" s="24" t="s">
         <v>82</v>
@@ -3185,7 +3185,7 @@
     </row>
     <row r="21" spans="1:2" ht="17">
       <c r="A21" s="23" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B21" s="24" t="s">
         <v>83</v>
@@ -3193,7 +3193,7 @@
     </row>
     <row r="22" spans="1:2" ht="17">
       <c r="A22" s="23" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B22" s="24" t="s">
         <v>84</v>
@@ -3201,7 +3201,7 @@
     </row>
     <row r="23" spans="1:2" ht="17">
       <c r="A23" s="23" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B23" s="24" t="s">
         <v>85</v>
@@ -3209,7 +3209,7 @@
     </row>
     <row r="24" spans="1:2" ht="17">
       <c r="A24" s="20" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B24" s="21" t="s">
         <v>75</v>
@@ -3217,7 +3217,7 @@
     </row>
     <row r="25" spans="1:2" ht="17">
       <c r="A25" s="20" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B25" s="21" t="s">
         <v>61</v>
@@ -3225,7 +3225,7 @@
     </row>
     <row r="26" spans="1:2" ht="17">
       <c r="A26" s="20" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B26" s="21" t="s">
         <v>51</v>
@@ -3233,23 +3233,23 @@
     </row>
     <row r="27" spans="1:2" ht="17">
       <c r="A27" s="20" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="17">
       <c r="A28" s="20" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B28" s="21" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="17">
       <c r="A29" s="20" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B29" s="21" t="s">
         <v>53</v>
@@ -3257,23 +3257,23 @@
     </row>
     <row r="30" spans="1:2" ht="17">
       <c r="A30" s="20" t="s">
+        <v>152</v>
+      </c>
+      <c r="B30" s="21" t="s">
         <v>153</v>
-      </c>
-      <c r="B30" s="21" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="17">
       <c r="A31" s="20" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B31" s="21" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="17">
       <c r="A32" s="20" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B32" s="21" t="s">
         <v>76</v>
@@ -3281,39 +3281,39 @@
     </row>
     <row r="33" spans="1:2" ht="17">
       <c r="A33" s="20" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B33" s="21" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="17">
       <c r="A34" s="20" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B34" s="21" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="17">
       <c r="A35" s="20" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B35" s="21" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="17">
       <c r="A36" s="20" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B36" s="21" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="25" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B37" s="24" t="s">
         <v>80</v>
@@ -3321,7 +3321,7 @@
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="25" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B38" s="24" t="s">
         <v>81</v>
@@ -3329,7 +3329,7 @@
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="25" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B39" s="24" t="s">
         <v>82</v>
@@ -3337,7 +3337,7 @@
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="25" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B40" s="24" t="s">
         <v>83</v>
@@ -3345,7 +3345,7 @@
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="25" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B41" s="24" t="s">
         <v>84</v>
@@ -3353,7 +3353,7 @@
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="25" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B42" s="24" t="s">
         <v>85</v>
@@ -3361,7 +3361,7 @@
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="25" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B43" s="21" t="s">
         <v>29</v>
@@ -3369,7 +3369,7 @@
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="25" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B44" s="21" t="s">
         <v>30</v>
@@ -3377,7 +3377,7 @@
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="25" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B45" s="21" t="s">
         <v>34</v>
@@ -3385,7 +3385,7 @@
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="25" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B46" s="21" t="s">
         <v>35</v>
@@ -3393,7 +3393,7 @@
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="25" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B47" s="21" t="s">
         <v>36</v>
@@ -3401,7 +3401,7 @@
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="25" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B48" s="21" t="s">
         <v>37</v>
@@ -3409,7 +3409,7 @@
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="25" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B49" s="21" t="s">
         <v>98</v>
@@ -3417,7 +3417,7 @@
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="25" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B50" s="21" t="s">
         <v>74</v>
@@ -3425,50 +3425,50 @@
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="25" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B51" s="21" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="25" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B52" s="21" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="26" t="s">
+        <v>158</v>
+      </c>
+      <c r="B53" s="21" t="s">
         <v>159</v>
-      </c>
-      <c r="B53" s="21" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="17">
       <c r="A54" s="20" t="s">
+        <v>160</v>
+      </c>
+      <c r="B54" s="27" t="s">
         <v>161</v>
-      </c>
-      <c r="B54" s="27" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="25" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B55" s="27" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="25" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B56" s="21" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
   </sheetData>

--- a/data-raw/Data_summaryforpackage.xlsx
+++ b/data-raw/Data_summaryforpackage.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xutaowang/Desktop/curatedTBData/data-raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A369B8DC-3FFC-3D4E-87C1-E176BD775C87}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CB3E8A9-52D3-B849-833A-A7047AF9DEE7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1360" yWindow="460" windowWidth="32760" windowHeight="16380" xr2:uid="{B39B7F83-2537-C248-AAB4-54D9192DC10F}"/>
+    <workbookView xWindow="20" yWindow="460" windowWidth="32760" windowHeight="16380" xr2:uid="{B39B7F83-2537-C248-AAB4-54D9192DC10F}"/>
   </bookViews>
   <sheets>
     <sheet name="DataSummary" sheetId="1" r:id="rId1"/>
@@ -1287,8 +1287,8 @@
   <dimension ref="A1:N45"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G6" sqref="G6"/>
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1575,7 +1575,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="119">
+    <row r="8" spans="1:14" ht="130" customHeight="1">
       <c r="A8" s="18" t="s">
         <v>132</v>
       </c>

--- a/data-raw/Data_summaryforpackage.xlsx
+++ b/data-raw/Data_summaryforpackage.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xutaowang/Desktop/curatedTBData/data-raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CB3E8A9-52D3-B849-833A-A7047AF9DEE7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{815FD753-15F7-D24B-B3D6-982B1C2C96A7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20" yWindow="460" windowWidth="32760" windowHeight="16380" xr2:uid="{B39B7F83-2537-C248-AAB4-54D9192DC10F}"/>
+    <workbookView xWindow="5540" yWindow="460" windowWidth="32760" windowHeight="16380" activeTab="1" xr2:uid="{B39B7F83-2537-C248-AAB4-54D9192DC10F}"/>
   </bookViews>
   <sheets>
     <sheet name="DataSummary" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="483" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="485" uniqueCount="205">
   <si>
     <t>GEO accession</t>
   </si>
@@ -715,6 +715,9 @@
   </si>
   <si>
     <t>Sputum culture, TST, IGRA(QFT-GIT)</t>
+  </si>
+  <si>
+    <t>Kaforou</t>
   </si>
 </sst>
 </file>
@@ -833,7 +836,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -900,11 +903,37 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -970,6 +999,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1286,9 +1322,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{715BD991-25C2-914C-95C3-220CF25B2F79}">
   <dimension ref="A1:N45"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F10" sqref="F10"/>
+      <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2003,7 +2039,7 @@
         <v>31</v>
       </c>
       <c r="C19" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="D19" t="s">
         <v>26</v>
@@ -3015,10 +3051,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B868D855-4FCD-7E48-B184-50745CDBFAFD}">
-  <dimension ref="A1:B56"/>
+  <dimension ref="A1:B57"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -3224,26 +3260,26 @@
       </c>
     </row>
     <row r="26" spans="1:2" ht="17">
-      <c r="A26" s="20" t="s">
+      <c r="A26" s="22" t="s">
         <v>150</v>
       </c>
-      <c r="B26" s="21" t="s">
+      <c r="B26" s="34" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="17">
-      <c r="A27" s="20" t="s">
+      <c r="A27" s="36" t="s">
         <v>151</v>
       </c>
-      <c r="B27" s="5" t="s">
+      <c r="B27" s="37" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="17">
-      <c r="A28" s="20" t="s">
+      <c r="A28" s="23" t="s">
         <v>151</v>
       </c>
-      <c r="B28" s="21" t="s">
+      <c r="B28" s="35" t="s">
         <v>159</v>
       </c>
     </row>
@@ -3447,17 +3483,17 @@
         <v>159</v>
       </c>
     </row>
-    <row r="54" spans="1:2" ht="17">
-      <c r="A54" s="20" t="s">
+    <row r="54" spans="1:2">
+      <c r="A54" s="33" t="s">
+        <v>204</v>
+      </c>
+      <c r="B54" s="21" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" ht="17">
+      <c r="A55" s="20" t="s">
         <v>160</v>
-      </c>
-      <c r="B54" s="27" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
-      <c r="A55" s="25" t="s">
-        <v>162</v>
       </c>
       <c r="B55" s="27" t="s">
         <v>161</v>
@@ -3465,9 +3501,17 @@
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="25" t="s">
+        <v>162</v>
+      </c>
+      <c r="B56" s="27" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" s="25" t="s">
         <v>163</v>
       </c>
-      <c r="B56" s="21" t="s">
+      <c r="B57" s="21" t="s">
         <v>115</v>
       </c>
     </row>

--- a/data-raw/Data_summaryforpackage.xlsx
+++ b/data-raw/Data_summaryforpackage.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xutaowang/Desktop/curatedTBData/data-raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{815FD753-15F7-D24B-B3D6-982B1C2C96A7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A346F16B-13C0-EE4E-9330-53652193C996}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5540" yWindow="460" windowWidth="32760" windowHeight="16380" activeTab="1" xr2:uid="{B39B7F83-2537-C248-AAB4-54D9192DC10F}"/>
+    <workbookView xWindow="2740" yWindow="1260" windowWidth="32760" windowHeight="16380" activeTab="1" xr2:uid="{B39B7F83-2537-C248-AAB4-54D9192DC10F}"/>
   </bookViews>
   <sheets>
     <sheet name="DataSummary" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="485" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="487" uniqueCount="205">
   <si>
     <t>GEO accession</t>
   </si>
@@ -1323,8 +1323,8 @@
   <dimension ref="A1:N45"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
+      <pane ySplit="1" topLeftCell="A37" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J39" sqref="J39:K39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -3051,10 +3051,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B868D855-4FCD-7E48-B184-50745CDBFAFD}">
-  <dimension ref="A1:B57"/>
+  <dimension ref="A1:B58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G31" sqref="G31"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -3312,15 +3312,15 @@
         <v>152</v>
       </c>
       <c r="B32" s="21" t="s">
-        <v>76</v>
+        <v>49</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="17">
       <c r="A33" s="20" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B33" s="21" t="s">
-        <v>133</v>
+        <v>76</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="17">
@@ -3328,7 +3328,7 @@
         <v>154</v>
       </c>
       <c r="B34" s="21" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="17">
@@ -3336,7 +3336,7 @@
         <v>154</v>
       </c>
       <c r="B35" s="21" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="17">
@@ -3344,15 +3344,15 @@
         <v>154</v>
       </c>
       <c r="B36" s="21" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="17">
+      <c r="A37" s="20" t="s">
+        <v>154</v>
+      </c>
+      <c r="B37" s="21" t="s">
         <v>136</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
-      <c r="A37" s="25" t="s">
-        <v>155</v>
-      </c>
-      <c r="B37" s="24" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -3360,7 +3360,7 @@
         <v>155</v>
       </c>
       <c r="B38" s="24" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -3368,7 +3368,7 @@
         <v>155</v>
       </c>
       <c r="B39" s="24" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -3376,7 +3376,7 @@
         <v>155</v>
       </c>
       <c r="B40" s="24" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -3384,7 +3384,7 @@
         <v>155</v>
       </c>
       <c r="B41" s="24" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -3392,15 +3392,15 @@
         <v>155</v>
       </c>
       <c r="B42" s="24" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="25" t="s">
         <v>155</v>
       </c>
-      <c r="B43" s="21" t="s">
-        <v>29</v>
+      <c r="B43" s="24" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -3408,7 +3408,7 @@
         <v>155</v>
       </c>
       <c r="B44" s="21" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -3416,7 +3416,7 @@
         <v>155</v>
       </c>
       <c r="B45" s="21" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -3424,7 +3424,7 @@
         <v>155</v>
       </c>
       <c r="B46" s="21" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -3432,7 +3432,7 @@
         <v>155</v>
       </c>
       <c r="B47" s="21" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -3440,7 +3440,7 @@
         <v>155</v>
       </c>
       <c r="B48" s="21" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -3448,7 +3448,7 @@
         <v>155</v>
       </c>
       <c r="B49" s="21" t="s">
-        <v>98</v>
+        <v>37</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -3456,52 +3456,52 @@
         <v>155</v>
       </c>
       <c r="B50" s="21" t="s">
-        <v>74</v>
+        <v>98</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="25" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B51" s="21" t="s">
-        <v>131</v>
+        <v>74</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="25" t="s">
+        <v>156</v>
+      </c>
+      <c r="B52" s="21" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" s="25" t="s">
         <v>157</v>
       </c>
-      <c r="B52" s="21" t="s">
+      <c r="B53" s="21" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="53" spans="1:2">
-      <c r="A53" s="26" t="s">
+    <row r="54" spans="1:2">
+      <c r="A54" s="26" t="s">
         <v>158</v>
       </c>
-      <c r="B53" s="21" t="s">
+      <c r="B54" s="21" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="54" spans="1:2">
-      <c r="A54" s="33" t="s">
+    <row r="55" spans="1:2">
+      <c r="A55" s="33" t="s">
         <v>204</v>
       </c>
-      <c r="B54" s="21" t="s">
+      <c r="B55" s="21" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="55" spans="1:2" ht="17">
-      <c r="A55" s="20" t="s">
+    <row r="56" spans="1:2" ht="17">
+      <c r="A56" s="20" t="s">
         <v>160</v>
-      </c>
-      <c r="B55" s="27" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
-      <c r="A56" s="25" t="s">
-        <v>162</v>
       </c>
       <c r="B56" s="27" t="s">
         <v>161</v>
@@ -3509,9 +3509,17 @@
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="25" t="s">
+        <v>162</v>
+      </c>
+      <c r="B57" s="27" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58" s="25" t="s">
         <v>163</v>
       </c>
-      <c r="B57" s="21" t="s">
+      <c r="B58" s="21" t="s">
         <v>115</v>
       </c>
     </row>

--- a/data-raw/Data_summaryforpackage.xlsx
+++ b/data-raw/Data_summaryforpackage.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xutaowang/Desktop/curatedTBData/data-raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A346F16B-13C0-EE4E-9330-53652193C996}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D24DC1A5-1322-E348-A122-2F480BA0D903}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2740" yWindow="1260" windowWidth="32760" windowHeight="16380" activeTab="1" xr2:uid="{B39B7F83-2537-C248-AAB4-54D9192DC10F}"/>
+    <workbookView xWindow="540" yWindow="3000" windowWidth="32760" windowHeight="16380" activeTab="2" xr2:uid="{B39B7F83-2537-C248-AAB4-54D9192DC10F}"/>
   </bookViews>
   <sheets>
     <sheet name="DataSummary" sheetId="1" r:id="rId1"/>
     <sheet name="SignatureInfo" sheetId="2" r:id="rId2"/>
+    <sheet name="SignatureInfoTraining" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="487" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="579" uniqueCount="224">
   <si>
     <t>GEO accession</t>
   </si>
@@ -718,6 +719,63 @@
   </si>
   <si>
     <t>Kaforou</t>
+  </si>
+  <si>
+    <t>Leong_RISK_29</t>
+  </si>
+  <si>
+    <t>Leong_24</t>
+  </si>
+  <si>
+    <t>Zak_RISK_16</t>
+  </si>
+  <si>
+    <t>Thompson_9</t>
+  </si>
+  <si>
+    <t>Thompson_FAIL_13</t>
+  </si>
+  <si>
+    <t>Sloot_HIV_2</t>
+  </si>
+  <si>
+    <t>Sambrey_HIV_10</t>
+  </si>
+  <si>
+    <t>Singhania_OD_20</t>
+  </si>
+  <si>
+    <t>Berry_393</t>
+  </si>
+  <si>
+    <t>Anderson_42</t>
+  </si>
+  <si>
+    <t>Anderson_OD_51</t>
+  </si>
+  <si>
+    <t>Bloom_OD_144</t>
+  </si>
+  <si>
+    <t>Maertzdorf_OD_100</t>
+  </si>
+  <si>
+    <t>Maertzdorf_4</t>
+  </si>
+  <si>
+    <t>Suliman_RISK_4</t>
+  </si>
+  <si>
+    <t>Suliman_4</t>
+  </si>
+  <si>
+    <t>Walter_PNA_47</t>
+  </si>
+  <si>
+    <t>Walter_51</t>
+  </si>
+  <si>
+    <t>Walter_PNA_119</t>
   </si>
 </sst>
 </file>
@@ -933,7 +991,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1006,6 +1064,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1323,8 +1384,8 @@
   <dimension ref="A1:N45"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A37" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J39" sqref="J39:K39"/>
+      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -3053,11 +3114,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B868D855-4FCD-7E48-B184-50745CDBFAFD}">
   <dimension ref="A1:B58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="24.5" customWidth="1"/>
+    <col min="2" max="2" width="20" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
@@ -3271,7 +3336,7 @@
       <c r="A27" s="36" t="s">
         <v>151</v>
       </c>
-      <c r="B27" s="37" t="s">
+      <c r="B27" s="21" t="s">
         <v>106</v>
       </c>
     </row>
@@ -3492,7 +3557,7 @@
       </c>
     </row>
     <row r="55" spans="1:2">
-      <c r="A55" s="33" t="s">
+      <c r="A55" s="25" t="s">
         <v>204</v>
       </c>
       <c r="B55" s="21" t="s">
@@ -3524,6 +3589,395 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FA3E69C-C1F1-F041-B7CA-C28168AEBC17}">
+  <dimension ref="A1:B46"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F36" sqref="F36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="20.6640625" customWidth="1"/>
+    <col min="2" max="2" width="21" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="34">
+      <c r="A2" s="20" t="s">
+        <v>214</v>
+      </c>
+      <c r="B2" s="21" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="34">
+      <c r="A3" s="20" t="s">
+        <v>215</v>
+      </c>
+      <c r="B3" s="21" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="17">
+      <c r="A4" s="20" t="s">
+        <v>213</v>
+      </c>
+      <c r="B4" s="21" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="17">
+      <c r="A5" s="22" t="s">
+        <v>145</v>
+      </c>
+      <c r="B5" s="21" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="17">
+      <c r="A6" s="22" t="s">
+        <v>145</v>
+      </c>
+      <c r="B6" s="21" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="17">
+      <c r="A7" s="22" t="s">
+        <v>145</v>
+      </c>
+      <c r="B7" s="21" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="17">
+      <c r="A8" s="22" t="s">
+        <v>145</v>
+      </c>
+      <c r="B8" s="21" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="17">
+      <c r="A9" s="22" t="s">
+        <v>145</v>
+      </c>
+      <c r="B9" s="21" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="17">
+      <c r="A10" s="22" t="s">
+        <v>145</v>
+      </c>
+      <c r="B10" s="21" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="17">
+      <c r="A11" s="22" t="s">
+        <v>145</v>
+      </c>
+      <c r="B11" s="21" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="23" t="s">
+        <v>216</v>
+      </c>
+      <c r="B12" s="24" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="17">
+      <c r="A13" s="20" t="s">
+        <v>148</v>
+      </c>
+      <c r="B13" s="21" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="17">
+      <c r="A14" s="20" t="s">
+        <v>149</v>
+      </c>
+      <c r="B14" s="21" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="17">
+      <c r="A15" s="22" t="s">
+        <v>150</v>
+      </c>
+      <c r="B15" s="34" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="17">
+      <c r="A16" s="36" t="s">
+        <v>206</v>
+      </c>
+      <c r="B16" s="37" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="17">
+      <c r="A17" s="23" t="s">
+        <v>205</v>
+      </c>
+      <c r="B17" s="35" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="17">
+      <c r="A18" s="20" t="s">
+        <v>218</v>
+      </c>
+      <c r="B18" s="21" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="17">
+      <c r="A19" s="20" t="s">
+        <v>217</v>
+      </c>
+      <c r="B19" s="21" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="17">
+      <c r="A20" s="20" t="s">
+        <v>212</v>
+      </c>
+      <c r="B20" s="21" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="25" t="s">
+        <v>155</v>
+      </c>
+      <c r="B21" s="24" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="25" t="s">
+        <v>155</v>
+      </c>
+      <c r="B22" s="24" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="25" t="s">
+        <v>155</v>
+      </c>
+      <c r="B23" s="24" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="25" t="s">
+        <v>155</v>
+      </c>
+      <c r="B24" s="24" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="25" t="s">
+        <v>155</v>
+      </c>
+      <c r="B25" s="24" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="25" t="s">
+        <v>155</v>
+      </c>
+      <c r="B26" s="24" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="25" t="s">
+        <v>155</v>
+      </c>
+      <c r="B27" s="21" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="25" t="s">
+        <v>155</v>
+      </c>
+      <c r="B28" s="21" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="25" t="s">
+        <v>155</v>
+      </c>
+      <c r="B29" s="21" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="25" t="s">
+        <v>155</v>
+      </c>
+      <c r="B30" s="21" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="25" t="s">
+        <v>155</v>
+      </c>
+      <c r="B31" s="21" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="25" t="s">
+        <v>155</v>
+      </c>
+      <c r="B32" s="21" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="25" t="s">
+        <v>155</v>
+      </c>
+      <c r="B33" s="21" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" s="25" t="s">
+        <v>155</v>
+      </c>
+      <c r="B34" s="21" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" s="25" t="s">
+        <v>219</v>
+      </c>
+      <c r="B35" s="21" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" s="25" t="s">
+        <v>220</v>
+      </c>
+      <c r="B36" s="21" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" s="25" t="s">
+        <v>222</v>
+      </c>
+      <c r="B37" s="21" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" s="25" t="s">
+        <v>221</v>
+      </c>
+      <c r="B38" s="21" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" s="25" t="s">
+        <v>223</v>
+      </c>
+      <c r="B39" s="24" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" s="26" t="s">
+        <v>207</v>
+      </c>
+      <c r="B40" s="21" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" s="33" t="s">
+        <v>204</v>
+      </c>
+      <c r="B41" s="21" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="17">
+      <c r="A42" s="20" t="s">
+        <v>160</v>
+      </c>
+      <c r="B42" s="27" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="34">
+      <c r="A43" s="38" t="s">
+        <v>211</v>
+      </c>
+      <c r="B43" s="27" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" s="25" t="s">
+        <v>210</v>
+      </c>
+      <c r="B44" s="27" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" s="25" t="s">
+        <v>208</v>
+      </c>
+      <c r="B45" s="21" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" s="25" t="s">
+        <v>209</v>
+      </c>
+      <c r="B46" s="21" t="s">
+        <v>115</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/data-raw/Data_summaryforpackage.xlsx
+++ b/data-raw/Data_summaryforpackage.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10913"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xutaowang/Desktop/curatedTBData/data-raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D24DC1A5-1322-E348-A122-2F480BA0D903}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1DB8609-8CCF-F148-9239-F4B12A354BAA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="540" yWindow="3000" windowWidth="32760" windowHeight="16380" activeTab="2" xr2:uid="{B39B7F83-2537-C248-AAB4-54D9192DC10F}"/>
+    <workbookView xWindow="5000" yWindow="5260" windowWidth="30320" windowHeight="14660" xr2:uid="{B39B7F83-2537-C248-AAB4-54D9192DC10F}"/>
   </bookViews>
   <sheets>
     <sheet name="DataSummary" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="579" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="605" uniqueCount="236">
   <si>
     <t>GEO accession</t>
   </si>
@@ -702,9 +702,6 @@
     <t>TST, IGRA</t>
   </si>
   <si>
-    <t>Study for progressor. 13 out of 32 controls developed LTBI during follow up, including one control progressed to PTB.</t>
-  </si>
-  <si>
     <t>GSEIndia</t>
   </si>
   <si>
@@ -776,13 +773,52 @@
   </si>
   <si>
     <t>Walter_PNA_119</t>
+  </si>
+  <si>
+    <t>GSE81746</t>
+  </si>
+  <si>
+    <t>GPL17077</t>
+  </si>
+  <si>
+    <t>Whole</t>
+  </si>
+  <si>
+    <t>GSE83456</t>
+  </si>
+  <si>
+    <t>25-65</t>
+  </si>
+  <si>
+    <t>Study for progressor. 13 out of 32 controls developed LTBI during follow up, including one control progressed to PTB. Extrapulmonary TB samples available from this dataset.</t>
+  </si>
+  <si>
+    <t>ODs was sarcoidosis.  Extrapulmonary TB samples available from this dataset.</t>
+  </si>
+  <si>
+    <t>GSE83892</t>
+  </si>
+  <si>
+    <t>Positive</t>
+  </si>
+  <si>
+    <t>Blood transcriptional signature of HIV-associated tuberculous meningitis known as immune reconstitution inflammatory syndrome (IRIS). There are a total of 116 samples (33 TBM at 3 timepoints and 17 control at 1 timepoint)</t>
+  </si>
+  <si>
+    <t>GSE107331</t>
+  </si>
+  <si>
+    <t>GPL15207</t>
+  </si>
+  <si>
+    <t>Mongolian</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1381,14 +1417,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{715BD991-25C2-914C-95C3-220CF25B2F79}">
-  <dimension ref="A1:N45"/>
+  <dimension ref="A1:N49"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A14" sqref="A14"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="17.1640625" customWidth="1"/>
     <col min="3" max="3" width="15.83203125" customWidth="1"/>
@@ -1398,7 +1434,7 @@
     <col min="13" max="13" width="28.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="19">
+    <row r="1" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -1442,7 +1478,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="69" customHeight="1">
+    <row r="2" spans="1:14" ht="69" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -1478,13 +1514,13 @@
         <v>21</v>
       </c>
       <c r="M2" s="4" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="N2" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="70" customHeight="1">
+    <row r="3" spans="1:14" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>128</v>
       </c>
@@ -1510,7 +1546,7 @@
         <v>9</v>
       </c>
       <c r="L3">
-        <f t="shared" ref="L3:L44" si="0">H3+I3+J3+K3</f>
+        <f t="shared" ref="L3:L48" si="0">H3+I3+J3+K3</f>
         <v>9</v>
       </c>
       <c r="M3" s="1" t="s">
@@ -1520,7 +1556,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="63" customHeight="1">
+    <row r="4" spans="1:14" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>129</v>
       </c>
@@ -1547,13 +1583,13 @@
         <v>27</v>
       </c>
       <c r="M4" s="7" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="N4" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>130</v>
       </c>
@@ -1592,7 +1628,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="34">
+    <row r="6" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>98</v>
       </c>
@@ -1603,7 +1639,7 @@
         <v>100</v>
       </c>
       <c r="D6" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>101</v>
@@ -1612,7 +1648,7 @@
         <v>15</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H6">
         <v>9</v>
@@ -1631,470 +1667,447 @@
         <v>138</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="119">
-      <c r="A7" s="12" t="s">
-        <v>131</v>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A7" s="5" t="s">
+        <v>233</v>
       </c>
       <c r="B7" t="s">
-        <v>93</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>94</v>
+        <v>234</v>
+      </c>
+      <c r="C7" t="s">
+        <v>235</v>
       </c>
       <c r="D7" t="s">
         <v>26</v>
       </c>
-      <c r="E7" s="11" t="s">
+      <c r="E7" s="2"/>
+      <c r="G7" s="4"/>
+    </row>
+    <row r="8" spans="1:14" ht="119" x14ac:dyDescent="0.2">
+      <c r="A8" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="B8" t="s">
+        <v>93</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="D8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F8" t="s">
         <v>15</v>
       </c>
-      <c r="G7" s="10" t="s">
+      <c r="G8" s="10" t="s">
         <v>170</v>
       </c>
-      <c r="H7" s="13"/>
-      <c r="I7" s="13">
+      <c r="H8" s="13"/>
+      <c r="I8" s="13">
         <v>259</v>
       </c>
-      <c r="J7" s="13">
+      <c r="J8" s="13">
         <v>75</v>
       </c>
-      <c r="K7" s="13"/>
-      <c r="L7">
+      <c r="K8" s="13"/>
+      <c r="L8">
         <f t="shared" si="0"/>
         <v>334</v>
       </c>
-      <c r="M7" s="14" t="s">
+      <c r="M8" s="14" t="s">
         <v>126</v>
       </c>
-      <c r="N7" t="s">
+      <c r="N8" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="130" customHeight="1">
-      <c r="A8" s="18" t="s">
+    <row r="9" spans="1:14" ht="130" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="18" t="s">
         <v>132</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B9" t="s">
         <v>24</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C9" t="s">
         <v>22</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D9" t="s">
         <v>26</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="E9" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F9" t="s">
         <v>15</v>
       </c>
-      <c r="G8" s="4" t="s">
+      <c r="G9" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="I8">
+      <c r="I9">
         <v>104</v>
       </c>
-      <c r="J8">
+      <c r="J9">
         <v>40</v>
       </c>
-      <c r="L8">
+      <c r="L9">
         <f t="shared" si="0"/>
         <v>144</v>
       </c>
-      <c r="M8" s="4" t="s">
+      <c r="M9" s="4" t="s">
         <v>173</v>
       </c>
-      <c r="N8" t="s">
+      <c r="N9" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="119">
-      <c r="A9" s="5" t="s">
+    <row r="10" spans="1:14" ht="119" x14ac:dyDescent="0.2">
+      <c r="A10" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B10" t="s">
         <v>24</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C10" t="s">
         <v>22</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D10" t="s">
         <v>26</v>
       </c>
-      <c r="E9" s="2"/>
-      <c r="F9" t="s">
+      <c r="E10" s="2"/>
+      <c r="F10" t="s">
         <v>15</v>
       </c>
-      <c r="G9" s="4" t="s">
+      <c r="G10" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="H9">
+      <c r="H10">
         <v>100</v>
       </c>
-      <c r="J9">
+      <c r="J10">
         <v>38</v>
       </c>
-      <c r="L9">
+      <c r="L10">
         <f t="shared" si="0"/>
         <v>138</v>
       </c>
-      <c r="M9" s="4" t="s">
+      <c r="M10" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="N9" t="s">
+      <c r="N10" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="51">
-      <c r="A10" s="5" t="s">
+    <row r="11" spans="1:14" ht="51" x14ac:dyDescent="0.2">
+      <c r="A11" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B11" t="s">
         <v>25</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C11" t="s">
         <v>28</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D11" t="s">
         <v>26</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E11" t="s">
         <v>32</v>
       </c>
-      <c r="F10" t="s">
+      <c r="F11" t="s">
         <v>15</v>
       </c>
-      <c r="G10" t="s">
+      <c r="G11" t="s">
         <v>23</v>
       </c>
-      <c r="I10">
+      <c r="I11">
         <v>33</v>
       </c>
-      <c r="J10">
+      <c r="J11">
         <v>21</v>
       </c>
-      <c r="L10">
+      <c r="L11">
         <f t="shared" si="0"/>
         <v>54</v>
       </c>
-      <c r="M10" s="4" t="s">
+      <c r="M11" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="N10" t="s">
+      <c r="N11" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="51">
-      <c r="A11" s="5" t="s">
+    <row r="12" spans="1:14" ht="51" x14ac:dyDescent="0.2">
+      <c r="A12" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B12" t="s">
         <v>25</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C12" t="s">
         <v>22</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D12" t="s">
         <v>26</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E12" t="s">
         <v>32</v>
       </c>
-      <c r="F11" t="s">
+      <c r="F12" t="s">
         <v>15</v>
       </c>
-      <c r="G11" t="s">
+      <c r="G12" t="s">
         <v>23</v>
       </c>
-      <c r="I11">
+      <c r="I12">
         <v>31</v>
       </c>
-      <c r="J11" s="3">
+      <c r="J12" s="3">
         <v>16</v>
       </c>
-      <c r="L11">
+      <c r="L12">
         <f t="shared" si="0"/>
         <v>47</v>
       </c>
-      <c r="M11" s="1" t="s">
+      <c r="M12" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="N11" t="s">
+      <c r="N12" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="12" spans="1:14" ht="62" customHeight="1">
-      <c r="A12" s="18" t="s">
+    <row r="13" spans="1:14" ht="62" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="18" t="s">
         <v>135</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B13" t="s">
         <v>25</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C13" t="s">
         <v>28</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D13" t="s">
         <v>26</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E13" t="s">
         <v>45</v>
       </c>
-      <c r="F12" t="s">
+      <c r="F13" t="s">
         <v>15</v>
       </c>
-      <c r="G12" t="s">
+      <c r="G13" t="s">
         <v>23</v>
       </c>
-      <c r="H12">
+      <c r="H13">
         <v>15</v>
       </c>
-      <c r="I12">
+      <c r="I13">
         <v>16</v>
       </c>
-      <c r="L12">
+      <c r="L13">
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="M12" s="17" t="s">
+      <c r="M13" s="17" t="s">
         <v>125</v>
       </c>
-      <c r="N12" t="s">
+      <c r="N13" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="13" spans="1:14" ht="49" customHeight="1">
-      <c r="A13" s="18" t="s">
+    <row r="14" spans="1:14" ht="49" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="18" t="s">
         <v>136</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B14" t="s">
         <v>25</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C14" t="s">
         <v>28</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D14" t="s">
         <v>26</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E14" t="s">
         <v>46</v>
       </c>
-      <c r="F13" t="s">
+      <c r="F14" t="s">
         <v>15</v>
       </c>
-      <c r="G13" t="s">
+      <c r="G14" t="s">
         <v>23</v>
       </c>
-      <c r="H13">
+      <c r="H14">
         <v>50</v>
       </c>
-      <c r="I13">
+      <c r="I14">
         <v>58</v>
       </c>
-      <c r="J13">
+      <c r="J14">
         <v>53</v>
       </c>
-      <c r="L13">
+      <c r="L14">
         <f t="shared" si="0"/>
         <v>161</v>
       </c>
-      <c r="M13" s="17" t="s">
+      <c r="M14" s="17" t="s">
         <v>96</v>
       </c>
-      <c r="N13" t="s">
+      <c r="N14" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="14" spans="1:14" ht="49" customHeight="1">
-      <c r="A14" s="5" t="s">
+    <row r="15" spans="1:14" ht="49" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B15" t="s">
         <v>108</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C15" t="s">
         <v>111</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D15" t="s">
         <v>26</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E15" t="s">
         <v>113</v>
       </c>
-      <c r="F14" t="s">
+      <c r="F15" t="s">
         <v>15</v>
       </c>
-      <c r="G14" s="4" t="s">
+      <c r="G15" s="4" t="s">
         <v>194</v>
       </c>
-      <c r="I14">
+      <c r="I15">
         <v>16</v>
       </c>
-      <c r="J14">
+      <c r="J15">
         <v>28</v>
       </c>
-      <c r="L14">
+      <c r="L15">
         <f t="shared" si="0"/>
         <v>44</v>
-      </c>
-      <c r="M14" s="4"/>
-      <c r="N14" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" ht="49" customHeight="1">
-      <c r="A15" t="s">
-        <v>114</v>
-      </c>
-      <c r="B15" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15" t="s">
-        <v>26</v>
-      </c>
-      <c r="E15" t="s">
-        <v>32</v>
-      </c>
-      <c r="F15" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="G15" s="16" t="s">
-        <v>116</v>
-      </c>
-      <c r="H15">
-        <v>16</v>
-      </c>
-      <c r="J15">
-        <v>17</v>
-      </c>
-      <c r="L15">
-        <f t="shared" si="0"/>
-        <v>33</v>
       </c>
       <c r="M15" s="4"/>
       <c r="N15" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="16" spans="1:14" ht="49" customHeight="1">
-      <c r="A16" s="17" t="s">
-        <v>123</v>
+    <row r="16" spans="1:14" ht="49" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>114</v>
       </c>
       <c r="B16" t="s">
-        <v>107</v>
-      </c>
-      <c r="C16" t="s">
-        <v>109</v>
+        <v>24</v>
       </c>
       <c r="D16" t="s">
-        <v>12</v>
-      </c>
-      <c r="E16" s="31" t="s">
-        <v>188</v>
-      </c>
-      <c r="F16" t="s">
-        <v>110</v>
-      </c>
-      <c r="G16" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="I16">
-        <v>21</v>
+        <v>26</v>
+      </c>
+      <c r="E16" t="s">
+        <v>32</v>
+      </c>
+      <c r="F16" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="G16" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="H16">
+        <v>16</v>
       </c>
       <c r="J16">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="L16">
         <f t="shared" si="0"/>
-        <v>51</v>
-      </c>
-      <c r="M16" s="17" t="s">
-        <v>187</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="M16" s="4"/>
       <c r="N16" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="17" spans="1:14" ht="49" customHeight="1">
-      <c r="A17" s="32" t="s">
-        <v>200</v>
+    <row r="17" spans="1:14" ht="49" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="17" t="s">
+        <v>123</v>
       </c>
       <c r="B17" t="s">
         <v>107</v>
       </c>
       <c r="C17" t="s">
-        <v>91</v>
+        <v>109</v>
       </c>
       <c r="D17" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="E17" s="31" t="s">
-        <v>197</v>
+        <v>188</v>
+      </c>
+      <c r="F17" t="s">
+        <v>110</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="H17">
-        <v>32</v>
+        <v>112</v>
+      </c>
+      <c r="I17">
+        <v>21</v>
       </c>
       <c r="J17">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="L17">
         <f t="shared" si="0"/>
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="M17" s="17" t="s">
-        <v>199</v>
+        <v>187</v>
       </c>
       <c r="N17" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="18" spans="1:14">
-      <c r="A18" s="5" t="s">
-        <v>29</v>
+    <row r="18" spans="1:14" ht="109" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="32" t="s">
+        <v>199</v>
       </c>
       <c r="B18" t="s">
-        <v>31</v>
+        <v>107</v>
       </c>
       <c r="C18" t="s">
-        <v>28</v>
+        <v>91</v>
       </c>
       <c r="D18" t="s">
-        <v>26</v>
-      </c>
-      <c r="E18" t="s">
+        <v>19</v>
+      </c>
+      <c r="E18" s="31" t="s">
+        <v>197</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="H18">
         <v>32</v>
       </c>
-      <c r="F18" t="s">
-        <v>15</v>
-      </c>
-      <c r="G18" t="s">
-        <v>127</v>
-      </c>
-      <c r="H18">
-        <v>12</v>
-      </c>
-      <c r="I18">
-        <v>21</v>
-      </c>
       <c r="J18">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="L18">
         <f t="shared" si="0"/>
-        <v>54</v>
+        <v>48</v>
+      </c>
+      <c r="M18" s="17" t="s">
+        <v>228</v>
       </c>
       <c r="N18" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B19" t="s">
         <v>31</v>
@@ -2115,34 +2128,37 @@
         <v>127</v>
       </c>
       <c r="H19">
-        <v>16</v>
+        <v>12</v>
+      </c>
+      <c r="I19">
+        <v>21</v>
       </c>
       <c r="J19">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="L19">
         <f t="shared" si="0"/>
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="N19" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="20" spans="1:14" ht="86" customHeight="1">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B20" t="s">
         <v>31</v>
       </c>
       <c r="C20" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="D20" t="s">
         <v>26</v>
       </c>
       <c r="E20" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="F20" t="s">
         <v>15</v>
@@ -2150,38 +2166,35 @@
       <c r="G20" t="s">
         <v>127</v>
       </c>
-      <c r="I20">
-        <v>31</v>
+      <c r="H20">
+        <v>16</v>
       </c>
       <c r="J20">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="L20">
         <f t="shared" si="0"/>
-        <v>51</v>
-      </c>
-      <c r="M20" s="1" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="N20" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="21" spans="1:14">
+    <row r="21" spans="1:14" ht="86" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B21" t="s">
         <v>31</v>
       </c>
       <c r="C21" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="D21" t="s">
         <v>26</v>
       </c>
       <c r="E21" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F21" t="s">
         <v>15</v>
@@ -2189,35 +2202,38 @@
       <c r="G21" t="s">
         <v>127</v>
       </c>
-      <c r="H21">
-        <v>12</v>
-      </c>
       <c r="I21">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="J21">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="L21">
         <f t="shared" si="0"/>
-        <v>42</v>
+        <v>51</v>
+      </c>
+      <c r="M21" s="1" t="s">
+        <v>38</v>
       </c>
       <c r="N21" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="22" spans="1:14" ht="86" customHeight="1">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B22" t="s">
         <v>31</v>
       </c>
+      <c r="C22" t="s">
+        <v>28</v>
+      </c>
       <c r="D22" t="s">
         <v>26</v>
       </c>
       <c r="E22" t="s">
-        <v>196</v>
+        <v>41</v>
       </c>
       <c r="F22" t="s">
         <v>15</v>
@@ -2228,23 +2244,23 @@
       <c r="H22">
         <v>12</v>
       </c>
+      <c r="I22">
+        <v>17</v>
+      </c>
       <c r="J22">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="L22">
         <f t="shared" si="0"/>
-        <v>33</v>
-      </c>
-      <c r="M22" s="7" t="s">
         <v>42</v>
       </c>
       <c r="N22" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="23" spans="1:14" ht="119">
+    <row r="23" spans="1:14" ht="86" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B23" t="s">
         <v>31</v>
@@ -2252,8 +2268,8 @@
       <c r="D23" t="s">
         <v>26</v>
       </c>
-      <c r="E23" s="8" t="s">
-        <v>43</v>
+      <c r="E23" t="s">
+        <v>196</v>
       </c>
       <c r="F23" t="s">
         <v>15</v>
@@ -2262,112 +2278,106 @@
         <v>127</v>
       </c>
       <c r="H23">
-        <v>81</v>
-      </c>
-      <c r="K23">
-        <v>193</v>
+        <v>12</v>
+      </c>
+      <c r="J23">
+        <v>21</v>
       </c>
       <c r="L23">
         <f t="shared" si="0"/>
-        <v>274</v>
-      </c>
-      <c r="M23" s="1" t="s">
-        <v>195</v>
+        <v>33</v>
+      </c>
+      <c r="M23" s="7" t="s">
+        <v>42</v>
       </c>
       <c r="N23" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="24" spans="1:14" ht="69" customHeight="1">
+    <row r="24" spans="1:14" ht="119" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
-        <v>70</v>
+        <v>37</v>
       </c>
       <c r="B24" t="s">
-        <v>71</v>
-      </c>
-      <c r="C24" t="s">
-        <v>72</v>
+        <v>31</v>
       </c>
       <c r="D24" t="s">
         <v>26</v>
       </c>
       <c r="E24" s="8" t="s">
-        <v>73</v>
+        <v>43</v>
       </c>
       <c r="F24" t="s">
         <v>15</v>
       </c>
-      <c r="G24" s="4" t="s">
-        <v>57</v>
+      <c r="G24" t="s">
+        <v>127</v>
       </c>
       <c r="H24">
-        <v>18</v>
-      </c>
-      <c r="J24">
-        <v>18</v>
+        <v>81</v>
+      </c>
+      <c r="K24">
+        <v>193</v>
       </c>
       <c r="L24">
         <f t="shared" si="0"/>
-        <v>36</v>
-      </c>
-      <c r="M24" s="7" t="s">
-        <v>181</v>
+        <v>274</v>
+      </c>
+      <c r="M24" s="1" t="s">
+        <v>195</v>
       </c>
       <c r="N24" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="25" spans="1:14" ht="85">
+    <row r="25" spans="1:14" ht="69" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="B25" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="C25" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="D25" t="s">
         <v>26</v>
       </c>
-      <c r="E25" t="s">
-        <v>68</v>
-      </c>
-      <c r="F25" s="15" t="s">
-        <v>69</v>
+      <c r="E25" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="F25" t="s">
+        <v>15</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>189</v>
-      </c>
-      <c r="I25">
-        <v>14</v>
+        <v>57</v>
+      </c>
+      <c r="H25">
+        <v>18</v>
       </c>
       <c r="J25">
-        <v>79</v>
-      </c>
-      <c r="K25">
-        <v>64</v>
+        <v>18</v>
       </c>
       <c r="L25">
         <f t="shared" si="0"/>
-        <v>157</v>
-      </c>
-      <c r="M25" s="4" t="s">
-        <v>190</v>
+        <v>36</v>
+      </c>
+      <c r="M25" s="7" t="s">
+        <v>181</v>
       </c>
       <c r="N25" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="26" spans="1:14" ht="85">
+    <row r="26" spans="1:14" ht="85" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B26" t="s">
         <v>65</v>
       </c>
-      <c r="C26" s="4" t="s">
-        <v>105</v>
+      <c r="C26" t="s">
+        <v>66</v>
       </c>
       <c r="D26" t="s">
         <v>26</v>
@@ -2382,17 +2392,17 @@
         <v>189</v>
       </c>
       <c r="I26">
-        <v>54</v>
+        <v>14</v>
       </c>
       <c r="J26">
-        <v>111</v>
+        <v>79</v>
       </c>
       <c r="K26">
-        <v>169</v>
+        <v>64</v>
       </c>
       <c r="L26">
         <f t="shared" si="0"/>
-        <v>334</v>
+        <v>157</v>
       </c>
       <c r="M26" s="4" t="s">
         <v>190</v>
@@ -2401,48 +2411,51 @@
         <v>97</v>
       </c>
     </row>
-    <row r="27" spans="1:14" ht="68">
+    <row r="27" spans="1:14" ht="85" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="B27" t="s">
         <v>65</v>
       </c>
-      <c r="C27" t="s">
-        <v>22</v>
+      <c r="C27" s="4" t="s">
+        <v>105</v>
       </c>
       <c r="D27" t="s">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>20</v>
+        <v>68</v>
       </c>
       <c r="F27" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="G27" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="I27">
+        <v>54</v>
+      </c>
+      <c r="J27">
+        <v>111</v>
+      </c>
+      <c r="K27">
         <v>169</v>
-      </c>
-      <c r="G27" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="I27">
-        <v>35</v>
-      </c>
-      <c r="J27">
-        <v>15</v>
       </c>
       <c r="L27">
         <f t="shared" si="0"/>
-        <v>50</v>
+        <v>334</v>
       </c>
       <c r="M27" s="4" t="s">
-        <v>172</v>
+        <v>190</v>
       </c>
       <c r="N27" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="28" spans="1:14" ht="153">
+    <row r="28" spans="1:14" ht="68" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B28" t="s">
         <v>65</v>
@@ -2451,148 +2464,145 @@
         <v>22</v>
       </c>
       <c r="D28" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="E28" t="s">
-        <v>77</v>
+        <v>20</v>
       </c>
       <c r="F28" s="15" t="s">
         <v>169</v>
       </c>
-      <c r="H28">
-        <v>22</v>
+      <c r="G28" s="4" t="s">
+        <v>192</v>
       </c>
       <c r="I28">
-        <v>21</v>
+        <v>35</v>
+      </c>
+      <c r="J28">
+        <v>15</v>
       </c>
       <c r="L28">
         <f t="shared" si="0"/>
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="M28" s="4" t="s">
-        <v>193</v>
+        <v>172</v>
       </c>
       <c r="N28" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="29" spans="1:14" ht="153">
+    <row r="29" spans="1:14" ht="153" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B29" t="s">
         <v>65</v>
       </c>
       <c r="C29" t="s">
-        <v>67</v>
+        <v>22</v>
       </c>
       <c r="D29" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="E29" t="s">
-        <v>20</v>
+        <v>77</v>
       </c>
       <c r="F29" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="G29" s="4" t="s">
-        <v>183</v>
+        <v>169</v>
+      </c>
+      <c r="H29">
+        <v>22</v>
       </c>
       <c r="I29">
-        <v>167</v>
-      </c>
-      <c r="J29">
-        <v>195</v>
-      </c>
-      <c r="K29">
-        <v>175</v>
+        <v>21</v>
       </c>
       <c r="L29">
         <f t="shared" si="0"/>
-        <v>537</v>
+        <v>43</v>
       </c>
       <c r="M29" s="4" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="N29" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="30" spans="1:14" ht="113" customHeight="1">
+    <row r="30" spans="1:14" ht="153" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
-        <v>146</v>
+        <v>74</v>
       </c>
       <c r="B30" t="s">
         <v>65</v>
       </c>
-      <c r="C30" s="4" t="s">
-        <v>78</v>
+      <c r="C30" t="s">
+        <v>67</v>
       </c>
       <c r="D30" t="s">
         <v>26</v>
       </c>
+      <c r="E30" t="s">
+        <v>20</v>
+      </c>
+      <c r="F30" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="G30" s="4" t="s">
+        <v>183</v>
+      </c>
       <c r="I30">
-        <v>38</v>
+        <v>167</v>
       </c>
       <c r="J30">
-        <v>37</v>
+        <v>195</v>
+      </c>
+      <c r="K30">
+        <v>175</v>
       </c>
       <c r="L30">
         <f t="shared" si="0"/>
-        <v>75</v>
+        <v>537</v>
       </c>
       <c r="M30" s="4" t="s">
-        <v>79</v>
+        <v>191</v>
       </c>
       <c r="N30" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="31" spans="1:14" ht="68">
+    <row r="31" spans="1:14" ht="113" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
-        <v>80</v>
+        <v>146</v>
       </c>
       <c r="B31" t="s">
         <v>65</v>
       </c>
-      <c r="C31" t="s">
-        <v>58</v>
+      <c r="C31" s="4" t="s">
+        <v>78</v>
       </c>
       <c r="D31" t="s">
         <v>26</v>
       </c>
-      <c r="E31" t="s">
-        <v>20</v>
-      </c>
-      <c r="F31" t="s">
-        <v>15</v>
-      </c>
-      <c r="G31" t="s">
-        <v>23</v>
-      </c>
-      <c r="H31">
-        <v>23</v>
+      <c r="I31">
+        <v>38</v>
       </c>
       <c r="J31">
-        <v>8</v>
-      </c>
-      <c r="K31">
-        <v>11</v>
+        <v>37</v>
       </c>
       <c r="L31">
         <f t="shared" si="0"/>
-        <v>42</v>
+        <v>75</v>
       </c>
       <c r="M31" s="4" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="N31" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="32" spans="1:14" ht="85">
+    <row r="32" spans="1:14" ht="68" x14ac:dyDescent="0.2">
       <c r="A32" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B32" t="s">
         <v>65</v>
@@ -2613,28 +2623,28 @@
         <v>23</v>
       </c>
       <c r="H32">
-        <v>52</v>
+        <v>23</v>
       </c>
       <c r="J32">
+        <v>8</v>
+      </c>
+      <c r="K32">
         <v>11</v>
-      </c>
-      <c r="K32">
-        <v>39</v>
       </c>
       <c r="L32">
         <f t="shared" si="0"/>
-        <v>102</v>
+        <v>42</v>
       </c>
       <c r="M32" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="N32" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="33" spans="1:14" ht="17">
-      <c r="A33" s="29" t="s">
-        <v>82</v>
+    <row r="33" spans="1:14" ht="85" x14ac:dyDescent="0.2">
+      <c r="A33" s="5" t="s">
+        <v>81</v>
       </c>
       <c r="B33" t="s">
         <v>65</v>
@@ -2651,23 +2661,32 @@
       <c r="F33" t="s">
         <v>15</v>
       </c>
+      <c r="G33" t="s">
+        <v>23</v>
+      </c>
+      <c r="H33">
+        <v>52</v>
+      </c>
+      <c r="J33">
+        <v>11</v>
+      </c>
       <c r="K33">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="L33">
         <f t="shared" si="0"/>
-        <v>27</v>
+        <v>102</v>
       </c>
       <c r="M33" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="N33" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="34" spans="1:14" ht="85">
-      <c r="A34" s="5" t="s">
-        <v>83</v>
+    <row r="34" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="A34" s="29" t="s">
+        <v>82</v>
       </c>
       <c r="B34" t="s">
         <v>65</v>
@@ -2684,32 +2703,23 @@
       <c r="F34" t="s">
         <v>15</v>
       </c>
-      <c r="G34" t="s">
-        <v>23</v>
-      </c>
-      <c r="H34">
-        <v>38</v>
-      </c>
-      <c r="J34">
-        <v>16</v>
-      </c>
       <c r="K34">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="L34">
         <f t="shared" si="0"/>
-        <v>95</v>
+        <v>27</v>
       </c>
       <c r="M34" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="N34" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="35" spans="1:14" ht="34">
-      <c r="A35" s="29" t="s">
-        <v>84</v>
+    <row r="35" spans="1:14" ht="85" x14ac:dyDescent="0.2">
+      <c r="A35" s="5" t="s">
+        <v>83</v>
       </c>
       <c r="B35" t="s">
         <v>65</v>
@@ -2726,23 +2736,32 @@
       <c r="F35" t="s">
         <v>15</v>
       </c>
+      <c r="G35" t="s">
+        <v>23</v>
+      </c>
+      <c r="H35">
+        <v>38</v>
+      </c>
+      <c r="J35">
+        <v>16</v>
+      </c>
       <c r="K35">
-        <v>7</v>
+        <v>41</v>
       </c>
       <c r="L35">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>95</v>
       </c>
       <c r="M35" s="4" t="s">
-        <v>178</v>
+        <v>89</v>
       </c>
       <c r="N35" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="36" spans="1:14" ht="102">
-      <c r="A36" s="5" t="s">
-        <v>85</v>
+    <row r="36" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+      <c r="A36" s="29" t="s">
+        <v>84</v>
       </c>
       <c r="B36" t="s">
         <v>65</v>
@@ -2750,8 +2769,8 @@
       <c r="C36" t="s">
         <v>58</v>
       </c>
-      <c r="D36" s="4" t="s">
-        <v>90</v>
+      <c r="D36" t="s">
+        <v>26</v>
       </c>
       <c r="E36" t="s">
         <v>20</v>
@@ -2759,353 +2778,493 @@
       <c r="F36" t="s">
         <v>15</v>
       </c>
-      <c r="G36" t="s">
-        <v>23</v>
-      </c>
-      <c r="H36">
-        <v>5</v>
-      </c>
-      <c r="J36">
-        <v>5</v>
-      </c>
       <c r="K36">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="L36">
-        <f>H36+I36+J36+K36</f>
-        <v>15</v>
+        <f t="shared" si="0"/>
+        <v>7</v>
       </c>
       <c r="M36" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="N36" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="37" spans="1:14" ht="34">
+    <row r="37" spans="1:14" ht="102" x14ac:dyDescent="0.2">
       <c r="A37" s="5" t="s">
-        <v>122</v>
+        <v>85</v>
       </c>
       <c r="B37" t="s">
         <v>65</v>
       </c>
       <c r="C37" t="s">
-        <v>91</v>
-      </c>
-      <c r="D37" t="s">
-        <v>26</v>
+        <v>58</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>90</v>
       </c>
       <c r="E37" t="s">
-        <v>121</v>
+        <v>20</v>
       </c>
       <c r="F37" t="s">
-        <v>120</v>
+        <v>15</v>
       </c>
       <c r="G37" t="s">
         <v>23</v>
       </c>
       <c r="H37">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="J37">
-        <v>53</v>
+        <v>5</v>
       </c>
       <c r="K37">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="L37">
         <f>H37+I37+J37+K37</f>
-        <v>110</v>
+        <v>15</v>
       </c>
       <c r="M37" s="4" t="s">
-        <v>119</v>
+        <v>179</v>
       </c>
       <c r="N37" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="38" spans="1:14" ht="51">
-      <c r="A38" t="s">
+    <row r="38" spans="1:14" ht="51" x14ac:dyDescent="0.2">
+      <c r="A38" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="B38" t="s">
+        <v>65</v>
+      </c>
+      <c r="C38" t="s">
+        <v>28</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F38" t="s">
+        <v>120</v>
+      </c>
+      <c r="G38" t="s">
+        <v>127</v>
+      </c>
+      <c r="H38">
+        <v>61</v>
+      </c>
+      <c r="J38">
+        <v>45</v>
+      </c>
+      <c r="K38">
+        <v>49</v>
+      </c>
+      <c r="L38">
+        <f>H38+I38+J38+K38</f>
+        <v>155</v>
+      </c>
+      <c r="M38" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="N38" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" ht="136" x14ac:dyDescent="0.2">
+      <c r="A39" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="B39" t="s">
+        <v>65</v>
+      </c>
+      <c r="C39" t="s">
+        <v>28</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E39" t="s">
+        <v>20</v>
+      </c>
+      <c r="F39" t="s">
+        <v>231</v>
+      </c>
+      <c r="H39">
+        <v>17</v>
+      </c>
+      <c r="J39">
+        <v>33</v>
+      </c>
+      <c r="L39">
+        <f>H39+I39+J39+K39</f>
+        <v>50</v>
+      </c>
+      <c r="M39" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="N39" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+      <c r="A40" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="B40" t="s">
+        <v>65</v>
+      </c>
+      <c r="C40" t="s">
+        <v>91</v>
+      </c>
+      <c r="D40" t="s">
+        <v>26</v>
+      </c>
+      <c r="E40" t="s">
+        <v>121</v>
+      </c>
+      <c r="F40" t="s">
+        <v>120</v>
+      </c>
+      <c r="G40" t="s">
+        <v>23</v>
+      </c>
+      <c r="H40">
+        <v>29</v>
+      </c>
+      <c r="J40">
+        <v>53</v>
+      </c>
+      <c r="K40">
+        <v>28</v>
+      </c>
+      <c r="L40">
+        <f>H40+I40+J40+K40</f>
+        <v>110</v>
+      </c>
+      <c r="M40" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="N40" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" ht="51" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
         <v>47</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B41" t="s">
         <v>48</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C41" t="s">
         <v>55</v>
       </c>
-      <c r="D38" t="s">
+      <c r="D41" t="s">
         <v>26</v>
       </c>
-      <c r="E38" t="s">
+      <c r="E41" t="s">
         <v>56</v>
       </c>
-      <c r="F38" t="s">
+      <c r="F41" t="s">
         <v>15</v>
       </c>
-      <c r="G38" s="9" t="s">
+      <c r="G41" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="H38">
+      <c r="H41">
         <v>37</v>
       </c>
-      <c r="I38">
+      <c r="I41">
         <v>25</v>
       </c>
-      <c r="J38">
+      <c r="J41">
         <v>46</v>
       </c>
-      <c r="L38">
+      <c r="L41">
         <f t="shared" si="0"/>
         <v>108</v>
       </c>
-      <c r="N38" t="s">
+      <c r="N41" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="39" spans="1:14" ht="17">
-      <c r="A39" t="s">
+    <row r="42" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
         <v>49</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B42" t="s">
         <v>50</v>
       </c>
-      <c r="C39" t="s">
+      <c r="C42" t="s">
         <v>58</v>
       </c>
-      <c r="D39" t="s">
+      <c r="D42" t="s">
         <v>26</v>
       </c>
-      <c r="E39" t="s">
+      <c r="E42" t="s">
         <v>59</v>
       </c>
-      <c r="F39" t="s">
+      <c r="F42" t="s">
         <v>15</v>
       </c>
-      <c r="H39">
+      <c r="H42">
         <v>18</v>
       </c>
-      <c r="J39">
+      <c r="J42">
         <v>8</v>
       </c>
-      <c r="K39">
+      <c r="K42">
         <v>18</v>
       </c>
-      <c r="L39">
+      <c r="L42">
         <f t="shared" si="0"/>
         <v>44</v>
       </c>
-      <c r="M39" s="4" t="s">
+      <c r="M42" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="N39" t="s">
+      <c r="N42" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="40" spans="1:14" ht="34">
-      <c r="A40" t="s">
+    <row r="43" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
         <v>51</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B43" t="s">
         <v>52</v>
       </c>
-      <c r="C40" t="s">
+      <c r="C43" t="s">
         <v>60</v>
       </c>
-      <c r="D40" t="s">
+      <c r="D43" t="s">
         <v>12</v>
       </c>
-      <c r="F40" t="s">
+      <c r="F43" t="s">
         <v>15</v>
       </c>
-      <c r="H40">
+      <c r="H43">
         <v>7</v>
       </c>
-      <c r="I40">
+      <c r="I43">
         <v>7</v>
       </c>
-      <c r="J40">
+      <c r="J43">
         <v>7</v>
       </c>
-      <c r="L40">
+      <c r="L43">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="M40" s="4" t="s">
+      <c r="M43" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="N40" s="28" t="s">
+      <c r="N43" s="28" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="41" spans="1:14" ht="85">
-      <c r="A41" t="s">
+    <row r="44" spans="1:14" ht="85" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
         <v>53</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B44" t="s">
         <v>54</v>
       </c>
-      <c r="C41" t="s">
+      <c r="C44" t="s">
         <v>91</v>
       </c>
-      <c r="D41" t="s">
+      <c r="D44" t="s">
         <v>26</v>
       </c>
-      <c r="F41" t="s">
+      <c r="F44" t="s">
         <v>15</v>
       </c>
-      <c r="G41" t="s">
+      <c r="G44" t="s">
         <v>177</v>
       </c>
-      <c r="H41">
+      <c r="H44">
         <v>76</v>
       </c>
-      <c r="J41">
+      <c r="J44">
         <v>113</v>
       </c>
-      <c r="L41">
+      <c r="L44">
         <f t="shared" si="0"/>
         <v>189</v>
       </c>
-      <c r="M41" s="4" t="s">
+      <c r="M44" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="N41" t="s">
+      <c r="N44" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="42" spans="1:14" ht="51">
-      <c r="A42" t="s">
+    <row r="45" spans="1:14" ht="51" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
         <v>61</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B45" t="s">
         <v>62</v>
       </c>
-      <c r="D42" t="s">
+      <c r="D45" t="s">
         <v>12</v>
       </c>
-      <c r="F42" t="s">
+      <c r="F45" t="s">
         <v>15</v>
       </c>
-      <c r="G42" s="4" t="s">
+      <c r="G45" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="H42">
+      <c r="H45">
         <v>36</v>
       </c>
-      <c r="I42">
+      <c r="I45">
         <v>17</v>
       </c>
-      <c r="J42">
+      <c r="J45">
         <v>19</v>
       </c>
-      <c r="L42">
+      <c r="L45">
         <f t="shared" si="0"/>
         <v>72</v>
       </c>
-      <c r="M42" s="4" t="s">
+      <c r="M45" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="N42" s="28" t="s">
+      <c r="N45" s="28" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="43" spans="1:14" ht="51">
-      <c r="A43" t="s">
+    <row r="46" spans="1:14" ht="51" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
         <v>103</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B46" t="s">
         <v>104</v>
       </c>
-      <c r="D43" t="s">
+      <c r="D46" t="s">
         <v>26</v>
       </c>
-      <c r="G43" s="4" t="s">
+      <c r="G46" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="H43">
+      <c r="H46">
         <v>13</v>
       </c>
-      <c r="I43">
+      <c r="I46">
         <v>45</v>
       </c>
-      <c r="J43">
+      <c r="J46">
         <v>44</v>
       </c>
-      <c r="L43">
+      <c r="L46">
         <f t="shared" si="0"/>
         <v>102</v>
       </c>
-      <c r="M43" s="4"/>
-      <c r="N43" t="s">
+      <c r="M46" s="4"/>
+      <c r="N46" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="44" spans="1:14" ht="51">
-      <c r="A44" t="s">
+    <row r="47" spans="1:14" ht="51" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
         <v>102</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B47" t="s">
         <v>50</v>
       </c>
-      <c r="C44" t="s">
+      <c r="C47" t="s">
         <v>55</v>
       </c>
-      <c r="D44" t="s">
+      <c r="D47" t="s">
         <v>12</v>
       </c>
-      <c r="F44" t="s">
+      <c r="F47" t="s">
         <v>15</v>
       </c>
-      <c r="G44" s="4" t="s">
+      <c r="G47" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="J44">
+      <c r="J47">
         <v>26</v>
       </c>
-      <c r="L44">
+      <c r="L47">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="M44" s="30" t="s">
+      <c r="M47" s="30" t="s">
         <v>180</v>
       </c>
-      <c r="N44" t="s">
+      <c r="N47" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="45" spans="1:14">
-      <c r="A45" t="s">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>223</v>
+      </c>
+      <c r="B48" t="s">
+        <v>224</v>
+      </c>
+      <c r="C48" t="s">
+        <v>91</v>
+      </c>
+      <c r="D48" t="s">
+        <v>225</v>
+      </c>
+      <c r="E48" t="s">
+        <v>227</v>
+      </c>
+      <c r="G48" s="4"/>
+      <c r="H48">
+        <v>2</v>
+      </c>
+      <c r="J48">
+        <v>4</v>
+      </c>
+      <c r="L48">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="M48" s="30"/>
+      <c r="N48" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
         <v>8</v>
       </c>
-      <c r="G45" s="4"/>
-      <c r="H45">
-        <f t="shared" ref="H45:K45" si="1">SUM(H2:H44)</f>
-        <v>735</v>
-      </c>
-      <c r="I45">
-        <f t="shared" si="1"/>
+      <c r="G49" s="4"/>
+      <c r="H49">
+        <f>SUM(H2:H48)</f>
+        <v>815</v>
+      </c>
+      <c r="I49">
+        <f>SUM(I2:I47)</f>
         <v>1080</v>
       </c>
-      <c r="J45">
-        <f t="shared" si="1"/>
-        <v>1337</v>
-      </c>
-      <c r="K45">
-        <f t="shared" si="1"/>
-        <v>816</v>
-      </c>
-      <c r="L45">
-        <f>SUM(L2:L44)</f>
-        <v>3968</v>
-      </c>
-      <c r="M45" s="4"/>
+      <c r="J49">
+        <f>SUM(J2:J48)</f>
+        <v>1419</v>
+      </c>
+      <c r="K49">
+        <f>SUM(K2:K47)</f>
+        <v>865</v>
+      </c>
+      <c r="L49">
+        <f>SUM(L2:L47)</f>
+        <v>4173</v>
+      </c>
+      <c r="M49" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="E23 E16" twoDigitTextYear="1"/>
+    <ignoredError sqref="E24 E17" twoDigitTextYear="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -3118,13 +3277,13 @@
       <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="24.5" customWidth="1"/>
     <col min="2" max="2" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>140</v>
       </c>
@@ -3132,7 +3291,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="17">
+    <row r="2" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="20" t="s">
         <v>142</v>
       </c>
@@ -3140,7 +3299,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="17">
+    <row r="3" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="20" t="s">
         <v>142</v>
       </c>
@@ -3148,7 +3307,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="17">
+    <row r="4" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="20" t="s">
         <v>142</v>
       </c>
@@ -3156,7 +3315,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="17">
+    <row r="5" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="20" t="s">
         <v>143</v>
       </c>
@@ -3164,7 +3323,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="17">
+    <row r="6" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="20" t="s">
         <v>143</v>
       </c>
@@ -3172,7 +3331,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="17">
+    <row r="7" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" s="20" t="s">
         <v>143</v>
       </c>
@@ -3180,7 +3339,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="17">
+    <row r="8" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" s="20" t="s">
         <v>143</v>
       </c>
@@ -3188,7 +3347,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="17">
+    <row r="9" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" s="20" t="s">
         <v>143</v>
       </c>
@@ -3196,7 +3355,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="17">
+    <row r="10" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A10" s="20" t="s">
         <v>143</v>
       </c>
@@ -3204,7 +3363,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="17">
+    <row r="11" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" s="22" t="s">
         <v>145</v>
       </c>
@@ -3212,7 +3371,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="17">
+    <row r="12" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" s="22" t="s">
         <v>145</v>
       </c>
@@ -3220,7 +3379,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="17">
+    <row r="13" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="22" t="s">
         <v>145</v>
       </c>
@@ -3228,7 +3387,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="17">
+    <row r="14" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" s="22" t="s">
         <v>145</v>
       </c>
@@ -3236,7 +3395,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="17">
+    <row r="15" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A15" s="22" t="s">
         <v>145</v>
       </c>
@@ -3244,7 +3403,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="17">
+    <row r="16" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A16" s="22" t="s">
         <v>145</v>
       </c>
@@ -3252,7 +3411,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="17">
+    <row r="17" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A17" s="22" t="s">
         <v>145</v>
       </c>
@@ -3260,7 +3419,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="17">
+    <row r="18" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A18" s="23" t="s">
         <v>147</v>
       </c>
@@ -3268,7 +3427,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="17">
+    <row r="19" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A19" s="23" t="s">
         <v>147</v>
       </c>
@@ -3276,7 +3435,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="17">
+    <row r="20" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A20" s="23" t="s">
         <v>147</v>
       </c>
@@ -3284,7 +3443,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="17">
+    <row r="21" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A21" s="23" t="s">
         <v>147</v>
       </c>
@@ -3292,7 +3451,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="17">
+    <row r="22" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A22" s="23" t="s">
         <v>147</v>
       </c>
@@ -3300,7 +3459,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="17">
+    <row r="23" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A23" s="23" t="s">
         <v>147</v>
       </c>
@@ -3308,7 +3467,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="17">
+    <row r="24" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A24" s="20" t="s">
         <v>148</v>
       </c>
@@ -3316,7 +3475,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="17">
+    <row r="25" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A25" s="20" t="s">
         <v>149</v>
       </c>
@@ -3324,7 +3483,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="17">
+    <row r="26" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A26" s="22" t="s">
         <v>150</v>
       </c>
@@ -3332,7 +3491,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="17">
+    <row r="27" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A27" s="36" t="s">
         <v>151</v>
       </c>
@@ -3340,7 +3499,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="17">
+    <row r="28" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A28" s="23" t="s">
         <v>151</v>
       </c>
@@ -3348,7 +3507,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="17">
+    <row r="29" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A29" s="20" t="s">
         <v>152</v>
       </c>
@@ -3356,7 +3515,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="17">
+    <row r="30" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A30" s="20" t="s">
         <v>152</v>
       </c>
@@ -3364,7 +3523,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="17">
+    <row r="31" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A31" s="20" t="s">
         <v>152</v>
       </c>
@@ -3372,7 +3531,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="17">
+    <row r="32" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A32" s="20" t="s">
         <v>152</v>
       </c>
@@ -3380,7 +3539,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="17">
+    <row r="33" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A33" s="20" t="s">
         <v>152</v>
       </c>
@@ -3388,7 +3547,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="17">
+    <row r="34" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A34" s="20" t="s">
         <v>154</v>
       </c>
@@ -3396,7 +3555,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="17">
+    <row r="35" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A35" s="20" t="s">
         <v>154</v>
       </c>
@@ -3404,7 +3563,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="17">
+    <row r="36" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A36" s="20" t="s">
         <v>154</v>
       </c>
@@ -3412,7 +3571,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="37" spans="1:2" ht="17">
+    <row r="37" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A37" s="20" t="s">
         <v>154</v>
       </c>
@@ -3420,7 +3579,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="38" spans="1:2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" s="25" t="s">
         <v>155</v>
       </c>
@@ -3428,7 +3587,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="39" spans="1:2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" s="25" t="s">
         <v>155</v>
       </c>
@@ -3436,7 +3595,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="40" spans="1:2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" s="25" t="s">
         <v>155</v>
       </c>
@@ -3444,7 +3603,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="41" spans="1:2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" s="25" t="s">
         <v>155</v>
       </c>
@@ -3452,7 +3611,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="42" spans="1:2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" s="25" t="s">
         <v>155</v>
       </c>
@@ -3460,7 +3619,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="43" spans="1:2">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" s="25" t="s">
         <v>155</v>
       </c>
@@ -3468,7 +3627,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="44" spans="1:2">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" s="25" t="s">
         <v>155</v>
       </c>
@@ -3476,7 +3635,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="45" spans="1:2">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" s="25" t="s">
         <v>155</v>
       </c>
@@ -3484,7 +3643,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="46" spans="1:2">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" s="25" t="s">
         <v>155</v>
       </c>
@@ -3492,7 +3651,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="47" spans="1:2">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" s="25" t="s">
         <v>155</v>
       </c>
@@ -3500,7 +3659,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="48" spans="1:2">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" s="25" t="s">
         <v>155</v>
       </c>
@@ -3508,7 +3667,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="49" spans="1:2">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" s="25" t="s">
         <v>155</v>
       </c>
@@ -3516,7 +3675,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="50" spans="1:2">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" s="25" t="s">
         <v>155</v>
       </c>
@@ -3524,7 +3683,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="51" spans="1:2">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" s="25" t="s">
         <v>155</v>
       </c>
@@ -3532,7 +3691,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="52" spans="1:2">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" s="25" t="s">
         <v>156</v>
       </c>
@@ -3540,7 +3699,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="53" spans="1:2">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" s="25" t="s">
         <v>157</v>
       </c>
@@ -3548,7 +3707,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="54" spans="1:2">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" s="26" t="s">
         <v>158</v>
       </c>
@@ -3556,15 +3715,15 @@
         <v>159</v>
       </c>
     </row>
-    <row r="55" spans="1:2">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" s="25" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B55" s="21" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="56" spans="1:2" ht="17">
+    <row r="56" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A56" s="20" t="s">
         <v>160</v>
       </c>
@@ -3572,7 +3731,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="57" spans="1:2">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" s="25" t="s">
         <v>162</v>
       </c>
@@ -3580,7 +3739,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="58" spans="1:2">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" s="25" t="s">
         <v>163</v>
       </c>
@@ -3598,17 +3757,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FA3E69C-C1F1-F041-B7CA-C28168AEBC17}">
   <dimension ref="A1:B46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F36" sqref="F36"/>
+    <sheetView topLeftCell="A23" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="20.6640625" customWidth="1"/>
     <col min="2" max="2" width="21" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>140</v>
       </c>
@@ -3616,31 +3775,31 @@
         <v>141</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="34">
+    <row r="2" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="20" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B2" s="21" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="34">
+    <row r="3" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="20" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B3" s="21" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="17">
+    <row r="4" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="20" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B4" s="21" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="17">
+    <row r="5" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="22" t="s">
         <v>145</v>
       </c>
@@ -3648,7 +3807,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="17">
+    <row r="6" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="22" t="s">
         <v>145</v>
       </c>
@@ -3656,7 +3815,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="17">
+    <row r="7" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" s="22" t="s">
         <v>145</v>
       </c>
@@ -3664,7 +3823,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="17">
+    <row r="8" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" s="22" t="s">
         <v>145</v>
       </c>
@@ -3672,7 +3831,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="17">
+    <row r="9" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" s="22" t="s">
         <v>145</v>
       </c>
@@ -3680,7 +3839,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="17">
+    <row r="10" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A10" s="22" t="s">
         <v>145</v>
       </c>
@@ -3688,7 +3847,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="17">
+    <row r="11" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" s="22" t="s">
         <v>145</v>
       </c>
@@ -3696,15 +3855,15 @@
         <v>47</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" s="23" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B12" s="24" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="17">
+    <row r="13" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="20" t="s">
         <v>148</v>
       </c>
@@ -3712,7 +3871,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="17">
+    <row r="14" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" s="20" t="s">
         <v>149</v>
       </c>
@@ -3720,7 +3879,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="17">
+    <row r="15" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A15" s="22" t="s">
         <v>150</v>
       </c>
@@ -3728,47 +3887,47 @@
         <v>51</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="17">
+    <row r="16" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A16" s="36" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B16" s="37" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="17">
+    <row r="17" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A17" s="23" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B17" s="35" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="17">
+    <row r="18" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A18" s="20" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B18" s="21" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="17">
+    <row r="19" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A19" s="20" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B19" s="21" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="17">
+    <row r="20" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A20" s="20" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B20" s="21" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="25" t="s">
         <v>155</v>
       </c>
@@ -3776,7 +3935,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="25" t="s">
         <v>155</v>
       </c>
@@ -3784,7 +3943,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="25" t="s">
         <v>155</v>
       </c>
@@ -3792,7 +3951,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="25" t="s">
         <v>155</v>
       </c>
@@ -3800,7 +3959,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="25" t="s">
         <v>155</v>
       </c>
@@ -3808,7 +3967,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" s="25" t="s">
         <v>155</v>
       </c>
@@ -3816,7 +3975,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" s="25" t="s">
         <v>155</v>
       </c>
@@ -3824,7 +3983,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" s="25" t="s">
         <v>155</v>
       </c>
@@ -3832,7 +3991,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="29" spans="1:2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" s="25" t="s">
         <v>155</v>
       </c>
@@ -3840,7 +3999,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="30" spans="1:2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" s="25" t="s">
         <v>155</v>
       </c>
@@ -3848,7 +4007,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="31" spans="1:2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" s="25" t="s">
         <v>155</v>
       </c>
@@ -3856,7 +4015,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="32" spans="1:2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" s="25" t="s">
         <v>155</v>
       </c>
@@ -3864,7 +4023,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="33" spans="1:2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" s="25" t="s">
         <v>155</v>
       </c>
@@ -3872,7 +4031,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="34" spans="1:2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" s="25" t="s">
         <v>155</v>
       </c>
@@ -3880,63 +4039,63 @@
         <v>74</v>
       </c>
     </row>
-    <row r="35" spans="1:2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" s="25" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B35" s="21" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="36" spans="1:2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" s="25" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B36" s="21" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="37" spans="1:2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" s="25" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B37" s="21" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="38" spans="1:2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" s="25" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B38" s="21" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="39" spans="1:2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" s="25" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B39" s="24" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="40" spans="1:2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" s="26" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B40" s="21" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="41" spans="1:2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" s="33" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B41" s="21" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="42" spans="1:2" ht="17">
+    <row r="42" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A42" s="20" t="s">
         <v>160</v>
       </c>
@@ -3944,33 +4103,33 @@
         <v>161</v>
       </c>
     </row>
-    <row r="43" spans="1:2" ht="34">
+    <row r="43" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A43" s="38" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B43" s="27" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="44" spans="1:2">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" s="25" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B44" s="27" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="45" spans="1:2">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" s="25" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B45" s="21" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="46" spans="1:2">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" s="25" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B46" s="21" t="s">
         <v>115</v>

--- a/data-raw/Data_summaryforpackage.xlsx
+++ b/data-raw/Data_summaryforpackage.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xutaowang/Desktop/curatedTBData/data-raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1DB8609-8CCF-F148-9239-F4B12A354BAA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58D80BFB-FEDA-124F-81C3-3F0D4891D340}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5000" yWindow="5260" windowWidth="30320" windowHeight="14660" xr2:uid="{B39B7F83-2537-C248-AAB4-54D9192DC10F}"/>
+    <workbookView xWindow="1780" yWindow="5220" windowWidth="30320" windowHeight="14660" xr2:uid="{B39B7F83-2537-C248-AAB4-54D9192DC10F}"/>
   </bookViews>
   <sheets>
     <sheet name="DataSummary" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="605" uniqueCount="236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="614" uniqueCount="235">
   <si>
     <t>GEO accession</t>
   </si>
@@ -92,9 +92,6 @@
   </si>
   <si>
     <t>US</t>
-  </si>
-  <si>
-    <t>Whole  Blood</t>
   </si>
   <si>
     <t>&gt;17</t>
@@ -380,9 +377,6 @@
     <t>Brazil</t>
   </si>
   <si>
-    <t>Neagtive</t>
-  </si>
-  <si>
     <t>South India</t>
   </si>
   <si>
@@ -409,9 +403,6 @@
   </si>
   <si>
     <t>ODs was comorbid diabetes mellitus</t>
-  </si>
-  <si>
-    <t>Ngeative</t>
   </si>
   <si>
     <t>25-60</t>
@@ -812,6 +803,12 @@
   </si>
   <si>
     <t>Mongolian</t>
+  </si>
+  <si>
+    <t>GSE84076</t>
+  </si>
+  <si>
+    <t>Sputum culture, Sputum microscopy</t>
   </si>
 </sst>
 </file>
@@ -1027,7 +1024,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1103,6 +1100,7 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1417,11 +1415,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{715BD991-25C2-914C-95C3-220CF25B2F79}">
-  <dimension ref="A1:N49"/>
+  <dimension ref="A1:N50"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D6" sqref="D6"/>
+      <pane ySplit="1" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1457,7 +1455,7 @@
         <v>6</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="I1" s="6" t="s">
         <v>7</v>
@@ -1466,7 +1464,7 @@
         <v>16</v>
       </c>
       <c r="K1" s="6" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="L1" s="6" t="s">
         <v>8</v>
@@ -1475,7 +1473,7 @@
         <v>9</v>
       </c>
       <c r="N1" s="6" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="69" customHeight="1" x14ac:dyDescent="0.2">
@@ -1498,7 +1496,7 @@
         <v>15</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="H2">
         <v>6</v>
@@ -1514,63 +1512,63 @@
         <v>21</v>
       </c>
       <c r="M2" s="4" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="N2" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B3" t="s">
         <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D3" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="E3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F3" t="s">
         <v>15</v>
       </c>
       <c r="G3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J3">
         <v>9</v>
       </c>
       <c r="L3">
-        <f t="shared" ref="L3:L48" si="0">H3+I3+J3+K3</f>
+        <f t="shared" ref="L3:L49" si="0">H3+I3+J3+K3</f>
         <v>9</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="N3" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B4" t="s">
         <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F4" t="s">
         <v>15</v>
@@ -1583,15 +1581,15 @@
         <v>27</v>
       </c>
       <c r="M4" s="7" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="N4" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B5" t="s">
         <v>17</v>
@@ -1600,10 +1598,10 @@
         <v>18</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F5" t="s">
         <v>15</v>
@@ -1622,33 +1620,33 @@
         <v>109</v>
       </c>
       <c r="M5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="N5" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="B6" t="s">
         <v>98</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>99</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>100</v>
-      </c>
-      <c r="D6" t="s">
-        <v>26</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>101</v>
       </c>
       <c r="F6" t="s">
         <v>15</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="H6">
         <v>9</v>
@@ -1664,46 +1662,58 @@
         <v>27</v>
       </c>
       <c r="N6" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="B7" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="C7" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="D7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E7" s="2"/>
       <c r="G7" s="4"/>
+      <c r="H7">
+        <v>3</v>
+      </c>
+      <c r="J7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>6</v>
+      </c>
+      <c r="N7" t="s">
+        <v>135</v>
+      </c>
     </row>
     <row r="8" spans="1:14" ht="119" x14ac:dyDescent="0.2">
       <c r="A8" s="12" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B8" t="s">
+        <v>92</v>
+      </c>
+      <c r="C8" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="D8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" s="11" t="s">
         <v>94</v>
-      </c>
-      <c r="D8" t="s">
-        <v>26</v>
-      </c>
-      <c r="E8" s="11" t="s">
-        <v>95</v>
       </c>
       <c r="F8" t="s">
         <v>15</v>
       </c>
       <c r="G8" s="10" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="H8" s="13"/>
       <c r="I8" s="13">
@@ -1718,33 +1728,33 @@
         <v>334</v>
       </c>
       <c r="M8" s="14" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="N8" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="130" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="18" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" s="2" t="s">
         <v>26</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>27</v>
       </c>
       <c r="F9" t="s">
         <v>15</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="I9">
         <v>104</v>
@@ -1757,1415 +1767,1425 @@
         <v>144</v>
       </c>
       <c r="M9" s="4" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="N9" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" ht="119" x14ac:dyDescent="0.2">
-      <c r="A10" s="5" t="s">
-        <v>115</v>
+        <v>136</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="130" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="39" t="s">
+        <v>233</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>106</v>
       </c>
       <c r="C10" t="s">
-        <v>22</v>
+        <v>108</v>
       </c>
       <c r="D10" t="s">
-        <v>26</v>
-      </c>
-      <c r="E10" s="2"/>
+        <v>25</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>31</v>
+      </c>
       <c r="F10" t="s">
         <v>15</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>176</v>
+        <v>234</v>
       </c>
       <c r="H10">
-        <v>100</v>
+        <v>12</v>
+      </c>
+      <c r="I10">
+        <v>16</v>
       </c>
       <c r="J10">
-        <v>38</v>
+        <v>8</v>
       </c>
       <c r="L10">
         <f t="shared" si="0"/>
-        <v>138</v>
-      </c>
-      <c r="M10" s="4" t="s">
-        <v>184</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="M10" s="4"/>
       <c r="N10" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" ht="51" x14ac:dyDescent="0.2">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="119" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
-        <v>133</v>
+        <v>113</v>
       </c>
       <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" t="s">
         <v>25</v>
       </c>
-      <c r="C11" t="s">
-        <v>28</v>
-      </c>
-      <c r="D11" t="s">
-        <v>26</v>
-      </c>
-      <c r="E11" t="s">
-        <v>32</v>
-      </c>
+      <c r="E11" s="2"/>
       <c r="F11" t="s">
         <v>15</v>
       </c>
-      <c r="G11" t="s">
-        <v>23</v>
-      </c>
-      <c r="I11">
-        <v>33</v>
+      <c r="G11" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="H11">
+        <v>100</v>
       </c>
       <c r="J11">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="L11">
         <f t="shared" si="0"/>
-        <v>54</v>
+        <v>138</v>
       </c>
       <c r="M11" s="4" t="s">
-        <v>33</v>
+        <v>181</v>
       </c>
       <c r="N11" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="12" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" t="s">
         <v>25</v>
       </c>
-      <c r="C12" t="s">
-        <v>22</v>
-      </c>
-      <c r="D12" t="s">
-        <v>26</v>
-      </c>
       <c r="E12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F12" t="s">
         <v>15</v>
       </c>
       <c r="G12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I12">
-        <v>31</v>
-      </c>
-      <c r="J12" s="3">
-        <v>16</v>
+        <v>33</v>
+      </c>
+      <c r="J12">
+        <v>21</v>
       </c>
       <c r="L12">
         <f t="shared" si="0"/>
-        <v>47</v>
-      </c>
-      <c r="M12" s="1" t="s">
-        <v>44</v>
+        <v>54</v>
+      </c>
+      <c r="M12" s="4" t="s">
+        <v>32</v>
       </c>
       <c r="N12" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" ht="62" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="18" t="s">
-        <v>135</v>
+        <v>136</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="51" x14ac:dyDescent="0.2">
+      <c r="A13" s="5" t="s">
+        <v>131</v>
       </c>
       <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" t="s">
         <v>25</v>
       </c>
-      <c r="C13" t="s">
-        <v>28</v>
-      </c>
-      <c r="D13" t="s">
-        <v>26</v>
-      </c>
       <c r="E13" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="F13" t="s">
         <v>15</v>
       </c>
       <c r="G13" t="s">
-        <v>23</v>
-      </c>
-      <c r="H13">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="I13">
+        <v>31</v>
+      </c>
+      <c r="J13" s="3">
         <v>16</v>
       </c>
       <c r="L13">
         <f t="shared" si="0"/>
-        <v>31</v>
-      </c>
-      <c r="M13" s="17" t="s">
-        <v>125</v>
+        <v>47</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="N13" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" ht="49" customHeight="1" x14ac:dyDescent="0.2">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="62" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="18" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" t="s">
         <v>25</v>
       </c>
-      <c r="C14" t="s">
-        <v>28</v>
-      </c>
-      <c r="D14" t="s">
-        <v>26</v>
-      </c>
       <c r="E14" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F14" t="s">
         <v>15</v>
       </c>
       <c r="G14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H14">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="I14">
-        <v>58</v>
-      </c>
-      <c r="J14">
-        <v>53</v>
+        <v>16</v>
       </c>
       <c r="L14">
         <f t="shared" si="0"/>
-        <v>161</v>
+        <v>31</v>
       </c>
       <c r="M14" s="17" t="s">
-        <v>96</v>
+        <v>122</v>
       </c>
       <c r="N14" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="15" spans="1:14" ht="49" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="5" t="s">
-        <v>106</v>
+      <c r="A15" s="18" t="s">
+        <v>133</v>
       </c>
       <c r="B15" t="s">
-        <v>108</v>
+        <v>24</v>
       </c>
       <c r="C15" t="s">
-        <v>111</v>
+        <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E15" t="s">
-        <v>113</v>
+        <v>45</v>
       </c>
       <c r="F15" t="s">
         <v>15</v>
       </c>
-      <c r="G15" s="4" t="s">
-        <v>194</v>
+      <c r="G15" t="s">
+        <v>22</v>
+      </c>
+      <c r="H15">
+        <v>50</v>
       </c>
       <c r="I15">
-        <v>16</v>
+        <v>58</v>
       </c>
       <c r="J15">
-        <v>28</v>
+        <v>53</v>
       </c>
       <c r="L15">
         <f t="shared" si="0"/>
-        <v>44</v>
-      </c>
-      <c r="M15" s="4"/>
+        <v>161</v>
+      </c>
+      <c r="M15" s="17" t="s">
+        <v>95</v>
+      </c>
       <c r="N15" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="16" spans="1:14" ht="49" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>114</v>
+      <c r="A16" s="5" t="s">
+        <v>105</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>107</v>
+      </c>
+      <c r="C16" t="s">
+        <v>109</v>
       </c>
       <c r="D16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E16" t="s">
-        <v>32</v>
-      </c>
-      <c r="F16" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="G16" s="16" t="s">
-        <v>116</v>
-      </c>
-      <c r="H16">
+        <v>111</v>
+      </c>
+      <c r="F16" t="s">
+        <v>15</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="I16">
         <v>16</v>
       </c>
       <c r="J16">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="L16">
         <f t="shared" si="0"/>
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="M16" s="4"/>
       <c r="N16" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="17" spans="1:14" ht="49" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="17" t="s">
-        <v>123</v>
+      <c r="A17" t="s">
+        <v>112</v>
       </c>
       <c r="B17" t="s">
-        <v>107</v>
-      </c>
-      <c r="C17" t="s">
-        <v>109</v>
+        <v>23</v>
       </c>
       <c r="D17" t="s">
-        <v>12</v>
-      </c>
-      <c r="E17" s="31" t="s">
-        <v>188</v>
-      </c>
-      <c r="F17" t="s">
-        <v>110</v>
-      </c>
-      <c r="G17" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="I17">
-        <v>21</v>
+        <v>25</v>
+      </c>
+      <c r="E17" t="s">
+        <v>31</v>
+      </c>
+      <c r="F17" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="G17" s="16" t="s">
+        <v>114</v>
+      </c>
+      <c r="H17">
+        <v>16</v>
       </c>
       <c r="J17">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="L17">
         <f t="shared" si="0"/>
-        <v>51</v>
-      </c>
-      <c r="M17" s="17" t="s">
-        <v>187</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="M17" s="4"/>
       <c r="N17" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" ht="109" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="32" t="s">
-        <v>199</v>
+        <v>136</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" ht="49" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="17" t="s">
+        <v>120</v>
       </c>
       <c r="B18" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C18" t="s">
-        <v>91</v>
+        <v>108</v>
       </c>
       <c r="D18" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="E18" s="31" t="s">
-        <v>197</v>
+        <v>185</v>
+      </c>
+      <c r="F18" t="s">
+        <v>15</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="H18">
-        <v>32</v>
+        <v>110</v>
+      </c>
+      <c r="I18">
+        <v>21</v>
       </c>
       <c r="J18">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="L18">
         <f t="shared" si="0"/>
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="M18" s="17" t="s">
-        <v>228</v>
+        <v>184</v>
       </c>
       <c r="N18" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A19" s="5" t="s">
-        <v>29</v>
+        <v>136</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" ht="109" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="32" t="s">
+        <v>196</v>
       </c>
       <c r="B19" t="s">
-        <v>31</v>
+        <v>106</v>
       </c>
       <c r="C19" t="s">
-        <v>28</v>
+        <v>90</v>
       </c>
       <c r="D19" t="s">
-        <v>26</v>
-      </c>
-      <c r="E19" t="s">
+        <v>25</v>
+      </c>
+      <c r="E19" s="31" t="s">
+        <v>194</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="H19">
         <v>32</v>
       </c>
-      <c r="F19" t="s">
-        <v>15</v>
-      </c>
-      <c r="G19" t="s">
-        <v>127</v>
-      </c>
-      <c r="H19">
-        <v>12</v>
-      </c>
-      <c r="I19">
-        <v>21</v>
-      </c>
       <c r="J19">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="L19">
         <f t="shared" si="0"/>
-        <v>54</v>
+        <v>48</v>
+      </c>
+      <c r="M19" s="17" t="s">
+        <v>225</v>
       </c>
       <c r="N19" t="s">
-        <v>97</v>
+        <v>136</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B20" t="s">
         <v>30</v>
       </c>
-      <c r="B20" t="s">
+      <c r="C20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" t="s">
+        <v>25</v>
+      </c>
+      <c r="E20" t="s">
         <v>31</v>
-      </c>
-      <c r="C20" t="s">
-        <v>28</v>
-      </c>
-      <c r="D20" t="s">
-        <v>26</v>
-      </c>
-      <c r="E20" t="s">
-        <v>32</v>
       </c>
       <c r="F20" t="s">
         <v>15</v>
       </c>
       <c r="G20" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="H20">
-        <v>16</v>
+        <v>12</v>
+      </c>
+      <c r="I20">
+        <v>21</v>
       </c>
       <c r="J20">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="L20">
         <f t="shared" si="0"/>
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="N20" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" ht="86" customHeight="1" x14ac:dyDescent="0.2">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B21" t="s">
+        <v>30</v>
+      </c>
+      <c r="C21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" t="s">
+        <v>25</v>
+      </c>
+      <c r="E21" t="s">
         <v>31</v>
-      </c>
-      <c r="C21" t="s">
-        <v>22</v>
-      </c>
-      <c r="D21" t="s">
-        <v>26</v>
-      </c>
-      <c r="E21" t="s">
-        <v>40</v>
       </c>
       <c r="F21" t="s">
         <v>15</v>
       </c>
       <c r="G21" t="s">
-        <v>127</v>
-      </c>
-      <c r="I21">
-        <v>31</v>
+        <v>124</v>
+      </c>
+      <c r="H21">
+        <v>16</v>
       </c>
       <c r="J21">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="L21">
         <f t="shared" si="0"/>
-        <v>51</v>
-      </c>
-      <c r="M21" s="1" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="N21" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" ht="86" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B22" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C22" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="D22" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E22" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F22" t="s">
         <v>15</v>
       </c>
       <c r="G22" t="s">
-        <v>127</v>
-      </c>
-      <c r="H22">
-        <v>12</v>
+        <v>124</v>
       </c>
       <c r="I22">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="J22">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="L22">
         <f t="shared" si="0"/>
-        <v>42</v>
+        <v>51</v>
+      </c>
+      <c r="M22" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="N22" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" ht="86" customHeight="1" x14ac:dyDescent="0.2">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B23" t="s">
-        <v>31</v>
+        <v>30</v>
+      </c>
+      <c r="C23" t="s">
+        <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E23" t="s">
-        <v>196</v>
+        <v>40</v>
       </c>
       <c r="F23" t="s">
         <v>15</v>
       </c>
       <c r="G23" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="H23">
         <v>12</v>
       </c>
+      <c r="I23">
+        <v>17</v>
+      </c>
       <c r="J23">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="L23">
         <f t="shared" si="0"/>
-        <v>33</v>
-      </c>
-      <c r="M23" s="7" t="s">
         <v>42</v>
       </c>
       <c r="N23" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" ht="119" x14ac:dyDescent="0.2">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" ht="86" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D24" t="s">
-        <v>26</v>
-      </c>
-      <c r="E24" s="8" t="s">
-        <v>43</v>
+        <v>25</v>
+      </c>
+      <c r="E24" t="s">
+        <v>193</v>
       </c>
       <c r="F24" t="s">
         <v>15</v>
       </c>
       <c r="G24" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="H24">
-        <v>81</v>
-      </c>
-      <c r="K24">
-        <v>193</v>
+        <v>12</v>
+      </c>
+      <c r="J24">
+        <v>21</v>
       </c>
       <c r="L24">
         <f t="shared" si="0"/>
-        <v>274</v>
-      </c>
-      <c r="M24" s="1" t="s">
-        <v>195</v>
+        <v>33</v>
+      </c>
+      <c r="M24" s="7" t="s">
+        <v>41</v>
       </c>
       <c r="N24" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" ht="69" customHeight="1" x14ac:dyDescent="0.2">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" ht="119" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
-        <v>70</v>
+        <v>36</v>
       </c>
       <c r="B25" t="s">
-        <v>71</v>
-      </c>
-      <c r="C25" t="s">
-        <v>72</v>
+        <v>30</v>
       </c>
       <c r="D25" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E25" s="8" t="s">
-        <v>73</v>
+        <v>42</v>
       </c>
       <c r="F25" t="s">
         <v>15</v>
       </c>
-      <c r="G25" s="4" t="s">
-        <v>57</v>
+      <c r="G25" t="s">
+        <v>124</v>
       </c>
       <c r="H25">
-        <v>18</v>
-      </c>
-      <c r="J25">
-        <v>18</v>
+        <v>81</v>
+      </c>
+      <c r="K25">
+        <v>193</v>
       </c>
       <c r="L25">
         <f t="shared" si="0"/>
-        <v>36</v>
-      </c>
-      <c r="M25" s="7" t="s">
-        <v>181</v>
+        <v>274</v>
+      </c>
+      <c r="M25" s="1" t="s">
+        <v>192</v>
       </c>
       <c r="N25" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" ht="85" x14ac:dyDescent="0.2">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" ht="69" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="B26" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="C26" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="D26" t="s">
-        <v>26</v>
-      </c>
-      <c r="E26" t="s">
-        <v>68</v>
-      </c>
-      <c r="F26" s="15" t="s">
-        <v>69</v>
+        <v>25</v>
+      </c>
+      <c r="E26" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="F26" t="s">
+        <v>15</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>189</v>
-      </c>
-      <c r="I26">
-        <v>14</v>
+        <v>56</v>
+      </c>
+      <c r="H26">
+        <v>18</v>
       </c>
       <c r="J26">
-        <v>79</v>
-      </c>
-      <c r="K26">
-        <v>64</v>
+        <v>18</v>
       </c>
       <c r="L26">
         <f t="shared" si="0"/>
-        <v>157</v>
-      </c>
-      <c r="M26" s="4" t="s">
-        <v>190</v>
+        <v>36</v>
+      </c>
+      <c r="M26" s="7" t="s">
+        <v>178</v>
       </c>
       <c r="N26" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="27" spans="1:14" ht="85" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B27" t="s">
         <v>64</v>
       </c>
-      <c r="B27" t="s">
+      <c r="C27" t="s">
         <v>65</v>
       </c>
-      <c r="C27" s="4" t="s">
-        <v>105</v>
-      </c>
       <c r="D27" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E27" t="s">
+        <v>67</v>
+      </c>
+      <c r="F27" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="F27" s="15" t="s">
-        <v>69</v>
-      </c>
       <c r="G27" s="4" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="I27">
-        <v>54</v>
+        <v>14</v>
       </c>
       <c r="J27">
-        <v>111</v>
+        <v>79</v>
       </c>
       <c r="K27">
-        <v>169</v>
+        <v>64</v>
       </c>
       <c r="L27">
         <f t="shared" si="0"/>
-        <v>334</v>
+        <v>157</v>
       </c>
       <c r="M27" s="4" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="N27" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" ht="68" x14ac:dyDescent="0.2">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" ht="85" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="B28" t="s">
-        <v>65</v>
-      </c>
-      <c r="C28" t="s">
-        <v>22</v>
+        <v>64</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>104</v>
       </c>
       <c r="D28" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E28" t="s">
-        <v>20</v>
+        <v>67</v>
       </c>
       <c r="F28" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="G28" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="I28">
+        <v>54</v>
+      </c>
+      <c r="J28">
+        <v>111</v>
+      </c>
+      <c r="K28">
         <v>169</v>
-      </c>
-      <c r="G28" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="I28">
-        <v>35</v>
-      </c>
-      <c r="J28">
-        <v>15</v>
       </c>
       <c r="L28">
         <f t="shared" si="0"/>
-        <v>50</v>
+        <v>334</v>
       </c>
       <c r="M28" s="4" t="s">
-        <v>172</v>
+        <v>187</v>
       </c>
       <c r="N28" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" ht="153" x14ac:dyDescent="0.2">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" ht="68" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B29" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C29" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D29" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="E29" t="s">
-        <v>77</v>
+        <v>19</v>
       </c>
       <c r="F29" s="15" t="s">
-        <v>169</v>
-      </c>
-      <c r="H29">
-        <v>22</v>
+        <v>166</v>
+      </c>
+      <c r="G29" s="4" t="s">
+        <v>189</v>
       </c>
       <c r="I29">
-        <v>21</v>
+        <v>35</v>
+      </c>
+      <c r="J29">
+        <v>15</v>
       </c>
       <c r="L29">
         <f t="shared" si="0"/>
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="M29" s="4" t="s">
-        <v>193</v>
+        <v>169</v>
       </c>
       <c r="N29" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="30" spans="1:14" ht="153" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B30" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C30" t="s">
-        <v>67</v>
+        <v>21</v>
       </c>
       <c r="D30" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="E30" t="s">
-        <v>20</v>
+        <v>76</v>
       </c>
       <c r="F30" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="G30" s="4" t="s">
-        <v>183</v>
+        <v>166</v>
+      </c>
+      <c r="H30">
+        <v>22</v>
       </c>
       <c r="I30">
-        <v>167</v>
-      </c>
-      <c r="J30">
-        <v>195</v>
-      </c>
-      <c r="K30">
-        <v>175</v>
+        <v>21</v>
       </c>
       <c r="L30">
         <f t="shared" si="0"/>
-        <v>537</v>
+        <v>43</v>
       </c>
       <c r="M30" s="4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="N30" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14" ht="113" customHeight="1" x14ac:dyDescent="0.2">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" ht="153" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
-        <v>146</v>
+        <v>73</v>
       </c>
       <c r="B31" t="s">
-        <v>65</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>78</v>
+        <v>64</v>
+      </c>
+      <c r="C31" t="s">
+        <v>66</v>
       </c>
       <c r="D31" t="s">
-        <v>26</v>
+        <v>25</v>
+      </c>
+      <c r="E31" t="s">
+        <v>19</v>
+      </c>
+      <c r="F31" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="G31" s="4" t="s">
+        <v>180</v>
       </c>
       <c r="I31">
-        <v>38</v>
+        <v>167</v>
       </c>
       <c r="J31">
-        <v>37</v>
+        <v>195</v>
+      </c>
+      <c r="K31">
+        <v>175</v>
       </c>
       <c r="L31">
         <f t="shared" si="0"/>
-        <v>75</v>
+        <v>537</v>
       </c>
       <c r="M31" s="4" t="s">
-        <v>79</v>
+        <v>188</v>
       </c>
       <c r="N31" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14" ht="68" x14ac:dyDescent="0.2">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" ht="113" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="5" t="s">
-        <v>80</v>
+        <v>143</v>
       </c>
       <c r="B32" t="s">
-        <v>65</v>
-      </c>
-      <c r="C32" t="s">
-        <v>58</v>
+        <v>64</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>77</v>
       </c>
       <c r="D32" t="s">
-        <v>26</v>
-      </c>
-      <c r="E32" t="s">
-        <v>20</v>
-      </c>
-      <c r="F32" t="s">
-        <v>15</v>
-      </c>
-      <c r="G32" t="s">
-        <v>23</v>
-      </c>
-      <c r="H32">
-        <v>23</v>
+        <v>25</v>
+      </c>
+      <c r="F32" s="15"/>
+      <c r="I32">
+        <v>38</v>
       </c>
       <c r="J32">
-        <v>8</v>
-      </c>
-      <c r="K32">
-        <v>11</v>
+        <v>37</v>
       </c>
       <c r="L32">
         <f t="shared" si="0"/>
-        <v>42</v>
+        <v>75</v>
       </c>
       <c r="M32" s="4" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="N32" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="33" spans="1:14" ht="85" x14ac:dyDescent="0.2">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" ht="68" x14ac:dyDescent="0.2">
       <c r="A33" s="5" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B33" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C33" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D33" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E33" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F33" t="s">
         <v>15</v>
       </c>
       <c r="G33" t="s">
+        <v>22</v>
+      </c>
+      <c r="H33">
         <v>23</v>
       </c>
-      <c r="H33">
-        <v>52</v>
-      </c>
       <c r="J33">
+        <v>8</v>
+      </c>
+      <c r="K33">
         <v>11</v>
-      </c>
-      <c r="K33">
-        <v>39</v>
       </c>
       <c r="L33">
         <f t="shared" si="0"/>
-        <v>102</v>
+        <v>42</v>
       </c>
       <c r="M33" s="4" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="N33" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="34" spans="1:14" ht="17" x14ac:dyDescent="0.2">
-      <c r="A34" s="29" t="s">
-        <v>82</v>
+        <v>96</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" ht="85" x14ac:dyDescent="0.2">
+      <c r="A34" s="5" t="s">
+        <v>80</v>
       </c>
       <c r="B34" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C34" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D34" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E34" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F34" t="s">
         <v>15</v>
       </c>
+      <c r="G34" t="s">
+        <v>22</v>
+      </c>
+      <c r="H34">
+        <v>52</v>
+      </c>
+      <c r="J34">
+        <v>11</v>
+      </c>
       <c r="K34">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="L34">
         <f t="shared" si="0"/>
-        <v>27</v>
+        <v>102</v>
       </c>
       <c r="M34" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="N34" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="35" spans="1:14" ht="85" x14ac:dyDescent="0.2">
-      <c r="A35" s="5" t="s">
-        <v>83</v>
+        <v>96</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="A35" s="29" t="s">
+        <v>81</v>
       </c>
       <c r="B35" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C35" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D35" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E35" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F35" t="s">
         <v>15</v>
       </c>
-      <c r="G35" t="s">
-        <v>23</v>
-      </c>
-      <c r="H35">
-        <v>38</v>
-      </c>
-      <c r="J35">
-        <v>16</v>
-      </c>
       <c r="K35">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="L35">
         <f t="shared" si="0"/>
-        <v>95</v>
+        <v>27</v>
       </c>
       <c r="M35" s="4" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="N35" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="36" spans="1:14" ht="34" x14ac:dyDescent="0.2">
-      <c r="A36" s="29" t="s">
-        <v>84</v>
+        <v>96</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" ht="85" x14ac:dyDescent="0.2">
+      <c r="A36" s="5" t="s">
+        <v>82</v>
       </c>
       <c r="B36" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C36" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D36" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E36" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F36" t="s">
         <v>15</v>
       </c>
+      <c r="G36" t="s">
+        <v>22</v>
+      </c>
+      <c r="H36">
+        <v>38</v>
+      </c>
+      <c r="J36">
+        <v>16</v>
+      </c>
       <c r="K36">
-        <v>7</v>
+        <v>41</v>
       </c>
       <c r="L36">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>95</v>
       </c>
       <c r="M36" s="4" t="s">
-        <v>178</v>
+        <v>88</v>
       </c>
       <c r="N36" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="37" spans="1:14" ht="102" x14ac:dyDescent="0.2">
-      <c r="A37" s="5" t="s">
-        <v>85</v>
+        <v>96</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+      <c r="A37" s="29" t="s">
+        <v>83</v>
       </c>
       <c r="B37" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C37" t="s">
-        <v>58</v>
-      </c>
-      <c r="D37" s="4" t="s">
-        <v>90</v>
+        <v>57</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
       </c>
       <c r="E37" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F37" t="s">
         <v>15</v>
       </c>
-      <c r="G37" t="s">
-        <v>23</v>
-      </c>
-      <c r="H37">
+      <c r="K37">
+        <v>7</v>
+      </c>
+      <c r="L37">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="M37" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="N37" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" ht="102" x14ac:dyDescent="0.2">
+      <c r="A38" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="B38" t="s">
+        <v>64</v>
+      </c>
+      <c r="C38" t="s">
+        <v>57</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="E38" t="s">
+        <v>19</v>
+      </c>
+      <c r="F38" t="s">
+        <v>15</v>
+      </c>
+      <c r="G38" t="s">
+        <v>22</v>
+      </c>
+      <c r="H38">
         <v>5</v>
       </c>
-      <c r="J37">
+      <c r="J38">
         <v>5</v>
       </c>
-      <c r="K37">
+      <c r="K38">
         <v>5</v>
-      </c>
-      <c r="L37">
-        <f>H37+I37+J37+K37</f>
-        <v>15</v>
-      </c>
-      <c r="M37" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="N37" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="38" spans="1:14" ht="51" x14ac:dyDescent="0.2">
-      <c r="A38" s="5" t="s">
-        <v>226</v>
-      </c>
-      <c r="B38" t="s">
-        <v>65</v>
-      </c>
-      <c r="C38" t="s">
-        <v>28</v>
-      </c>
-      <c r="D38" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="F38" t="s">
-        <v>120</v>
-      </c>
-      <c r="G38" t="s">
-        <v>127</v>
-      </c>
-      <c r="H38">
-        <v>61</v>
-      </c>
-      <c r="J38">
-        <v>45</v>
-      </c>
-      <c r="K38">
-        <v>49</v>
       </c>
       <c r="L38">
         <f>H38+I38+J38+K38</f>
-        <v>155</v>
+        <v>15</v>
       </c>
       <c r="M38" s="4" t="s">
-        <v>229</v>
+        <v>176</v>
       </c>
       <c r="N38" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="39" spans="1:14" ht="136" x14ac:dyDescent="0.2">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A39" s="5" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="B39" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C39" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E39" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="F39" t="s">
-        <v>231</v>
+        <v>15</v>
+      </c>
+      <c r="G39" t="s">
+        <v>124</v>
       </c>
       <c r="H39">
-        <v>17</v>
+        <v>61</v>
       </c>
       <c r="J39">
-        <v>33</v>
+        <v>45</v>
+      </c>
+      <c r="K39">
+        <v>49</v>
       </c>
       <c r="L39">
         <f>H39+I39+J39+K39</f>
-        <v>50</v>
+        <v>155</v>
       </c>
       <c r="M39" s="4" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="N39" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="40" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" ht="136" x14ac:dyDescent="0.2">
       <c r="A40" s="5" t="s">
-        <v>122</v>
+        <v>227</v>
       </c>
       <c r="B40" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C40" t="s">
-        <v>91</v>
-      </c>
-      <c r="D40" t="s">
-        <v>26</v>
+        <v>27</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>25</v>
       </c>
       <c r="E40" t="s">
-        <v>121</v>
+        <v>19</v>
       </c>
       <c r="F40" t="s">
-        <v>120</v>
-      </c>
-      <c r="G40" t="s">
-        <v>23</v>
+        <v>228</v>
       </c>
       <c r="H40">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="J40">
-        <v>53</v>
-      </c>
-      <c r="K40">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="L40">
         <f>H40+I40+J40+K40</f>
-        <v>110</v>
+        <v>50</v>
       </c>
       <c r="M40" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="N40" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+      <c r="A41" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="N40" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="41" spans="1:14" ht="51" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
-        <v>47</v>
-      </c>
       <c r="B41" t="s">
-        <v>48</v>
+        <v>64</v>
       </c>
       <c r="C41" t="s">
-        <v>55</v>
+        <v>90</v>
       </c>
       <c r="D41" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E41" t="s">
-        <v>56</v>
+        <v>118</v>
       </c>
       <c r="F41" t="s">
         <v>15</v>
       </c>
-      <c r="G41" s="9" t="s">
-        <v>57</v>
+      <c r="G41" t="s">
+        <v>22</v>
       </c>
       <c r="H41">
+        <v>29</v>
+      </c>
+      <c r="J41">
+        <v>53</v>
+      </c>
+      <c r="K41">
+        <v>28</v>
+      </c>
+      <c r="L41">
+        <f>H41+I41+J41+K41</f>
+        <v>110</v>
+      </c>
+      <c r="M41" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="N41" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" ht="51" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>46</v>
+      </c>
+      <c r="B42" t="s">
+        <v>47</v>
+      </c>
+      <c r="C42" t="s">
+        <v>54</v>
+      </c>
+      <c r="D42" t="s">
+        <v>25</v>
+      </c>
+      <c r="E42" t="s">
+        <v>55</v>
+      </c>
+      <c r="F42" t="s">
+        <v>15</v>
+      </c>
+      <c r="G42" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="H42">
         <v>37</v>
       </c>
-      <c r="I41">
+      <c r="I42">
         <v>25</v>
       </c>
-      <c r="J41">
+      <c r="J42">
         <v>46</v>
       </c>
-      <c r="L41">
+      <c r="L42">
         <f t="shared" si="0"/>
         <v>108</v>
       </c>
-      <c r="N41" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="42" spans="1:14" ht="17" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
+      <c r="N42" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>48</v>
+      </c>
+      <c r="B43" t="s">
         <v>49</v>
       </c>
-      <c r="B42" t="s">
-        <v>50</v>
-      </c>
-      <c r="C42" t="s">
+      <c r="C43" t="s">
+        <v>57</v>
+      </c>
+      <c r="D43" t="s">
+        <v>25</v>
+      </c>
+      <c r="E43" t="s">
         <v>58</v>
       </c>
-      <c r="D42" t="s">
-        <v>26</v>
-      </c>
-      <c r="E42" t="s">
-        <v>59</v>
-      </c>
-      <c r="F42" t="s">
+      <c r="F43" t="s">
         <v>15</v>
       </c>
-      <c r="H42">
+      <c r="H43">
         <v>18</v>
       </c>
-      <c r="J42">
+      <c r="J43">
         <v>8</v>
       </c>
-      <c r="K42">
+      <c r="K43">
         <v>18</v>
       </c>
-      <c r="L42">
+      <c r="L43">
         <f t="shared" si="0"/>
         <v>44</v>
       </c>
-      <c r="M42" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="N42" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="43" spans="1:14" ht="34" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
+      <c r="M43" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="N43" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>50</v>
+      </c>
+      <c r="B44" t="s">
         <v>51</v>
       </c>
-      <c r="B43" t="s">
-        <v>52</v>
-      </c>
-      <c r="C43" t="s">
-        <v>60</v>
-      </c>
-      <c r="D43" t="s">
+      <c r="C44" t="s">
+        <v>59</v>
+      </c>
+      <c r="D44" t="s">
         <v>12</v>
       </c>
-      <c r="F43" t="s">
+      <c r="F44" t="s">
         <v>15</v>
       </c>
-      <c r="H43">
+      <c r="H44">
         <v>7</v>
       </c>
-      <c r="I43">
+      <c r="I44">
         <v>7</v>
       </c>
-      <c r="J43">
+      <c r="J44">
         <v>7</v>
       </c>
-      <c r="L43">
+      <c r="L44">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="M43" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="N43" s="28" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="44" spans="1:14" ht="85" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
+      <c r="M44" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="N44" s="28" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" ht="85" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>52</v>
+      </c>
+      <c r="B45" t="s">
         <v>53</v>
       </c>
-      <c r="B44" t="s">
-        <v>54</v>
-      </c>
-      <c r="C44" t="s">
-        <v>91</v>
-      </c>
-      <c r="D44" t="s">
-        <v>26</v>
-      </c>
-      <c r="F44" t="s">
+      <c r="C45" t="s">
+        <v>90</v>
+      </c>
+      <c r="D45" t="s">
+        <v>25</v>
+      </c>
+      <c r="F45" t="s">
         <v>15</v>
       </c>
-      <c r="G44" t="s">
-        <v>177</v>
-      </c>
-      <c r="H44">
+      <c r="G45" t="s">
+        <v>174</v>
+      </c>
+      <c r="H45">
         <v>76</v>
       </c>
-      <c r="J44">
+      <c r="J45">
         <v>113</v>
       </c>
-      <c r="L44">
+      <c r="L45">
         <f t="shared" si="0"/>
         <v>189</v>
       </c>
-      <c r="M44" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="N44" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="45" spans="1:14" ht="51" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
+      <c r="M45" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="N45" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" ht="51" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>60</v>
+      </c>
+      <c r="B46" t="s">
         <v>61</v>
       </c>
-      <c r="B45" t="s">
-        <v>62</v>
-      </c>
-      <c r="D45" t="s">
+      <c r="D46" t="s">
         <v>12</v>
       </c>
-      <c r="F45" t="s">
+      <c r="F46" t="s">
         <v>15</v>
       </c>
-      <c r="G45" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="H45">
+      <c r="G46" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="H46">
         <v>36</v>
       </c>
-      <c r="I45">
+      <c r="I46">
         <v>17</v>
       </c>
-      <c r="J45">
+      <c r="J46">
         <v>19</v>
       </c>
-      <c r="L45">
+      <c r="L46">
         <f t="shared" si="0"/>
         <v>72</v>
       </c>
-      <c r="M45" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="N45" s="28" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="46" spans="1:14" ht="51" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
-        <v>103</v>
-      </c>
-      <c r="B46" t="s">
-        <v>104</v>
-      </c>
-      <c r="D46" t="s">
-        <v>26</v>
-      </c>
-      <c r="G46" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="H46">
-        <v>13</v>
-      </c>
-      <c r="I46">
-        <v>45</v>
-      </c>
-      <c r="J46">
-        <v>44</v>
-      </c>
-      <c r="L46">
-        <f t="shared" si="0"/>
-        <v>102</v>
-      </c>
-      <c r="M46" s="4"/>
-      <c r="N46" t="s">
-        <v>168</v>
+      <c r="M46" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="N46" s="28" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="47" spans="1:14" ht="51" x14ac:dyDescent="0.2">
@@ -3173,98 +3193,129 @@
         <v>102</v>
       </c>
       <c r="B47" t="s">
-        <v>50</v>
-      </c>
-      <c r="C47" t="s">
-        <v>55</v>
+        <v>103</v>
       </c>
       <c r="D47" t="s">
-        <v>12</v>
-      </c>
-      <c r="F47" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="G47" s="4" t="s">
-        <v>171</v>
+        <v>182</v>
+      </c>
+      <c r="H47">
+        <v>13</v>
+      </c>
+      <c r="I47">
+        <v>45</v>
       </c>
       <c r="J47">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="L47">
         <f t="shared" si="0"/>
+        <v>102</v>
+      </c>
+      <c r="M47" s="4"/>
+      <c r="N47" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" ht="51" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>101</v>
+      </c>
+      <c r="B48" t="s">
+        <v>49</v>
+      </c>
+      <c r="C48" t="s">
+        <v>54</v>
+      </c>
+      <c r="D48" t="s">
+        <v>12</v>
+      </c>
+      <c r="F48" t="s">
+        <v>15</v>
+      </c>
+      <c r="G48" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="J48">
         <v>26</v>
-      </c>
-      <c r="M47" s="30" t="s">
-        <v>180</v>
-      </c>
-      <c r="N47" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A48" t="s">
-        <v>223</v>
-      </c>
-      <c r="B48" t="s">
-        <v>224</v>
-      </c>
-      <c r="C48" t="s">
-        <v>91</v>
-      </c>
-      <c r="D48" t="s">
-        <v>225</v>
-      </c>
-      <c r="E48" t="s">
-        <v>227</v>
-      </c>
-      <c r="G48" s="4"/>
-      <c r="H48">
-        <v>2</v>
-      </c>
-      <c r="J48">
-        <v>4</v>
       </c>
       <c r="L48">
         <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="M48" s="30"/>
+        <v>26</v>
+      </c>
+      <c r="M48" s="30" t="s">
+        <v>177</v>
+      </c>
       <c r="N48" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.2">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>8</v>
+        <v>220</v>
+      </c>
+      <c r="B49" t="s">
+        <v>221</v>
+      </c>
+      <c r="C49" t="s">
+        <v>90</v>
+      </c>
+      <c r="D49" t="s">
+        <v>222</v>
+      </c>
+      <c r="E49" t="s">
+        <v>224</v>
       </c>
       <c r="G49" s="4"/>
       <c r="H49">
-        <f>SUM(H2:H48)</f>
-        <v>815</v>
-      </c>
-      <c r="I49">
-        <f>SUM(I2:I47)</f>
-        <v>1080</v>
+        <v>2</v>
       </c>
       <c r="J49">
-        <f>SUM(J2:J48)</f>
-        <v>1419</v>
-      </c>
-      <c r="K49">
-        <f>SUM(K2:K47)</f>
+        <v>4</v>
+      </c>
+      <c r="L49">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="M49" s="30"/>
+      <c r="N49" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>8</v>
+      </c>
+      <c r="G50" s="4"/>
+      <c r="H50">
+        <f>SUM(H2:H49)</f>
+        <v>830</v>
+      </c>
+      <c r="I50">
+        <f>SUM(I2:I48)</f>
+        <v>1096</v>
+      </c>
+      <c r="J50">
+        <f>SUM(J2:J49)</f>
+        <v>1430</v>
+      </c>
+      <c r="K50">
+        <f>SUM(K2:K48)</f>
         <v>865</v>
       </c>
-      <c r="L49">
-        <f>SUM(L2:L47)</f>
-        <v>4173</v>
-      </c>
-      <c r="M49" s="4"/>
+      <c r="L50">
+        <f>SUM(L2:L48)</f>
+        <v>4215</v>
+      </c>
+      <c r="M50" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="E24 E17" twoDigitTextYear="1"/>
+    <ignoredError sqref="E25 E18" twoDigitTextYear="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -3285,87 +3336,87 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B1" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="20" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B2" s="21" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="20" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="20" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B4" s="21" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="20" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B5" s="21" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="20" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B6" s="21" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" s="20" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B7" s="21" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" s="20" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B8" s="21" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" s="20" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B9" s="21" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A10" s="20" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B10" s="21" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" s="22" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B11" s="21" t="s">
         <v>10</v>
@@ -3373,378 +3424,378 @@
     </row>
     <row r="12" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" s="22" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B12" s="21" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="22" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B13" s="21" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" s="22" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B14" s="21" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A15" s="22" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B15" s="21" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A16" s="22" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B16" s="21" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A17" s="22" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B17" s="21" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A18" s="23" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B18" s="24" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A19" s="23" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B19" s="24" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A20" s="23" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B20" s="24" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A21" s="23" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B21" s="24" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A22" s="23" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B22" s="24" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A23" s="23" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B23" s="24" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A24" s="20" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B24" s="21" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A25" s="20" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B25" s="21" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A26" s="22" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B26" s="34" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A27" s="36" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B27" s="21" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A28" s="23" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B28" s="35" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A29" s="20" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B29" s="21" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A30" s="20" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B30" s="21" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A31" s="20" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B31" s="21" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A32" s="20" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B32" s="21" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A33" s="20" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B33" s="21" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A34" s="20" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B34" s="21" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A35" s="20" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B35" s="21" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A36" s="20" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B36" s="21" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A37" s="20" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B37" s="21" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" s="25" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B38" s="24" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" s="25" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B39" s="24" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" s="25" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B40" s="24" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" s="25" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B41" s="24" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" s="25" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B42" s="24" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" s="25" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B43" s="24" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" s="25" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B44" s="21" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" s="25" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B45" s="21" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" s="25" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B46" s="21" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" s="25" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B47" s="21" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" s="25" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B48" s="21" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" s="25" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B49" s="21" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" s="25" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B50" s="21" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" s="25" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B51" s="21" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" s="25" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B52" s="21" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" s="25" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B53" s="21" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" s="26" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B54" s="21" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" s="25" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="B55" s="21" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A56" s="20" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B56" s="27" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" s="25" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B57" s="27" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" s="25" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="B58" s="21" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
   </sheetData>
@@ -3769,39 +3820,39 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B1" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="20" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="B2" s="21" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="20" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="20" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="B4" s="21" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="22" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B5" s="21" t="s">
         <v>10</v>
@@ -3809,330 +3860,330 @@
     </row>
     <row r="6" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="22" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B6" s="21" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" s="22" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B7" s="21" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" s="22" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B8" s="21" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" s="22" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B9" s="21" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A10" s="22" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B10" s="21" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" s="22" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B11" s="21" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" s="23" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B12" s="24" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="20" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B13" s="21" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" s="20" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B14" s="21" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A15" s="22" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B15" s="34" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A16" s="36" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="B16" s="37" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A17" s="23" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="B17" s="35" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A18" s="20" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="B18" s="21" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A19" s="20" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="B19" s="21" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A20" s="20" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="B20" s="21" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="25" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B21" s="24" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="25" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B22" s="24" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="25" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B23" s="24" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="25" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B24" s="24" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="25" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B25" s="24" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" s="25" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B26" s="24" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" s="25" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B27" s="21" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" s="25" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B28" s="21" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" s="25" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B29" s="21" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" s="25" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B30" s="21" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" s="25" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B31" s="21" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" s="25" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B32" s="21" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" s="25" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B33" s="21" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" s="25" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B34" s="21" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" s="25" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B35" s="21" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" s="25" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="B36" s="21" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" s="25" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="B37" s="21" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" s="25" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="B38" s="21" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" s="25" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="B39" s="24" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" s="26" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="B40" s="21" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" s="33" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="B41" s="21" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A42" s="20" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B42" s="27" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A43" s="38" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="B43" s="27" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" s="25" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="B44" s="27" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" s="25" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="B45" s="21" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" s="25" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="B46" s="21" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
   </sheetData>

--- a/data-raw/Data_summaryforpackage.xlsx
+++ b/data-raw/Data_summaryforpackage.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xutaowang/Desktop/curatedTBData/data-raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58D80BFB-FEDA-124F-81C3-3F0D4891D340}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45A09BF6-7FC2-0340-82D5-DDA1CF01C969}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1780" yWindow="5220" windowWidth="30320" windowHeight="14660" xr2:uid="{B39B7F83-2537-C248-AAB4-54D9192DC10F}"/>
+    <workbookView xWindow="2480" yWindow="4720" windowWidth="30320" windowHeight="14660" xr2:uid="{B39B7F83-2537-C248-AAB4-54D9192DC10F}"/>
   </bookViews>
   <sheets>
     <sheet name="DataSummary" sheetId="1" r:id="rId1"/>
@@ -604,9 +604,6 @@
     <t>ODs was sarcoidosis, involve repeated measurement. Could not locate patient ID. 5 patients in each group of healthy controls, tuberculosis and sarcoidosis with 6 cell types.</t>
   </si>
   <si>
-    <t>Measurement of tuberculosis patients prior to and following treatment</t>
-  </si>
-  <si>
     <t xml:space="preserve">
 TB patients longitudinally sampled along 3 time-points: active, treatment recover. Could not locate patient ID.</t>
   </si>
@@ -662,28 +659,6 @@
     <t>TST, sputum AFB and culture</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">12 pediatric streptococcus, 40 pediatric staphylococcus, 31 still’s disease, 82 pediatric systemic lupus erythematosus (SLE), 28 adult SLE patients. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="7"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t xml:space="preserve">Special handling for counts </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-  </si>
-  <si>
     <t>20-55</t>
   </si>
   <si>
@@ -809,13 +784,20 @@
   </si>
   <si>
     <t>Sputum culture, Sputum microscopy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12 pediatric streptococcus, 40 pediatric staphylococcus, 31 still’s disease, 82 pediatric systemic lupus erythematosus (SLE), 28 adult SLE patients.
+</t>
+  </si>
+  <si>
+    <t>Measurement of tuberculosis patients prior to and following treatment. OD was Mycobacterium africanum</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -899,11 +881,6 @@
     <font>
       <sz val="12"/>
       <color theme="4"/>
-      <name val="Calibri (Body)"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="7"/>
       <name val="Calibri (Body)"/>
     </font>
   </fonts>
@@ -1418,8 +1395,8 @@
   <dimension ref="A1:N50"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M10" sqref="M10"/>
+      <pane ySplit="1" topLeftCell="A43" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G48" sqref="G48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1496,7 +1473,7 @@
         <v>15</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="H2">
         <v>6</v>
@@ -1512,7 +1489,7 @@
         <v>21</v>
       </c>
       <c r="M2" s="4" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="N2" t="s">
         <v>135</v>
@@ -1581,7 +1558,7 @@
         <v>27</v>
       </c>
       <c r="M4" s="7" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="N4" t="s">
         <v>135</v>
@@ -1646,7 +1623,7 @@
         <v>15</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="H6">
         <v>9</v>
@@ -1667,13 +1644,13 @@
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="B7" t="s">
+        <v>229</v>
+      </c>
+      <c r="C7" t="s">
         <v>230</v>
-      </c>
-      <c r="B7" t="s">
-        <v>231</v>
-      </c>
-      <c r="C7" t="s">
-        <v>232</v>
       </c>
       <c r="D7" t="s">
         <v>25</v>
@@ -1775,7 +1752,7 @@
     </row>
     <row r="10" spans="1:14" ht="130" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="39" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B10" t="s">
         <v>106</v>
@@ -1793,7 +1770,7 @@
         <v>15</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="H10">
         <v>12</v>
@@ -1844,7 +1821,7 @@
         <v>138</v>
       </c>
       <c r="M11" s="4" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="N11" t="s">
         <v>136</v>
@@ -2029,7 +2006,7 @@
         <v>15</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="I16">
         <v>16</v>
@@ -2094,7 +2071,7 @@
         <v>12</v>
       </c>
       <c r="E18" s="31" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F18" t="s">
         <v>15</v>
@@ -2113,7 +2090,7 @@
         <v>51</v>
       </c>
       <c r="M18" s="17" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="N18" t="s">
         <v>136</v>
@@ -2121,7 +2098,7 @@
     </row>
     <row r="19" spans="1:14" ht="109" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="32" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B19" t="s">
         <v>106</v>
@@ -2133,10 +2110,10 @@
         <v>25</v>
       </c>
       <c r="E19" s="31" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="H19">
         <v>32</v>
@@ -2149,27 +2126,24 @@
         <v>48</v>
       </c>
       <c r="M19" s="17" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="N19" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:14" ht="86" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="B20" t="s">
         <v>30</v>
       </c>
-      <c r="C20" t="s">
-        <v>27</v>
-      </c>
       <c r="D20" t="s">
         <v>25</v>
       </c>
       <c r="E20" t="s">
-        <v>31</v>
+        <v>191</v>
       </c>
       <c r="F20" t="s">
         <v>15</v>
@@ -2180,15 +2154,15 @@
       <c r="H20">
         <v>12</v>
       </c>
-      <c r="I20">
-        <v>21</v>
-      </c>
       <c r="J20">
         <v>21</v>
       </c>
       <c r="L20">
-        <f t="shared" si="0"/>
-        <v>54</v>
+        <f>H20+I20+J20+K20</f>
+        <v>33</v>
+      </c>
+      <c r="M20" s="7" t="s">
+        <v>41</v>
       </c>
       <c r="N20" t="s">
         <v>96</v>
@@ -2196,7 +2170,7 @@
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B21" t="s">
         <v>30</v>
@@ -2208,7 +2182,7 @@
         <v>25</v>
       </c>
       <c r="E21" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="F21" t="s">
         <v>15</v>
@@ -2217,14 +2191,17 @@
         <v>124</v>
       </c>
       <c r="H21">
-        <v>16</v>
+        <v>12</v>
+      </c>
+      <c r="I21">
+        <v>17</v>
       </c>
       <c r="J21">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="L21">
-        <f t="shared" si="0"/>
-        <v>44</v>
+        <f>H21+I21+J21+K21</f>
+        <v>42</v>
       </c>
       <c r="N21" t="s">
         <v>96</v>
@@ -2259,7 +2236,7 @@
         <v>20</v>
       </c>
       <c r="L22">
-        <f t="shared" si="0"/>
+        <f>H22+I22+J22+K22</f>
         <v>51</v>
       </c>
       <c r="M22" s="1" t="s">
@@ -2271,7 +2248,7 @@
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B23" t="s">
         <v>30</v>
@@ -2283,7 +2260,7 @@
         <v>25</v>
       </c>
       <c r="E23" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="F23" t="s">
         <v>15</v>
@@ -2292,34 +2269,34 @@
         <v>124</v>
       </c>
       <c r="H23">
-        <v>12</v>
-      </c>
-      <c r="I23">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J23">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="L23">
-        <f t="shared" si="0"/>
-        <v>42</v>
+        <f>H23+I23+J23+K23</f>
+        <v>44</v>
       </c>
       <c r="N23" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="24" spans="1:14" ht="86" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="B24" t="s">
         <v>30</v>
       </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
       <c r="D24" t="s">
         <v>25</v>
       </c>
       <c r="E24" t="s">
-        <v>193</v>
+        <v>31</v>
       </c>
       <c r="F24" t="s">
         <v>15</v>
@@ -2330,21 +2307,21 @@
       <c r="H24">
         <v>12</v>
       </c>
+      <c r="I24">
+        <v>21</v>
+      </c>
       <c r="J24">
         <v>21</v>
       </c>
       <c r="L24">
         <f t="shared" si="0"/>
-        <v>33</v>
-      </c>
-      <c r="M24" s="7" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="N24" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="25" spans="1:14" ht="119" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:14" ht="102" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
         <v>36</v>
       </c>
@@ -2374,7 +2351,7 @@
         <v>274</v>
       </c>
       <c r="M25" s="1" t="s">
-        <v>192</v>
+        <v>233</v>
       </c>
       <c r="N25" t="s">
         <v>96</v>
@@ -2413,7 +2390,7 @@
         <v>36</v>
       </c>
       <c r="M26" s="7" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="N26" t="s">
         <v>96</v>
@@ -2439,7 +2416,7 @@
         <v>68</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="I27">
         <v>14</v>
@@ -2455,7 +2432,7 @@
         <v>157</v>
       </c>
       <c r="M27" s="4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="N27" t="s">
         <v>96</v>
@@ -2481,7 +2458,7 @@
         <v>68</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="I28">
         <v>54</v>
@@ -2497,7 +2474,7 @@
         <v>334</v>
       </c>
       <c r="M28" s="4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="N28" t="s">
         <v>96</v>
@@ -2523,7 +2500,7 @@
         <v>166</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="I29">
         <v>35</v>
@@ -2572,7 +2549,7 @@
         <v>43</v>
       </c>
       <c r="M30" s="4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="N30" t="s">
         <v>96</v>
@@ -2598,7 +2575,7 @@
         <v>68</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="I31">
         <v>167</v>
@@ -2614,7 +2591,7 @@
         <v>537</v>
       </c>
       <c r="M31" s="4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="N31" t="s">
         <v>96</v>
@@ -2887,7 +2864,7 @@
     </row>
     <row r="39" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A39" s="5" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B39" t="s">
         <v>64</v>
@@ -2918,7 +2895,7 @@
         <v>155</v>
       </c>
       <c r="M39" s="4" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="N39" t="s">
         <v>96</v>
@@ -2926,7 +2903,7 @@
     </row>
     <row r="40" spans="1:14" ht="136" x14ac:dyDescent="0.2">
       <c r="A40" s="5" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B40" t="s">
         <v>64</v>
@@ -2941,7 +2918,7 @@
         <v>19</v>
       </c>
       <c r="F40" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="H40">
         <v>17</v>
@@ -2954,7 +2931,7 @@
         <v>50</v>
       </c>
       <c r="M40" s="4" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="N40" t="s">
         <v>96</v>
@@ -3110,7 +3087,7 @@
         <v>21</v>
       </c>
       <c r="M44" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="N44" s="28" t="s">
         <v>162</v>
@@ -3182,7 +3159,7 @@
         <v>72</v>
       </c>
       <c r="M46" s="4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="N46" s="28" t="s">
         <v>164</v>
@@ -3199,7 +3176,7 @@
         <v>25</v>
       </c>
       <c r="G47" s="4" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="H47">
         <v>13</v>
@@ -3219,7 +3196,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="48" spans="1:14" ht="51" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:14" ht="68" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>101</v>
       </c>
@@ -3239,14 +3216,17 @@
         <v>168</v>
       </c>
       <c r="J48">
-        <v>26</v>
+        <v>14</v>
+      </c>
+      <c r="K48">
+        <v>12</v>
       </c>
       <c r="L48">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
       <c r="M48" s="30" t="s">
-        <v>177</v>
+        <v>234</v>
       </c>
       <c r="N48" t="s">
         <v>161</v>
@@ -3254,19 +3234,19 @@
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B49" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C49" t="s">
         <v>90</v>
       </c>
       <c r="D49" t="s">
+        <v>220</v>
+      </c>
+      <c r="E49" t="s">
         <v>222</v>
-      </c>
-      <c r="E49" t="s">
-        <v>224</v>
       </c>
       <c r="G49" s="4"/>
       <c r="H49">
@@ -3299,11 +3279,11 @@
       </c>
       <c r="J50">
         <f>SUM(J2:J49)</f>
-        <v>1430</v>
+        <v>1418</v>
       </c>
       <c r="K50">
         <f>SUM(K2:K48)</f>
-        <v>865</v>
+        <v>877</v>
       </c>
       <c r="L50">
         <f>SUM(L2:L48)</f>
@@ -3768,7 +3748,7 @@
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" s="25" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B55" s="21" t="s">
         <v>73</v>
@@ -3828,7 +3808,7 @@
     </row>
     <row r="2" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="20" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B2" s="21" t="s">
         <v>63</v>
@@ -3836,7 +3816,7 @@
     </row>
     <row r="3" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="20" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B3" s="21" t="s">
         <v>63</v>
@@ -3844,7 +3824,7 @@
     </row>
     <row r="4" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="20" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B4" s="21" t="s">
         <v>141</v>
@@ -3908,7 +3888,7 @@
     </row>
     <row r="12" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" s="23" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B12" s="24" t="s">
         <v>82</v>
@@ -3940,7 +3920,7 @@
     </row>
     <row r="16" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A16" s="36" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B16" s="37" t="s">
         <v>105</v>
@@ -3948,7 +3928,7 @@
     </row>
     <row r="17" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A17" s="23" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B17" s="35" t="s">
         <v>156</v>
@@ -3956,7 +3936,7 @@
     </row>
     <row r="18" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A18" s="20" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B18" s="21" t="s">
         <v>52</v>
@@ -3964,7 +3944,7 @@
     </row>
     <row r="19" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A19" s="20" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B19" s="21" t="s">
         <v>48</v>
@@ -3972,7 +3952,7 @@
     </row>
     <row r="20" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A20" s="20" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B20" s="21" t="s">
         <v>130</v>
@@ -4092,7 +4072,7 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" s="25" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B35" s="21" t="s">
         <v>128</v>
@@ -4100,7 +4080,7 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" s="25" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B36" s="21" t="s">
         <v>128</v>
@@ -4108,7 +4088,7 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" s="25" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B37" s="21" t="s">
         <v>127</v>
@@ -4116,7 +4096,7 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" s="25" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B38" s="21" t="s">
         <v>127</v>
@@ -4124,7 +4104,7 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" s="25" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B39" s="24" t="s">
         <v>127</v>
@@ -4132,7 +4112,7 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" s="26" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B40" s="21" t="s">
         <v>156</v>
@@ -4140,7 +4120,7 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" s="33" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B41" s="21" t="s">
         <v>73</v>
@@ -4156,7 +4136,7 @@
     </row>
     <row r="43" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A43" s="38" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B43" s="27" t="s">
         <v>158</v>
@@ -4164,7 +4144,7 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" s="25" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B44" s="27" t="s">
         <v>158</v>
@@ -4172,7 +4152,7 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" s="25" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B45" s="21" t="s">
         <v>113</v>
@@ -4180,7 +4160,7 @@
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" s="25" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B46" s="21" t="s">
         <v>113</v>

--- a/data-raw/Data_summaryforpackage.xlsx
+++ b/data-raw/Data_summaryforpackage.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xutaowang/Desktop/curatedTBData/data-raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45A09BF6-7FC2-0340-82D5-DDA1CF01C969}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF920BF3-9089-7F42-8396-AEC8872FDB2E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2480" yWindow="4720" windowWidth="30320" windowHeight="14660" xr2:uid="{B39B7F83-2537-C248-AAB4-54D9192DC10F}"/>
+    <workbookView xWindow="3280" yWindow="460" windowWidth="30320" windowHeight="14660" xr2:uid="{B39B7F83-2537-C248-AAB4-54D9192DC10F}"/>
   </bookViews>
   <sheets>
     <sheet name="DataSummary" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="614" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="620" uniqueCount="238">
   <si>
     <t>GEO accession</t>
   </si>
@@ -160,10 +160,6 @@
   </si>
   <si>
     <t>19-72</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-Longitudinal Study. Blood was taken from the active TB patients at baseline, pre-treatment, 2 months after treatment inititation, and 12 months after treatment initiation. n(PTB)=7</t>
   </si>
   <si>
     <t>1-84</t>
@@ -791,6 +787,19 @@
   </si>
   <si>
     <t>Measurement of tuberculosis patients prior to and following treatment. OD was Mycobacterium africanum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Longitudinal Study. Blood was taken from the active TB patients at thre time points. Baseline, pre-treatment, 2 months after treatment inititation, and 12 months after treatment initiation. n(PTB)=7</t>
+  </si>
+  <si>
+    <t>GSE19491</t>
+  </si>
+  <si>
+    <t>Tornheim_71</t>
+  </si>
+  <si>
+    <t>Tornheim_RES_25</t>
   </si>
 </sst>
 </file>
@@ -904,7 +913,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -997,11 +1006,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1078,6 +1098,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1395,8 +1416,8 @@
   <dimension ref="A1:N50"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A43" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G48" sqref="G48"/>
+      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J36" sqref="J36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1432,7 +1453,7 @@
         <v>6</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="I1" s="6" t="s">
         <v>7</v>
@@ -1441,7 +1462,7 @@
         <v>16</v>
       </c>
       <c r="K1" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="L1" s="6" t="s">
         <v>8</v>
@@ -1450,7 +1471,7 @@
         <v>9</v>
       </c>
       <c r="N1" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="69" customHeight="1" x14ac:dyDescent="0.2">
@@ -1473,7 +1494,7 @@
         <v>15</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="H2">
         <v>6</v>
@@ -1489,15 +1510,15 @@
         <v>21</v>
       </c>
       <c r="M2" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="N2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B3" t="s">
         <v>11</v>
@@ -1525,15 +1546,15 @@
         <v>9</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="N3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B4" t="s">
         <v>11</v>
@@ -1558,15 +1579,15 @@
         <v>27</v>
       </c>
       <c r="M4" s="7" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="N4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B5" t="s">
         <v>17</v>
@@ -1600,30 +1621,30 @@
         <v>38</v>
       </c>
       <c r="N5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="B6" t="s">
         <v>97</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>98</v>
-      </c>
-      <c r="C6" t="s">
-        <v>99</v>
       </c>
       <c r="D6" t="s">
         <v>25</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F6" t="s">
         <v>15</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H6">
         <v>9</v>
@@ -1639,18 +1660,18 @@
         <v>27</v>
       </c>
       <c r="N6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="B7" t="s">
         <v>228</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>229</v>
-      </c>
-      <c r="C7" t="s">
-        <v>230</v>
       </c>
       <c r="D7" t="s">
         <v>25</v>
@@ -1667,30 +1688,30 @@
         <v>6</v>
       </c>
       <c r="N7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="119" x14ac:dyDescent="0.2">
       <c r="A8" s="12" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B8" t="s">
+        <v>91</v>
+      </c>
+      <c r="C8" s="10" t="s">
         <v>92</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>93</v>
       </c>
       <c r="D8" t="s">
         <v>25</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F8" t="s">
         <v>15</v>
       </c>
       <c r="G8" s="10" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H8" s="13"/>
       <c r="I8" s="13">
@@ -1705,15 +1726,15 @@
         <v>334</v>
       </c>
       <c r="M8" s="14" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="N8" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="130" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="18" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B9" t="s">
         <v>23</v>
@@ -1731,7 +1752,7 @@
         <v>15</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="I9">
         <v>104</v>
@@ -1744,21 +1765,21 @@
         <v>144</v>
       </c>
       <c r="M9" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="N9" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="130" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="39" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D10" t="s">
         <v>25</v>
@@ -1770,7 +1791,7 @@
         <v>15</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="H10">
         <v>12</v>
@@ -1787,12 +1808,12 @@
       </c>
       <c r="M10" s="4"/>
       <c r="N10" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="119" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B11" t="s">
         <v>23</v>
@@ -1808,7 +1829,7 @@
         <v>15</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H11">
         <v>100</v>
@@ -1821,15 +1842,15 @@
         <v>138</v>
       </c>
       <c r="M11" s="4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="N11" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="12" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B12" t="s">
         <v>24</v>
@@ -1863,12 +1884,12 @@
         <v>32</v>
       </c>
       <c r="N12" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="13" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B13" t="s">
         <v>24</v>
@@ -1899,15 +1920,15 @@
         <v>47</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="N13" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="14" spans="1:14" ht="62" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="18" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B14" t="s">
         <v>24</v>
@@ -1919,7 +1940,7 @@
         <v>25</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F14" t="s">
         <v>15</v>
@@ -1938,15 +1959,15 @@
         <v>31</v>
       </c>
       <c r="M14" s="17" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="N14" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="15" spans="1:14" ht="49" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="18" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B15" t="s">
         <v>24</v>
@@ -1958,7 +1979,7 @@
         <v>25</v>
       </c>
       <c r="E15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F15" t="s">
         <v>15</v>
@@ -1980,33 +2001,33 @@
         <v>161</v>
       </c>
       <c r="M15" s="17" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="N15" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="16" spans="1:14" ht="49" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B16" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C16" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D16" t="s">
         <v>25</v>
       </c>
       <c r="E16" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F16" t="s">
         <v>15</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="I16">
         <v>16</v>
@@ -2020,12 +2041,12 @@
       </c>
       <c r="M16" s="4"/>
       <c r="N16" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="17" spans="1:14" ht="49" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B17" t="s">
         <v>23</v>
@@ -2037,10 +2058,10 @@
         <v>31</v>
       </c>
       <c r="F17" s="15" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G17" s="16" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H17">
         <v>16</v>
@@ -2054,30 +2075,30 @@
       </c>
       <c r="M17" s="4"/>
       <c r="N17" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="18" spans="1:14" ht="49" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="17" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B18" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C18" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D18" t="s">
         <v>12</v>
       </c>
       <c r="E18" s="31" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F18" t="s">
         <v>15</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I18">
         <v>21</v>
@@ -2090,30 +2111,30 @@
         <v>51</v>
       </c>
       <c r="M18" s="17" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="N18" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="19" spans="1:14" ht="109" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="32" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B19" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C19" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D19" t="s">
         <v>25</v>
       </c>
       <c r="E19" s="31" t="s">
+        <v>191</v>
+      </c>
+      <c r="G19" s="4" t="s">
         <v>192</v>
-      </c>
-      <c r="G19" s="4" t="s">
-        <v>193</v>
       </c>
       <c r="H19">
         <v>32</v>
@@ -2126,10 +2147,10 @@
         <v>48</v>
       </c>
       <c r="M19" s="17" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="N19" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="20" spans="1:14" ht="86" customHeight="1" x14ac:dyDescent="0.2">
@@ -2143,29 +2164,29 @@
         <v>25</v>
       </c>
       <c r="E20" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F20" t="s">
         <v>15</v>
       </c>
       <c r="G20" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H20">
         <v>12</v>
       </c>
       <c r="J20">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="L20">
         <f>H20+I20+J20+K20</f>
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="M20" s="7" t="s">
-        <v>41</v>
+        <v>234</v>
       </c>
       <c r="N20" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.2">
@@ -2188,7 +2209,7 @@
         <v>15</v>
       </c>
       <c r="G21" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H21">
         <v>12</v>
@@ -2204,7 +2225,7 @@
         <v>42</v>
       </c>
       <c r="N21" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="22" spans="1:14" ht="86" customHeight="1" x14ac:dyDescent="0.2">
@@ -2227,7 +2248,7 @@
         <v>15</v>
       </c>
       <c r="G22" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="I22">
         <v>31</v>
@@ -2243,7 +2264,7 @@
         <v>37</v>
       </c>
       <c r="N22" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.2">
@@ -2266,7 +2287,7 @@
         <v>15</v>
       </c>
       <c r="G23" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H23">
         <v>16</v>
@@ -2279,7 +2300,7 @@
         <v>44</v>
       </c>
       <c r="N23" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.2">
@@ -2302,7 +2323,7 @@
         <v>15</v>
       </c>
       <c r="G24" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H24">
         <v>12</v>
@@ -2318,7 +2339,7 @@
         <v>54</v>
       </c>
       <c r="N24" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="25" spans="1:14" ht="102" x14ac:dyDescent="0.2">
@@ -2332,13 +2353,13 @@
         <v>25</v>
       </c>
       <c r="E25" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F25" t="s">
         <v>15</v>
       </c>
       <c r="G25" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H25">
         <v>81</v>
@@ -2351,33 +2372,33 @@
         <v>274</v>
       </c>
       <c r="M25" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="N25" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="26" spans="1:14" ht="69" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="B26" t="s">
         <v>69</v>
       </c>
-      <c r="B26" t="s">
+      <c r="C26" t="s">
         <v>70</v>
-      </c>
-      <c r="C26" t="s">
-        <v>71</v>
       </c>
       <c r="D26" t="s">
         <v>25</v>
       </c>
       <c r="E26" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F26" t="s">
         <v>15</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H26">
         <v>18</v>
@@ -2390,33 +2411,33 @@
         <v>36</v>
       </c>
       <c r="M26" s="7" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="N26" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="27" spans="1:14" ht="85" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B27" t="s">
+        <v>63</v>
+      </c>
+      <c r="C27" t="s">
         <v>64</v>
-      </c>
-      <c r="C27" t="s">
-        <v>65</v>
       </c>
       <c r="D27" t="s">
         <v>25</v>
       </c>
       <c r="E27" t="s">
+        <v>66</v>
+      </c>
+      <c r="F27" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="F27" s="15" t="s">
-        <v>68</v>
-      </c>
       <c r="G27" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="I27">
         <v>14</v>
@@ -2432,33 +2453,33 @@
         <v>157</v>
       </c>
       <c r="M27" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="N27" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="28" spans="1:14" ht="85" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B28" t="s">
         <v>63</v>
       </c>
-      <c r="B28" t="s">
-        <v>64</v>
-      </c>
       <c r="C28" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D28" t="s">
         <v>25</v>
       </c>
       <c r="E28" t="s">
+        <v>66</v>
+      </c>
+      <c r="F28" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="F28" s="15" t="s">
-        <v>68</v>
-      </c>
       <c r="G28" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="I28">
         <v>54</v>
@@ -2474,18 +2495,18 @@
         <v>334</v>
       </c>
       <c r="M28" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="N28" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="29" spans="1:14" ht="68" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B29" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C29" t="s">
         <v>21</v>
@@ -2497,10 +2518,10 @@
         <v>19</v>
       </c>
       <c r="F29" s="15" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="I29">
         <v>35</v>
@@ -2513,18 +2534,18 @@
         <v>50</v>
       </c>
       <c r="M29" s="4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="N29" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="30" spans="1:14" ht="153" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B30" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C30" t="s">
         <v>21</v>
@@ -2533,10 +2554,10 @@
         <v>12</v>
       </c>
       <c r="E30" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F30" s="15" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H30">
         <v>22</v>
@@ -2549,21 +2570,21 @@
         <v>43</v>
       </c>
       <c r="M30" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="N30" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="31" spans="1:14" ht="153" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B31" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C31" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D31" t="s">
         <v>25</v>
@@ -2572,10 +2593,10 @@
         <v>19</v>
       </c>
       <c r="F31" s="15" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="I31">
         <v>167</v>
@@ -2591,21 +2612,21 @@
         <v>537</v>
       </c>
       <c r="M31" s="4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="N31" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="32" spans="1:14" ht="113" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="5" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B32" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D32" t="s">
         <v>25</v>
@@ -2622,21 +2643,21 @@
         <v>75</v>
       </c>
       <c r="M32" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="N32" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="33" spans="1:14" ht="68" x14ac:dyDescent="0.2">
       <c r="A33" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B33" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C33" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D33" t="s">
         <v>25</v>
@@ -2664,21 +2685,21 @@
         <v>42</v>
       </c>
       <c r="M33" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="N33" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="34" spans="1:14" ht="85" x14ac:dyDescent="0.2">
       <c r="A34" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B34" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C34" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D34" t="s">
         <v>25</v>
@@ -2706,21 +2727,21 @@
         <v>102</v>
       </c>
       <c r="M34" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="N34" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="35" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="A35" s="29" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B35" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C35" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D35" t="s">
         <v>25</v>
@@ -2732,28 +2753,28 @@
         <v>15</v>
       </c>
       <c r="K35">
-        <v>27</v>
+        <v>5</v>
       </c>
       <c r="L35">
         <f t="shared" si="0"/>
-        <v>27</v>
+        <v>5</v>
       </c>
       <c r="M35" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="N35" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="36" spans="1:14" ht="85" x14ac:dyDescent="0.2">
       <c r="A36" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B36" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C36" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D36" t="s">
         <v>25</v>
@@ -2781,21 +2802,21 @@
         <v>95</v>
       </c>
       <c r="M36" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="N36" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="37" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A37" s="29" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B37" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C37" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D37" t="s">
         <v>25</v>
@@ -2814,24 +2835,24 @@
         <v>7</v>
       </c>
       <c r="M37" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="N37" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="38" spans="1:14" ht="102" x14ac:dyDescent="0.2">
       <c r="A38" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B38" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C38" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E38" t="s">
         <v>19</v>
@@ -2856,18 +2877,18 @@
         <v>15</v>
       </c>
       <c r="M38" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="N38" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="39" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A39" s="5" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B39" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C39" t="s">
         <v>27</v>
@@ -2879,7 +2900,7 @@
         <v>15</v>
       </c>
       <c r="G39" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H39">
         <v>61</v>
@@ -2895,18 +2916,18 @@
         <v>155</v>
       </c>
       <c r="M39" s="4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="N39" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="40" spans="1:14" ht="136" x14ac:dyDescent="0.2">
       <c r="A40" s="5" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B40" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C40" t="s">
         <v>27</v>
@@ -2918,7 +2939,7 @@
         <v>19</v>
       </c>
       <c r="F40" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H40">
         <v>17</v>
@@ -2931,27 +2952,27 @@
         <v>50</v>
       </c>
       <c r="M40" s="4" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="N40" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="41" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A41" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B41" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C41" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D41" t="s">
         <v>25</v>
       </c>
       <c r="E41" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F41" t="s">
         <v>15</v>
@@ -2973,33 +2994,33 @@
         <v>110</v>
       </c>
       <c r="M41" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="N41" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="42" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
+        <v>45</v>
+      </c>
+      <c r="B42" t="s">
         <v>46</v>
       </c>
-      <c r="B42" t="s">
-        <v>47</v>
-      </c>
       <c r="C42" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D42" t="s">
         <v>25</v>
       </c>
       <c r="E42" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F42" t="s">
         <v>15</v>
       </c>
       <c r="G42" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H42">
         <v>37</v>
@@ -3015,24 +3036,24 @@
         <v>108</v>
       </c>
       <c r="N42" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="43" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
+        <v>47</v>
+      </c>
+      <c r="B43" t="s">
         <v>48</v>
       </c>
-      <c r="B43" t="s">
-        <v>49</v>
-      </c>
       <c r="C43" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D43" t="s">
         <v>25</v>
       </c>
       <c r="E43" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F43" t="s">
         <v>15</v>
@@ -3051,21 +3072,21 @@
         <v>44</v>
       </c>
       <c r="M43" s="4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="N43" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="44" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
+        <v>49</v>
+      </c>
+      <c r="B44" t="s">
         <v>50</v>
       </c>
-      <c r="B44" t="s">
-        <v>51</v>
-      </c>
       <c r="C44" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D44" t="s">
         <v>12</v>
@@ -3087,21 +3108,21 @@
         <v>21</v>
       </c>
       <c r="M44" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="N44" s="28" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="45" spans="1:14" ht="85" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
+        <v>51</v>
+      </c>
+      <c r="B45" t="s">
         <v>52</v>
       </c>
-      <c r="B45" t="s">
-        <v>53</v>
-      </c>
       <c r="C45" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D45" t="s">
         <v>25</v>
@@ -3110,7 +3131,7 @@
         <v>15</v>
       </c>
       <c r="G45" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H45">
         <v>76</v>
@@ -3123,18 +3144,18 @@
         <v>189</v>
       </c>
       <c r="M45" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="N45" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="46" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
+        <v>59</v>
+      </c>
+      <c r="B46" t="s">
         <v>60</v>
-      </c>
-      <c r="B46" t="s">
-        <v>61</v>
       </c>
       <c r="D46" t="s">
         <v>12</v>
@@ -3143,7 +3164,7 @@
         <v>15</v>
       </c>
       <c r="G46" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H46">
         <v>36</v>
@@ -3159,24 +3180,24 @@
         <v>72</v>
       </c>
       <c r="M46" s="4" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="N46" s="28" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="47" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
+        <v>101</v>
+      </c>
+      <c r="B47" t="s">
         <v>102</v>
-      </c>
-      <c r="B47" t="s">
-        <v>103</v>
       </c>
       <c r="D47" t="s">
         <v>25</v>
       </c>
       <c r="G47" s="4" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H47">
         <v>13</v>
@@ -3193,18 +3214,18 @@
       </c>
       <c r="M47" s="4"/>
       <c r="N47" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="48" spans="1:14" ht="68" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B48" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C48" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D48" t="s">
         <v>12</v>
@@ -3213,7 +3234,7 @@
         <v>15</v>
       </c>
       <c r="G48" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="J48">
         <v>14</v>
@@ -3226,27 +3247,27 @@
         <v>26</v>
       </c>
       <c r="M48" s="30" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="N48" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
+        <v>217</v>
+      </c>
+      <c r="B49" t="s">
         <v>218</v>
       </c>
-      <c r="B49" t="s">
+      <c r="C49" t="s">
+        <v>89</v>
+      </c>
+      <c r="D49" t="s">
         <v>219</v>
       </c>
-      <c r="C49" t="s">
-        <v>90</v>
-      </c>
-      <c r="D49" t="s">
-        <v>220</v>
-      </c>
       <c r="E49" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G49" s="4"/>
       <c r="H49">
@@ -3261,7 +3282,7 @@
       </c>
       <c r="M49" s="30"/>
       <c r="N49" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.2">
@@ -3279,15 +3300,15 @@
       </c>
       <c r="J50">
         <f>SUM(J2:J49)</f>
-        <v>1418</v>
+        <v>1404</v>
       </c>
       <c r="K50">
         <f>SUM(K2:K48)</f>
-        <v>877</v>
+        <v>855</v>
       </c>
       <c r="L50">
         <f>SUM(L2:L48)</f>
-        <v>4215</v>
+        <v>4179</v>
       </c>
       <c r="M50" s="4"/>
     </row>
@@ -3302,10 +3323,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B868D855-4FCD-7E48-B184-50745CDBFAFD}">
-  <dimension ref="A1:B58"/>
+  <dimension ref="A1:B59"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView topLeftCell="A17" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3316,39 +3337,39 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B1" t="s">
         <v>137</v>
-      </c>
-      <c r="B1" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="20" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B2" s="21" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="20" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="20" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B4" s="21" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="20" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B5" s="21" t="s">
         <v>28</v>
@@ -3356,7 +3377,7 @@
     </row>
     <row r="6" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="20" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B6" s="21" t="s">
         <v>29</v>
@@ -3364,7 +3385,7 @@
     </row>
     <row r="7" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" s="20" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B7" s="21" t="s">
         <v>33</v>
@@ -3372,15 +3393,15 @@
     </row>
     <row r="8" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" s="20" t="s">
+        <v>139</v>
+      </c>
+      <c r="B8" s="21" t="s">
         <v>140</v>
-      </c>
-      <c r="B8" s="21" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" s="20" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B9" s="21" t="s">
         <v>35</v>
@@ -3388,394 +3409,402 @@
     </row>
     <row r="10" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A10" s="20" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B10" s="21" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A11" s="20" t="s">
+        <v>139</v>
+      </c>
+      <c r="B11" s="21" t="s">
         <v>36</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A11" s="22" t="s">
-        <v>142</v>
-      </c>
-      <c r="B11" s="21" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" s="22" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B12" s="21" t="s">
-        <v>125</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="22" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B13" s="21" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" s="22" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B14" s="21" t="s">
-        <v>143</v>
+        <v>125</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A15" s="22" t="s">
+        <v>141</v>
+      </c>
+      <c r="B15" s="21" t="s">
         <v>142</v>
-      </c>
-      <c r="B15" s="21" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A16" s="22" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B16" s="21" t="s">
-        <v>48</v>
+        <v>68</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A17" s="22" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B17" s="21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A18" s="23" t="s">
-        <v>144</v>
-      </c>
-      <c r="B18" s="24" t="s">
-        <v>79</v>
+      <c r="A18" s="22" t="s">
+        <v>141</v>
+      </c>
+      <c r="B18" s="21" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A19" s="23" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B19" s="24" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A20" s="23" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B20" s="24" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A21" s="23" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B21" s="24" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A22" s="23" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B22" s="24" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A23" s="23" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B23" s="24" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A24" s="20" t="s">
-        <v>145</v>
-      </c>
-      <c r="B24" s="21" t="s">
-        <v>74</v>
+      <c r="A24" s="23" t="s">
+        <v>143</v>
+      </c>
+      <c r="B24" s="24" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A25" s="20" t="s">
+        <v>144</v>
+      </c>
+      <c r="B25" s="21" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A26" s="20" t="s">
+        <v>145</v>
+      </c>
+      <c r="B26" s="21" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A27" s="22" t="s">
         <v>146</v>
       </c>
-      <c r="B25" s="21" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A26" s="22" t="s">
+      <c r="B27" s="34" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A28" s="36" t="s">
         <v>147</v>
       </c>
-      <c r="B26" s="34" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A27" s="36" t="s">
-        <v>148</v>
-      </c>
-      <c r="B27" s="21" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A28" s="23" t="s">
-        <v>148</v>
-      </c>
-      <c r="B28" s="35" t="s">
-        <v>156</v>
+      <c r="B28" s="21" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A29" s="20" t="s">
-        <v>149</v>
-      </c>
-      <c r="B29" s="21" t="s">
-        <v>52</v>
+      <c r="A29" s="23" t="s">
+        <v>147</v>
+      </c>
+      <c r="B29" s="35" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A30" s="20" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B30" s="21" t="s">
-        <v>150</v>
+        <v>51</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A31" s="20" t="s">
+        <v>148</v>
+      </c>
+      <c r="B31" s="21" t="s">
         <v>149</v>
-      </c>
-      <c r="B31" s="21" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A32" s="20" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B32" s="21" t="s">
-        <v>48</v>
+        <v>101</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A33" s="20" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B33" s="21" t="s">
-        <v>75</v>
+        <v>47</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A34" s="20" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B34" s="21" t="s">
-        <v>130</v>
+        <v>74</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A35" s="20" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B35" s="21" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A36" s="20" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B36" s="21" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A37" s="20" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B37" s="21" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A38" s="25" t="s">
-        <v>152</v>
-      </c>
-      <c r="B38" s="24" t="s">
-        <v>79</v>
+        <v>131</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A38" s="20" t="s">
+        <v>150</v>
+      </c>
+      <c r="B38" s="21" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" s="25" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B39" s="24" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" s="25" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B40" s="24" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" s="25" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B41" s="24" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" s="25" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B42" s="24" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" s="25" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B43" s="24" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" s="25" t="s">
-        <v>152</v>
-      </c>
-      <c r="B44" s="21" t="s">
-        <v>28</v>
+        <v>151</v>
+      </c>
+      <c r="B44" s="24" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" s="25" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B45" s="21" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" s="25" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B46" s="21" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" s="25" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B47" s="21" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" s="25" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B48" s="21" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" s="25" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B49" s="21" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" s="25" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B50" s="21" t="s">
-        <v>97</v>
+        <v>36</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" s="25" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B51" s="21" t="s">
-        <v>73</v>
+        <v>96</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" s="25" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B52" s="21" t="s">
-        <v>128</v>
+        <v>72</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" s="25" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B53" s="21" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A54" s="26" t="s">
+      <c r="A54" s="25" t="s">
+        <v>153</v>
+      </c>
+      <c r="B54" s="21" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A55" s="26" t="s">
+        <v>154</v>
+      </c>
+      <c r="B55" s="21" t="s">
         <v>155</v>
       </c>
-      <c r="B54" s="21" t="s">
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A56" s="25" t="s">
+        <v>197</v>
+      </c>
+      <c r="B56" s="21" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A57" s="20" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A55" s="25" t="s">
-        <v>198</v>
-      </c>
-      <c r="B55" s="21" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A56" s="20" t="s">
+      <c r="B57" s="27" t="s">
         <v>157</v>
-      </c>
-      <c r="B56" s="27" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A57" s="25" t="s">
-        <v>159</v>
-      </c>
-      <c r="B57" s="27" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" s="25" t="s">
-        <v>160</v>
-      </c>
-      <c r="B58" s="21" t="s">
-        <v>113</v>
+        <v>158</v>
+      </c>
+      <c r="B58" s="27" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A59" s="25" t="s">
+        <v>159</v>
+      </c>
+      <c r="B59" s="21" t="s">
+        <v>112</v>
       </c>
     </row>
   </sheetData>
@@ -3786,10 +3815,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FA3E69C-C1F1-F041-B7CA-C28168AEBC17}">
-  <dimension ref="A1:B46"/>
+  <dimension ref="A1:B48"/>
   <sheetViews>
-    <sheetView topLeftCell="A23" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+    <sheetView topLeftCell="A32" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E48" sqref="E48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3800,39 +3829,39 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B1" t="s">
         <v>137</v>
-      </c>
-      <c r="B1" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="20" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B2" s="21" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="20" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="20" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B4" s="21" t="s">
-        <v>141</v>
+        <v>235</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="22" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B5" s="21" t="s">
         <v>10</v>
@@ -3840,175 +3869,175 @@
     </row>
     <row r="6" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="22" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B6" s="21" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" s="22" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B7" s="21" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" s="22" t="s">
+        <v>141</v>
+      </c>
+      <c r="B8" s="21" t="s">
         <v>142</v>
-      </c>
-      <c r="B8" s="21" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" s="22" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B9" s="21" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A10" s="22" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B10" s="21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" s="22" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B11" s="21" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" s="23" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B12" s="24" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="20" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B13" s="21" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" s="20" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B14" s="21" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A15" s="22" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B15" s="34" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A16" s="36" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B16" s="37" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A17" s="23" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B17" s="35" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A18" s="20" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B18" s="21" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A19" s="20" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B19" s="21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A20" s="20" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B20" s="21" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="25" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B21" s="24" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="25" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B22" s="24" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="25" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B23" s="24" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="25" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B24" s="24" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="25" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B25" s="24" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" s="25" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B26" s="24" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" s="25" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B27" s="21" t="s">
         <v>28</v>
@@ -4016,7 +4045,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" s="25" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B28" s="21" t="s">
         <v>29</v>
@@ -4024,7 +4053,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" s="25" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B29" s="21" t="s">
         <v>33</v>
@@ -4032,7 +4061,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" s="25" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B30" s="21" t="s">
         <v>34</v>
@@ -4040,7 +4069,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" s="25" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B31" s="21" t="s">
         <v>35</v>
@@ -4048,7 +4077,7 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" s="25" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B32" s="21" t="s">
         <v>36</v>
@@ -4056,114 +4085,130 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" s="25" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B33" s="21" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" s="25" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B34" s="21" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" s="25" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B35" s="21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" s="25" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B36" s="21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" s="25" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B37" s="21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" s="25" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B38" s="21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" s="25" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B39" s="24" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" s="26" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B40" s="21" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" s="33" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B41" s="21" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A42" s="20" t="s">
+        <v>156</v>
+      </c>
+      <c r="B42" s="27" t="s">
         <v>157</v>
-      </c>
-      <c r="B42" s="27" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A43" s="38" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B43" s="27" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" s="25" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B44" s="27" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" s="25" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B45" s="21" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" s="25" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B46" s="21" t="s">
-        <v>113</v>
+        <v>112</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>236</v>
+      </c>
+      <c r="B47" s="40" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>237</v>
+      </c>
+      <c r="B48" s="40" t="s">
+        <v>193</v>
       </c>
     </row>
   </sheetData>

--- a/data-raw/Data_summaryforpackage.xlsx
+++ b/data-raw/Data_summaryforpackage.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xutaowang/Desktop/curatedTBData/data-raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF920BF3-9089-7F42-8396-AEC8872FDB2E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7343A382-81F7-1C4B-9E99-C06E99437EA3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3280" yWindow="460" windowWidth="30320" windowHeight="14660" xr2:uid="{B39B7F83-2537-C248-AAB4-54D9192DC10F}"/>
+    <workbookView xWindow="2860" yWindow="7100" windowWidth="30320" windowHeight="12700" xr2:uid="{B39B7F83-2537-C248-AAB4-54D9192DC10F}"/>
   </bookViews>
   <sheets>
     <sheet name="DataSummary" sheetId="1" r:id="rId1"/>
@@ -767,9 +767,6 @@
     <t>Blood transcriptional signature of HIV-associated tuberculous meningitis known as immune reconstitution inflammatory syndrome (IRIS). There are a total of 116 samples (33 TBM at 3 timepoints and 17 control at 1 timepoint)</t>
   </si>
   <si>
-    <t>GSE107331</t>
-  </si>
-  <si>
     <t>GPL15207</t>
   </si>
   <si>
@@ -800,6 +797,9 @@
   </si>
   <si>
     <t>Tornheim_RES_25</t>
+  </si>
+  <si>
+    <t>GSE107731</t>
   </si>
 </sst>
 </file>
@@ -1416,8 +1416,8 @@
   <dimension ref="A1:N50"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J36" sqref="J36"/>
+      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1665,13 +1665,13 @@
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="B7" t="s">
         <v>227</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>228</v>
-      </c>
-      <c r="C7" t="s">
-        <v>229</v>
       </c>
       <c r="D7" t="s">
         <v>25</v>
@@ -1773,7 +1773,7 @@
     </row>
     <row r="10" spans="1:14" ht="130" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="39" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B10" t="s">
         <v>105</v>
@@ -1791,7 +1791,7 @@
         <v>15</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="H10">
         <v>12</v>
@@ -2183,7 +2183,7 @@
         <v>19</v>
       </c>
       <c r="M20" s="7" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="N20" t="s">
         <v>95</v>
@@ -2372,7 +2372,7 @@
         <v>274</v>
       </c>
       <c r="M25" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="N25" t="s">
         <v>95</v>
@@ -2524,14 +2524,14 @@
         <v>187</v>
       </c>
       <c r="I29">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="J29">
         <v>15</v>
       </c>
       <c r="L29">
         <f t="shared" si="0"/>
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="M29" s="4" t="s">
         <v>168</v>
@@ -3247,7 +3247,7 @@
         <v>26</v>
       </c>
       <c r="M48" s="30" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="N48" t="s">
         <v>160</v>
@@ -3296,7 +3296,7 @@
       </c>
       <c r="I50">
         <f>SUM(I2:I48)</f>
-        <v>1096</v>
+        <v>1086</v>
       </c>
       <c r="J50">
         <f>SUM(J2:J49)</f>
@@ -3308,7 +3308,7 @@
       </c>
       <c r="L50">
         <f>SUM(L2:L48)</f>
-        <v>4179</v>
+        <v>4169</v>
       </c>
       <c r="M50" s="4"/>
     </row>
@@ -3412,7 +3412,7 @@
         <v>139</v>
       </c>
       <c r="B10" s="21" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="17" x14ac:dyDescent="0.2">
@@ -3856,7 +3856,7 @@
         <v>206</v>
       </c>
       <c r="B4" s="21" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="17" x14ac:dyDescent="0.2">
@@ -4197,7 +4197,7 @@
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B47" s="40" t="s">
         <v>193</v>
@@ -4205,7 +4205,7 @@
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B48" s="40" t="s">
         <v>193</v>

--- a/data-raw/Data_summaryforpackage.xlsx
+++ b/data-raw/Data_summaryforpackage.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xutaowang/Desktop/curatedTBData/data-raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7343A382-81F7-1C4B-9E99-C06E99437EA3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52AF8217-1337-7D46-A961-BC1D4698B6DE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2860" yWindow="7100" windowWidth="30320" windowHeight="12700" xr2:uid="{B39B7F83-2537-C248-AAB4-54D9192DC10F}"/>
+    <workbookView xWindow="2660" yWindow="2640" windowWidth="30520" windowHeight="17160" xr2:uid="{B39B7F83-2537-C248-AAB4-54D9192DC10F}"/>
   </bookViews>
   <sheets>
     <sheet name="DataSummary" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="620" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="627" uniqueCount="241">
   <si>
     <t>GEO accession</t>
   </si>
@@ -800,6 +800,15 @@
   </si>
   <si>
     <t>GSE107731</t>
+  </si>
+  <si>
+    <t>Only include samples in the TB studies</t>
+  </si>
+  <si>
+    <t>GSE29536</t>
+  </si>
+  <si>
+    <t>GPL6102</t>
   </si>
 </sst>
 </file>
@@ -1413,11 +1422,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{715BD991-25C2-914C-95C3-220CF25B2F79}">
-  <dimension ref="A1:N50"/>
+  <dimension ref="A1:N51"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1474,43 +1483,34 @@
         <v>133</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="69" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>125</v>
       </c>
       <c r="B2" t="s">
         <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="D2" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="E2" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="F2" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="H2">
-        <v>6</v>
-      </c>
-      <c r="I2">
-        <v>6</v>
-      </c>
       <c r="J2">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="L2">
         <f>H2+I2+J2+K2</f>
-        <v>21</v>
-      </c>
-      <c r="M2" s="4" t="s">
-        <v>194</v>
+        <v>27</v>
+      </c>
+      <c r="M2" s="7" t="s">
+        <v>195</v>
       </c>
       <c r="N2" t="s">
         <v>134</v>
@@ -1542,7 +1542,7 @@
         <v>9</v>
       </c>
       <c r="L3">
-        <f t="shared" ref="L3:L49" si="0">H3+I3+J3+K3</f>
+        <f t="shared" ref="L3:L50" si="0">H3+I3+J3+K3</f>
         <v>9</v>
       </c>
       <c r="M3" s="1" t="s">
@@ -1552,112 +1552,121 @@
         <v>134</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="63" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>125</v>
+    <row r="4" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+      <c r="A4" s="5" t="s">
+        <v>96</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>97</v>
       </c>
       <c r="C4" t="s">
-        <v>21</v>
+        <v>98</v>
       </c>
       <c r="D4" t="s">
         <v>25</v>
       </c>
-      <c r="E4" t="s">
-        <v>20</v>
+      <c r="E4" s="2" t="s">
+        <v>99</v>
       </c>
       <c r="F4" t="s">
         <v>15</v>
       </c>
+      <c r="G4" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="H4">
+        <v>9</v>
+      </c>
+      <c r="I4">
+        <v>9</v>
+      </c>
       <c r="J4">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="L4">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="M4" s="7" t="s">
-        <v>195</v>
-      </c>
       <c r="N4" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A5" s="5" t="s">
-        <v>126</v>
+    <row r="5" spans="1:14" ht="69" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="E5" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="F5" t="s">
         <v>15</v>
       </c>
+      <c r="G5" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="H5">
+        <v>6</v>
+      </c>
       <c r="I5">
-        <v>35</v>
+        <v>6</v>
       </c>
       <c r="J5">
-        <v>35</v>
-      </c>
-      <c r="K5">
-        <v>39</v>
+        <v>9</v>
       </c>
       <c r="L5">
-        <f t="shared" si="0"/>
-        <v>109</v>
-      </c>
-      <c r="M5" t="s">
-        <v>38</v>
+        <f>H5+I5+J5+K5</f>
+        <v>21</v>
+      </c>
+      <c r="M5" s="4" t="s">
+        <v>194</v>
       </c>
       <c r="N5" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
-        <v>96</v>
+        <v>126</v>
       </c>
       <c r="B6" t="s">
-        <v>97</v>
+        <v>17</v>
       </c>
       <c r="C6" t="s">
-        <v>98</v>
+        <v>18</v>
       </c>
       <c r="D6" t="s">
         <v>25</v>
       </c>
-      <c r="E6" s="2" t="s">
-        <v>99</v>
+      <c r="E6" t="s">
+        <v>31</v>
       </c>
       <c r="F6" t="s">
         <v>15</v>
       </c>
-      <c r="G6" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="H6">
-        <v>9</v>
-      </c>
       <c r="I6">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="J6">
-        <v>9</v>
+        <v>35</v>
+      </c>
+      <c r="K6">
+        <v>39</v>
       </c>
       <c r="L6">
-        <f t="shared" si="0"/>
-        <v>27</v>
+        <f>H6+I6+J6+K6</f>
+        <v>109</v>
+      </c>
+      <c r="M6" t="s">
+        <v>38</v>
       </c>
       <c r="N6" t="s">
         <v>134</v>
@@ -1691,158 +1700,158 @@
         <v>134</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="119" x14ac:dyDescent="0.2">
-      <c r="A8" s="12" t="s">
-        <v>127</v>
+    <row r="8" spans="1:14" ht="130" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="18" t="s">
+        <v>128</v>
       </c>
       <c r="B8" t="s">
-        <v>91</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>92</v>
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>21</v>
       </c>
       <c r="D8" t="s">
         <v>25</v>
       </c>
-      <c r="E8" s="11" t="s">
-        <v>93</v>
+      <c r="E8" s="2" t="s">
+        <v>26</v>
       </c>
       <c r="F8" t="s">
         <v>15</v>
       </c>
-      <c r="G8" s="10" t="s">
-        <v>166</v>
-      </c>
-      <c r="H8" s="13"/>
-      <c r="I8" s="13">
-        <v>259</v>
-      </c>
-      <c r="J8" s="13">
-        <v>75</v>
-      </c>
-      <c r="K8" s="13"/>
+      <c r="G8" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="I8">
+        <v>104</v>
+      </c>
+      <c r="J8">
+        <v>40</v>
+      </c>
       <c r="L8">
         <f t="shared" si="0"/>
-        <v>334</v>
-      </c>
-      <c r="M8" s="14" t="s">
-        <v>122</v>
+        <v>144</v>
+      </c>
+      <c r="M8" s="4" t="s">
+        <v>169</v>
       </c>
       <c r="N8" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="130" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="18" t="s">
-        <v>128</v>
+      <c r="A9" s="39" t="s">
+        <v>229</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>105</v>
       </c>
       <c r="C9" t="s">
-        <v>21</v>
+        <v>107</v>
       </c>
       <c r="D9" t="s">
         <v>25</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="F9" t="s">
         <v>15</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>167</v>
+        <v>230</v>
+      </c>
+      <c r="H9">
+        <v>12</v>
       </c>
       <c r="I9">
-        <v>104</v>
+        <v>16</v>
       </c>
       <c r="J9">
-        <v>40</v>
+        <v>8</v>
       </c>
       <c r="L9">
         <f t="shared" si="0"/>
-        <v>144</v>
-      </c>
-      <c r="M9" s="4" t="s">
-        <v>169</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="M9" s="4"/>
       <c r="N9" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="130" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="39" t="s">
-        <v>229</v>
+    <row r="10" spans="1:14" ht="119" x14ac:dyDescent="0.2">
+      <c r="A10" s="5" t="s">
+        <v>112</v>
       </c>
       <c r="B10" t="s">
-        <v>105</v>
+        <v>23</v>
       </c>
       <c r="C10" t="s">
-        <v>107</v>
+        <v>21</v>
       </c>
       <c r="D10" t="s">
         <v>25</v>
       </c>
-      <c r="E10" s="2" t="s">
-        <v>31</v>
-      </c>
+      <c r="E10" s="2"/>
       <c r="F10" t="s">
         <v>15</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>230</v>
+        <v>172</v>
       </c>
       <c r="H10">
-        <v>12</v>
-      </c>
-      <c r="I10">
-        <v>16</v>
+        <v>100</v>
       </c>
       <c r="J10">
-        <v>8</v>
+        <v>38</v>
       </c>
       <c r="L10">
         <f t="shared" si="0"/>
-        <v>36</v>
-      </c>
-      <c r="M10" s="4"/>
+        <v>138</v>
+      </c>
+      <c r="M10" s="4" t="s">
+        <v>179</v>
+      </c>
       <c r="N10" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="119" x14ac:dyDescent="0.2">
-      <c r="A11" s="5" t="s">
-        <v>112</v>
+      <c r="A11" s="12" t="s">
+        <v>127</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" t="s">
-        <v>21</v>
+        <v>91</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>92</v>
       </c>
       <c r="D11" t="s">
         <v>25</v>
       </c>
-      <c r="E11" s="2"/>
+      <c r="E11" s="11" t="s">
+        <v>93</v>
+      </c>
       <c r="F11" t="s">
         <v>15</v>
       </c>
-      <c r="G11" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="H11">
-        <v>100</v>
-      </c>
-      <c r="J11">
-        <v>38</v>
-      </c>
+      <c r="G11" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="H11" s="13"/>
+      <c r="I11" s="13">
+        <v>259</v>
+      </c>
+      <c r="J11" s="13">
+        <v>75</v>
+      </c>
+      <c r="K11" s="13"/>
       <c r="L11">
-        <f t="shared" si="0"/>
-        <v>138</v>
-      </c>
-      <c r="M11" s="4" t="s">
-        <v>179</v>
+        <f>H11+I11+J11+K11</f>
+        <v>334</v>
+      </c>
+      <c r="M11" s="14" t="s">
+        <v>122</v>
       </c>
       <c r="N11" t="s">
         <v>135</v>
@@ -2378,213 +2387,206 @@
         <v>95</v>
       </c>
     </row>
-    <row r="26" spans="1:14" ht="69" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="5" t="s">
-        <v>68</v>
+    <row r="26" spans="1:14" ht="109" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="32" t="s">
+        <v>239</v>
       </c>
       <c r="B26" t="s">
-        <v>69</v>
+        <v>240</v>
       </c>
       <c r="C26" t="s">
-        <v>70</v>
+        <v>27</v>
       </c>
       <c r="D26" t="s">
         <v>25</v>
       </c>
-      <c r="E26" s="8" t="s">
-        <v>71</v>
-      </c>
+      <c r="E26" s="31"/>
       <c r="F26" t="s">
         <v>15</v>
       </c>
-      <c r="G26" s="4" t="s">
-        <v>55</v>
-      </c>
+      <c r="G26" s="4"/>
       <c r="H26">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="J26">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="L26">
-        <f t="shared" si="0"/>
-        <v>36</v>
-      </c>
-      <c r="M26" s="7" t="s">
-        <v>176</v>
+        <v>15</v>
+      </c>
+      <c r="M26" s="9" t="s">
+        <v>238</v>
       </c>
       <c r="N26" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="27" spans="1:14" ht="85" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:14" ht="153" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="B27" t="s">
         <v>63</v>
       </c>
       <c r="C27" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D27" t="s">
         <v>25</v>
       </c>
       <c r="E27" t="s">
-        <v>66</v>
+        <v>19</v>
       </c>
       <c r="F27" s="15" t="s">
         <v>67</v>
       </c>
       <c r="G27" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="I27">
+        <v>167</v>
+      </c>
+      <c r="J27">
+        <v>195</v>
+      </c>
+      <c r="K27">
+        <v>175</v>
+      </c>
+      <c r="L27">
+        <f>H27+I27+J27+K27</f>
+        <v>537</v>
+      </c>
+      <c r="M27" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="N27" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" ht="85" x14ac:dyDescent="0.2">
+      <c r="A28" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B28" t="s">
+        <v>63</v>
+      </c>
+      <c r="C28" t="s">
+        <v>64</v>
+      </c>
+      <c r="D28" t="s">
+        <v>25</v>
+      </c>
+      <c r="E28" t="s">
+        <v>66</v>
+      </c>
+      <c r="F28" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="G28" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="I27">
+      <c r="I28">
         <v>14</v>
       </c>
-      <c r="J27">
+      <c r="J28">
         <v>79</v>
       </c>
-      <c r="K27">
+      <c r="K28">
         <v>64</v>
       </c>
-      <c r="L27">
+      <c r="L28">
         <f t="shared" si="0"/>
         <v>157</v>
       </c>
-      <c r="M27" s="4" t="s">
+      <c r="M28" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="N27" t="s">
+      <c r="N28" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="28" spans="1:14" ht="85" x14ac:dyDescent="0.2">
-      <c r="A28" s="5" t="s">
+    <row r="29" spans="1:14" ht="85" x14ac:dyDescent="0.2">
+      <c r="A29" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B29" t="s">
         <v>63</v>
       </c>
-      <c r="C28" s="4" t="s">
+      <c r="C29" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="D28" t="s">
+      <c r="D29" t="s">
         <v>25</v>
       </c>
-      <c r="E28" t="s">
+      <c r="E29" t="s">
         <v>66</v>
       </c>
-      <c r="F28" s="15" t="s">
+      <c r="F29" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="G28" s="4" t="s">
+      <c r="G29" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="I28">
+      <c r="I29">
         <v>54</v>
       </c>
-      <c r="J28">
+      <c r="J29">
         <v>111</v>
       </c>
-      <c r="K28">
+      <c r="K29">
         <v>169</v>
       </c>
-      <c r="L28">
+      <c r="L29">
         <f t="shared" si="0"/>
         <v>334</v>
       </c>
-      <c r="M28" s="4" t="s">
+      <c r="M29" s="4" t="s">
         <v>185</v>
-      </c>
-      <c r="N28" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" ht="68" x14ac:dyDescent="0.2">
-      <c r="A29" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="B29" t="s">
-        <v>63</v>
-      </c>
-      <c r="C29" t="s">
-        <v>21</v>
-      </c>
-      <c r="D29" t="s">
-        <v>25</v>
-      </c>
-      <c r="E29" t="s">
-        <v>19</v>
-      </c>
-      <c r="F29" s="15" t="s">
-        <v>165</v>
-      </c>
-      <c r="G29" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="I29">
-        <v>25</v>
-      </c>
-      <c r="J29">
-        <v>15</v>
-      </c>
-      <c r="L29">
-        <f t="shared" si="0"/>
-        <v>40</v>
-      </c>
-      <c r="M29" s="4" t="s">
-        <v>168</v>
       </c>
       <c r="N29" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="30" spans="1:14" ht="153" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:14" ht="113" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
-        <v>74</v>
+        <v>142</v>
       </c>
       <c r="B30" t="s">
         <v>63</v>
       </c>
-      <c r="C30" t="s">
-        <v>21</v>
+      <c r="C30" s="4" t="s">
+        <v>76</v>
       </c>
       <c r="D30" t="s">
-        <v>12</v>
-      </c>
-      <c r="E30" t="s">
-        <v>75</v>
-      </c>
-      <c r="F30" s="15" t="s">
-        <v>165</v>
-      </c>
-      <c r="H30">
-        <v>22</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="F30" s="15"/>
       <c r="I30">
-        <v>21</v>
+        <v>38</v>
+      </c>
+      <c r="J30">
+        <v>37</v>
       </c>
       <c r="L30">
         <f t="shared" si="0"/>
-        <v>43</v>
+        <v>75</v>
       </c>
       <c r="M30" s="4" t="s">
-        <v>188</v>
+        <v>77</v>
       </c>
       <c r="N30" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="31" spans="1:14" ht="153" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:14" ht="68" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="B31" t="s">
         <v>63</v>
       </c>
       <c r="C31" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="D31" t="s">
         <v>25</v>
@@ -2592,66 +2594,77 @@
       <c r="E31" t="s">
         <v>19</v>
       </c>
-      <c r="F31" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="G31" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="I31">
-        <v>167</v>
+      <c r="F31" t="s">
+        <v>15</v>
+      </c>
+      <c r="G31" t="s">
+        <v>22</v>
+      </c>
+      <c r="H31">
+        <v>23</v>
       </c>
       <c r="J31">
-        <v>195</v>
+        <v>8</v>
       </c>
       <c r="K31">
-        <v>175</v>
+        <v>11</v>
       </c>
       <c r="L31">
         <f t="shared" si="0"/>
-        <v>537</v>
+        <v>42</v>
       </c>
       <c r="M31" s="4" t="s">
-        <v>186</v>
+        <v>84</v>
       </c>
       <c r="N31" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="32" spans="1:14" ht="113" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:14" ht="85" x14ac:dyDescent="0.2">
       <c r="A32" s="5" t="s">
-        <v>142</v>
+        <v>79</v>
       </c>
       <c r="B32" t="s">
         <v>63</v>
       </c>
-      <c r="C32" s="4" t="s">
-        <v>76</v>
+      <c r="C32" t="s">
+        <v>56</v>
       </c>
       <c r="D32" t="s">
         <v>25</v>
       </c>
-      <c r="F32" s="15"/>
-      <c r="I32">
-        <v>38</v>
+      <c r="E32" t="s">
+        <v>19</v>
+      </c>
+      <c r="F32" t="s">
+        <v>15</v>
+      </c>
+      <c r="G32" t="s">
+        <v>22</v>
+      </c>
+      <c r="H32">
+        <v>52</v>
       </c>
       <c r="J32">
-        <v>37</v>
+        <v>11</v>
+      </c>
+      <c r="K32">
+        <v>39</v>
       </c>
       <c r="L32">
         <f t="shared" si="0"/>
-        <v>75</v>
+        <v>102</v>
       </c>
       <c r="M32" s="4" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="N32" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="33" spans="1:14" ht="68" x14ac:dyDescent="0.2">
-      <c r="A33" s="5" t="s">
-        <v>78</v>
+    <row r="33" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="A33" s="29" t="s">
+        <v>80</v>
       </c>
       <c r="B33" t="s">
         <v>63</v>
@@ -2668,24 +2681,15 @@
       <c r="F33" t="s">
         <v>15</v>
       </c>
-      <c r="G33" t="s">
-        <v>22</v>
-      </c>
-      <c r="H33">
-        <v>23</v>
-      </c>
-      <c r="J33">
-        <v>8</v>
-      </c>
       <c r="K33">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="L33">
         <f t="shared" si="0"/>
-        <v>42</v>
+        <v>5</v>
       </c>
       <c r="M33" s="4" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="N33" t="s">
         <v>95</v>
@@ -2693,7 +2697,7 @@
     </row>
     <row r="34" spans="1:14" ht="85" x14ac:dyDescent="0.2">
       <c r="A34" s="5" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B34" t="s">
         <v>63</v>
@@ -2714,28 +2718,28 @@
         <v>22</v>
       </c>
       <c r="H34">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="J34">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="K34">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="L34">
         <f t="shared" si="0"/>
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="M34" s="4" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="N34" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="35" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A35" s="29" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B35" t="s">
         <v>63</v>
@@ -2753,22 +2757,22 @@
         <v>15</v>
       </c>
       <c r="K35">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="L35">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="M35" s="4" t="s">
-        <v>86</v>
+        <v>174</v>
       </c>
       <c r="N35" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="36" spans="1:14" ht="85" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:14" ht="102" x14ac:dyDescent="0.2">
       <c r="A36" s="5" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B36" t="s">
         <v>63</v>
@@ -2776,8 +2780,8 @@
       <c r="C36" t="s">
         <v>56</v>
       </c>
-      <c r="D36" t="s">
-        <v>25</v>
+      <c r="D36" s="4" t="s">
+        <v>88</v>
       </c>
       <c r="E36" t="s">
         <v>19</v>
@@ -2789,142 +2793,142 @@
         <v>22</v>
       </c>
       <c r="H36">
-        <v>38</v>
+        <v>5</v>
       </c>
       <c r="J36">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="K36">
-        <v>41</v>
+        <v>5</v>
       </c>
       <c r="L36">
-        <f t="shared" si="0"/>
-        <v>95</v>
+        <f>H36+I36+J36+K36</f>
+        <v>15</v>
       </c>
       <c r="M36" s="4" t="s">
-        <v>87</v>
+        <v>175</v>
       </c>
       <c r="N36" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="37" spans="1:14" ht="34" x14ac:dyDescent="0.2">
-      <c r="A37" s="29" t="s">
-        <v>82</v>
+    <row r="37" spans="1:14" ht="153" x14ac:dyDescent="0.2">
+      <c r="A37" s="5" t="s">
+        <v>74</v>
       </c>
       <c r="B37" t="s">
         <v>63</v>
       </c>
       <c r="C37" t="s">
-        <v>56</v>
+        <v>21</v>
       </c>
       <c r="D37" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="E37" t="s">
-        <v>19</v>
-      </c>
-      <c r="F37" t="s">
-        <v>15</v>
-      </c>
-      <c r="K37">
-        <v>7</v>
+        <v>75</v>
+      </c>
+      <c r="F37" s="15" t="s">
+        <v>165</v>
+      </c>
+      <c r="H37">
+        <v>22</v>
+      </c>
+      <c r="I37">
+        <v>21</v>
       </c>
       <c r="L37">
-        <f t="shared" si="0"/>
-        <v>7</v>
+        <f>H37+I37+J37+K37</f>
+        <v>43</v>
       </c>
       <c r="M37" s="4" t="s">
-        <v>174</v>
+        <v>188</v>
       </c>
       <c r="N37" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="38" spans="1:14" ht="102" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:14" ht="69" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="5" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="B38" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="C38" t="s">
-        <v>56</v>
-      </c>
-      <c r="D38" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="E38" t="s">
-        <v>19</v>
+        <v>70</v>
+      </c>
+      <c r="D38" t="s">
+        <v>25</v>
+      </c>
+      <c r="E38" s="8" t="s">
+        <v>71</v>
       </c>
       <c r="F38" t="s">
         <v>15</v>
       </c>
-      <c r="G38" t="s">
-        <v>22</v>
+      <c r="G38" s="4" t="s">
+        <v>55</v>
       </c>
       <c r="H38">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="J38">
-        <v>5</v>
-      </c>
-      <c r="K38">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="L38">
         <f>H38+I38+J38+K38</f>
-        <v>15</v>
-      </c>
-      <c r="M38" s="4" t="s">
-        <v>175</v>
+        <v>36</v>
+      </c>
+      <c r="M38" s="7" t="s">
+        <v>176</v>
       </c>
       <c r="N38" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="39" spans="1:14" ht="51" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:14" ht="68" x14ac:dyDescent="0.2">
       <c r="A39" s="5" t="s">
-        <v>220</v>
+        <v>73</v>
       </c>
       <c r="B39" t="s">
         <v>63</v>
       </c>
       <c r="C39" t="s">
-        <v>27</v>
-      </c>
-      <c r="D39" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D39" t="s">
         <v>25</v>
       </c>
-      <c r="F39" t="s">
+      <c r="E39" t="s">
+        <v>19</v>
+      </c>
+      <c r="F39" s="15" t="s">
+        <v>165</v>
+      </c>
+      <c r="G39" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="I39">
+        <v>25</v>
+      </c>
+      <c r="J39">
         <v>15</v>
-      </c>
-      <c r="G39" t="s">
-        <v>123</v>
-      </c>
-      <c r="H39">
-        <v>61</v>
-      </c>
-      <c r="J39">
-        <v>45</v>
-      </c>
-      <c r="K39">
-        <v>49</v>
       </c>
       <c r="L39">
         <f>H39+I39+J39+K39</f>
-        <v>155</v>
+        <v>40</v>
       </c>
       <c r="M39" s="4" t="s">
-        <v>223</v>
+        <v>168</v>
       </c>
       <c r="N39" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="40" spans="1:14" ht="136" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A40" s="5" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="B40" t="s">
         <v>63</v>
@@ -2935,382 +2939,421 @@
       <c r="D40" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="E40" t="s">
-        <v>19</v>
-      </c>
       <c r="F40" t="s">
-        <v>225</v>
+        <v>15</v>
+      </c>
+      <c r="G40" t="s">
+        <v>123</v>
       </c>
       <c r="H40">
-        <v>17</v>
+        <v>61</v>
       </c>
       <c r="J40">
-        <v>33</v>
+        <v>45</v>
+      </c>
+      <c r="K40">
+        <v>49</v>
       </c>
       <c r="L40">
         <f>H40+I40+J40+K40</f>
-        <v>50</v>
+        <v>155</v>
       </c>
       <c r="M40" s="4" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="N40" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="41" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:14" ht="136" x14ac:dyDescent="0.2">
       <c r="A41" s="5" t="s">
-        <v>118</v>
+        <v>224</v>
       </c>
       <c r="B41" t="s">
         <v>63</v>
       </c>
       <c r="C41" t="s">
-        <v>89</v>
-      </c>
-      <c r="D41" t="s">
+        <v>27</v>
+      </c>
+      <c r="D41" s="4" t="s">
         <v>25</v>
       </c>
       <c r="E41" t="s">
-        <v>117</v>
+        <v>19</v>
       </c>
       <c r="F41" t="s">
-        <v>15</v>
-      </c>
-      <c r="G41" t="s">
-        <v>22</v>
+        <v>225</v>
       </c>
       <c r="H41">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="J41">
-        <v>53</v>
-      </c>
-      <c r="K41">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="L41">
         <f>H41+I41+J41+K41</f>
-        <v>110</v>
+        <v>50</v>
       </c>
       <c r="M41" s="4" t="s">
-        <v>116</v>
+        <v>226</v>
       </c>
       <c r="N41" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="42" spans="1:14" ht="51" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
-        <v>45</v>
+    <row r="42" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+      <c r="A42" s="5" t="s">
+        <v>118</v>
       </c>
       <c r="B42" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="C42" t="s">
-        <v>53</v>
+        <v>89</v>
       </c>
       <c r="D42" t="s">
         <v>25</v>
       </c>
       <c r="E42" t="s">
-        <v>54</v>
+        <v>117</v>
       </c>
       <c r="F42" t="s">
         <v>15</v>
       </c>
-      <c r="G42" s="9" t="s">
+      <c r="G42" t="s">
+        <v>22</v>
+      </c>
+      <c r="H42">
+        <v>29</v>
+      </c>
+      <c r="J42">
+        <v>53</v>
+      </c>
+      <c r="K42">
+        <v>28</v>
+      </c>
+      <c r="L42">
+        <f>H42+I42+J42+K42</f>
+        <v>110</v>
+      </c>
+      <c r="M42" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="N42" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" ht="51" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>101</v>
+      </c>
+      <c r="B43" t="s">
+        <v>102</v>
+      </c>
+      <c r="D43" t="s">
+        <v>25</v>
+      </c>
+      <c r="G43" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="H43">
+        <v>13</v>
+      </c>
+      <c r="I43">
+        <v>45</v>
+      </c>
+      <c r="J43">
+        <v>44</v>
+      </c>
+      <c r="L43">
+        <f>H43+I43+J43+K43</f>
+        <v>102</v>
+      </c>
+      <c r="M43" s="4"/>
+      <c r="N43" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" ht="51" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>45</v>
+      </c>
+      <c r="B44" t="s">
+        <v>46</v>
+      </c>
+      <c r="C44" t="s">
+        <v>53</v>
+      </c>
+      <c r="D44" t="s">
+        <v>25</v>
+      </c>
+      <c r="E44" t="s">
+        <v>54</v>
+      </c>
+      <c r="F44" t="s">
+        <v>15</v>
+      </c>
+      <c r="G44" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="H42">
+      <c r="H44">
         <v>37</v>
       </c>
-      <c r="I42">
+      <c r="I44">
         <v>25</v>
       </c>
-      <c r="J42">
+      <c r="J44">
         <v>46</v>
       </c>
-      <c r="L42">
+      <c r="L44">
         <f t="shared" si="0"/>
         <v>108</v>
       </c>
-      <c r="N42" t="s">
+      <c r="N44" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="43" spans="1:14" ht="17" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
+    <row r="45" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
         <v>47</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B45" t="s">
         <v>48</v>
       </c>
-      <c r="C43" t="s">
+      <c r="C45" t="s">
         <v>56</v>
       </c>
-      <c r="D43" t="s">
+      <c r="D45" t="s">
         <v>25</v>
       </c>
-      <c r="E43" t="s">
+      <c r="E45" t="s">
         <v>57</v>
       </c>
-      <c r="F43" t="s">
+      <c r="F45" t="s">
         <v>15</v>
       </c>
-      <c r="H43">
+      <c r="H45">
         <v>18</v>
       </c>
-      <c r="J43">
+      <c r="J45">
         <v>8</v>
       </c>
-      <c r="K43">
+      <c r="K45">
         <v>18</v>
       </c>
-      <c r="L43">
+      <c r="L45">
         <f t="shared" si="0"/>
         <v>44</v>
       </c>
-      <c r="M43" s="4" t="s">
+      <c r="M45" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="N43" t="s">
+      <c r="N45" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="44" spans="1:14" ht="34" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
+    <row r="46" spans="1:14" ht="68" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>100</v>
+      </c>
+      <c r="B46" t="s">
+        <v>48</v>
+      </c>
+      <c r="C46" t="s">
+        <v>53</v>
+      </c>
+      <c r="D46" t="s">
+        <v>12</v>
+      </c>
+      <c r="F46" t="s">
+        <v>15</v>
+      </c>
+      <c r="G46" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="J46">
+        <v>14</v>
+      </c>
+      <c r="K46">
+        <v>12</v>
+      </c>
+      <c r="L46">
+        <f>H46+I46+J46+K46</f>
+        <v>26</v>
+      </c>
+      <c r="M46" s="30" t="s">
+        <v>232</v>
+      </c>
+      <c r="N46" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>217</v>
+      </c>
+      <c r="B47" t="s">
+        <v>218</v>
+      </c>
+      <c r="C47" t="s">
+        <v>89</v>
+      </c>
+      <c r="D47" t="s">
+        <v>219</v>
+      </c>
+      <c r="E47" t="s">
+        <v>221</v>
+      </c>
+      <c r="G47" s="4"/>
+      <c r="H47">
+        <v>2</v>
+      </c>
+      <c r="J47">
+        <v>4</v>
+      </c>
+      <c r="L47">
+        <f>H47+I47+J47+K47</f>
+        <v>6</v>
+      </c>
+      <c r="M47" s="30"/>
+      <c r="N47" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
         <v>49</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B48" t="s">
         <v>50</v>
       </c>
-      <c r="C44" t="s">
+      <c r="C48" t="s">
         <v>58</v>
       </c>
-      <c r="D44" t="s">
+      <c r="D48" t="s">
         <v>12</v>
       </c>
-      <c r="F44" t="s">
+      <c r="F48" t="s">
         <v>15</v>
       </c>
-      <c r="H44">
+      <c r="H48">
         <v>7</v>
       </c>
-      <c r="I44">
+      <c r="I48">
         <v>7</v>
       </c>
-      <c r="J44">
+      <c r="J48">
         <v>7</v>
       </c>
-      <c r="L44">
+      <c r="L48">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="M44" s="4" t="s">
+      <c r="M48" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="N44" s="28" t="s">
+      <c r="N48" s="28" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="45" spans="1:14" ht="85" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
+    <row r="49" spans="1:14" ht="85" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
         <v>51</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B49" t="s">
         <v>52</v>
       </c>
-      <c r="C45" t="s">
+      <c r="C49" t="s">
         <v>89</v>
       </c>
-      <c r="D45" t="s">
+      <c r="D49" t="s">
         <v>25</v>
       </c>
-      <c r="F45" t="s">
+      <c r="F49" t="s">
         <v>15</v>
       </c>
-      <c r="G45" t="s">
+      <c r="G49" t="s">
         <v>173</v>
       </c>
-      <c r="H45">
+      <c r="H49">
         <v>76</v>
       </c>
-      <c r="J45">
+      <c r="J49">
         <v>113</v>
       </c>
-      <c r="L45">
+      <c r="L49">
         <f t="shared" si="0"/>
         <v>189</v>
       </c>
-      <c r="M45" s="4" t="s">
+      <c r="M49" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="N45" t="s">
+      <c r="N49" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="46" spans="1:14" ht="51" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
+    <row r="50" spans="1:14" ht="51" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
         <v>59</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B50" t="s">
         <v>60</v>
       </c>
-      <c r="D46" t="s">
+      <c r="D50" t="s">
         <v>12</v>
       </c>
-      <c r="F46" t="s">
+      <c r="F50" t="s">
         <v>15</v>
       </c>
-      <c r="G46" s="4" t="s">
+      <c r="G50" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="H46">
+      <c r="H50">
         <v>36</v>
       </c>
-      <c r="I46">
+      <c r="I50">
         <v>17</v>
       </c>
-      <c r="J46">
+      <c r="J50">
         <v>19</v>
       </c>
-      <c r="L46">
+      <c r="L50">
         <f t="shared" si="0"/>
         <v>72</v>
       </c>
-      <c r="M46" s="4" t="s">
+      <c r="M50" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="N46" s="28" t="s">
+      <c r="N50" s="28" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="47" spans="1:14" ht="51" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
-        <v>101</v>
-      </c>
-      <c r="B47" t="s">
-        <v>102</v>
-      </c>
-      <c r="D47" t="s">
-        <v>25</v>
-      </c>
-      <c r="G47" s="4" t="s">
-        <v>180</v>
-      </c>
-      <c r="H47">
-        <v>13</v>
-      </c>
-      <c r="I47">
-        <v>45</v>
-      </c>
-      <c r="J47">
-        <v>44</v>
-      </c>
-      <c r="L47">
-        <f t="shared" si="0"/>
-        <v>102</v>
-      </c>
-      <c r="M47" s="4"/>
-      <c r="N47" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="48" spans="1:14" ht="68" x14ac:dyDescent="0.2">
-      <c r="A48" t="s">
-        <v>100</v>
-      </c>
-      <c r="B48" t="s">
-        <v>48</v>
-      </c>
-      <c r="C48" t="s">
-        <v>53</v>
-      </c>
-      <c r="D48" t="s">
-        <v>12</v>
-      </c>
-      <c r="F48" t="s">
-        <v>15</v>
-      </c>
-      <c r="G48" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="J48">
-        <v>14</v>
-      </c>
-      <c r="K48">
-        <v>12</v>
-      </c>
-      <c r="L48">
-        <f t="shared" si="0"/>
-        <v>26</v>
-      </c>
-      <c r="M48" s="30" t="s">
-        <v>232</v>
-      </c>
-      <c r="N48" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A49" t="s">
-        <v>217</v>
-      </c>
-      <c r="B49" t="s">
-        <v>218</v>
-      </c>
-      <c r="C49" t="s">
-        <v>89</v>
-      </c>
-      <c r="D49" t="s">
-        <v>219</v>
-      </c>
-      <c r="E49" t="s">
-        <v>221</v>
-      </c>
-      <c r="G49" s="4"/>
-      <c r="H49">
-        <v>2</v>
-      </c>
-      <c r="J49">
-        <v>4</v>
-      </c>
-      <c r="L49">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="M49" s="30"/>
-      <c r="N49" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A50" t="s">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
         <v>8</v>
       </c>
-      <c r="G50" s="4"/>
-      <c r="H50">
-        <f>SUM(H2:H49)</f>
-        <v>830</v>
-      </c>
-      <c r="I50">
-        <f>SUM(I2:I48)</f>
+      <c r="G51" s="4"/>
+      <c r="H51">
+        <f>SUM(H3:H50)</f>
+        <v>836</v>
+      </c>
+      <c r="I51">
+        <f>SUM(I3:I50)</f>
         <v>1086</v>
       </c>
-      <c r="J50">
-        <f>SUM(J2:J49)</f>
-        <v>1404</v>
-      </c>
-      <c r="K50">
-        <f>SUM(K2:K48)</f>
+      <c r="J51">
+        <f>SUM(J3:J50)</f>
+        <v>1386</v>
+      </c>
+      <c r="K51">
+        <f>SUM(K3:K50)</f>
         <v>855</v>
       </c>
-      <c r="L50">
-        <f>SUM(L2:L48)</f>
-        <v>4169</v>
-      </c>
-      <c r="M50" s="4"/>
+      <c r="L51">
+        <f>SUM(L3:L50)</f>
+        <v>4163</v>
+      </c>
+      <c r="M51" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>

--- a/data-raw/Data_summaryforpackage.xlsx
+++ b/data-raw/Data_summaryforpackage.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10913"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xutaowang/Desktop/curatedTBData/data-raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52AF8217-1337-7D46-A961-BC1D4698B6DE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{859CB062-388B-AA4E-9138-AD4450C08DC4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2660" yWindow="2640" windowWidth="30520" windowHeight="17160" xr2:uid="{B39B7F83-2537-C248-AAB4-54D9192DC10F}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="627" uniqueCount="241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="628" uniqueCount="242">
   <si>
     <t>GEO accession</t>
   </si>
@@ -809,6 +809,9 @@
   </si>
   <si>
     <t>GPL6102</t>
+  </si>
+  <si>
+    <t>One PTB is pooled</t>
   </si>
 </sst>
 </file>
@@ -1425,8 +1428,8 @@
   <dimension ref="A1:N51"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C15" sqref="C15"/>
+      <pane ySplit="1" topLeftCell="A42" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I47" sqref="I47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2802,7 +2805,7 @@
         <v>5</v>
       </c>
       <c r="L36">
-        <f>H36+I36+J36+K36</f>
+        <f t="shared" ref="L36:L43" si="1">H36+I36+J36+K36</f>
         <v>15</v>
       </c>
       <c r="M36" s="4" t="s">
@@ -2838,7 +2841,7 @@
         <v>21</v>
       </c>
       <c r="L37">
-        <f>H37+I37+J37+K37</f>
+        <f t="shared" si="1"/>
         <v>43</v>
       </c>
       <c r="M37" s="4" t="s">
@@ -2877,7 +2880,7 @@
         <v>18</v>
       </c>
       <c r="L38">
-        <f>H38+I38+J38+K38</f>
+        <f t="shared" si="1"/>
         <v>36</v>
       </c>
       <c r="M38" s="7" t="s">
@@ -2916,7 +2919,7 @@
         <v>15</v>
       </c>
       <c r="L39">
-        <f>H39+I39+J39+K39</f>
+        <f t="shared" si="1"/>
         <v>40</v>
       </c>
       <c r="M39" s="4" t="s">
@@ -2955,7 +2958,7 @@
         <v>49</v>
       </c>
       <c r="L40">
-        <f>H40+I40+J40+K40</f>
+        <f t="shared" si="1"/>
         <v>155</v>
       </c>
       <c r="M40" s="4" t="s">
@@ -2991,7 +2994,7 @@
         <v>33</v>
       </c>
       <c r="L41">
-        <f>H41+I41+J41+K41</f>
+        <f t="shared" si="1"/>
         <v>50</v>
       </c>
       <c r="M41" s="4" t="s">
@@ -3033,7 +3036,7 @@
         <v>28</v>
       </c>
       <c r="L42">
-        <f>H42+I42+J42+K42</f>
+        <f t="shared" si="1"/>
         <v>110</v>
       </c>
       <c r="M42" s="4" t="s">
@@ -3066,7 +3069,7 @@
         <v>44</v>
       </c>
       <c r="L43">
-        <f>H43+I43+J43+K43</f>
+        <f t="shared" si="1"/>
         <v>102</v>
       </c>
       <c r="M43" s="4"/>
@@ -3188,7 +3191,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>217</v>
       </c>
@@ -3208,14 +3211,19 @@
       <c r="H47">
         <v>2</v>
       </c>
+      <c r="I47">
+        <v>1</v>
+      </c>
       <c r="J47">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L47">
         <f>H47+I47+J47+K47</f>
-        <v>6</v>
-      </c>
-      <c r="M47" s="30"/>
+        <v>8</v>
+      </c>
+      <c r="M47" s="30" t="s">
+        <v>241</v>
+      </c>
       <c r="N47" t="s">
         <v>160</v>
       </c>
@@ -3339,11 +3347,11 @@
       </c>
       <c r="I51">
         <f>SUM(I3:I50)</f>
-        <v>1086</v>
+        <v>1087</v>
       </c>
       <c r="J51">
         <f>SUM(J3:J50)</f>
-        <v>1386</v>
+        <v>1387</v>
       </c>
       <c r="K51">
         <f>SUM(K3:K50)</f>
@@ -3351,7 +3359,7 @@
       </c>
       <c r="L51">
         <f>SUM(L3:L50)</f>
-        <v>4163</v>
+        <v>4165</v>
       </c>
       <c r="M51" s="4"/>
     </row>

--- a/data-raw/Data_summaryforpackage.xlsx
+++ b/data-raw/Data_summaryforpackage.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xutaowang/Desktop/curatedTBData/data-raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{859CB062-388B-AA4E-9138-AD4450C08DC4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44B78CA9-C45F-6A4F-88AE-DC13464959ED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2660" yWindow="2640" windowWidth="30520" windowHeight="17160" xr2:uid="{B39B7F83-2537-C248-AAB4-54D9192DC10F}"/>
+    <workbookView xWindow="16280" yWindow="460" windowWidth="30520" windowHeight="17160" activeTab="2" xr2:uid="{B39B7F83-2537-C248-AAB4-54D9192DC10F}"/>
   </bookViews>
   <sheets>
     <sheet name="DataSummary" sheetId="1" r:id="rId1"/>
@@ -818,7 +818,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -904,6 +904,12 @@
       <color theme="4"/>
       <name val="Calibri (Body)"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -925,7 +931,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -1029,11 +1035,22 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="slantDashDot">
+        <color auto="1"/>
+      </left>
+      <right style="slantDashDot">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1111,6 +1128,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1427,9 +1447,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{715BD991-25C2-914C-95C3-220CF25B2F79}">
   <dimension ref="A1:N51"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A42" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I47" sqref="I47"/>
+      <selection pane="bottomLeft" activeCell="A45" sqref="A45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3866,10 +3886,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FA3E69C-C1F1-F041-B7CA-C28168AEBC17}">
-  <dimension ref="A1:B48"/>
+  <dimension ref="A1:B49"/>
   <sheetViews>
-    <sheetView topLeftCell="A32" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E48" sqref="E48"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D44" sqref="D44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4262,6 +4282,9 @@
         <v>193</v>
       </c>
     </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A49" s="41"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data-raw/Data_summaryforpackage.xlsx
+++ b/data-raw/Data_summaryforpackage.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11213"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xutaowang/Desktop/curatedTBData/data-raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44B78CA9-C45F-6A4F-88AE-DC13464959ED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22424E9F-0DEF-144A-8077-ABFB17980F4C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16280" yWindow="460" windowWidth="30520" windowHeight="17160" activeTab="2" xr2:uid="{B39B7F83-2537-C248-AAB4-54D9192DC10F}"/>
+    <workbookView xWindow="3080" yWindow="460" windowWidth="30520" windowHeight="17160" activeTab="2" xr2:uid="{B39B7F83-2537-C248-AAB4-54D9192DC10F}"/>
   </bookViews>
   <sheets>
     <sheet name="DataSummary" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="628" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="632" uniqueCount="245">
   <si>
     <t>GEO accession</t>
   </si>
@@ -812,6 +812,15 @@
   </si>
   <si>
     <t>One PTB is pooled</t>
+  </si>
+  <si>
+    <t>Sweeney_OD_3</t>
+  </si>
+  <si>
+    <t>Berry_OD_86</t>
+  </si>
+  <si>
+    <t>Verhagen_10</t>
   </si>
 </sst>
 </file>
@@ -1449,7 +1458,7 @@
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A42" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A45" sqref="A45"/>
+      <selection pane="bottomLeft" activeCell="M46" sqref="M46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3396,7 +3405,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B868D855-4FCD-7E48-B184-50745CDBFAFD}">
   <dimension ref="A1:B59"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
@@ -3886,10 +3895,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FA3E69C-C1F1-F041-B7CA-C28168AEBC17}">
-  <dimension ref="A1:B49"/>
+  <dimension ref="A1:B50"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A25" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D44" sqref="D44"/>
+      <selection activeCell="D50" sqref="D50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3931,11 +3940,11 @@
       </c>
     </row>
     <row r="5" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A5" s="22" t="s">
-        <v>141</v>
+      <c r="A5" s="20" t="s">
+        <v>243</v>
       </c>
       <c r="B5" s="21" t="s">
-        <v>10</v>
+        <v>234</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="17" x14ac:dyDescent="0.2">
@@ -3943,7 +3952,7 @@
         <v>141</v>
       </c>
       <c r="B6" s="21" t="s">
-        <v>124</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="17" x14ac:dyDescent="0.2">
@@ -3951,7 +3960,7 @@
         <v>141</v>
       </c>
       <c r="B7" s="21" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="17" x14ac:dyDescent="0.2">
@@ -3959,7 +3968,7 @@
         <v>141</v>
       </c>
       <c r="B8" s="21" t="s">
-        <v>142</v>
+        <v>125</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="17" x14ac:dyDescent="0.2">
@@ -3967,7 +3976,7 @@
         <v>141</v>
       </c>
       <c r="B9" s="21" t="s">
-        <v>68</v>
+        <v>142</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="17" x14ac:dyDescent="0.2">
@@ -3975,7 +3984,7 @@
         <v>141</v>
       </c>
       <c r="B10" s="21" t="s">
-        <v>47</v>
+        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="17" x14ac:dyDescent="0.2">
@@ -3983,204 +3992,204 @@
         <v>141</v>
       </c>
       <c r="B11" s="21" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A12" s="22" t="s">
+        <v>141</v>
+      </c>
+      <c r="B12" s="21" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A12" s="23" t="s">
+    <row r="13" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A13" s="23" t="s">
         <v>209</v>
       </c>
-      <c r="B12" s="24" t="s">
+      <c r="B13" s="24" t="s">
         <v>81</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A13" s="20" t="s">
-        <v>144</v>
-      </c>
-      <c r="B13" s="21" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" s="20" t="s">
+        <v>144</v>
+      </c>
+      <c r="B14" s="21" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A15" s="20" t="s">
         <v>145</v>
       </c>
-      <c r="B14" s="21" t="s">
+      <c r="B15" s="21" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A15" s="22" t="s">
+    <row r="16" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A16" s="22" t="s">
         <v>146</v>
       </c>
-      <c r="B15" s="34" t="s">
+      <c r="B16" s="34" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A16" s="36" t="s">
+    <row r="17" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A17" s="36" t="s">
         <v>199</v>
       </c>
-      <c r="B16" s="37" t="s">
+      <c r="B17" s="37" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A17" s="23" t="s">
+    <row r="18" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A18" s="23" t="s">
         <v>198</v>
       </c>
-      <c r="B17" s="35" t="s">
+      <c r="B18" s="35" t="s">
         <v>155</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A18" s="20" t="s">
-        <v>211</v>
-      </c>
-      <c r="B18" s="21" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A19" s="20" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B19" s="21" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A20" s="20" t="s">
+        <v>210</v>
+      </c>
+      <c r="B20" s="21" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A21" s="20" t="s">
         <v>205</v>
       </c>
-      <c r="B20" s="21" t="s">
+      <c r="B21" s="21" t="s">
         <v>129</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21" s="25" t="s">
-        <v>151</v>
-      </c>
-      <c r="B21" s="24" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="25" t="s">
-        <v>151</v>
+        <v>242</v>
       </c>
       <c r="B22" s="24" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="25" t="s">
-        <v>151</v>
+        <v>242</v>
       </c>
       <c r="B23" s="24" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="25" t="s">
-        <v>151</v>
+        <v>242</v>
       </c>
       <c r="B24" s="24" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="25" t="s">
-        <v>151</v>
+        <v>242</v>
       </c>
       <c r="B25" s="24" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" s="25" t="s">
-        <v>151</v>
+        <v>242</v>
       </c>
       <c r="B26" s="24" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" s="25" t="s">
-        <v>151</v>
-      </c>
-      <c r="B27" s="21" t="s">
-        <v>28</v>
+        <v>242</v>
+      </c>
+      <c r="B27" s="24" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" s="25" t="s">
-        <v>151</v>
+        <v>242</v>
       </c>
       <c r="B28" s="21" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" s="25" t="s">
-        <v>151</v>
+        <v>242</v>
       </c>
       <c r="B29" s="21" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" s="25" t="s">
-        <v>151</v>
+        <v>242</v>
       </c>
       <c r="B30" s="21" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" s="25" t="s">
-        <v>151</v>
+        <v>242</v>
       </c>
       <c r="B31" s="21" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" s="25" t="s">
-        <v>151</v>
+        <v>242</v>
       </c>
       <c r="B32" s="21" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" s="25" t="s">
-        <v>151</v>
+        <v>242</v>
       </c>
       <c r="B33" s="21" t="s">
-        <v>96</v>
+        <v>36</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" s="25" t="s">
-        <v>151</v>
+        <v>242</v>
       </c>
       <c r="B34" s="21" t="s">
-        <v>72</v>
+        <v>96</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" s="25" t="s">
-        <v>212</v>
+        <v>242</v>
       </c>
       <c r="B35" s="21" t="s">
-        <v>127</v>
+        <v>72</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" s="25" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B36" s="21" t="s">
         <v>127</v>
@@ -4188,15 +4197,15 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" s="25" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B37" s="21" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" s="25" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B38" s="21" t="s">
         <v>126</v>
@@ -4204,47 +4213,47 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" s="25" t="s">
+        <v>214</v>
+      </c>
+      <c r="B39" s="21" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A40" s="25" t="s">
         <v>216</v>
       </c>
-      <c r="B39" s="24" t="s">
+      <c r="B40" s="24" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A40" s="26" t="s">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A41" s="26" t="s">
         <v>200</v>
       </c>
-      <c r="B40" s="21" t="s">
+      <c r="B41" s="21" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A41" s="33" t="s">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A42" s="33" t="s">
         <v>197</v>
       </c>
-      <c r="B41" s="21" t="s">
+      <c r="B42" s="21" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="42" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A42" s="20" t="s">
+    <row r="43" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A43" s="20" t="s">
         <v>156</v>
-      </c>
-      <c r="B42" s="27" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A43" s="38" t="s">
-        <v>204</v>
       </c>
       <c r="B43" s="27" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A44" s="25" t="s">
-        <v>203</v>
+    <row r="44" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A44" s="38" t="s">
+        <v>204</v>
       </c>
       <c r="B44" s="27" t="s">
         <v>157</v>
@@ -4252,38 +4261,51 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" s="25" t="s">
-        <v>201</v>
-      </c>
-      <c r="B45" s="21" t="s">
-        <v>112</v>
+        <v>203</v>
+      </c>
+      <c r="B45" s="27" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" s="25" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B46" s="21" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
-        <v>235</v>
-      </c>
-      <c r="B47" s="40" t="s">
-        <v>193</v>
+      <c r="A47" s="25" t="s">
+        <v>202</v>
+      </c>
+      <c r="B47" s="21" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B48" s="40" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A49" s="41"/>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>236</v>
+      </c>
+      <c r="B49" s="40" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A50" s="41" t="s">
+        <v>244</v>
+      </c>
+      <c r="B50" s="40" t="s">
+        <v>96</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>

--- a/data-raw/Data_summaryforpackage.xlsx
+++ b/data-raw/Data_summaryforpackage.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11213"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xutaowang/Desktop/curatedTBData/data-raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22424E9F-0DEF-144A-8077-ABFB17980F4C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{637C3E8E-6FAE-F54A-98A4-923A3CB6B521}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3080" yWindow="460" windowWidth="30520" windowHeight="17160" activeTab="2" xr2:uid="{B39B7F83-2537-C248-AAB4-54D9192DC10F}"/>
+    <workbookView xWindow="1140" yWindow="1360" windowWidth="30520" windowHeight="17160" xr2:uid="{B39B7F83-2537-C248-AAB4-54D9192DC10F}"/>
   </bookViews>
   <sheets>
     <sheet name="DataSummary" sheetId="1" r:id="rId1"/>
@@ -268,10 +268,6 @@
     <t>30-40</t>
   </si>
   <si>
-    <t xml:space="preserve">UK, South Afirca
-</t>
-  </si>
-  <si>
     <t xml:space="preserve">Longitudinal Analysis sampled at 1, 2 ,3, 4, 5 month post treatment for UK patients. Sampled at pre, 0.5, 2, 6, 12 months post treatment for South Africa patients
 </t>
   </si>
@@ -410,9 +406,6 @@
     <t>GSE112104</t>
   </si>
   <si>
-    <t>Some Latent in Controls, could not discrimniate, paper mentioned 200 samples. Only 281 genes mapped, because it is a RT-PCR study</t>
-  </si>
-  <si>
     <t xml:space="preserve">Longitudinal Study from Leicester cohort for control vs. non-progressor
 </t>
   </si>
@@ -544,9 +537,6 @@
     <t>MPIIB Microarray - Two Color</t>
   </si>
   <si>
-    <t>Agilent Microarray - TwoColor</t>
-  </si>
-  <si>
     <t>All Positive</t>
   </si>
   <si>
@@ -558,6 +548,250 @@
   <si>
     <t xml:space="preserve">Data contain information about TB subtypes: active, latent,  subclinical TB
 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+These samples are from 9 successfully cured patients at diagnosis and end-of-treatment at 26 weeks (Total Sample=9)</t>
+  </si>
+  <si>
+    <t>OD was sarcoidosis (n=18)</t>
+  </si>
+  <si>
+    <t>MGIT, XPERT, TGRV, sputum culture</t>
+  </si>
+  <si>
+    <t>GenXpert assay</t>
+  </si>
+  <si>
+    <t>ODs was Sarcoid, involve repeated measurement</t>
+  </si>
+  <si>
+    <t>ODs was sarcoidosis, involve repeated measurement. Could not locate patient ID. 5 patients in each group of healthy controls, tuberculosis and sarcoidosis with 6 cell types.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+TB patients longitudinally sampled along 3 time-points: active, treatment recover. Could not locate patient ID.</t>
+  </si>
+  <si>
+    <t>Each patient was repeatedly measured twice</t>
+  </si>
+  <si>
+    <t>Sputum culture, chest radiography</t>
+  </si>
+  <si>
+    <t>Samples from the TB cases have been collected on the start day of TB treatment (DX) and on 1,4 and 24 weeks after treatment as well. ODs was Lung Dx or MTP. 2 NA's in TB status</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chest radiograph, sputum culture, TST
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Use normalized reads</t>
+  </si>
+  <si>
+    <t>Study for progressor. 16 out of 30 cases are progressor</t>
+  </si>
+  <si>
+    <t>1-72</t>
+  </si>
+  <si>
+    <t>Sputum culture, chest radiography, TST</t>
+  </si>
+  <si>
+    <t>OD: children received a definitive alternative diagnosis or had no clinical deterioration on follow-up in the absence of tuberculosis therapy</t>
+  </si>
+  <si>
+    <t>OD: any case with an established alternative diagnosis to TB, no microbiological evidence of TB, and an absence of TB symptoms at the time of follow-up or with an observed improvement of clinical symptoms on follow-up without TB treatment</t>
+  </si>
+  <si>
+    <t>Sputum culture, sputum Xpert MTB-RIF</t>
+  </si>
+  <si>
+    <t>TST, sputum AFB and culture</t>
+  </si>
+  <si>
+    <t>20-55</t>
+  </si>
+  <si>
+    <t>2-14</t>
+  </si>
+  <si>
+    <t>TST, IGRA</t>
+  </si>
+  <si>
+    <t>GSEIndia</t>
+  </si>
+  <si>
+    <t>Repeated measure for TB patients at baseline, 3 months, and 6 months after anti-TB chemotherapy</t>
+  </si>
+  <si>
+    <t>Sputum culture, TST, IGRA(QFT-GIT)</t>
+  </si>
+  <si>
+    <t>Kaforou</t>
+  </si>
+  <si>
+    <t>Leong_RISK_29</t>
+  </si>
+  <si>
+    <t>Leong_24</t>
+  </si>
+  <si>
+    <t>Zak_RISK_16</t>
+  </si>
+  <si>
+    <t>Thompson_9</t>
+  </si>
+  <si>
+    <t>Thompson_FAIL_13</t>
+  </si>
+  <si>
+    <t>Sloot_HIV_2</t>
+  </si>
+  <si>
+    <t>Sambrey_HIV_10</t>
+  </si>
+  <si>
+    <t>Singhania_OD_20</t>
+  </si>
+  <si>
+    <t>Berry_393</t>
+  </si>
+  <si>
+    <t>Anderson_42</t>
+  </si>
+  <si>
+    <t>Anderson_OD_51</t>
+  </si>
+  <si>
+    <t>Bloom_OD_144</t>
+  </si>
+  <si>
+    <t>Maertzdorf_OD_100</t>
+  </si>
+  <si>
+    <t>Maertzdorf_4</t>
+  </si>
+  <si>
+    <t>Suliman_RISK_4</t>
+  </si>
+  <si>
+    <t>Suliman_4</t>
+  </si>
+  <si>
+    <t>Walter_PNA_47</t>
+  </si>
+  <si>
+    <t>Walter_51</t>
+  </si>
+  <si>
+    <t>Walter_PNA_119</t>
+  </si>
+  <si>
+    <t>GSE81746</t>
+  </si>
+  <si>
+    <t>GPL17077</t>
+  </si>
+  <si>
+    <t>Whole</t>
+  </si>
+  <si>
+    <t>GSE83456</t>
+  </si>
+  <si>
+    <t>25-65</t>
+  </si>
+  <si>
+    <t>Study for progressor. 13 out of 32 controls developed LTBI during follow up, including one control progressed to PTB. Extrapulmonary TB samples available from this dataset.</t>
+  </si>
+  <si>
+    <t>ODs was sarcoidosis.  Extrapulmonary TB samples available from this dataset.</t>
+  </si>
+  <si>
+    <t>GSE83892</t>
+  </si>
+  <si>
+    <t>Positive</t>
+  </si>
+  <si>
+    <t>Blood transcriptional signature of HIV-associated tuberculous meningitis known as immune reconstitution inflammatory syndrome (IRIS). There are a total of 116 samples (33 TBM at 3 timepoints and 17 control at 1 timepoint)</t>
+  </si>
+  <si>
+    <t>GPL15207</t>
+  </si>
+  <si>
+    <t>Mongolian</t>
+  </si>
+  <si>
+    <t>GSE84076</t>
+  </si>
+  <si>
+    <t>Sputum culture, Sputum microscopy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12 pediatric streptococcus, 40 pediatric staphylococcus, 31 still’s disease, 82 pediatric systemic lupus erythematosus (SLE), 28 adult SLE patients.
+</t>
+  </si>
+  <si>
+    <t>Measurement of tuberculosis patients prior to and following treatment. OD was Mycobacterium africanum</t>
+  </si>
+  <si>
+    <t>GSE19491</t>
+  </si>
+  <si>
+    <t>Tornheim_71</t>
+  </si>
+  <si>
+    <t>Tornheim_RES_25</t>
+  </si>
+  <si>
+    <t>GSE107731</t>
+  </si>
+  <si>
+    <t>Only include samples in the TB studies</t>
+  </si>
+  <si>
+    <t>GSE29536</t>
+  </si>
+  <si>
+    <t>GPL6102</t>
+  </si>
+  <si>
+    <t>One PTB is pooled</t>
+  </si>
+  <si>
+    <t>Sweeney_OD_3</t>
+  </si>
+  <si>
+    <t>Berry_OD_86</t>
+  </si>
+  <si>
+    <t>Verhagen_10</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Repeated measure for GSM1230903 and GSM1230904. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="4"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>This study identifies 251 Gene Expression Signature that can accurately detect M. tuberculosis in patients with and without HIV co-Infection. Consider to add in TBsignatureProfiler?</t>
+    </r>
+  </si>
+  <si>
+    <t>Agilent Microarray - Two Color</t>
+  </si>
+  <si>
+    <t>Some Latent in Controls, could not discriminate, paper mentioned 200 samples. Only 281 genes mapped, because it is a RT-PCR study</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Ex vivo blood samples analyzed at diagnosis and after 1, 2, 4 and 26 weeks of treatment (Total Measure=135).</t>
   </si>
   <si>
     <r>
@@ -566,7 +800,7 @@
         <color theme="5"/>
         <rFont val="Calibri (Body)"/>
       </rPr>
-      <t>Follow up healthy participants who were infected with M tuberculosis for 2 yrs, collected blood samples every 6 months.  Non-progressor vs. Progressor                Adolescent Cohort Study (ACS)</t>
+      <t>Follow up healthy participants who were infected with M tuberculosis for 2 years, collected blood samples every 6 months.  Non-progressor vs. Progressor                Adolescent Cohort Study (ACS)</t>
     </r>
     <r>
       <rPr>
@@ -582,252 +816,18 @@
   </si>
   <si>
     <t xml:space="preserve">
-These samples are from 9 successfully cured patients at diagnosis and end-of-treatment at 26 weeks (Total Sample=9)</t>
-  </si>
-  <si>
-    <t>OD was sarcoidosis (n=18)</t>
-  </si>
-  <si>
-    <t>MGIT, XPERT, TGRV, sputum culture</t>
-  </si>
-  <si>
-    <t>GenXpert assay</t>
-  </si>
-  <si>
-    <t>ODs was Sarcoid, involve repeated measurement</t>
-  </si>
-  <si>
-    <t>ODs was sarcoidosis, involve repeated measurement. Could not locate patient ID. 5 patients in each group of healthy controls, tuberculosis and sarcoidosis with 6 cell types.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-TB patients longitudinally sampled along 3 time-points: active, treatment recover. Could not locate patient ID.</t>
-  </si>
-  <si>
-    <t>Each patient was repeatedly measured twice</t>
-  </si>
-  <si>
-    <t>Sputum culture, chest radiography</t>
-  </si>
-  <si>
-    <t>Samples from the TB cases have been collected on the start day of TB treatment (DX) and on 1,4 and 24 weeks after treatment as well. ODs was Lung Dx or MTP. 2 NA's in TB status</t>
-  </si>
-  <si>
-    <t xml:space="preserve">chest radiograph, sputum culture, TST
+Longitudinal Study. Blood was taken from the active TB patients at three time points. Baseline, pre-treatment, 2 months after treatment initiation, and 12 months after treatment initiation. n(PTB)=7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UK, South Africa
 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-Use normalized reads</t>
-  </si>
-  <si>
-    <t>Study for progressor. 16 out of 30 cases are progressor</t>
-  </si>
-  <si>
-    <t>1-72</t>
-  </si>
-  <si>
-    <t>Sputum culture, chest radiography, TST</t>
-  </si>
-  <si>
-    <t>OD: children received a definitive alternative diagnosis or had no clinical deterioration on follow-up in the absence of tuberculosis therapy</t>
-  </si>
-  <si>
-    <t>OD: any case with an established alternative diagnosis to TB, no microbiological evidence of TB, and an absence of TB symptoms at the time of follow-up or with an observed improvement of clinical symptoms on follow-up without TB treatment</t>
-  </si>
-  <si>
-    <t>Sputum culture, sputum Xpert MTB-RIF</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Repeated measure for GSM1230903 and GSM1230904. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="4"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t>This study identifies 251 Gene Expression Signature that tan qccurately detect M. tuberculosis in patients with and without HIV co-Infection. Consider to add in TBsignatureProfiler?</t>
-    </r>
-  </si>
-  <si>
-    <t>TST, sputum AFB and culture</t>
-  </si>
-  <si>
-    <t>20-55</t>
-  </si>
-  <si>
-    <t>2-14</t>
-  </si>
-  <si>
-    <t>TST, IGRA</t>
-  </si>
-  <si>
-    <t>GSEIndia</t>
-  </si>
-  <si>
-    <t>Repeated measure for TB patients at baseline, 3 months, and 6 months after anti-TB chemotherapy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-Ex vivo blood samples analysed at diagnosis and after 1, 2, 4 and 26 weeks of treatment (Total Measure=135).</t>
-  </si>
-  <si>
-    <t>Sputum culture, TST, IGRA(QFT-GIT)</t>
-  </si>
-  <si>
-    <t>Kaforou</t>
-  </si>
-  <si>
-    <t>Leong_RISK_29</t>
-  </si>
-  <si>
-    <t>Leong_24</t>
-  </si>
-  <si>
-    <t>Zak_RISK_16</t>
-  </si>
-  <si>
-    <t>Thompson_9</t>
-  </si>
-  <si>
-    <t>Thompson_FAIL_13</t>
-  </si>
-  <si>
-    <t>Sloot_HIV_2</t>
-  </si>
-  <si>
-    <t>Sambrey_HIV_10</t>
-  </si>
-  <si>
-    <t>Singhania_OD_20</t>
-  </si>
-  <si>
-    <t>Berry_393</t>
-  </si>
-  <si>
-    <t>Anderson_42</t>
-  </si>
-  <si>
-    <t>Anderson_OD_51</t>
-  </si>
-  <si>
-    <t>Bloom_OD_144</t>
-  </si>
-  <si>
-    <t>Maertzdorf_OD_100</t>
-  </si>
-  <si>
-    <t>Maertzdorf_4</t>
-  </si>
-  <si>
-    <t>Suliman_RISK_4</t>
-  </si>
-  <si>
-    <t>Suliman_4</t>
-  </si>
-  <si>
-    <t>Walter_PNA_47</t>
-  </si>
-  <si>
-    <t>Walter_51</t>
-  </si>
-  <si>
-    <t>Walter_PNA_119</t>
-  </si>
-  <si>
-    <t>GSE81746</t>
-  </si>
-  <si>
-    <t>GPL17077</t>
-  </si>
-  <si>
-    <t>Whole</t>
-  </si>
-  <si>
-    <t>GSE83456</t>
-  </si>
-  <si>
-    <t>25-65</t>
-  </si>
-  <si>
-    <t>Study for progressor. 13 out of 32 controls developed LTBI during follow up, including one control progressed to PTB. Extrapulmonary TB samples available from this dataset.</t>
-  </si>
-  <si>
-    <t>ODs was sarcoidosis.  Extrapulmonary TB samples available from this dataset.</t>
-  </si>
-  <si>
-    <t>GSE83892</t>
-  </si>
-  <si>
-    <t>Positive</t>
-  </si>
-  <si>
-    <t>Blood transcriptional signature of HIV-associated tuberculous meningitis known as immune reconstitution inflammatory syndrome (IRIS). There are a total of 116 samples (33 TBM at 3 timepoints and 17 control at 1 timepoint)</t>
-  </si>
-  <si>
-    <t>GPL15207</t>
-  </si>
-  <si>
-    <t>Mongolian</t>
-  </si>
-  <si>
-    <t>GSE84076</t>
-  </si>
-  <si>
-    <t>Sputum culture, Sputum microscopy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12 pediatric streptococcus, 40 pediatric staphylococcus, 31 still’s disease, 82 pediatric systemic lupus erythematosus (SLE), 28 adult SLE patients.
-</t>
-  </si>
-  <si>
-    <t>Measurement of tuberculosis patients prior to and following treatment. OD was Mycobacterium africanum</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-Longitudinal Study. Blood was taken from the active TB patients at thre time points. Baseline, pre-treatment, 2 months after treatment inititation, and 12 months after treatment initiation. n(PTB)=7</t>
-  </si>
-  <si>
-    <t>GSE19491</t>
-  </si>
-  <si>
-    <t>Tornheim_71</t>
-  </si>
-  <si>
-    <t>Tornheim_RES_25</t>
-  </si>
-  <si>
-    <t>GSE107731</t>
-  </si>
-  <si>
-    <t>Only include samples in the TB studies</t>
-  </si>
-  <si>
-    <t>GSE29536</t>
-  </si>
-  <si>
-    <t>GPL6102</t>
-  </si>
-  <si>
-    <t>One PTB is pooled</t>
-  </si>
-  <si>
-    <t>Sweeney_OD_3</t>
-  </si>
-  <si>
-    <t>Berry_OD_86</t>
-  </si>
-  <si>
-    <t>Verhagen_10</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -841,19 +841,7 @@
       <name val="Calibri (Body)"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri (Body)"/>
-    </font>
-    <font>
       <sz val="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -918,6 +906,13 @@
       <color theme="1"/>
       <name val="Helvetica"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -1059,32 +1054,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="16" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1093,53 +1078,55 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1456,9 +1443,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{715BD991-25C2-914C-95C3-220CF25B2F79}">
   <dimension ref="A1:N51"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A42" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M46" sqref="M46"/>
+      <selection pane="bottomLeft" activeCell="G49" sqref="G49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1471,1929 +1458,2044 @@
     <col min="13" max="13" width="28.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="19" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="19" t="s">
+      <c r="G1" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K1" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="I1" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="K1" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="L1" s="6" t="s">
+      <c r="L1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="M1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="N1" s="6" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" ht="63" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>125</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="N1" s="2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="82" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="J2">
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2">
         <v>27</v>
       </c>
-      <c r="L2">
+      <c r="K2" s="2"/>
+      <c r="L2" s="2">
         <f>H2+I2+J2+K2</f>
         <v>27</v>
       </c>
-      <c r="M2" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="N2" t="s">
-        <v>134</v>
+      <c r="M2" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="70" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>124</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="A3" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="J3">
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2">
         <v>9</v>
       </c>
-      <c r="L3">
+      <c r="K3" s="2"/>
+      <c r="L3" s="2">
         <f t="shared" ref="L3:L50" si="0">H3+I3+J3+K3</f>
         <v>9</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="N3" t="s">
-        <v>134</v>
+        <v>166</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="34" x14ac:dyDescent="0.2">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="30" t="s">
+        <v>95</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="34" t="s">
         <v>98</v>
       </c>
-      <c r="D4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="F4" t="s">
+      <c r="F4" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G4" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="H4">
+      <c r="G4" s="23" t="s">
+        <v>190</v>
+      </c>
+      <c r="H4" s="2">
         <v>9</v>
       </c>
-      <c r="I4">
+      <c r="I4" s="2">
         <v>9</v>
       </c>
-      <c r="J4">
+      <c r="J4" s="2">
         <v>9</v>
       </c>
-      <c r="L4">
+      <c r="K4" s="2"/>
+      <c r="L4" s="2">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="N4" t="s">
-        <v>134</v>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="69" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+      <c r="A5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G5" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="H5">
+      <c r="G5" s="23" t="s">
+        <v>174</v>
+      </c>
+      <c r="H5" s="2">
         <v>6</v>
       </c>
-      <c r="I5">
+      <c r="I5" s="2">
         <v>6</v>
       </c>
-      <c r="J5">
+      <c r="J5" s="2">
         <v>9</v>
       </c>
-      <c r="L5">
+      <c r="K5" s="2"/>
+      <c r="L5" s="2">
         <f>H5+I5+J5+K5</f>
         <v>21</v>
       </c>
-      <c r="M5" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="N5" t="s">
-        <v>134</v>
+      <c r="M5" s="23" t="s">
+        <v>189</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A6" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="B6" t="s">
+      <c r="A6" s="30" t="s">
+        <v>124</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="I6">
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2">
         <v>35</v>
       </c>
-      <c r="J6">
+      <c r="J6" s="2">
         <v>35</v>
       </c>
-      <c r="K6">
+      <c r="K6" s="2">
         <v>39</v>
       </c>
-      <c r="L6">
+      <c r="L6" s="2">
         <f>H6+I6+J6+K6</f>
         <v>109</v>
       </c>
-      <c r="M6" t="s">
+      <c r="M6" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="N6" t="s">
-        <v>134</v>
+      <c r="N6" s="2" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A7" s="5" t="s">
-        <v>237</v>
-      </c>
-      <c r="B7" t="s">
-        <v>227</v>
-      </c>
-      <c r="C7" t="s">
-        <v>228</v>
-      </c>
-      <c r="D7" t="s">
+      <c r="A7" s="30" t="s">
+        <v>230</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E7" s="2"/>
-      <c r="G7" s="4"/>
-      <c r="H7">
+      <c r="E7" s="34"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="23"/>
+      <c r="H7" s="2">
         <v>3</v>
       </c>
-      <c r="J7">
+      <c r="I7" s="2"/>
+      <c r="J7" s="2">
         <v>3</v>
       </c>
-      <c r="L7">
+      <c r="K7" s="2"/>
+      <c r="L7" s="2">
         <v>6</v>
       </c>
-      <c r="N7" t="s">
-        <v>134</v>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="130" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="18" t="s">
-        <v>128</v>
-      </c>
-      <c r="B8" t="s">
+      <c r="A8" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="E8" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F8" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G8" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="I8">
+      <c r="G8" s="23" t="s">
+        <v>164</v>
+      </c>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2">
         <v>104</v>
       </c>
-      <c r="J8">
+      <c r="J8" s="2">
         <v>40</v>
       </c>
-      <c r="L8">
+      <c r="K8" s="2"/>
+      <c r="L8" s="2">
         <f t="shared" si="0"/>
         <v>144</v>
       </c>
-      <c r="M8" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="N8" t="s">
-        <v>135</v>
+      <c r="M8" s="23" t="s">
+        <v>242</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="130" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="39" t="s">
-        <v>229</v>
-      </c>
-      <c r="B9" t="s">
-        <v>105</v>
-      </c>
-      <c r="C9" t="s">
-        <v>107</v>
-      </c>
-      <c r="D9" t="s">
+      <c r="A9" s="30" t="s">
+        <v>223</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="E9" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F9" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G9" s="4" t="s">
-        <v>230</v>
-      </c>
-      <c r="H9">
+      <c r="G9" s="23" t="s">
+        <v>224</v>
+      </c>
+      <c r="H9" s="2">
         <v>12</v>
       </c>
-      <c r="I9">
+      <c r="I9" s="2">
         <v>16</v>
       </c>
-      <c r="J9">
+      <c r="J9" s="2">
         <v>8</v>
       </c>
-      <c r="L9">
+      <c r="K9" s="2"/>
+      <c r="L9" s="2">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="M9" s="4"/>
-      <c r="N9" t="s">
-        <v>135</v>
+      <c r="M9" s="23"/>
+      <c r="N9" s="2" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="119" x14ac:dyDescent="0.2">
-      <c r="A10" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="B10" t="s">
+      <c r="A10" s="30" t="s">
+        <v>111</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E10" s="2"/>
-      <c r="F10" t="s">
+      <c r="E10" s="34"/>
+      <c r="F10" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G10" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="H10">
+      <c r="G10" s="23" t="s">
+        <v>168</v>
+      </c>
+      <c r="H10" s="2">
         <v>100</v>
       </c>
-      <c r="J10">
+      <c r="I10" s="2"/>
+      <c r="J10" s="2">
         <v>38</v>
       </c>
-      <c r="L10">
+      <c r="K10" s="2"/>
+      <c r="L10" s="2">
         <f t="shared" si="0"/>
         <v>138</v>
       </c>
-      <c r="M10" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="N10" t="s">
-        <v>135</v>
+      <c r="M10" s="23" t="s">
+        <v>175</v>
+      </c>
+      <c r="N10" s="2" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="119" x14ac:dyDescent="0.2">
-      <c r="A11" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="B11" t="s">
+      <c r="A11" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C11" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="D11" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="D11" t="s">
-        <v>25</v>
-      </c>
-      <c r="E11" s="11" t="s">
-        <v>93</v>
-      </c>
-      <c r="F11" t="s">
+      <c r="F11" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G11" s="10" t="s">
-        <v>166</v>
-      </c>
-      <c r="H11" s="13"/>
-      <c r="I11" s="13">
+      <c r="G11" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7">
         <v>259</v>
       </c>
-      <c r="J11" s="13">
+      <c r="J11" s="7">
         <v>75</v>
       </c>
-      <c r="K11" s="13"/>
-      <c r="L11">
+      <c r="K11" s="7"/>
+      <c r="L11" s="2">
         <f>H11+I11+J11+K11</f>
         <v>334</v>
       </c>
-      <c r="M11" s="14" t="s">
-        <v>122</v>
-      </c>
-      <c r="N11" t="s">
-        <v>135</v>
+      <c r="M11" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="N11" s="2" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="12" spans="1:14" ht="51" x14ac:dyDescent="0.2">
-      <c r="A12" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="B12" t="s">
+      <c r="A12" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E12" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="F12" t="s">
+      <c r="F12" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G12" t="s">
+      <c r="G12" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="I12">
+      <c r="H12" s="2"/>
+      <c r="I12" s="2">
         <v>33</v>
       </c>
-      <c r="J12">
+      <c r="J12" s="2">
         <v>21</v>
       </c>
-      <c r="L12">
+      <c r="K12" s="2"/>
+      <c r="L12" s="2">
         <f t="shared" si="0"/>
         <v>54</v>
       </c>
-      <c r="M12" s="4" t="s">
+      <c r="M12" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="N12" t="s">
-        <v>135</v>
+      <c r="N12" s="2" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="13" spans="1:14" ht="51" x14ac:dyDescent="0.2">
-      <c r="A13" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="B13" t="s">
+      <c r="A13" s="30" t="s">
+        <v>128</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E13" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="F13" t="s">
+      <c r="F13" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G13" t="s">
+      <c r="G13" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="I13">
+      <c r="H13" s="2"/>
+      <c r="I13" s="2">
         <v>31</v>
       </c>
-      <c r="J13" s="3">
+      <c r="J13" s="2">
         <v>16</v>
       </c>
-      <c r="L13">
+      <c r="K13" s="2"/>
+      <c r="L13" s="2">
         <f t="shared" si="0"/>
         <v>47</v>
       </c>
       <c r="M13" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="N13" t="s">
-        <v>135</v>
+      <c r="N13" s="2" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="14" spans="1:14" ht="62" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="18" t="s">
-        <v>131</v>
-      </c>
-      <c r="B14" t="s">
+      <c r="A14" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E14" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="F14" t="s">
+      <c r="F14" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G14" t="s">
+      <c r="G14" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="H14">
+      <c r="H14" s="2">
         <v>15</v>
       </c>
-      <c r="I14">
+      <c r="I14" s="2">
         <v>16</v>
       </c>
-      <c r="L14">
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2">
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="M14" s="17" t="s">
-        <v>121</v>
-      </c>
-      <c r="N14" t="s">
-        <v>135</v>
+      <c r="M14" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="N14" s="2" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="15" spans="1:14" ht="49" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="18" t="s">
-        <v>132</v>
-      </c>
-      <c r="B15" t="s">
+      <c r="A15" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="B15" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E15" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="F15" t="s">
+      <c r="F15" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G15" t="s">
+      <c r="G15" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="H15">
+      <c r="H15" s="2">
         <v>50</v>
       </c>
-      <c r="I15">
+      <c r="I15" s="2">
         <v>58</v>
       </c>
-      <c r="J15">
+      <c r="J15" s="2">
         <v>53</v>
       </c>
-      <c r="L15">
+      <c r="K15" s="2"/>
+      <c r="L15" s="2">
         <f t="shared" si="0"/>
         <v>161</v>
       </c>
-      <c r="M15" s="17" t="s">
-        <v>94</v>
-      </c>
-      <c r="N15" t="s">
-        <v>135</v>
+      <c r="M15" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="N15" s="2" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="16" spans="1:14" ht="49" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="B16" t="s">
-        <v>106</v>
-      </c>
-      <c r="C16" t="s">
-        <v>108</v>
-      </c>
-      <c r="D16" t="s">
+      <c r="A16" s="30" t="s">
+        <v>103</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D16" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E16" t="s">
-        <v>110</v>
-      </c>
-      <c r="F16" t="s">
+      <c r="E16" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="F16" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G16" s="4" t="s">
-        <v>189</v>
-      </c>
-      <c r="I16">
+      <c r="G16" s="23" t="s">
+        <v>184</v>
+      </c>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2">
         <v>16</v>
       </c>
-      <c r="J16">
+      <c r="J16" s="2">
         <v>28</v>
       </c>
-      <c r="L16">
+      <c r="K16" s="2"/>
+      <c r="L16" s="2">
         <f t="shared" si="0"/>
         <v>44</v>
       </c>
-      <c r="M16" s="4"/>
-      <c r="N16" t="s">
-        <v>135</v>
+      <c r="M16" s="23"/>
+      <c r="N16" s="2" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="17" spans="1:14" ht="49" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>111</v>
-      </c>
-      <c r="B17" t="s">
+      <c r="A17" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B17" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D17" t="s">
+      <c r="C17" s="2"/>
+      <c r="D17" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E17" t="s">
+      <c r="E17" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="F17" s="15" t="s">
+      <c r="F17" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="G17" s="16" t="s">
-        <v>113</v>
-      </c>
-      <c r="H17">
+      <c r="G17" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="H17" s="2">
         <v>16</v>
       </c>
-      <c r="J17">
+      <c r="I17" s="2"/>
+      <c r="J17" s="2">
         <v>17</v>
       </c>
-      <c r="L17">
+      <c r="K17" s="2"/>
+      <c r="L17" s="2">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
-      <c r="M17" s="4"/>
-      <c r="N17" t="s">
-        <v>135</v>
+      <c r="M17" s="23"/>
+      <c r="N17" s="2" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="18" spans="1:14" ht="49" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="17" t="s">
-        <v>119</v>
-      </c>
-      <c r="B18" t="s">
-        <v>105</v>
-      </c>
-      <c r="C18" t="s">
-        <v>107</v>
-      </c>
-      <c r="D18" t="s">
+      <c r="A18" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="D18" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E18" s="31" t="s">
-        <v>183</v>
-      </c>
-      <c r="F18" t="s">
+      <c r="E18" s="35" t="s">
+        <v>179</v>
+      </c>
+      <c r="F18" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G18" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="I18">
+      <c r="G18" s="23" t="s">
+        <v>108</v>
+      </c>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2">
         <v>21</v>
       </c>
-      <c r="J18">
+      <c r="J18" s="2">
         <v>30</v>
       </c>
-      <c r="L18">
+      <c r="K18" s="2"/>
+      <c r="L18" s="2">
         <f t="shared" si="0"/>
         <v>51</v>
       </c>
-      <c r="M18" s="17" t="s">
-        <v>182</v>
-      </c>
-      <c r="N18" t="s">
-        <v>135</v>
+      <c r="M18" s="11" t="s">
+        <v>178</v>
+      </c>
+      <c r="N18" s="2" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="19" spans="1:14" ht="109" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="32" t="s">
-        <v>193</v>
-      </c>
-      <c r="B19" t="s">
-        <v>105</v>
-      </c>
-      <c r="C19" t="s">
-        <v>89</v>
-      </c>
-      <c r="D19" t="s">
+      <c r="A19" s="23" t="s">
+        <v>188</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D19" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E19" s="31" t="s">
-        <v>191</v>
-      </c>
-      <c r="G19" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="H19">
+      <c r="E19" s="35" t="s">
+        <v>186</v>
+      </c>
+      <c r="F19" s="2"/>
+      <c r="G19" s="23" t="s">
+        <v>187</v>
+      </c>
+      <c r="H19" s="2">
         <v>32</v>
       </c>
-      <c r="J19">
+      <c r="I19" s="2"/>
+      <c r="J19" s="2">
         <v>16</v>
       </c>
-      <c r="L19">
+      <c r="K19" s="2"/>
+      <c r="L19" s="2">
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
-      <c r="M19" s="17" t="s">
-        <v>222</v>
-      </c>
-      <c r="N19" t="s">
-        <v>135</v>
+      <c r="M19" s="11" t="s">
+        <v>216</v>
+      </c>
+      <c r="N19" s="2" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="20" spans="1:14" ht="86" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="5" t="s">
+      <c r="A20" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D20" t="s">
+      <c r="C20" s="2"/>
+      <c r="D20" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E20" t="s">
-        <v>190</v>
-      </c>
-      <c r="F20" t="s">
+      <c r="E20" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="F20" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G20" t="s">
-        <v>123</v>
-      </c>
-      <c r="H20">
+      <c r="G20" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="H20" s="2">
         <v>12</v>
       </c>
-      <c r="J20">
+      <c r="I20" s="2"/>
+      <c r="J20" s="2">
         <v>7</v>
       </c>
-      <c r="L20">
+      <c r="K20" s="2"/>
+      <c r="L20" s="2">
         <f>H20+I20+J20+K20</f>
         <v>19</v>
       </c>
-      <c r="M20" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="N20" t="s">
-        <v>95</v>
+      <c r="M20" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="N20" s="2" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A21" s="5" t="s">
+      <c r="A21" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D21" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E21" t="s">
+      <c r="E21" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="F21" t="s">
+      <c r="F21" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G21" t="s">
-        <v>123</v>
-      </c>
-      <c r="H21">
+      <c r="G21" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="H21" s="2">
         <v>12</v>
       </c>
-      <c r="I21">
+      <c r="I21" s="2">
         <v>17</v>
       </c>
-      <c r="J21">
+      <c r="J21" s="2">
         <v>13</v>
       </c>
-      <c r="L21">
+      <c r="K21" s="2"/>
+      <c r="L21" s="2">
         <f>H21+I21+J21+K21</f>
         <v>42</v>
       </c>
-      <c r="N21" t="s">
-        <v>95</v>
+      <c r="M21" s="2"/>
+      <c r="N21" s="2" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="22" spans="1:14" ht="86" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="5" t="s">
+      <c r="A22" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C22" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D22" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E22" t="s">
+      <c r="E22" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="F22" t="s">
+      <c r="F22" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G22" t="s">
-        <v>123</v>
-      </c>
-      <c r="I22">
+      <c r="G22" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2">
         <v>31</v>
       </c>
-      <c r="J22">
+      <c r="J22" s="2">
         <v>20</v>
       </c>
-      <c r="L22">
+      <c r="K22" s="2"/>
+      <c r="L22" s="2">
         <f>H22+I22+J22+K22</f>
         <v>51</v>
       </c>
       <c r="M22" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="N22" t="s">
-        <v>95</v>
+      <c r="N22" s="2" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A23" s="5" t="s">
+      <c r="A23" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C23" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D23" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E23" t="s">
+      <c r="E23" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="F23" t="s">
+      <c r="F23" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G23" t="s">
-        <v>123</v>
-      </c>
-      <c r="H23">
+      <c r="G23" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="H23" s="2">
         <v>16</v>
       </c>
-      <c r="J23">
+      <c r="I23" s="2"/>
+      <c r="J23" s="2">
         <v>28</v>
       </c>
-      <c r="L23">
+      <c r="K23" s="2"/>
+      <c r="L23" s="2">
         <f>H23+I23+J23+K23</f>
         <v>44</v>
       </c>
-      <c r="N23" t="s">
-        <v>95</v>
+      <c r="M23" s="2"/>
+      <c r="N23" s="2" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A24" s="5" t="s">
+      <c r="A24" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C24" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D24" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E24" t="s">
+      <c r="E24" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="F24" t="s">
+      <c r="F24" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G24" t="s">
-        <v>123</v>
-      </c>
-      <c r="H24">
+      <c r="G24" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="H24" s="2">
         <v>12</v>
       </c>
-      <c r="I24">
+      <c r="I24" s="2">
         <v>21</v>
       </c>
-      <c r="J24">
+      <c r="J24" s="2">
         <v>21</v>
       </c>
-      <c r="L24">
+      <c r="K24" s="2"/>
+      <c r="L24" s="2">
         <f t="shared" si="0"/>
         <v>54</v>
       </c>
-      <c r="N24" t="s">
-        <v>95</v>
+      <c r="M24" s="2"/>
+      <c r="N24" s="2" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="25" spans="1:14" ht="102" x14ac:dyDescent="0.2">
-      <c r="A25" s="5" t="s">
+      <c r="A25" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D25" t="s">
+      <c r="C25" s="2"/>
+      <c r="D25" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E25" s="8" t="s">
+      <c r="E25" s="36" t="s">
         <v>41</v>
       </c>
-      <c r="F25" t="s">
+      <c r="F25" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G25" t="s">
-        <v>123</v>
-      </c>
-      <c r="H25">
+      <c r="G25" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="H25" s="2">
         <v>81</v>
       </c>
-      <c r="K25">
+      <c r="I25" s="2"/>
+      <c r="J25" s="2"/>
+      <c r="K25" s="2">
         <v>193</v>
       </c>
-      <c r="L25">
+      <c r="L25" s="2">
         <f t="shared" si="0"/>
         <v>274</v>
       </c>
       <c r="M25" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="N25" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" ht="109" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="23" t="s">
+        <v>232</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E26" s="35"/>
+      <c r="F26" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G26" s="23"/>
+      <c r="H26" s="2">
+        <v>6</v>
+      </c>
+      <c r="I26" s="2"/>
+      <c r="J26" s="2">
+        <v>9</v>
+      </c>
+      <c r="K26" s="2"/>
+      <c r="L26" s="2">
+        <v>15</v>
+      </c>
+      <c r="M26" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="N25" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" ht="109" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="32" t="s">
-        <v>239</v>
-      </c>
-      <c r="B26" t="s">
-        <v>240</v>
-      </c>
-      <c r="C26" t="s">
-        <v>27</v>
-      </c>
-      <c r="D26" t="s">
+      <c r="N26" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" ht="153" x14ac:dyDescent="0.2">
+      <c r="A27" s="30" t="s">
+        <v>72</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D27" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E26" s="31"/>
-      <c r="F26" t="s">
-        <v>15</v>
-      </c>
-      <c r="G26" s="4"/>
-      <c r="H26">
-        <v>6</v>
-      </c>
-      <c r="J26">
-        <v>9</v>
-      </c>
-      <c r="L26">
-        <v>15</v>
-      </c>
-      <c r="M26" s="9" t="s">
-        <v>238</v>
-      </c>
-      <c r="N26" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" ht="153" x14ac:dyDescent="0.2">
-      <c r="A27" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="B27" t="s">
-        <v>63</v>
-      </c>
-      <c r="C27" t="s">
-        <v>65</v>
-      </c>
-      <c r="D27" t="s">
-        <v>25</v>
-      </c>
-      <c r="E27" t="s">
+      <c r="E27" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F27" s="15" t="s">
+      <c r="F27" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="G27" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="I27">
+      <c r="G27" s="23" t="s">
+        <v>174</v>
+      </c>
+      <c r="H27" s="2"/>
+      <c r="I27" s="2">
         <v>167</v>
       </c>
-      <c r="J27">
+      <c r="J27" s="2">
         <v>195</v>
       </c>
-      <c r="K27">
+      <c r="K27" s="2">
         <v>175</v>
       </c>
-      <c r="L27">
+      <c r="L27" s="2">
         <f>H27+I27+J27+K27</f>
         <v>537</v>
       </c>
-      <c r="M27" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="N27" t="s">
-        <v>95</v>
+      <c r="M27" s="23" t="s">
+        <v>182</v>
+      </c>
+      <c r="N27" s="2" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="28" spans="1:14" ht="85" x14ac:dyDescent="0.2">
-      <c r="A28" s="5" t="s">
+      <c r="A28" s="30" t="s">
         <v>61</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C28" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="D28" t="s">
+      <c r="D28" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E28" t="s">
+      <c r="E28" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="F28" s="15" t="s">
+      <c r="F28" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="G28" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="I28">
+      <c r="G28" s="23" t="s">
+        <v>180</v>
+      </c>
+      <c r="H28" s="2"/>
+      <c r="I28" s="2">
         <v>14</v>
       </c>
-      <c r="J28">
+      <c r="J28" s="2">
         <v>79</v>
       </c>
-      <c r="K28">
+      <c r="K28" s="2">
         <v>64</v>
       </c>
-      <c r="L28">
+      <c r="L28" s="2">
         <f t="shared" si="0"/>
         <v>157</v>
       </c>
-      <c r="M28" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="N28" t="s">
-        <v>95</v>
+      <c r="M28" s="23" t="s">
+        <v>181</v>
+      </c>
+      <c r="N28" s="2" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="29" spans="1:14" ht="85" x14ac:dyDescent="0.2">
-      <c r="A29" s="5" t="s">
+      <c r="A29" s="30" t="s">
         <v>62</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C29" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="D29" t="s">
+      <c r="C29" s="23" t="s">
+        <v>102</v>
+      </c>
+      <c r="D29" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E29" t="s">
+      <c r="E29" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="F29" s="15" t="s">
+      <c r="F29" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="G29" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="I29">
+      <c r="G29" s="23" t="s">
+        <v>180</v>
+      </c>
+      <c r="H29" s="2"/>
+      <c r="I29" s="2">
         <v>54</v>
       </c>
-      <c r="J29">
+      <c r="J29" s="2">
         <v>111</v>
       </c>
-      <c r="K29">
+      <c r="K29" s="2">
         <v>169</v>
       </c>
-      <c r="L29">
+      <c r="L29" s="2">
         <f t="shared" si="0"/>
         <v>334</v>
       </c>
-      <c r="M29" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="N29" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14" ht="113" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="B30" t="s">
+      <c r="M29" s="23" t="s">
+        <v>181</v>
+      </c>
+      <c r="N29" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" ht="108" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="30" t="s">
+        <v>140</v>
+      </c>
+      <c r="B30" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C30" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="D30" t="s">
+      <c r="C30" s="23" t="s">
+        <v>244</v>
+      </c>
+      <c r="D30" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="F30" s="15"/>
-      <c r="I30">
+      <c r="E30" s="2"/>
+      <c r="F30" s="9"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
+      <c r="I30" s="2">
         <v>38</v>
       </c>
-      <c r="J30">
+      <c r="J30" s="2">
         <v>37</v>
       </c>
-      <c r="L30">
+      <c r="K30" s="2"/>
+      <c r="L30" s="2">
         <f t="shared" si="0"/>
         <v>75</v>
       </c>
-      <c r="M30" s="4" t="s">
+      <c r="M30" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="N30" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" ht="68" x14ac:dyDescent="0.2">
+      <c r="A31" s="30" t="s">
         <v>77</v>
       </c>
-      <c r="N30" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14" ht="68" x14ac:dyDescent="0.2">
-      <c r="A31" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="B31" t="s">
+      <c r="B31" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C31" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="D31" t="s">
+      <c r="D31" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E31" t="s">
+      <c r="E31" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F31" t="s">
+      <c r="F31" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G31" t="s">
+      <c r="G31" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="H31">
+      <c r="H31" s="2">
         <v>23</v>
       </c>
-      <c r="J31">
+      <c r="I31" s="2"/>
+      <c r="J31" s="2">
         <v>8</v>
       </c>
-      <c r="K31">
+      <c r="K31" s="2">
         <v>11</v>
       </c>
-      <c r="L31">
+      <c r="L31" s="2">
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
-      <c r="M31" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="N31" t="s">
-        <v>95</v>
+      <c r="M31" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="N31" s="2" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="32" spans="1:14" ht="85" x14ac:dyDescent="0.2">
-      <c r="A32" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="B32" t="s">
+      <c r="A32" s="30" t="s">
+        <v>78</v>
+      </c>
+      <c r="B32" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C32" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="D32" t="s">
+      <c r="D32" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E32" t="s">
+      <c r="E32" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F32" t="s">
+      <c r="F32" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G32" t="s">
+      <c r="G32" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="H32">
+      <c r="H32" s="2">
         <v>52</v>
       </c>
-      <c r="J32">
+      <c r="I32" s="2"/>
+      <c r="J32" s="2">
         <v>11</v>
       </c>
-      <c r="K32">
+      <c r="K32" s="2">
         <v>39</v>
       </c>
-      <c r="L32">
+      <c r="L32" s="2">
         <f t="shared" si="0"/>
         <v>102</v>
       </c>
-      <c r="M32" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="N32" t="s">
-        <v>95</v>
+      <c r="M32" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="N32" s="2" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="33" spans="1:14" ht="17" x14ac:dyDescent="0.2">
-      <c r="A33" s="29" t="s">
-        <v>80</v>
-      </c>
-      <c r="B33" t="s">
+      <c r="A33" s="37" t="s">
+        <v>79</v>
+      </c>
+      <c r="B33" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C33" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="D33" t="s">
+      <c r="D33" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E33" t="s">
+      <c r="E33" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F33" t="s">
+      <c r="F33" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="K33">
+      <c r="G33" s="2"/>
+      <c r="H33" s="2"/>
+      <c r="I33" s="2"/>
+      <c r="J33" s="2"/>
+      <c r="K33" s="2">
         <v>5</v>
       </c>
-      <c r="L33">
+      <c r="L33" s="2">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="M33" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="N33" t="s">
-        <v>95</v>
+      <c r="M33" s="23" t="s">
+        <v>85</v>
+      </c>
+      <c r="N33" s="2" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="34" spans="1:14" ht="85" x14ac:dyDescent="0.2">
-      <c r="A34" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="B34" t="s">
+      <c r="A34" s="30" t="s">
+        <v>80</v>
+      </c>
+      <c r="B34" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C34" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="D34" t="s">
+      <c r="D34" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E34" t="s">
+      <c r="E34" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F34" t="s">
+      <c r="F34" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G34" t="s">
+      <c r="G34" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="H34">
+      <c r="H34" s="2">
         <v>38</v>
       </c>
-      <c r="J34">
+      <c r="I34" s="2"/>
+      <c r="J34" s="2">
         <v>16</v>
       </c>
-      <c r="K34">
+      <c r="K34" s="2">
         <v>41</v>
       </c>
-      <c r="L34">
+      <c r="L34" s="2">
         <f t="shared" si="0"/>
         <v>95</v>
       </c>
-      <c r="M34" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="N34" t="s">
-        <v>95</v>
+      <c r="M34" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="N34" s="2" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="35" spans="1:14" ht="34" x14ac:dyDescent="0.2">
-      <c r="A35" s="29" t="s">
-        <v>82</v>
-      </c>
-      <c r="B35" t="s">
+      <c r="A35" s="37" t="s">
+        <v>81</v>
+      </c>
+      <c r="B35" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C35" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="D35" t="s">
+      <c r="D35" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E35" t="s">
+      <c r="E35" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F35" t="s">
+      <c r="F35" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="K35">
+      <c r="G35" s="2"/>
+      <c r="H35" s="2"/>
+      <c r="I35" s="2"/>
+      <c r="J35" s="2"/>
+      <c r="K35" s="2">
         <v>7</v>
       </c>
-      <c r="L35">
+      <c r="L35" s="2">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="M35" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="N35" t="s">
-        <v>95</v>
+      <c r="M35" s="23" t="s">
+        <v>170</v>
+      </c>
+      <c r="N35" s="2" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="36" spans="1:14" ht="102" x14ac:dyDescent="0.2">
-      <c r="A36" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="B36" t="s">
+      <c r="A36" s="30" t="s">
+        <v>82</v>
+      </c>
+      <c r="B36" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C36" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="D36" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="E36" t="s">
+      <c r="D36" s="23" t="s">
+        <v>87</v>
+      </c>
+      <c r="E36" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F36" t="s">
+      <c r="F36" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G36" t="s">
+      <c r="G36" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="H36">
+      <c r="H36" s="2">
         <v>5</v>
       </c>
-      <c r="J36">
+      <c r="I36" s="2"/>
+      <c r="J36" s="2">
         <v>5</v>
       </c>
-      <c r="K36">
+      <c r="K36" s="2">
         <v>5</v>
       </c>
-      <c r="L36">
+      <c r="L36" s="2">
         <f t="shared" ref="L36:L43" si="1">H36+I36+J36+K36</f>
         <v>15</v>
       </c>
-      <c r="M36" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="N36" t="s">
-        <v>95</v>
+      <c r="M36" s="23" t="s">
+        <v>171</v>
+      </c>
+      <c r="N36" s="2" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="37" spans="1:14" ht="153" x14ac:dyDescent="0.2">
-      <c r="A37" s="5" t="s">
+      <c r="A37" s="30" t="s">
         <v>74</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B37" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C37" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D37" t="s">
+      <c r="D37" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E37" t="s">
+      <c r="E37" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="F37" s="15" t="s">
-        <v>165</v>
-      </c>
-      <c r="H37">
+      <c r="F37" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="G37" s="2"/>
+      <c r="H37" s="2">
         <v>22</v>
       </c>
-      <c r="I37">
+      <c r="I37" s="2">
         <v>21</v>
       </c>
-      <c r="L37">
+      <c r="J37" s="2"/>
+      <c r="K37" s="2"/>
+      <c r="L37" s="2">
         <f t="shared" si="1"/>
         <v>43</v>
       </c>
-      <c r="M37" s="4" t="s">
-        <v>188</v>
-      </c>
-      <c r="N37" t="s">
-        <v>95</v>
+      <c r="M37" s="23" t="s">
+        <v>238</v>
+      </c>
+      <c r="N37" s="2" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="38" spans="1:14" ht="69" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="5" t="s">
+      <c r="A38" s="30" t="s">
         <v>68</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B38" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C38" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="D38" t="s">
+      <c r="D38" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E38" s="8" t="s">
+      <c r="E38" s="36" t="s">
         <v>71</v>
       </c>
-      <c r="F38" t="s">
+      <c r="F38" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G38" s="4" t="s">
+      <c r="G38" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="H38">
+      <c r="H38" s="2">
         <v>18</v>
       </c>
-      <c r="J38">
+      <c r="I38" s="2"/>
+      <c r="J38" s="2">
         <v>18</v>
       </c>
-      <c r="L38">
+      <c r="K38" s="2"/>
+      <c r="L38" s="2">
         <f t="shared" si="1"/>
         <v>36</v>
       </c>
-      <c r="M38" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="N38" t="s">
-        <v>95</v>
+      <c r="M38" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="N38" s="2" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="39" spans="1:14" ht="68" x14ac:dyDescent="0.2">
-      <c r="A39" s="5" t="s">
+      <c r="A39" s="30" t="s">
         <v>73</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B39" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C39" t="s">
+      <c r="C39" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D39" t="s">
+      <c r="D39" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E39" t="s">
+      <c r="E39" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F39" s="15" t="s">
-        <v>165</v>
-      </c>
-      <c r="G39" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="I39">
+      <c r="F39" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="G39" s="23" t="s">
+        <v>183</v>
+      </c>
+      <c r="H39" s="2"/>
+      <c r="I39" s="2">
         <v>25</v>
       </c>
-      <c r="J39">
+      <c r="J39" s="2">
         <v>15</v>
       </c>
-      <c r="L39">
+      <c r="K39" s="2"/>
+      <c r="L39" s="2">
         <f t="shared" si="1"/>
         <v>40</v>
       </c>
-      <c r="M39" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="N39" t="s">
-        <v>95</v>
+      <c r="M39" s="23" t="s">
+        <v>165</v>
+      </c>
+      <c r="N39" s="2" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="40" spans="1:14" ht="51" x14ac:dyDescent="0.2">
-      <c r="A40" s="5" t="s">
-        <v>220</v>
-      </c>
-      <c r="B40" t="s">
+      <c r="A40" s="30" t="s">
+        <v>214</v>
+      </c>
+      <c r="B40" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C40" t="s">
+      <c r="C40" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D40" s="4" t="s">
+      <c r="D40" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="F40" t="s">
+      <c r="E40" s="2"/>
+      <c r="F40" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G40" t="s">
-        <v>123</v>
-      </c>
-      <c r="H40">
+      <c r="G40" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="H40" s="2">
         <v>61</v>
       </c>
-      <c r="J40">
+      <c r="I40" s="2"/>
+      <c r="J40" s="2">
         <v>45</v>
       </c>
-      <c r="K40">
+      <c r="K40" s="2">
         <v>49</v>
       </c>
-      <c r="L40">
+      <c r="L40" s="2">
         <f t="shared" si="1"/>
         <v>155</v>
       </c>
-      <c r="M40" s="4" t="s">
-        <v>223</v>
-      </c>
-      <c r="N40" t="s">
-        <v>95</v>
+      <c r="M40" s="23" t="s">
+        <v>217</v>
+      </c>
+      <c r="N40" s="2" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="41" spans="1:14" ht="136" x14ac:dyDescent="0.2">
-      <c r="A41" s="5" t="s">
-        <v>224</v>
-      </c>
-      <c r="B41" t="s">
+      <c r="A41" s="30" t="s">
+        <v>218</v>
+      </c>
+      <c r="B41" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C41" t="s">
+      <c r="C41" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D41" s="4" t="s">
+      <c r="D41" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="E41" t="s">
+      <c r="E41" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F41" t="s">
-        <v>225</v>
-      </c>
-      <c r="H41">
+      <c r="F41" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="G41" s="2"/>
+      <c r="H41" s="2">
         <v>17</v>
       </c>
-      <c r="J41">
+      <c r="I41" s="2"/>
+      <c r="J41" s="2">
         <v>33</v>
       </c>
-      <c r="L41">
+      <c r="K41" s="2"/>
+      <c r="L41" s="2">
         <f t="shared" si="1"/>
         <v>50</v>
       </c>
-      <c r="M41" s="4" t="s">
-        <v>226</v>
-      </c>
-      <c r="N41" t="s">
-        <v>95</v>
+      <c r="M41" s="23" t="s">
+        <v>220</v>
+      </c>
+      <c r="N41" s="2" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="42" spans="1:14" ht="34" x14ac:dyDescent="0.2">
-      <c r="A42" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="B42" t="s">
+      <c r="A42" s="30" t="s">
+        <v>117</v>
+      </c>
+      <c r="B42" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C42" t="s">
-        <v>89</v>
-      </c>
-      <c r="D42" t="s">
+      <c r="C42" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D42" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E42" t="s">
-        <v>117</v>
-      </c>
-      <c r="F42" t="s">
+      <c r="E42" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="F42" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G42" t="s">
+      <c r="G42" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="H42">
+      <c r="H42" s="2">
         <v>29</v>
       </c>
-      <c r="J42">
+      <c r="I42" s="2"/>
+      <c r="J42" s="2">
         <v>53</v>
       </c>
-      <c r="K42">
+      <c r="K42" s="2">
         <v>28</v>
       </c>
-      <c r="L42">
+      <c r="L42" s="2">
         <f t="shared" si="1"/>
         <v>110</v>
       </c>
-      <c r="M42" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="N42" t="s">
-        <v>95</v>
+      <c r="M42" s="23" t="s">
+        <v>115</v>
+      </c>
+      <c r="N42" s="2" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="43" spans="1:14" ht="51" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
+      <c r="A43" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B43" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="B43" t="s">
-        <v>102</v>
-      </c>
-      <c r="D43" t="s">
+      <c r="C43" s="2"/>
+      <c r="D43" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="G43" s="4" t="s">
-        <v>180</v>
-      </c>
-      <c r="H43">
+      <c r="E43" s="2"/>
+      <c r="F43" s="2"/>
+      <c r="G43" s="23" t="s">
+        <v>176</v>
+      </c>
+      <c r="H43" s="2">
         <v>13</v>
       </c>
-      <c r="I43">
+      <c r="I43" s="2">
         <v>45</v>
       </c>
-      <c r="J43">
+      <c r="J43" s="2">
         <v>44</v>
       </c>
-      <c r="L43">
+      <c r="K43" s="2"/>
+      <c r="L43" s="2">
         <f t="shared" si="1"/>
         <v>102</v>
       </c>
-      <c r="M43" s="4"/>
-      <c r="N43" t="s">
-        <v>164</v>
+      <c r="M43" s="23"/>
+      <c r="N43" s="2" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="44" spans="1:14" ht="51" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
+      <c r="A44" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B44" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C44" t="s">
+      <c r="C44" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="D44" t="s">
+      <c r="D44" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E44" t="s">
+      <c r="E44" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="F44" t="s">
+      <c r="F44" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G44" s="9" t="s">
+      <c r="G44" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="H44">
+      <c r="H44" s="2">
         <v>37</v>
       </c>
-      <c r="I44">
+      <c r="I44" s="2">
         <v>25</v>
       </c>
-      <c r="J44">
+      <c r="J44" s="2">
         <v>46</v>
       </c>
-      <c r="L44">
+      <c r="K44" s="2"/>
+      <c r="L44" s="2">
         <f t="shared" si="0"/>
         <v>108</v>
       </c>
-      <c r="N44" t="s">
-        <v>160</v>
+      <c r="M44" s="2"/>
+      <c r="N44" s="2" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="45" spans="1:14" ht="17" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
+      <c r="A45" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B45" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C45" t="s">
+      <c r="C45" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="D45" t="s">
+      <c r="D45" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E45" t="s">
+      <c r="E45" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="F45" t="s">
+      <c r="F45" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H45">
+      <c r="G45" s="2"/>
+      <c r="H45" s="2">
         <v>18</v>
       </c>
-      <c r="J45">
+      <c r="I45" s="2"/>
+      <c r="J45" s="2">
         <v>8</v>
       </c>
-      <c r="K45">
+      <c r="K45" s="2">
         <v>18</v>
       </c>
-      <c r="L45">
+      <c r="L45" s="2">
         <f t="shared" si="0"/>
         <v>44</v>
       </c>
-      <c r="M45" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="N45" t="s">
-        <v>160</v>
+      <c r="M45" s="23" t="s">
+        <v>167</v>
+      </c>
+      <c r="N45" s="2" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="46" spans="1:14" ht="68" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
-        <v>100</v>
-      </c>
-      <c r="B46" t="s">
+      <c r="A46" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B46" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C46" t="s">
+      <c r="C46" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="D46" t="s">
+      <c r="D46" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F46" t="s">
+      <c r="E46" s="2"/>
+      <c r="F46" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G46" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="J46">
+      <c r="G46" s="23" t="s">
+        <v>164</v>
+      </c>
+      <c r="H46" s="2"/>
+      <c r="I46" s="2"/>
+      <c r="J46" s="2">
         <v>14</v>
       </c>
-      <c r="K46">
+      <c r="K46" s="2">
         <v>12</v>
       </c>
-      <c r="L46">
+      <c r="L46" s="2">
         <f>H46+I46+J46+K46</f>
         <v>26</v>
       </c>
-      <c r="M46" s="30" t="s">
-        <v>232</v>
-      </c>
-      <c r="N46" t="s">
-        <v>160</v>
+      <c r="M46" s="22" t="s">
+        <v>226</v>
+      </c>
+      <c r="N46" s="2" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="47" spans="1:14" ht="17" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
-        <v>217</v>
-      </c>
-      <c r="B47" t="s">
-        <v>218</v>
-      </c>
-      <c r="C47" t="s">
-        <v>89</v>
-      </c>
-      <c r="D47" t="s">
-        <v>219</v>
-      </c>
-      <c r="E47" t="s">
-        <v>221</v>
-      </c>
-      <c r="G47" s="4"/>
-      <c r="H47">
+      <c r="A47" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="F47" s="2"/>
+      <c r="G47" s="23"/>
+      <c r="H47" s="2">
         <v>2</v>
       </c>
-      <c r="I47">
+      <c r="I47" s="2">
         <v>1</v>
       </c>
-      <c r="J47">
+      <c r="J47" s="2">
         <v>5</v>
       </c>
-      <c r="L47">
+      <c r="K47" s="2"/>
+      <c r="L47" s="2">
         <f>H47+I47+J47+K47</f>
         <v>8</v>
       </c>
-      <c r="M47" s="30" t="s">
-        <v>241</v>
-      </c>
-      <c r="N47" t="s">
-        <v>160</v>
+      <c r="M47" s="22" t="s">
+        <v>234</v>
+      </c>
+      <c r="N47" s="2" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="48" spans="1:14" ht="34" x14ac:dyDescent="0.2">
-      <c r="A48" t="s">
+      <c r="A48" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B48" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C48" t="s">
+      <c r="C48" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="D48" t="s">
+      <c r="D48" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F48" t="s">
+      <c r="E48" s="2"/>
+      <c r="F48" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H48">
+      <c r="G48" s="2"/>
+      <c r="H48" s="2">
         <v>7</v>
       </c>
-      <c r="I48">
+      <c r="I48" s="2">
         <v>7</v>
       </c>
-      <c r="J48">
+      <c r="J48" s="2">
         <v>7</v>
       </c>
-      <c r="L48">
+      <c r="K48" s="2"/>
+      <c r="L48" s="2">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="M48" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="N48" s="28" t="s">
-        <v>161</v>
+      <c r="M48" s="23" t="s">
+        <v>173</v>
+      </c>
+      <c r="N48" s="21" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="49" spans="1:14" ht="85" x14ac:dyDescent="0.2">
-      <c r="A49" t="s">
+      <c r="A49" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B49" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C49" t="s">
-        <v>89</v>
-      </c>
-      <c r="D49" t="s">
+      <c r="C49" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D49" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="F49" t="s">
+      <c r="E49" s="2"/>
+      <c r="F49" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G49" t="s">
-        <v>173</v>
-      </c>
-      <c r="H49">
+      <c r="G49" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="H49" s="2">
         <v>76</v>
       </c>
-      <c r="J49">
+      <c r="I49" s="2"/>
+      <c r="J49" s="2">
         <v>113</v>
       </c>
-      <c r="L49">
+      <c r="K49" s="2"/>
+      <c r="L49" s="2">
         <f t="shared" si="0"/>
         <v>189</v>
       </c>
-      <c r="M49" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="N49" t="s">
-        <v>162</v>
+      <c r="M49" s="23" t="s">
+        <v>240</v>
+      </c>
+      <c r="N49" s="2" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="50" spans="1:14" ht="51" x14ac:dyDescent="0.2">
-      <c r="A50" t="s">
+      <c r="A50" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B50" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="D50" t="s">
+      <c r="C50" s="2"/>
+      <c r="D50" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F50" t="s">
+      <c r="E50" s="2"/>
+      <c r="F50" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G50" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="H50">
+      <c r="G50" s="23" t="s">
+        <v>89</v>
+      </c>
+      <c r="H50" s="2">
         <v>36</v>
       </c>
-      <c r="I50">
+      <c r="I50" s="2">
         <v>17</v>
       </c>
-      <c r="J50">
+      <c r="J50" s="2">
         <v>19</v>
       </c>
-      <c r="L50">
+      <c r="K50" s="2"/>
+      <c r="L50" s="2">
         <f t="shared" si="0"/>
         <v>72</v>
       </c>
-      <c r="M50" s="4" t="s">
-        <v>181</v>
-      </c>
-      <c r="N50" s="28" t="s">
-        <v>163</v>
+      <c r="M50" s="23" t="s">
+        <v>177</v>
+      </c>
+      <c r="N50" s="21" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A51" t="s">
+      <c r="A51" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G51" s="4"/>
-      <c r="H51">
+      <c r="B51" s="2"/>
+      <c r="C51" s="2"/>
+      <c r="D51" s="2"/>
+      <c r="E51" s="2"/>
+      <c r="F51" s="2"/>
+      <c r="G51" s="23"/>
+      <c r="H51" s="2">
         <f>SUM(H3:H50)</f>
         <v>836</v>
       </c>
-      <c r="I51">
+      <c r="I51" s="2">
         <f>SUM(I3:I50)</f>
         <v>1087</v>
       </c>
-      <c r="J51">
+      <c r="J51" s="2">
         <f>SUM(J3:J50)</f>
         <v>1387</v>
       </c>
-      <c r="K51">
+      <c r="K51" s="2">
         <f>SUM(K3:K50)</f>
         <v>855</v>
       </c>
-      <c r="L51">
+      <c r="L51" s="2">
         <f>SUM(L3:L50)</f>
         <v>4165</v>
       </c>
-      <c r="M51" s="4"/>
+      <c r="M51" s="23"/>
+      <c r="N51" s="2"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
     <ignoredError sqref="E25 E18" twoDigitTextYear="1"/>
@@ -3417,478 +3519,478 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A2" s="13" t="s">
         <v>136</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B2" s="14" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A3" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A4" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A5" s="13" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A2" s="20" t="s">
+      <c r="B5" s="14" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A6" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A7" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A8" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="B8" s="14" t="s">
         <v>138</v>
       </c>
-      <c r="B2" s="21" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A3" s="20" t="s">
-        <v>138</v>
-      </c>
-      <c r="B3" s="21" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A4" s="20" t="s">
-        <v>138</v>
-      </c>
-      <c r="B4" s="21" t="s">
+    </row>
+    <row r="9" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A9" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A10" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="B10" s="14" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A11" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A12" s="15" t="s">
+        <v>139</v>
+      </c>
+      <c r="B12" s="14" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A13" s="15" t="s">
+        <v>139</v>
+      </c>
+      <c r="B13" s="14" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A14" s="15" t="s">
+        <v>139</v>
+      </c>
+      <c r="B14" s="14" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A15" s="15" t="s">
+        <v>139</v>
+      </c>
+      <c r="B15" s="14" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A16" s="15" t="s">
+        <v>139</v>
+      </c>
+      <c r="B16" s="14" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A17" s="15" t="s">
+        <v>139</v>
+      </c>
+      <c r="B17" s="14" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A18" s="15" t="s">
+        <v>139</v>
+      </c>
+      <c r="B18" s="14" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A19" s="16" t="s">
+        <v>141</v>
+      </c>
+      <c r="B19" s="17" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A20" s="16" t="s">
+        <v>141</v>
+      </c>
+      <c r="B20" s="17" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A21" s="16" t="s">
+        <v>141</v>
+      </c>
+      <c r="B21" s="17" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A22" s="16" t="s">
+        <v>141</v>
+      </c>
+      <c r="B22" s="17" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A23" s="16" t="s">
+        <v>141</v>
+      </c>
+      <c r="B23" s="17" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A24" s="16" t="s">
+        <v>141</v>
+      </c>
+      <c r="B24" s="17" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A25" s="13" t="s">
+        <v>142</v>
+      </c>
+      <c r="B25" s="14" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A26" s="13" t="s">
+        <v>143</v>
+      </c>
+      <c r="B26" s="14" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A27" s="15" t="s">
+        <v>144</v>
+      </c>
+      <c r="B27" s="25" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A28" s="27" t="s">
+        <v>145</v>
+      </c>
+      <c r="B28" s="14" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A29" s="16" t="s">
+        <v>145</v>
+      </c>
+      <c r="B29" s="26" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A30" s="13" t="s">
+        <v>146</v>
+      </c>
+      <c r="B30" s="14" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A31" s="13" t="s">
+        <v>146</v>
+      </c>
+      <c r="B31" s="14" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A32" s="13" t="s">
+        <v>146</v>
+      </c>
+      <c r="B32" s="14" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A33" s="13" t="s">
+        <v>146</v>
+      </c>
+      <c r="B33" s="14" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A34" s="13" t="s">
+        <v>146</v>
+      </c>
+      <c r="B34" s="14" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A35" s="13" t="s">
+        <v>148</v>
+      </c>
+      <c r="B35" s="14" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A36" s="13" t="s">
+        <v>148</v>
+      </c>
+      <c r="B36" s="14" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A37" s="13" t="s">
+        <v>148</v>
+      </c>
+      <c r="B37" s="14" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A38" s="13" t="s">
+        <v>148</v>
+      </c>
+      <c r="B38" s="14" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A39" s="18" t="s">
+        <v>149</v>
+      </c>
+      <c r="B39" s="17" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A40" s="18" t="s">
+        <v>149</v>
+      </c>
+      <c r="B40" s="17" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A41" s="18" t="s">
+        <v>149</v>
+      </c>
+      <c r="B41" s="17" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A42" s="18" t="s">
+        <v>149</v>
+      </c>
+      <c r="B42" s="17" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A43" s="18" t="s">
+        <v>149</v>
+      </c>
+      <c r="B43" s="17" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A44" s="18" t="s">
+        <v>149</v>
+      </c>
+      <c r="B44" s="17" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A45" s="18" t="s">
+        <v>149</v>
+      </c>
+      <c r="B45" s="14" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A46" s="18" t="s">
+        <v>149</v>
+      </c>
+      <c r="B46" s="14" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A47" s="18" t="s">
+        <v>149</v>
+      </c>
+      <c r="B47" s="14" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A48" s="18" t="s">
+        <v>149</v>
+      </c>
+      <c r="B48" s="14" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A49" s="18" t="s">
+        <v>149</v>
+      </c>
+      <c r="B49" s="14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A50" s="18" t="s">
+        <v>149</v>
+      </c>
+      <c r="B50" s="14" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A51" s="18" t="s">
+        <v>149</v>
+      </c>
+      <c r="B51" s="14" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A52" s="18" t="s">
+        <v>149</v>
+      </c>
+      <c r="B52" s="14" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A5" s="20" t="s">
-        <v>139</v>
-      </c>
-      <c r="B5" s="21" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A6" s="20" t="s">
-        <v>139</v>
-      </c>
-      <c r="B6" s="21" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A7" s="20" t="s">
-        <v>139</v>
-      </c>
-      <c r="B7" s="21" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A8" s="20" t="s">
-        <v>139</v>
-      </c>
-      <c r="B8" s="21" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A9" s="20" t="s">
-        <v>139</v>
-      </c>
-      <c r="B9" s="21" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A10" s="20" t="s">
-        <v>139</v>
-      </c>
-      <c r="B10" s="21" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A11" s="20" t="s">
-        <v>139</v>
-      </c>
-      <c r="B11" s="21" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A12" s="22" t="s">
-        <v>141</v>
-      </c>
-      <c r="B12" s="21" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A13" s="22" t="s">
-        <v>141</v>
-      </c>
-      <c r="B13" s="21" t="s">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A53" s="18" t="s">
+        <v>150</v>
+      </c>
+      <c r="B53" s="14" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A54" s="18" t="s">
+        <v>151</v>
+      </c>
+      <c r="B54" s="14" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A14" s="22" t="s">
-        <v>141</v>
-      </c>
-      <c r="B14" s="21" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A15" s="22" t="s">
-        <v>141</v>
-      </c>
-      <c r="B15" s="21" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A16" s="22" t="s">
-        <v>141</v>
-      </c>
-      <c r="B16" s="21" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A17" s="22" t="s">
-        <v>141</v>
-      </c>
-      <c r="B17" s="21" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A18" s="22" t="s">
-        <v>141</v>
-      </c>
-      <c r="B18" s="21" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A19" s="23" t="s">
-        <v>143</v>
-      </c>
-      <c r="B19" s="24" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A20" s="23" t="s">
-        <v>143</v>
-      </c>
-      <c r="B20" s="24" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A21" s="23" t="s">
-        <v>143</v>
-      </c>
-      <c r="B21" s="24" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A22" s="23" t="s">
-        <v>143</v>
-      </c>
-      <c r="B22" s="24" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A23" s="23" t="s">
-        <v>143</v>
-      </c>
-      <c r="B23" s="24" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A24" s="23" t="s">
-        <v>143</v>
-      </c>
-      <c r="B24" s="24" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A25" s="20" t="s">
-        <v>144</v>
-      </c>
-      <c r="B25" s="21" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A26" s="20" t="s">
-        <v>145</v>
-      </c>
-      <c r="B26" s="21" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A27" s="22" t="s">
-        <v>146</v>
-      </c>
-      <c r="B27" s="34" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A28" s="36" t="s">
-        <v>147</v>
-      </c>
-      <c r="B28" s="21" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A29" s="23" t="s">
-        <v>147</v>
-      </c>
-      <c r="B29" s="35" t="s">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A55" s="19" t="s">
+        <v>152</v>
+      </c>
+      <c r="B55" s="14" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A56" s="18" t="s">
+        <v>191</v>
+      </c>
+      <c r="B56" s="14" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A57" s="13" t="s">
+        <v>154</v>
+      </c>
+      <c r="B57" s="20" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A30" s="20" t="s">
-        <v>148</v>
-      </c>
-      <c r="B30" s="21" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A31" s="20" t="s">
-        <v>148</v>
-      </c>
-      <c r="B31" s="21" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A32" s="20" t="s">
-        <v>148</v>
-      </c>
-      <c r="B32" s="21" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A33" s="20" t="s">
-        <v>148</v>
-      </c>
-      <c r="B33" s="21" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A34" s="20" t="s">
-        <v>148</v>
-      </c>
-      <c r="B34" s="21" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A35" s="20" t="s">
-        <v>150</v>
-      </c>
-      <c r="B35" s="21" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A36" s="20" t="s">
-        <v>150</v>
-      </c>
-      <c r="B36" s="21" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A37" s="20" t="s">
-        <v>150</v>
-      </c>
-      <c r="B37" s="21" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A38" s="20" t="s">
-        <v>150</v>
-      </c>
-      <c r="B38" s="21" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A39" s="25" t="s">
-        <v>151</v>
-      </c>
-      <c r="B39" s="24" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A40" s="25" t="s">
-        <v>151</v>
-      </c>
-      <c r="B40" s="24" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A41" s="25" t="s">
-        <v>151</v>
-      </c>
-      <c r="B41" s="24" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A42" s="25" t="s">
-        <v>151</v>
-      </c>
-      <c r="B42" s="24" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A43" s="25" t="s">
-        <v>151</v>
-      </c>
-      <c r="B43" s="24" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A44" s="25" t="s">
-        <v>151</v>
-      </c>
-      <c r="B44" s="24" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A45" s="25" t="s">
-        <v>151</v>
-      </c>
-      <c r="B45" s="21" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A46" s="25" t="s">
-        <v>151</v>
-      </c>
-      <c r="B46" s="21" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A47" s="25" t="s">
-        <v>151</v>
-      </c>
-      <c r="B47" s="21" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A48" s="25" t="s">
-        <v>151</v>
-      </c>
-      <c r="B48" s="21" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A49" s="25" t="s">
-        <v>151</v>
-      </c>
-      <c r="B49" s="21" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A50" s="25" t="s">
-        <v>151</v>
-      </c>
-      <c r="B50" s="21" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A51" s="25" t="s">
-        <v>151</v>
-      </c>
-      <c r="B51" s="21" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A52" s="25" t="s">
-        <v>151</v>
-      </c>
-      <c r="B52" s="21" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A53" s="25" t="s">
-        <v>152</v>
-      </c>
-      <c r="B53" s="21" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A54" s="25" t="s">
-        <v>153</v>
-      </c>
-      <c r="B54" s="21" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A55" s="26" t="s">
-        <v>154</v>
-      </c>
-      <c r="B55" s="21" t="s">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A58" s="18" t="s">
+        <v>156</v>
+      </c>
+      <c r="B58" s="20" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A56" s="25" t="s">
-        <v>197</v>
-      </c>
-      <c r="B56" s="21" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A57" s="20" t="s">
-        <v>156</v>
-      </c>
-      <c r="B57" s="27" t="s">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A59" s="18" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A58" s="25" t="s">
-        <v>158</v>
-      </c>
-      <c r="B58" s="27" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A59" s="25" t="s">
-        <v>159</v>
-      </c>
-      <c r="B59" s="21" t="s">
-        <v>112</v>
+      <c r="B59" s="14" t="s">
+        <v>111</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -3897,7 +3999,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FA3E69C-C1F1-F041-B7CA-C28168AEBC17}">
   <dimension ref="A1:B50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView topLeftCell="A25" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="D50" sqref="D50"/>
     </sheetView>
   </sheetViews>
@@ -3909,406 +4011,406 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="13" t="s">
+        <v>201</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A3" s="13" t="s">
+        <v>202</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A4" s="13" t="s">
+        <v>200</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A5" s="13" t="s">
+        <v>236</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A6" s="15" t="s">
+        <v>139</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A7" s="15" t="s">
+        <v>139</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A8" s="15" t="s">
+        <v>139</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A9" s="15" t="s">
+        <v>139</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A10" s="15" t="s">
+        <v>139</v>
+      </c>
+      <c r="B10" s="14" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A11" s="15" t="s">
+        <v>139</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A12" s="15" t="s">
+        <v>139</v>
+      </c>
+      <c r="B12" s="14" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A13" s="16" t="s">
+        <v>203</v>
+      </c>
+      <c r="B13" s="17" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A14" s="13" t="s">
+        <v>142</v>
+      </c>
+      <c r="B14" s="14" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A15" s="13" t="s">
+        <v>143</v>
+      </c>
+      <c r="B15" s="14" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A16" s="15" t="s">
+        <v>144</v>
+      </c>
+      <c r="B16" s="25" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A17" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="B17" s="28" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A18" s="16" t="s">
+        <v>192</v>
+      </c>
+      <c r="B18" s="26" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A19" s="13" t="s">
+        <v>205</v>
+      </c>
+      <c r="B19" s="14" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A20" s="13" t="s">
+        <v>204</v>
+      </c>
+      <c r="B20" s="14" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A21" s="13" t="s">
+        <v>199</v>
+      </c>
+      <c r="B21" s="14" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" s="18" t="s">
+        <v>235</v>
+      </c>
+      <c r="B22" s="17" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" s="18" t="s">
+        <v>235</v>
+      </c>
+      <c r="B23" s="17" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" s="18" t="s">
+        <v>235</v>
+      </c>
+      <c r="B24" s="17" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" s="18" t="s">
+        <v>235</v>
+      </c>
+      <c r="B25" s="17" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26" s="18" t="s">
+        <v>235</v>
+      </c>
+      <c r="B26" s="17" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27" s="18" t="s">
+        <v>235</v>
+      </c>
+      <c r="B27" s="17" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28" s="18" t="s">
+        <v>235</v>
+      </c>
+      <c r="B28" s="14" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29" s="18" t="s">
+        <v>235</v>
+      </c>
+      <c r="B29" s="14" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30" s="18" t="s">
+        <v>235</v>
+      </c>
+      <c r="B30" s="14" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31" s="18" t="s">
+        <v>235</v>
+      </c>
+      <c r="B31" s="14" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32" s="18" t="s">
+        <v>235</v>
+      </c>
+      <c r="B32" s="14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33" s="18" t="s">
+        <v>235</v>
+      </c>
+      <c r="B33" s="14" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34" s="18" t="s">
+        <v>235</v>
+      </c>
+      <c r="B34" s="14" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A35" s="18" t="s">
+        <v>235</v>
+      </c>
+      <c r="B35" s="14" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A36" s="18" t="s">
+        <v>206</v>
+      </c>
+      <c r="B36" s="14" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A37" s="18" t="s">
         <v>207</v>
       </c>
-      <c r="B2" s="21" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A3" s="20" t="s">
+      <c r="B37" s="14" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A38" s="18" t="s">
+        <v>209</v>
+      </c>
+      <c r="B38" s="14" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A39" s="18" t="s">
         <v>208</v>
       </c>
-      <c r="B3" s="21" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A4" s="20" t="s">
-        <v>206</v>
-      </c>
-      <c r="B4" s="21" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A5" s="20" t="s">
-        <v>243</v>
-      </c>
-      <c r="B5" s="21" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A6" s="22" t="s">
-        <v>141</v>
-      </c>
-      <c r="B6" s="21" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A7" s="22" t="s">
-        <v>141</v>
-      </c>
-      <c r="B7" s="21" t="s">
+      <c r="B39" s="14" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A8" s="22" t="s">
-        <v>141</v>
-      </c>
-      <c r="B8" s="21" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A9" s="22" t="s">
-        <v>141</v>
-      </c>
-      <c r="B9" s="21" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A10" s="22" t="s">
-        <v>141</v>
-      </c>
-      <c r="B10" s="21" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A11" s="22" t="s">
-        <v>141</v>
-      </c>
-      <c r="B11" s="21" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A12" s="22" t="s">
-        <v>141</v>
-      </c>
-      <c r="B12" s="21" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A13" s="23" t="s">
-        <v>209</v>
-      </c>
-      <c r="B13" s="24" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A14" s="20" t="s">
-        <v>144</v>
-      </c>
-      <c r="B14" s="21" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A15" s="20" t="s">
-        <v>145</v>
-      </c>
-      <c r="B15" s="21" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A16" s="22" t="s">
-        <v>146</v>
-      </c>
-      <c r="B16" s="34" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A17" s="36" t="s">
-        <v>199</v>
-      </c>
-      <c r="B17" s="37" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A18" s="23" t="s">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A40" s="18" t="s">
+        <v>210</v>
+      </c>
+      <c r="B40" s="17" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A41" s="19" t="s">
+        <v>194</v>
+      </c>
+      <c r="B41" s="14" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A42" s="24" t="s">
+        <v>191</v>
+      </c>
+      <c r="B42" s="14" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A43" s="13" t="s">
+        <v>154</v>
+      </c>
+      <c r="B43" s="20" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A44" s="29" t="s">
         <v>198</v>
       </c>
-      <c r="B18" s="35" t="s">
+      <c r="B44" s="20" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A19" s="20" t="s">
-        <v>211</v>
-      </c>
-      <c r="B19" s="21" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A20" s="20" t="s">
-        <v>210</v>
-      </c>
-      <c r="B20" s="21" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A21" s="20" t="s">
-        <v>205</v>
-      </c>
-      <c r="B21" s="21" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22" s="25" t="s">
-        <v>242</v>
-      </c>
-      <c r="B22" s="24" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23" s="25" t="s">
-        <v>242</v>
-      </c>
-      <c r="B23" s="24" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A24" s="25" t="s">
-        <v>242</v>
-      </c>
-      <c r="B24" s="24" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A25" s="25" t="s">
-        <v>242</v>
-      </c>
-      <c r="B25" s="24" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A26" s="25" t="s">
-        <v>242</v>
-      </c>
-      <c r="B26" s="24" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A27" s="25" t="s">
-        <v>242</v>
-      </c>
-      <c r="B27" s="24" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A28" s="25" t="s">
-        <v>242</v>
-      </c>
-      <c r="B28" s="21" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A29" s="25" t="s">
-        <v>242</v>
-      </c>
-      <c r="B29" s="21" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A30" s="25" t="s">
-        <v>242</v>
-      </c>
-      <c r="B30" s="21" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A31" s="25" t="s">
-        <v>242</v>
-      </c>
-      <c r="B31" s="21" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A32" s="25" t="s">
-        <v>242</v>
-      </c>
-      <c r="B32" s="21" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A33" s="25" t="s">
-        <v>242</v>
-      </c>
-      <c r="B33" s="21" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A34" s="25" t="s">
-        <v>242</v>
-      </c>
-      <c r="B34" s="21" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A35" s="25" t="s">
-        <v>242</v>
-      </c>
-      <c r="B35" s="21" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A36" s="25" t="s">
-        <v>212</v>
-      </c>
-      <c r="B36" s="21" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A37" s="25" t="s">
-        <v>213</v>
-      </c>
-      <c r="B37" s="21" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A38" s="25" t="s">
-        <v>215</v>
-      </c>
-      <c r="B38" s="21" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A39" s="25" t="s">
-        <v>214</v>
-      </c>
-      <c r="B39" s="21" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A40" s="25" t="s">
-        <v>216</v>
-      </c>
-      <c r="B40" s="24" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A41" s="26" t="s">
-        <v>200</v>
-      </c>
-      <c r="B41" s="21" t="s">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A45" s="18" t="s">
+        <v>197</v>
+      </c>
+      <c r="B45" s="20" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A42" s="33" t="s">
-        <v>197</v>
-      </c>
-      <c r="B42" s="21" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A43" s="20" t="s">
-        <v>156</v>
-      </c>
-      <c r="B43" s="27" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A44" s="38" t="s">
-        <v>204</v>
-      </c>
-      <c r="B44" s="27" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A45" s="25" t="s">
-        <v>203</v>
-      </c>
-      <c r="B45" s="27" t="s">
-        <v>157</v>
-      </c>
-    </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A46" s="25" t="s">
-        <v>201</v>
-      </c>
-      <c r="B46" s="21" t="s">
-        <v>112</v>
+      <c r="A46" s="18" t="s">
+        <v>195</v>
+      </c>
+      <c r="B46" s="14" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A47" s="25" t="s">
-        <v>202</v>
-      </c>
-      <c r="B47" s="21" t="s">
-        <v>112</v>
+      <c r="A47" s="18" t="s">
+        <v>196</v>
+      </c>
+      <c r="B47" s="14" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>235</v>
-      </c>
-      <c r="B48" s="40" t="s">
-        <v>193</v>
+        <v>228</v>
+      </c>
+      <c r="B48" s="31" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>236</v>
-      </c>
-      <c r="B49" s="40" t="s">
-        <v>193</v>
+        <v>229</v>
+      </c>
+      <c r="B49" s="31" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A50" s="41" t="s">
-        <v>244</v>
-      </c>
-      <c r="B50" s="40" t="s">
-        <v>96</v>
+      <c r="A50" s="32" t="s">
+        <v>237</v>
+      </c>
+      <c r="B50" s="31" t="s">
+        <v>95</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/data-raw/Data_summaryforpackage.xlsx
+++ b/data-raw/Data_summaryforpackage.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xutaowang/Desktop/curatedTBData/data-raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6753F8F6-D969-6B44-82E8-7A2691EB9D14}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1465E486-6F0D-6147-BB26-4D0FE0F553E9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2020" yWindow="2160" windowWidth="30520" windowHeight="17160" activeTab="2" xr2:uid="{B39B7F83-2537-C248-AAB4-54D9192DC10F}"/>
+    <workbookView xWindow="2020" yWindow="2160" windowWidth="30520" windowHeight="17160" xr2:uid="{B39B7F83-2537-C248-AAB4-54D9192DC10F}"/>
   </bookViews>
   <sheets>
     <sheet name="DataSummary" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="638" uniqueCount="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="638" uniqueCount="246">
   <si>
     <t>GEO accession</t>
   </si>
@@ -822,6 +822,9 @@
     <t xml:space="preserve">UK, South Africa
 </t>
   </si>
+  <si>
+    <t>Neutrophils/Monocytes/CD4/CD8</t>
+  </si>
 </sst>
 </file>
 
@@ -1451,16 +1454,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{715BD991-25C2-914C-95C3-220CF25B2F79}">
   <dimension ref="A1:N51"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A12" sqref="A12"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="17.1640625" customWidth="1"/>
     <col min="3" max="3" width="15.83203125" customWidth="1"/>
-    <col min="4" max="4" width="12.33203125" customWidth="1"/>
+    <col min="4" max="4" width="12" customWidth="1"/>
     <col min="6" max="6" width="13.1640625" customWidth="1"/>
     <col min="7" max="7" width="19.1640625" customWidth="1"/>
     <col min="13" max="13" width="28.1640625" customWidth="1"/>
@@ -2348,7 +2351,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A23" s="28" t="s">
         <v>29</v>
       </c>
@@ -2358,8 +2361,8 @@
       <c r="C23" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D23" s="2" t="s">
-        <v>25</v>
+      <c r="D23" s="23" t="s">
+        <v>245</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>31</v>
@@ -4007,7 +4010,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FA3E69C-C1F1-F041-B7CA-C28168AEBC17}">
   <dimension ref="A1:XFC53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView topLeftCell="A14" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>

--- a/data-raw/Data_summaryforpackage.xlsx
+++ b/data-raw/Data_summaryforpackage.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xutaowang/Desktop/curatedTBData/data-raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1465E486-6F0D-6147-BB26-4D0FE0F553E9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{874D577D-470A-2B45-87F5-6EC4B32C3A0F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2020" yWindow="2160" windowWidth="30520" windowHeight="17160" xr2:uid="{B39B7F83-2537-C248-AAB4-54D9192DC10F}"/>
+    <workbookView xWindow="1800" yWindow="2540" windowWidth="30520" windowHeight="17160" activeTab="3" xr2:uid="{B39B7F83-2537-C248-AAB4-54D9192DC10F}"/>
   </bookViews>
   <sheets>
     <sheet name="DataSummary" sheetId="1" r:id="rId1"/>
     <sheet name="SignatureInfo" sheetId="2" r:id="rId2"/>
     <sheet name="SignatureInfoTraining" sheetId="3" r:id="rId3"/>
+    <sheet name="ClinicalInformationDescription" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="638" uniqueCount="246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="668" uniqueCount="268">
   <si>
     <t>GEO accession</t>
   </si>
@@ -825,6 +826,72 @@
   <si>
     <t>Neutrophils/Monocytes/CD4/CD8</t>
   </si>
+  <si>
+    <t>List of column name information</t>
+  </si>
+  <si>
+    <t>Original</t>
+  </si>
+  <si>
+    <t>ChangeTo</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>QFT.GIT</t>
+  </si>
+  <si>
+    <t>QFT_GIT</t>
+  </si>
+  <si>
+    <t>QFT</t>
+  </si>
+  <si>
+    <t>Patient_id</t>
+  </si>
+  <si>
+    <t>PatientID</t>
+  </si>
+  <si>
+    <t>SubjectID</t>
+  </si>
+  <si>
+    <t>Barcode</t>
+  </si>
+  <si>
+    <t>Subject</t>
+  </si>
+  <si>
+    <t>Timepoint</t>
+  </si>
+  <si>
+    <t>MeasurementTime</t>
+  </si>
+  <si>
+    <t>MeasurementDay</t>
+  </si>
+  <si>
+    <t>TimePostTreatment</t>
+  </si>
+  <si>
+    <t>TimeFromTB</t>
+  </si>
+  <si>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>CXRs</t>
+  </si>
+  <si>
+    <t>ChestRadiographs</t>
+  </si>
+  <si>
+    <t>Treatment</t>
+  </si>
+  <si>
+    <t>TreatmentResult</t>
+  </si>
 </sst>
 </file>
 
@@ -925,7 +992,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -1040,11 +1107,20 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1138,6 +1214,11 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1454,9 +1535,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{715BD991-25C2-914C-95C3-220CF25B2F79}">
   <dimension ref="A1:N51"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E25" sqref="E25"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2642,7 +2723,7 @@
       <c r="B30" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C30" s="23" t="s">
+      <c r="C30" s="50" t="s">
         <v>244</v>
       </c>
       <c r="D30" s="2" t="s">
@@ -2663,7 +2744,7 @@
         <f t="shared" si="0"/>
         <v>75</v>
       </c>
-      <c r="M30" s="23" t="s">
+      <c r="M30" s="49" t="s">
         <v>76</v>
       </c>
       <c r="N30" s="2" t="s">
@@ -29020,4 +29101,145 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D9EDD64-6A39-0C49-83EF-08EB873769A2}">
+  <dimension ref="A1:C16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="15" customWidth="1"/>
+    <col min="2" max="2" width="17" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="51" t="s">
+        <v>247</v>
+      </c>
+      <c r="B2" s="51" t="s">
+        <v>248</v>
+      </c>
+      <c r="C2" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>250</v>
+      </c>
+      <c r="B3" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>252</v>
+      </c>
+      <c r="B4" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>253</v>
+      </c>
+      <c r="B5" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>255</v>
+      </c>
+      <c r="B6" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>256</v>
+      </c>
+      <c r="B7" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>257</v>
+      </c>
+      <c r="B8" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>258</v>
+      </c>
+      <c r="B9" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>260</v>
+      </c>
+      <c r="B10" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>261</v>
+      </c>
+      <c r="B11" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>262</v>
+      </c>
+      <c r="B12" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>263</v>
+      </c>
+      <c r="B13" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>264</v>
+      </c>
+      <c r="B14" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B15" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B16" t="s">
+        <v>267</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/data-raw/Data_summaryforpackage.xlsx
+++ b/data-raw/Data_summaryforpackage.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xutaowang/Desktop/curatedTBData/data-raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{874D577D-470A-2B45-87F5-6EC4B32C3A0F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3566018-76ED-E14D-9CA5-680F351A1D61}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1800" yWindow="2540" windowWidth="30520" windowHeight="17160" activeTab="3" xr2:uid="{B39B7F83-2537-C248-AAB4-54D9192DC10F}"/>
+    <workbookView xWindow="1800" yWindow="2540" windowWidth="30520" windowHeight="17160" xr2:uid="{B39B7F83-2537-C248-AAB4-54D9192DC10F}"/>
   </bookViews>
   <sheets>
     <sheet name="DataSummary" sheetId="1" r:id="rId1"/>
@@ -547,10 +547,6 @@
     <t>Sputum culture, Sputum Smears</t>
   </si>
   <si>
-    <t xml:space="preserve">Data contain information about TB subtypes: active, latent,  subclinical TB
-</t>
-  </si>
-  <si>
     <t xml:space="preserve">
 These samples are from 9 successfully cured patients at diagnosis and end-of-treatment at 26 weeks (Total Sample=9)</t>
   </si>
@@ -891,6 +887,10 @@
   </si>
   <si>
     <t>TreatmentResult</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Data contain information about TB subtypes: active, latent. Additional 10 samples with subclinical TB not included in the summary
+</t>
   </si>
 </sst>
 </file>
@@ -1535,9 +1535,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{715BD991-25C2-914C-95C3-220CF25B2F79}">
   <dimension ref="A1:N51"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A36" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M39" sqref="M39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1625,7 +1625,7 @@
         <v>27</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="N2" s="2" t="s">
         <v>132</v>
@@ -1664,7 +1664,7 @@
         <v>9</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="N3" s="2" t="s">
         <v>132</v>
@@ -1690,7 +1690,7 @@
         <v>15</v>
       </c>
       <c r="G4" s="23" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H4" s="2">
         <v>9</v>
@@ -1731,7 +1731,7 @@
         <v>15</v>
       </c>
       <c r="G5" s="23" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H5" s="2">
         <v>6</v>
@@ -1748,7 +1748,7 @@
         <v>21</v>
       </c>
       <c r="M5" s="23" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="N5" s="2" t="s">
         <v>132</v>
@@ -1797,13 +1797,13 @@
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" s="28" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B7" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>221</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>222</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>25</v>
@@ -1862,7 +1862,7 @@
         <v>144</v>
       </c>
       <c r="M8" s="23" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="N8" s="2" t="s">
         <v>133</v>
@@ -1870,7 +1870,7 @@
     </row>
     <row r="9" spans="1:14" ht="130" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="28" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>104</v>
@@ -1888,7 +1888,7 @@
         <v>15</v>
       </c>
       <c r="G9" s="23" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H9" s="2">
         <v>12</v>
@@ -1927,7 +1927,7 @@
         <v>15</v>
       </c>
       <c r="G10" s="23" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H10" s="2">
         <v>100</v>
@@ -1942,7 +1942,7 @@
         <v>138</v>
       </c>
       <c r="M10" s="23" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="N10" s="2" t="s">
         <v>133</v>
@@ -2175,7 +2175,7 @@
         <v>15</v>
       </c>
       <c r="G16" s="23" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="H16" s="2"/>
       <c r="I16" s="2">
@@ -2245,7 +2245,7 @@
         <v>12</v>
       </c>
       <c r="E18" s="32" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>15</v>
@@ -2266,7 +2266,7 @@
         <v>51</v>
       </c>
       <c r="M18" s="11" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="N18" s="2" t="s">
         <v>133</v>
@@ -2274,7 +2274,7 @@
     </row>
     <row r="19" spans="1:14" ht="109" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="23" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>104</v>
@@ -2286,11 +2286,11 @@
         <v>25</v>
       </c>
       <c r="E19" s="32" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F19" s="2"/>
       <c r="G19" s="23" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H19" s="2">
         <v>32</v>
@@ -2305,7 +2305,7 @@
         <v>48</v>
       </c>
       <c r="M19" s="11" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="N19" s="2" t="s">
         <v>133</v>
@@ -2323,7 +2323,7 @@
         <v>25</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>15</v>
@@ -2344,7 +2344,7 @@
         <v>19</v>
       </c>
       <c r="M20" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="N20" s="2" t="s">
         <v>94</v>
@@ -2443,7 +2443,7 @@
         <v>27</v>
       </c>
       <c r="D23" s="23" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>31</v>
@@ -2545,7 +2545,7 @@
         <v>274</v>
       </c>
       <c r="M25" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="N25" s="2" t="s">
         <v>94</v>
@@ -2553,10 +2553,10 @@
     </row>
     <row r="26" spans="1:14" ht="109" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="23" t="s">
+        <v>231</v>
+      </c>
+      <c r="B26" s="2" t="s">
         <v>232</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>233</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>27</v>
@@ -2581,7 +2581,7 @@
         <v>15</v>
       </c>
       <c r="M26" s="3" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="N26" s="2" t="s">
         <v>94</v>
@@ -2607,7 +2607,7 @@
         <v>67</v>
       </c>
       <c r="G27" s="23" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H27" s="2"/>
       <c r="I27" s="2">
@@ -2624,7 +2624,7 @@
         <v>537</v>
       </c>
       <c r="M27" s="23" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="N27" s="2" t="s">
         <v>94</v>
@@ -2650,7 +2650,7 @@
         <v>67</v>
       </c>
       <c r="G28" s="23" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="H28" s="2"/>
       <c r="I28" s="2">
@@ -2667,7 +2667,7 @@
         <v>157</v>
       </c>
       <c r="M28" s="23" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="N28" s="2" t="s">
         <v>94</v>
@@ -2693,7 +2693,7 @@
         <v>67</v>
       </c>
       <c r="G29" s="23" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="H29" s="2"/>
       <c r="I29" s="2">
@@ -2710,7 +2710,7 @@
         <v>334</v>
       </c>
       <c r="M29" s="23" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="N29" s="2" t="s">
         <v>94</v>
@@ -2724,7 +2724,7 @@
         <v>63</v>
       </c>
       <c r="C30" s="50" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>25</v>
@@ -2948,7 +2948,7 @@
         <v>7</v>
       </c>
       <c r="M35" s="23" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="N35" s="2" t="s">
         <v>94</v>
@@ -2991,7 +2991,7 @@
         <v>15</v>
       </c>
       <c r="M36" s="23" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="N36" s="2" t="s">
         <v>94</v>
@@ -3030,7 +3030,7 @@
         <v>43</v>
       </c>
       <c r="M37" s="23" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="N37" s="2" t="s">
         <v>94</v>
@@ -3071,13 +3071,13 @@
         <v>36</v>
       </c>
       <c r="M38" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="N38" s="2" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="39" spans="1:14" ht="68" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:14" ht="102" x14ac:dyDescent="0.2">
       <c r="A39" s="28" t="s">
         <v>73</v>
       </c>
@@ -3097,7 +3097,7 @@
         <v>162</v>
       </c>
       <c r="G39" s="23" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H39" s="2"/>
       <c r="I39" s="2">
@@ -3111,8 +3111,8 @@
         <f t="shared" si="1"/>
         <v>40</v>
       </c>
-      <c r="M39" s="23" t="s">
-        <v>165</v>
+      <c r="M39" s="49" t="s">
+        <v>267</v>
       </c>
       <c r="N39" s="2" t="s">
         <v>94</v>
@@ -3120,7 +3120,7 @@
     </row>
     <row r="40" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A40" s="28" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>63</v>
@@ -3153,7 +3153,7 @@
         <v>155</v>
       </c>
       <c r="M40" s="23" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="N40" s="2" t="s">
         <v>94</v>
@@ -3161,7 +3161,7 @@
     </row>
     <row r="41" spans="1:14" ht="136" x14ac:dyDescent="0.2">
       <c r="A41" s="28" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>63</v>
@@ -3176,7 +3176,7 @@
         <v>19</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G41" s="2"/>
       <c r="H41" s="2">
@@ -3192,7 +3192,7 @@
         <v>50</v>
       </c>
       <c r="M41" s="23" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="N41" s="2" t="s">
         <v>94</v>
@@ -3255,7 +3255,7 @@
       <c r="E43" s="2"/>
       <c r="F43" s="2"/>
       <c r="G43" s="23" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H43" s="2">
         <v>13</v>
@@ -3273,7 +3273,7 @@
       </c>
       <c r="M43" s="23"/>
       <c r="N43" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="44" spans="1:14" ht="51" x14ac:dyDescent="0.2">
@@ -3352,7 +3352,7 @@
         <v>44</v>
       </c>
       <c r="M45" s="23" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="N45" s="2" t="s">
         <v>158</v>
@@ -3391,7 +3391,7 @@
         <v>26</v>
       </c>
       <c r="M46" s="22" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="N46" s="2" t="s">
         <v>158</v>
@@ -3399,19 +3399,19 @@
     </row>
     <row r="47" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="B47" s="2" t="s">
         <v>211</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>212</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>88</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F47" s="2"/>
       <c r="G47" s="23"/>
@@ -3430,7 +3430,7 @@
         <v>8</v>
       </c>
       <c r="M47" s="22" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="N47" s="2" t="s">
         <v>158</v>
@@ -3469,7 +3469,7 @@
         <v>21</v>
       </c>
       <c r="M48" s="23" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="N48" s="21" t="s">
         <v>159</v>
@@ -3493,7 +3493,7 @@
         <v>15</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H49" s="2">
         <v>76</v>
@@ -3508,7 +3508,7 @@
         <v>189</v>
       </c>
       <c r="M49" s="23" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="N49" s="2" t="s">
         <v>160</v>
@@ -3547,7 +3547,7 @@
         <v>72</v>
       </c>
       <c r="M50" s="23" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="N50" s="21" t="s">
         <v>161</v>
@@ -3686,7 +3686,7 @@
         <v>137</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="17" x14ac:dyDescent="0.2">
@@ -4051,7 +4051,7 @@
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" s="18" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B56" s="14" t="s">
         <v>72</v>
@@ -4111,7 +4111,7 @@
     </row>
     <row r="2" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="35" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B2" s="36" t="s">
         <v>62</v>
@@ -4119,7 +4119,7 @@
     </row>
     <row r="3" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="35" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B3" s="36" t="s">
         <v>62</v>
@@ -4127,18 +4127,18 @@
     </row>
     <row r="4" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="35" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B4" s="36" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="35" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B5" s="36" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="17" x14ac:dyDescent="0.2">
@@ -4199,7 +4199,7 @@
     </row>
     <row r="13" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="38" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B13" s="17" t="s">
         <v>80</v>
@@ -4231,7 +4231,7 @@
     </row>
     <row r="17" spans="1:1023 1025:2047 2049:3071 3073:4095 4097:5119 5121:6143 6145:7167 7169:8191 8193:9215 9217:10239 10241:11263 11265:12287 12289:13311 13313:14335 14337:15359 15361:16383" ht="17" x14ac:dyDescent="0.2">
       <c r="A17" s="40" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B17" s="41" t="s">
         <v>103</v>
@@ -4239,7 +4239,7 @@
     </row>
     <row r="18" spans="1:1023 1025:2047 2049:3071 3073:4095 4097:5119 5121:6143 6145:7167 7169:8191 8193:9215 9217:10239 10241:11263 11265:12287 12289:13311 13313:14335 14337:15359 15361:16383" ht="17" x14ac:dyDescent="0.2">
       <c r="A18" s="38" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B18" s="42" t="s">
         <v>153</v>
@@ -4247,7 +4247,7 @@
     </row>
     <row r="19" spans="1:1023 1025:2047 2049:3071 3073:4095 4097:5119 5121:6143 6145:7167 7169:8191 8193:9215 9217:10239 10241:11263 11265:12287 12289:13311 13313:14335 14337:15359 15361:16383" ht="17" x14ac:dyDescent="0.2">
       <c r="A19" s="35" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B19" s="36" t="s">
         <v>51</v>
@@ -4255,7 +4255,7 @@
     </row>
     <row r="20" spans="1:1023 1025:2047 2049:3071 3073:4095 4097:5119 5121:6143 6145:7167 7169:8191 8193:9215 9217:10239 10241:11263 11265:12287 12289:13311 13313:14335 14337:15359 15361:16383" ht="17" x14ac:dyDescent="0.2">
       <c r="A20" s="35" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B20" s="36" t="s">
         <v>47</v>
@@ -4263,7 +4263,7 @@
     </row>
     <row r="21" spans="1:1023 1025:2047 2049:3071 3073:4095 4097:5119 5121:6143 6145:7167 7169:8191 8193:9215 9217:10239 10241:11263 11265:12287 12289:13311 13313:14335 14337:15359 15361:16383" ht="17" x14ac:dyDescent="0.2">
       <c r="A21" s="37" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B21" s="39" t="s">
         <v>127</v>
@@ -4271,7 +4271,7 @@
     </row>
     <row r="22" spans="1:1023 1025:2047 2049:3071 3073:4095 4097:5119 5121:6143 6145:7167 7169:8191 8193:9215 9217:10239 10241:11263 11265:12287 12289:13311 13313:14335 14337:15359 15361:16383" s="48" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A22" s="37" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B22" s="14" t="s">
         <v>128</v>
@@ -12469,7 +12469,7 @@
     </row>
     <row r="23" spans="1:1023 1025:2047 2049:3071 3073:4095 4097:5119 5121:6143 6145:7167 7169:8191 8193:9215 9217:10239 10241:11263 11265:12287 12289:13311 13313:14335 14337:15359 15361:16383" s="48" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A23" s="37" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B23" s="14" t="s">
         <v>129</v>
@@ -20668,7 +20668,7 @@
     </row>
     <row r="24" spans="1:1023 1025:2047 2049:3071 3073:4095 4097:5119 5121:6143 6145:7167 7169:8191 8193:9215 9217:10239 10241:11263 11265:12287 12289:13311 13313:14335 14337:15359 15361:16383" s="48" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A24" s="37" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B24" s="14" t="s">
         <v>130</v>
@@ -28867,7 +28867,7 @@
     </row>
     <row r="25" spans="1:1023 1025:2047 2049:3071 3073:4095 4097:5119 5121:6143 6145:7167 7169:8191 8193:9215 9217:10239 10241:11263 11265:12287 12289:13311 13313:14335 14337:15359 15361:16383" x14ac:dyDescent="0.2">
       <c r="A25" s="21" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B25" s="47" t="s">
         <v>77</v>
@@ -28875,7 +28875,7 @@
     </row>
     <row r="26" spans="1:1023 1025:2047 2049:3071 3073:4095 4097:5119 5121:6143 6145:7167 7169:8191 8193:9215 9217:10239 10241:11263 11265:12287 12289:13311 13313:14335 14337:15359 15361:16383" x14ac:dyDescent="0.2">
       <c r="A26" s="21" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B26" s="17" t="s">
         <v>78</v>
@@ -28883,7 +28883,7 @@
     </row>
     <row r="27" spans="1:1023 1025:2047 2049:3071 3073:4095 4097:5119 5121:6143 6145:7167 7169:8191 8193:9215 9217:10239 10241:11263 11265:12287 12289:13311 13313:14335 14337:15359 15361:16383" x14ac:dyDescent="0.2">
       <c r="A27" s="21" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B27" s="17" t="s">
         <v>79</v>
@@ -28891,7 +28891,7 @@
     </row>
     <row r="28" spans="1:1023 1025:2047 2049:3071 3073:4095 4097:5119 5121:6143 6145:7167 7169:8191 8193:9215 9217:10239 10241:11263 11265:12287 12289:13311 13313:14335 14337:15359 15361:16383" x14ac:dyDescent="0.2">
       <c r="A28" s="21" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B28" s="17" t="s">
         <v>80</v>
@@ -28899,7 +28899,7 @@
     </row>
     <row r="29" spans="1:1023 1025:2047 2049:3071 3073:4095 4097:5119 5121:6143 6145:7167 7169:8191 8193:9215 9217:10239 10241:11263 11265:12287 12289:13311 13313:14335 14337:15359 15361:16383" x14ac:dyDescent="0.2">
       <c r="A29" s="21" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B29" s="17" t="s">
         <v>81</v>
@@ -28907,7 +28907,7 @@
     </row>
     <row r="30" spans="1:1023 1025:2047 2049:3071 3073:4095 4097:5119 5121:6143 6145:7167 7169:8191 8193:9215 9217:10239 10241:11263 11265:12287 12289:13311 13313:14335 14337:15359 15361:16383" x14ac:dyDescent="0.2">
       <c r="A30" s="21" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B30" s="17" t="s">
         <v>82</v>
@@ -28915,7 +28915,7 @@
     </row>
     <row r="31" spans="1:1023 1025:2047 2049:3071 3073:4095 4097:5119 5121:6143 6145:7167 7169:8191 8193:9215 9217:10239 10241:11263 11265:12287 12289:13311 13313:14335 14337:15359 15361:16383" x14ac:dyDescent="0.2">
       <c r="A31" s="21" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B31" s="36" t="s">
         <v>28</v>
@@ -28923,7 +28923,7 @@
     </row>
     <row r="32" spans="1:1023 1025:2047 2049:3071 3073:4095 4097:5119 5121:6143 6145:7167 7169:8191 8193:9215 9217:10239 10241:11263 11265:12287 12289:13311 13313:14335 14337:15359 15361:16383" x14ac:dyDescent="0.2">
       <c r="A32" s="21" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B32" s="36" t="s">
         <v>29</v>
@@ -28931,7 +28931,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" s="21" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B33" s="36" t="s">
         <v>33</v>
@@ -28939,7 +28939,7 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" s="21" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B34" s="36" t="s">
         <v>34</v>
@@ -28947,7 +28947,7 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" s="21" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B35" s="36" t="s">
         <v>35</v>
@@ -28955,7 +28955,7 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" s="21" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B36" s="36" t="s">
         <v>36</v>
@@ -28963,7 +28963,7 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" s="21" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B37" s="36" t="s">
         <v>95</v>
@@ -28971,7 +28971,7 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" s="21" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B38" s="36" t="s">
         <v>72</v>
@@ -28979,7 +28979,7 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" s="21" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B39" s="36" t="s">
         <v>125</v>
@@ -28987,7 +28987,7 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" s="21" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B40" s="36" t="s">
         <v>125</v>
@@ -28995,7 +28995,7 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" s="21" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B41" s="36" t="s">
         <v>124</v>
@@ -29003,7 +29003,7 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" s="21" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B42" s="36" t="s">
         <v>124</v>
@@ -29011,7 +29011,7 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" s="21" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B43" s="17" t="s">
         <v>124</v>
@@ -29019,7 +29019,7 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" s="43" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B44" s="36" t="s">
         <v>153</v>
@@ -29027,7 +29027,7 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" s="44" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B45" s="36" t="s">
         <v>72</v>
@@ -29043,7 +29043,7 @@
     </row>
     <row r="47" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A47" s="45" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B47" s="20" t="s">
         <v>155</v>
@@ -29051,7 +29051,7 @@
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" s="21" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B48" s="20" t="s">
         <v>155</v>
@@ -29059,7 +29059,7 @@
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" s="21" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B49" s="36" t="s">
         <v>111</v>
@@ -29067,7 +29067,7 @@
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" s="21" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B50" s="36" t="s">
         <v>111</v>
@@ -29075,23 +29075,23 @@
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B51" s="29" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B52" s="29" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A53" s="46" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B53" s="29" t="s">
         <v>95</v>
@@ -29107,7 +29107,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D9EDD64-6A39-0C49-83EF-08EB873769A2}">
   <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
@@ -29119,124 +29119,124 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="51" t="s">
+        <v>246</v>
+      </c>
+      <c r="B2" s="51" t="s">
         <v>247</v>
       </c>
-      <c r="B2" s="51" t="s">
+      <c r="C2" t="s">
         <v>248</v>
-      </c>
-      <c r="C2" t="s">
-        <v>249</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>249</v>
+      </c>
+      <c r="B3" t="s">
         <v>250</v>
-      </c>
-      <c r="B3" t="s">
-        <v>251</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B4" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>252</v>
+      </c>
+      <c r="B5" t="s">
         <v>253</v>
-      </c>
-      <c r="B5" t="s">
-        <v>254</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B6" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B7" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B8" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
+        <v>257</v>
+      </c>
+      <c r="B9" t="s">
         <v>258</v>
-      </c>
-      <c r="B9" t="s">
-        <v>259</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B10" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B11" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B12" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B13" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
+        <v>263</v>
+      </c>
+      <c r="B14" t="s">
         <v>264</v>
-      </c>
-      <c r="B14" t="s">
-        <v>265</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
   </sheetData>

--- a/data-raw/Data_summaryforpackage.xlsx
+++ b/data-raw/Data_summaryforpackage.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10411"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xutaowang/Desktop/curatedTBData/data-raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3566018-76ED-E14D-9CA5-680F351A1D61}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0B15F26-3FF5-2A45-B724-F47A38AF74A4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1800" yWindow="2540" windowWidth="30520" windowHeight="17160" xr2:uid="{B39B7F83-2537-C248-AAB4-54D9192DC10F}"/>
+    <workbookView xWindow="1120" yWindow="4180" windowWidth="30520" windowHeight="17160" xr2:uid="{B39B7F83-2537-C248-AAB4-54D9192DC10F}"/>
   </bookViews>
   <sheets>
     <sheet name="DataSummary" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="ClinicalInformationDescription" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="668" uniqueCount="268">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="670" uniqueCount="270">
   <si>
     <t>GEO accession</t>
   </si>
@@ -892,6 +893,12 @@
     <t xml:space="preserve">Data contain information about TB subtypes: active, latent. Additional 10 samples with subclinical TB not included in the summary
 </t>
   </si>
+  <si>
+    <t>The type of treatment that patients received</t>
+  </si>
+  <si>
+    <t>Whether patient fully recovered</t>
+  </si>
 </sst>
 </file>
 
@@ -1537,7 +1544,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A36" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M39" sqref="M39"/>
+      <selection pane="bottomLeft" activeCell="A37" sqref="A37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -29108,7 +29115,7 @@
   <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -29233,10 +29240,16 @@
       <c r="B15" t="s">
         <v>265</v>
       </c>
+      <c r="C15" t="s">
+        <v>268</v>
+      </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
         <v>266</v>
+      </c>
+      <c r="C16" t="s">
+        <v>269</v>
       </c>
     </row>
   </sheetData>

--- a/data-raw/Data_summaryforpackage.xlsx
+++ b/data-raw/Data_summaryforpackage.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xutaowang/Desktop/curatedTBData/data-raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0B15F26-3FF5-2A45-B724-F47A38AF74A4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B07C90A6-21C5-E947-86B9-87CA27FED6E6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1120" yWindow="4180" windowWidth="30520" windowHeight="17160" xr2:uid="{B39B7F83-2537-C248-AAB4-54D9192DC10F}"/>
+    <workbookView xWindow="-33020" yWindow="3140" windowWidth="30520" windowHeight="21000" xr2:uid="{B39B7F83-2537-C248-AAB4-54D9192DC10F}"/>
   </bookViews>
   <sheets>
     <sheet name="DataSummary" sheetId="1" r:id="rId1"/>
@@ -788,10 +788,6 @@
     <t>Some Latent in Controls, could not discriminate, paper mentioned 200 samples. Only 281 genes mapped, because it is a RT-PCR study</t>
   </si>
   <si>
-    <t xml:space="preserve">
-Ex vivo blood samples analyzed at diagnosis and after 1, 2, 4 and 26 weeks of treatment (Total Measure=135).</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="12"/>
@@ -898,6 +894,10 @@
   </si>
   <si>
     <t>Whether patient fully recovered</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Ex vivo blood samples analyzed at diagnosis and after 1, 2, 4 and 26 weeks of treatment (Total Number = 135).</t>
   </si>
 </sst>
 </file>
@@ -1542,9 +1542,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{715BD991-25C2-914C-95C3-220CF25B2F79}">
   <dimension ref="A1:N51"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A36" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A37" sqref="A37"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1632,7 +1632,7 @@
         <v>27</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>240</v>
+        <v>269</v>
       </c>
       <c r="N2" s="2" t="s">
         <v>132</v>
@@ -1869,7 +1869,7 @@
         <v>144</v>
       </c>
       <c r="M8" s="23" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="N8" s="2" t="s">
         <v>133</v>
@@ -2351,7 +2351,7 @@
         <v>19</v>
       </c>
       <c r="M20" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="N20" s="2" t="s">
         <v>94</v>
@@ -2450,7 +2450,7 @@
         <v>27</v>
       </c>
       <c r="D23" s="23" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>31</v>
@@ -2731,7 +2731,7 @@
         <v>63</v>
       </c>
       <c r="C30" s="50" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>25</v>
@@ -3119,7 +3119,7 @@
         <v>40</v>
       </c>
       <c r="M39" s="49" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="N39" s="2" t="s">
         <v>94</v>
@@ -29115,7 +29115,7 @@
   <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -29126,130 +29126,130 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="51" t="s">
+        <v>245</v>
+      </c>
+      <c r="B2" s="51" t="s">
         <v>246</v>
       </c>
-      <c r="B2" s="51" t="s">
+      <c r="C2" t="s">
         <v>247</v>
-      </c>
-      <c r="C2" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>248</v>
+      </c>
+      <c r="B3" t="s">
         <v>249</v>
-      </c>
-      <c r="B3" t="s">
-        <v>250</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B4" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>251</v>
+      </c>
+      <c r="B5" t="s">
         <v>252</v>
-      </c>
-      <c r="B5" t="s">
-        <v>253</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B6" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B8" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
+        <v>256</v>
+      </c>
+      <c r="B9" t="s">
         <v>257</v>
-      </c>
-      <c r="B9" t="s">
-        <v>258</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B10" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B11" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B12" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B13" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
+        <v>262</v>
+      </c>
+      <c r="B14" t="s">
         <v>263</v>
-      </c>
-      <c r="B14" t="s">
-        <v>264</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C15" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C16" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
   </sheetData>

--- a/data-raw/Data_summaryforpackage.xlsx
+++ b/data-raw/Data_summaryforpackage.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xutaowang/Desktop/curatedTBData/data-raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B07C90A6-21C5-E947-86B9-87CA27FED6E6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3657C8CD-E2C7-F243-9AA2-F36DEE1EDCDF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-33020" yWindow="3140" windowWidth="30520" windowHeight="21000" xr2:uid="{B39B7F83-2537-C248-AAB4-54D9192DC10F}"/>
+    <workbookView xWindow="-32140" yWindow="3140" windowWidth="30520" windowHeight="20540" xr2:uid="{B39B7F83-2537-C248-AAB4-54D9192DC10F}"/>
   </bookViews>
   <sheets>
     <sheet name="DataSummary" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="670" uniqueCount="270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="671" uniqueCount="270">
   <si>
     <t>GEO accession</t>
   </si>
@@ -552,9 +552,6 @@
 These samples are from 9 successfully cured patients at diagnosis and end-of-treatment at 26 weeks (Total Sample=9)</t>
   </si>
   <si>
-    <t>OD was sarcoidosis (n=18)</t>
-  </si>
-  <si>
     <t>MGIT, XPERT, TGRV, sputum culture</t>
   </si>
   <si>
@@ -898,6 +895,9 @@
   <si>
     <t xml:space="preserve">
 Ex vivo blood samples analyzed at diagnosis and after 1, 2, 4 and 26 weeks of treatment (Total Number = 135).</t>
+  </si>
+  <si>
+    <t>only include whole blood RNA samples. OD was sarcoidosis (n=18)</t>
   </si>
 </sst>
 </file>
@@ -1542,9 +1542,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{715BD991-25C2-914C-95C3-220CF25B2F79}">
   <dimension ref="A1:N51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M2" sqref="M2"/>
+      <selection pane="bottomLeft" activeCell="A46" sqref="A46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1632,7 +1632,7 @@
         <v>27</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="N2" s="2" t="s">
         <v>132</v>
@@ -1697,7 +1697,7 @@
         <v>15</v>
       </c>
       <c r="G4" s="23" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H4" s="2">
         <v>9</v>
@@ -1738,7 +1738,7 @@
         <v>15</v>
       </c>
       <c r="G5" s="23" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H5" s="2">
         <v>6</v>
@@ -1755,7 +1755,7 @@
         <v>21</v>
       </c>
       <c r="M5" s="23" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="N5" s="2" t="s">
         <v>132</v>
@@ -1804,13 +1804,13 @@
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" s="28" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B7" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>220</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>221</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>25</v>
@@ -1869,7 +1869,7 @@
         <v>144</v>
       </c>
       <c r="M8" s="23" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="N8" s="2" t="s">
         <v>133</v>
@@ -1877,7 +1877,7 @@
     </row>
     <row r="9" spans="1:14" ht="130" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="28" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>104</v>
@@ -1895,7 +1895,7 @@
         <v>15</v>
       </c>
       <c r="G9" s="23" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H9" s="2">
         <v>12</v>
@@ -1934,7 +1934,7 @@
         <v>15</v>
       </c>
       <c r="G10" s="23" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H10" s="2">
         <v>100</v>
@@ -1949,7 +1949,7 @@
         <v>138</v>
       </c>
       <c r="M10" s="23" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="N10" s="2" t="s">
         <v>133</v>
@@ -2182,7 +2182,7 @@
         <v>15</v>
       </c>
       <c r="G16" s="23" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H16" s="2"/>
       <c r="I16" s="2">
@@ -2252,7 +2252,7 @@
         <v>12</v>
       </c>
       <c r="E18" s="32" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>15</v>
@@ -2273,7 +2273,7 @@
         <v>51</v>
       </c>
       <c r="M18" s="11" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="N18" s="2" t="s">
         <v>133</v>
@@ -2281,7 +2281,7 @@
     </row>
     <row r="19" spans="1:14" ht="109" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="23" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>104</v>
@@ -2293,11 +2293,11 @@
         <v>25</v>
       </c>
       <c r="E19" s="32" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F19" s="2"/>
       <c r="G19" s="23" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="H19" s="2">
         <v>32</v>
@@ -2312,7 +2312,7 @@
         <v>48</v>
       </c>
       <c r="M19" s="11" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="N19" s="2" t="s">
         <v>133</v>
@@ -2330,7 +2330,7 @@
         <v>25</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>15</v>
@@ -2351,7 +2351,7 @@
         <v>19</v>
       </c>
       <c r="M20" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="N20" s="2" t="s">
         <v>94</v>
@@ -2450,7 +2450,7 @@
         <v>27</v>
       </c>
       <c r="D23" s="23" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>31</v>
@@ -2552,7 +2552,7 @@
         <v>274</v>
       </c>
       <c r="M25" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="N25" s="2" t="s">
         <v>94</v>
@@ -2560,10 +2560,10 @@
     </row>
     <row r="26" spans="1:14" ht="109" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="23" t="s">
+        <v>230</v>
+      </c>
+      <c r="B26" s="2" t="s">
         <v>231</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>232</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>27</v>
@@ -2575,7 +2575,9 @@
       <c r="F26" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G26" s="23"/>
+      <c r="G26" s="23" t="s">
+        <v>172</v>
+      </c>
       <c r="H26" s="2">
         <v>6</v>
       </c>
@@ -2588,7 +2590,7 @@
         <v>15</v>
       </c>
       <c r="M26" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="N26" s="2" t="s">
         <v>94</v>
@@ -2614,7 +2616,7 @@
         <v>67</v>
       </c>
       <c r="G27" s="23" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H27" s="2"/>
       <c r="I27" s="2">
@@ -2631,7 +2633,7 @@
         <v>537</v>
       </c>
       <c r="M27" s="23" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="N27" s="2" t="s">
         <v>94</v>
@@ -2657,7 +2659,7 @@
         <v>67</v>
       </c>
       <c r="G28" s="23" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="H28" s="2"/>
       <c r="I28" s="2">
@@ -2674,7 +2676,7 @@
         <v>157</v>
       </c>
       <c r="M28" s="23" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="N28" s="2" t="s">
         <v>94</v>
@@ -2700,7 +2702,7 @@
         <v>67</v>
       </c>
       <c r="G29" s="23" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="H29" s="2"/>
       <c r="I29" s="2">
@@ -2717,7 +2719,7 @@
         <v>334</v>
       </c>
       <c r="M29" s="23" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="N29" s="2" t="s">
         <v>94</v>
@@ -2731,7 +2733,7 @@
         <v>63</v>
       </c>
       <c r="C30" s="50" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>25</v>
@@ -2955,7 +2957,7 @@
         <v>7</v>
       </c>
       <c r="M35" s="23" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="N35" s="2" t="s">
         <v>94</v>
@@ -2998,7 +3000,7 @@
         <v>15</v>
       </c>
       <c r="M36" s="23" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="N36" s="2" t="s">
         <v>94</v>
@@ -3037,7 +3039,7 @@
         <v>43</v>
       </c>
       <c r="M37" s="23" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="N37" s="2" t="s">
         <v>94</v>
@@ -3066,19 +3068,19 @@
         <v>55</v>
       </c>
       <c r="H38" s="2">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="I38" s="2"/>
       <c r="J38" s="2">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="K38" s="2"/>
       <c r="L38" s="2">
         <f t="shared" si="1"/>
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="M38" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="N38" s="2" t="s">
         <v>94</v>
@@ -3104,7 +3106,7 @@
         <v>162</v>
       </c>
       <c r="G39" s="23" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="H39" s="2"/>
       <c r="I39" s="2">
@@ -3119,7 +3121,7 @@
         <v>40</v>
       </c>
       <c r="M39" s="49" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="N39" s="2" t="s">
         <v>94</v>
@@ -3127,7 +3129,7 @@
     </row>
     <row r="40" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A40" s="28" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>63</v>
@@ -3160,7 +3162,7 @@
         <v>155</v>
       </c>
       <c r="M40" s="23" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="N40" s="2" t="s">
         <v>94</v>
@@ -3168,7 +3170,7 @@
     </row>
     <row r="41" spans="1:14" ht="136" x14ac:dyDescent="0.2">
       <c r="A41" s="28" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>63</v>
@@ -3183,7 +3185,7 @@
         <v>19</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G41" s="2"/>
       <c r="H41" s="2">
@@ -3199,7 +3201,7 @@
         <v>50</v>
       </c>
       <c r="M41" s="23" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="N41" s="2" t="s">
         <v>94</v>
@@ -3262,7 +3264,7 @@
       <c r="E43" s="2"/>
       <c r="F43" s="2"/>
       <c r="G43" s="23" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H43" s="2">
         <v>13</v>
@@ -3280,7 +3282,7 @@
       </c>
       <c r="M43" s="23"/>
       <c r="N43" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="44" spans="1:14" ht="51" x14ac:dyDescent="0.2">
@@ -3324,7 +3326,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="45" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
         <v>47</v>
       </c>
@@ -3359,7 +3361,7 @@
         <v>44</v>
       </c>
       <c r="M45" s="23" t="s">
-        <v>166</v>
+        <v>269</v>
       </c>
       <c r="N45" s="2" t="s">
         <v>158</v>
@@ -3398,7 +3400,7 @@
         <v>26</v>
       </c>
       <c r="M46" s="22" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="N46" s="2" t="s">
         <v>158</v>
@@ -3406,19 +3408,19 @@
     </row>
     <row r="47" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="B47" s="2" t="s">
         <v>210</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>211</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>88</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F47" s="2"/>
       <c r="G47" s="23"/>
@@ -3437,7 +3439,7 @@
         <v>8</v>
       </c>
       <c r="M47" s="22" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="N47" s="2" t="s">
         <v>158</v>
@@ -3476,7 +3478,7 @@
         <v>21</v>
       </c>
       <c r="M48" s="23" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="N48" s="21" t="s">
         <v>159</v>
@@ -3500,7 +3502,7 @@
         <v>15</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H49" s="2">
         <v>76</v>
@@ -3515,7 +3517,7 @@
         <v>189</v>
       </c>
       <c r="M49" s="23" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="N49" s="2" t="s">
         <v>160</v>
@@ -3554,7 +3556,7 @@
         <v>72</v>
       </c>
       <c r="M50" s="23" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="N50" s="21" t="s">
         <v>161</v>
@@ -3572,7 +3574,7 @@
       <c r="G51" s="23"/>
       <c r="H51" s="2">
         <f>SUM(H3:H50)</f>
-        <v>836</v>
+        <v>841</v>
       </c>
       <c r="I51" s="2">
         <f>SUM(I3:I50)</f>
@@ -3580,7 +3582,7 @@
       </c>
       <c r="J51" s="2">
         <f>SUM(J3:J50)</f>
-        <v>1387</v>
+        <v>1392</v>
       </c>
       <c r="K51" s="2">
         <f>SUM(K3:K50)</f>
@@ -3588,7 +3590,7 @@
       </c>
       <c r="L51" s="2">
         <f>SUM(L3:L50)</f>
-        <v>4165</v>
+        <v>4175</v>
       </c>
       <c r="M51" s="23"/>
       <c r="N51" s="2"/>
@@ -3693,7 +3695,7 @@
         <v>137</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="17" x14ac:dyDescent="0.2">
@@ -4058,7 +4060,7 @@
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" s="18" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B56" s="14" t="s">
         <v>72</v>
@@ -4118,7 +4120,7 @@
     </row>
     <row r="2" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="35" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B2" s="36" t="s">
         <v>62</v>
@@ -4126,7 +4128,7 @@
     </row>
     <row r="3" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="35" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B3" s="36" t="s">
         <v>62</v>
@@ -4134,18 +4136,18 @@
     </row>
     <row r="4" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="35" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B4" s="36" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="35" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B5" s="36" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="17" x14ac:dyDescent="0.2">
@@ -4206,7 +4208,7 @@
     </row>
     <row r="13" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="38" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B13" s="17" t="s">
         <v>80</v>
@@ -4238,7 +4240,7 @@
     </row>
     <row r="17" spans="1:1023 1025:2047 2049:3071 3073:4095 4097:5119 5121:6143 6145:7167 7169:8191 8193:9215 9217:10239 10241:11263 11265:12287 12289:13311 13313:14335 14337:15359 15361:16383" ht="17" x14ac:dyDescent="0.2">
       <c r="A17" s="40" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B17" s="41" t="s">
         <v>103</v>
@@ -4246,7 +4248,7 @@
     </row>
     <row r="18" spans="1:1023 1025:2047 2049:3071 3073:4095 4097:5119 5121:6143 6145:7167 7169:8191 8193:9215 9217:10239 10241:11263 11265:12287 12289:13311 13313:14335 14337:15359 15361:16383" ht="17" x14ac:dyDescent="0.2">
       <c r="A18" s="38" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B18" s="42" t="s">
         <v>153</v>
@@ -4254,7 +4256,7 @@
     </row>
     <row r="19" spans="1:1023 1025:2047 2049:3071 3073:4095 4097:5119 5121:6143 6145:7167 7169:8191 8193:9215 9217:10239 10241:11263 11265:12287 12289:13311 13313:14335 14337:15359 15361:16383" ht="17" x14ac:dyDescent="0.2">
       <c r="A19" s="35" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B19" s="36" t="s">
         <v>51</v>
@@ -4262,7 +4264,7 @@
     </row>
     <row r="20" spans="1:1023 1025:2047 2049:3071 3073:4095 4097:5119 5121:6143 6145:7167 7169:8191 8193:9215 9217:10239 10241:11263 11265:12287 12289:13311 13313:14335 14337:15359 15361:16383" ht="17" x14ac:dyDescent="0.2">
       <c r="A20" s="35" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B20" s="36" t="s">
         <v>47</v>
@@ -4270,7 +4272,7 @@
     </row>
     <row r="21" spans="1:1023 1025:2047 2049:3071 3073:4095 4097:5119 5121:6143 6145:7167 7169:8191 8193:9215 9217:10239 10241:11263 11265:12287 12289:13311 13313:14335 14337:15359 15361:16383" ht="17" x14ac:dyDescent="0.2">
       <c r="A21" s="37" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B21" s="39" t="s">
         <v>127</v>
@@ -4278,7 +4280,7 @@
     </row>
     <row r="22" spans="1:1023 1025:2047 2049:3071 3073:4095 4097:5119 5121:6143 6145:7167 7169:8191 8193:9215 9217:10239 10241:11263 11265:12287 12289:13311 13313:14335 14337:15359 15361:16383" s="48" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A22" s="37" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B22" s="14" t="s">
         <v>128</v>
@@ -12476,7 +12478,7 @@
     </row>
     <row r="23" spans="1:1023 1025:2047 2049:3071 3073:4095 4097:5119 5121:6143 6145:7167 7169:8191 8193:9215 9217:10239 10241:11263 11265:12287 12289:13311 13313:14335 14337:15359 15361:16383" s="48" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A23" s="37" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B23" s="14" t="s">
         <v>129</v>
@@ -20675,7 +20677,7 @@
     </row>
     <row r="24" spans="1:1023 1025:2047 2049:3071 3073:4095 4097:5119 5121:6143 6145:7167 7169:8191 8193:9215 9217:10239 10241:11263 11265:12287 12289:13311 13313:14335 14337:15359 15361:16383" s="48" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A24" s="37" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B24" s="14" t="s">
         <v>130</v>
@@ -28874,7 +28876,7 @@
     </row>
     <row r="25" spans="1:1023 1025:2047 2049:3071 3073:4095 4097:5119 5121:6143 6145:7167 7169:8191 8193:9215 9217:10239 10241:11263 11265:12287 12289:13311 13313:14335 14337:15359 15361:16383" x14ac:dyDescent="0.2">
       <c r="A25" s="21" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B25" s="47" t="s">
         <v>77</v>
@@ -28882,7 +28884,7 @@
     </row>
     <row r="26" spans="1:1023 1025:2047 2049:3071 3073:4095 4097:5119 5121:6143 6145:7167 7169:8191 8193:9215 9217:10239 10241:11263 11265:12287 12289:13311 13313:14335 14337:15359 15361:16383" x14ac:dyDescent="0.2">
       <c r="A26" s="21" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B26" s="17" t="s">
         <v>78</v>
@@ -28890,7 +28892,7 @@
     </row>
     <row r="27" spans="1:1023 1025:2047 2049:3071 3073:4095 4097:5119 5121:6143 6145:7167 7169:8191 8193:9215 9217:10239 10241:11263 11265:12287 12289:13311 13313:14335 14337:15359 15361:16383" x14ac:dyDescent="0.2">
       <c r="A27" s="21" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B27" s="17" t="s">
         <v>79</v>
@@ -28898,7 +28900,7 @@
     </row>
     <row r="28" spans="1:1023 1025:2047 2049:3071 3073:4095 4097:5119 5121:6143 6145:7167 7169:8191 8193:9215 9217:10239 10241:11263 11265:12287 12289:13311 13313:14335 14337:15359 15361:16383" x14ac:dyDescent="0.2">
       <c r="A28" s="21" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B28" s="17" t="s">
         <v>80</v>
@@ -28906,7 +28908,7 @@
     </row>
     <row r="29" spans="1:1023 1025:2047 2049:3071 3073:4095 4097:5119 5121:6143 6145:7167 7169:8191 8193:9215 9217:10239 10241:11263 11265:12287 12289:13311 13313:14335 14337:15359 15361:16383" x14ac:dyDescent="0.2">
       <c r="A29" s="21" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B29" s="17" t="s">
         <v>81</v>
@@ -28914,7 +28916,7 @@
     </row>
     <row r="30" spans="1:1023 1025:2047 2049:3071 3073:4095 4097:5119 5121:6143 6145:7167 7169:8191 8193:9215 9217:10239 10241:11263 11265:12287 12289:13311 13313:14335 14337:15359 15361:16383" x14ac:dyDescent="0.2">
       <c r="A30" s="21" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B30" s="17" t="s">
         <v>82</v>
@@ -28922,7 +28924,7 @@
     </row>
     <row r="31" spans="1:1023 1025:2047 2049:3071 3073:4095 4097:5119 5121:6143 6145:7167 7169:8191 8193:9215 9217:10239 10241:11263 11265:12287 12289:13311 13313:14335 14337:15359 15361:16383" x14ac:dyDescent="0.2">
       <c r="A31" s="21" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B31" s="36" t="s">
         <v>28</v>
@@ -28930,7 +28932,7 @@
     </row>
     <row r="32" spans="1:1023 1025:2047 2049:3071 3073:4095 4097:5119 5121:6143 6145:7167 7169:8191 8193:9215 9217:10239 10241:11263 11265:12287 12289:13311 13313:14335 14337:15359 15361:16383" x14ac:dyDescent="0.2">
       <c r="A32" s="21" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B32" s="36" t="s">
         <v>29</v>
@@ -28938,7 +28940,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" s="21" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B33" s="36" t="s">
         <v>33</v>
@@ -28946,7 +28948,7 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" s="21" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B34" s="36" t="s">
         <v>34</v>
@@ -28954,7 +28956,7 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" s="21" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B35" s="36" t="s">
         <v>35</v>
@@ -28962,7 +28964,7 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" s="21" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B36" s="36" t="s">
         <v>36</v>
@@ -28970,7 +28972,7 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" s="21" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B37" s="36" t="s">
         <v>95</v>
@@ -28978,7 +28980,7 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" s="21" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B38" s="36" t="s">
         <v>72</v>
@@ -28986,7 +28988,7 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" s="21" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B39" s="36" t="s">
         <v>125</v>
@@ -28994,7 +28996,7 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" s="21" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B40" s="36" t="s">
         <v>125</v>
@@ -29002,7 +29004,7 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" s="21" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B41" s="36" t="s">
         <v>124</v>
@@ -29010,7 +29012,7 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" s="21" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B42" s="36" t="s">
         <v>124</v>
@@ -29018,7 +29020,7 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" s="21" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B43" s="17" t="s">
         <v>124</v>
@@ -29026,7 +29028,7 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" s="43" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B44" s="36" t="s">
         <v>153</v>
@@ -29034,7 +29036,7 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" s="44" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B45" s="36" t="s">
         <v>72</v>
@@ -29050,7 +29052,7 @@
     </row>
     <row r="47" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A47" s="45" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B47" s="20" t="s">
         <v>155</v>
@@ -29058,7 +29060,7 @@
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" s="21" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B48" s="20" t="s">
         <v>155</v>
@@ -29066,7 +29068,7 @@
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" s="21" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B49" s="36" t="s">
         <v>111</v>
@@ -29074,7 +29076,7 @@
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" s="21" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B50" s="36" t="s">
         <v>111</v>
@@ -29082,23 +29084,23 @@
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B51" s="29" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B52" s="29" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A53" s="46" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B53" s="29" t="s">
         <v>95</v>
@@ -29115,7 +29117,7 @@
   <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -29126,130 +29128,130 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="51" t="s">
+        <v>244</v>
+      </c>
+      <c r="B2" s="51" t="s">
         <v>245</v>
       </c>
-      <c r="B2" s="51" t="s">
+      <c r="C2" t="s">
         <v>246</v>
-      </c>
-      <c r="C2" t="s">
-        <v>247</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>247</v>
+      </c>
+      <c r="B3" t="s">
         <v>248</v>
-      </c>
-      <c r="B3" t="s">
-        <v>249</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B4" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>250</v>
+      </c>
+      <c r="B5" t="s">
         <v>251</v>
-      </c>
-      <c r="B5" t="s">
-        <v>252</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B6" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B7" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B8" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
+        <v>255</v>
+      </c>
+      <c r="B9" t="s">
         <v>256</v>
-      </c>
-      <c r="B9" t="s">
-        <v>257</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B10" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B11" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B12" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B13" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
+        <v>261</v>
+      </c>
+      <c r="B14" t="s">
         <v>262</v>
-      </c>
-      <c r="B14" t="s">
-        <v>263</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C15" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C16" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
   </sheetData>

--- a/data-raw/Data_summaryforpackage.xlsx
+++ b/data-raw/Data_summaryforpackage.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xutaowang/Desktop/curatedTBData/data-raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3657C8CD-E2C7-F243-9AA2-F36DEE1EDCDF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82695455-FACB-DF49-A6B6-696DC3D4E48E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-32140" yWindow="3140" windowWidth="30520" windowHeight="20540" xr2:uid="{B39B7F83-2537-C248-AAB4-54D9192DC10F}"/>
+    <workbookView xWindow="-33220" yWindow="3140" windowWidth="30520" windowHeight="20540" xr2:uid="{B39B7F83-2537-C248-AAB4-54D9192DC10F}"/>
   </bookViews>
   <sheets>
     <sheet name="DataSummary" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,6 @@
     <sheet name="ClinicalInformationDescription" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -235,9 +234,6 @@
   </si>
   <si>
     <t>Kenya</t>
-  </si>
-  <si>
-    <t>Malawi</t>
   </si>
   <si>
     <t>&lt;15</t>
@@ -899,6 +895,9 @@
   <si>
     <t>only include whole blood RNA samples. OD was sarcoidosis (n=18)</t>
   </si>
+  <si>
+    <t>Malawi, South Africa</t>
+  </si>
 </sst>
 </file>
 
@@ -1543,8 +1542,8 @@
   <dimension ref="A1:N51"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A46" sqref="A46"/>
+      <pane ySplit="1" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1580,7 +1579,7 @@
         <v>6</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>7</v>
@@ -1589,7 +1588,7 @@
         <v>16</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="L1" s="2" t="s">
         <v>8</v>
@@ -1598,12 +1597,12 @@
         <v>9</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="82" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>11</v>
@@ -1632,15 +1631,15 @@
         <v>27</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>11</v>
@@ -1671,33 +1670,33 @@
         <v>9</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A4" s="28" t="s">
+        <v>94</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="C4" s="2" t="s">
         <v>96</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>97</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>25</v>
       </c>
       <c r="E4" s="31" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G4" s="23" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H4" s="2">
         <v>9</v>
@@ -1715,7 +1714,7 @@
       </c>
       <c r="M4" s="2"/>
       <c r="N4" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="69" customHeight="1" x14ac:dyDescent="0.2">
@@ -1738,7 +1737,7 @@
         <v>15</v>
       </c>
       <c r="G5" s="23" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H5" s="2">
         <v>6</v>
@@ -1755,15 +1754,15 @@
         <v>21</v>
       </c>
       <c r="M5" s="23" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="28" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>17</v>
@@ -1799,18 +1798,18 @@
         <v>38</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" s="28" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B7" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>219</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>220</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>25</v>
@@ -1831,12 +1830,12 @@
       </c>
       <c r="M7" s="2"/>
       <c r="N7" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="130" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="12" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>23</v>
@@ -1854,7 +1853,7 @@
         <v>15</v>
       </c>
       <c r="G8" s="23" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H8" s="2"/>
       <c r="I8" s="2">
@@ -1869,21 +1868,21 @@
         <v>144</v>
       </c>
       <c r="M8" s="23" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="130" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="28" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>25</v>
@@ -1895,7 +1894,7 @@
         <v>15</v>
       </c>
       <c r="G9" s="23" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="H9" s="2">
         <v>12</v>
@@ -1913,12 +1912,12 @@
       </c>
       <c r="M9" s="23"/>
       <c r="N9" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="119" x14ac:dyDescent="0.2">
       <c r="A10" s="28" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>23</v>
@@ -1934,7 +1933,7 @@
         <v>15</v>
       </c>
       <c r="G10" s="23" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H10" s="2">
         <v>100</v>
@@ -1949,33 +1948,33 @@
         <v>138</v>
       </c>
       <c r="M10" s="23" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="119" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B11" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C11" s="4" t="s">
         <v>90</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>91</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>25</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H11" s="7"/>
       <c r="I11" s="7">
@@ -1990,15 +1989,15 @@
         <v>334</v>
       </c>
       <c r="M11" s="8" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="12" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A12" s="28" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>24</v>
@@ -2034,12 +2033,12 @@
         <v>32</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="13" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A13" s="28" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>24</v>
@@ -2075,12 +2074,12 @@
         <v>42</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="14" spans="1:14" ht="62" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="12" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>24</v>
@@ -2113,15 +2112,15 @@
         <v>31</v>
       </c>
       <c r="M14" s="11" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="N14" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="15" spans="1:14" ht="49" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="12" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>24</v>
@@ -2156,33 +2155,33 @@
         <v>161</v>
       </c>
       <c r="M15" s="11" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="N15" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="16" spans="1:14" ht="49" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="28" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>25</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G16" s="23" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="H16" s="2"/>
       <c r="I16" s="2">
@@ -2198,12 +2197,12 @@
       </c>
       <c r="M16" s="23"/>
       <c r="N16" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="17" spans="1:14" ht="49" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>23</v>
@@ -2216,10 +2215,10 @@
         <v>31</v>
       </c>
       <c r="F17" s="9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G17" s="10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H17" s="2">
         <v>16</v>
@@ -2235,30 +2234,30 @@
       </c>
       <c r="M17" s="23"/>
       <c r="N17" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="18" spans="1:14" ht="49" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="11" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>12</v>
       </c>
       <c r="E18" s="32" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G18" s="23" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H18" s="2"/>
       <c r="I18" s="2">
@@ -2273,31 +2272,31 @@
         <v>51</v>
       </c>
       <c r="M18" s="11" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="N18" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="19" spans="1:14" ht="109" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="23" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>25</v>
       </c>
       <c r="E19" s="32" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F19" s="2"/>
       <c r="G19" s="23" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="H19" s="2">
         <v>32</v>
@@ -2312,10 +2311,10 @@
         <v>48</v>
       </c>
       <c r="M19" s="11" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="N19" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="20" spans="1:14" ht="86" customHeight="1" x14ac:dyDescent="0.2">
@@ -2330,13 +2329,13 @@
         <v>25</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H20" s="2">
         <v>12</v>
@@ -2351,10 +2350,10 @@
         <v>19</v>
       </c>
       <c r="M20" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="N20" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.2">
@@ -2377,7 +2376,7 @@
         <v>15</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H21" s="2">
         <v>12</v>
@@ -2395,7 +2394,7 @@
       </c>
       <c r="M21" s="2"/>
       <c r="N21" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="22" spans="1:14" ht="86" customHeight="1" x14ac:dyDescent="0.2">
@@ -2418,7 +2417,7 @@
         <v>15</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H22" s="2"/>
       <c r="I22" s="2">
@@ -2436,7 +2435,7 @@
         <v>37</v>
       </c>
       <c r="N22" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="23" spans="1:14" ht="51" x14ac:dyDescent="0.2">
@@ -2450,7 +2449,7 @@
         <v>27</v>
       </c>
       <c r="D23" s="23" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>31</v>
@@ -2459,7 +2458,7 @@
         <v>15</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H23" s="2">
         <v>16</v>
@@ -2475,7 +2474,7 @@
       </c>
       <c r="M23" s="2"/>
       <c r="N23" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.2">
@@ -2498,7 +2497,7 @@
         <v>15</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H24" s="2">
         <v>12</v>
@@ -2516,7 +2515,7 @@
       </c>
       <c r="M24" s="2"/>
       <c r="N24" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="25" spans="1:14" ht="102" x14ac:dyDescent="0.2">
@@ -2537,7 +2536,7 @@
         <v>15</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H25" s="2">
         <v>81</v>
@@ -2552,18 +2551,18 @@
         <v>274</v>
       </c>
       <c r="M25" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="N25" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="26" spans="1:14" ht="109" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="23" t="s">
+        <v>229</v>
+      </c>
+      <c r="B26" s="2" t="s">
         <v>230</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>231</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>27</v>
@@ -2576,7 +2575,7 @@
         <v>15</v>
       </c>
       <c r="G26" s="23" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H26" s="2">
         <v>6</v>
@@ -2590,21 +2589,21 @@
         <v>15</v>
       </c>
       <c r="M26" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="N26" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="27" spans="1:14" ht="153" x14ac:dyDescent="0.2">
       <c r="A27" s="28" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C27" s="2" t="s">
-        <v>65</v>
+      <c r="C27" s="23" t="s">
+        <v>269</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>25</v>
@@ -2613,10 +2612,10 @@
         <v>19</v>
       </c>
       <c r="F27" s="9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G27" s="23" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H27" s="2"/>
       <c r="I27" s="2">
@@ -2633,10 +2632,10 @@
         <v>537</v>
       </c>
       <c r="M27" s="23" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="N27" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="28" spans="1:14" ht="85" x14ac:dyDescent="0.2">
@@ -2653,13 +2652,13 @@
         <v>25</v>
       </c>
       <c r="E28" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="F28" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="F28" s="9" t="s">
-        <v>67</v>
-      </c>
       <c r="G28" s="23" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H28" s="2"/>
       <c r="I28" s="2">
@@ -2676,10 +2675,10 @@
         <v>157</v>
       </c>
       <c r="M28" s="23" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="N28" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="29" spans="1:14" ht="85" x14ac:dyDescent="0.2">
@@ -2690,19 +2689,19 @@
         <v>63</v>
       </c>
       <c r="C29" s="23" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>25</v>
       </c>
       <c r="E29" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="F29" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="F29" s="9" t="s">
-        <v>67</v>
-      </c>
       <c r="G29" s="23" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H29" s="2"/>
       <c r="I29" s="2">
@@ -2719,21 +2718,21 @@
         <v>334</v>
       </c>
       <c r="M29" s="23" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="N29" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="30" spans="1:14" ht="108" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="28" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>63</v>
       </c>
       <c r="C30" s="50" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>25</v>
@@ -2754,15 +2753,15 @@
         <v>75</v>
       </c>
       <c r="M30" s="49" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="N30" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="31" spans="1:14" ht="68" x14ac:dyDescent="0.2">
       <c r="A31" s="28" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>63</v>
@@ -2797,15 +2796,15 @@
         <v>42</v>
       </c>
       <c r="M31" s="23" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="N31" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="32" spans="1:14" ht="85" x14ac:dyDescent="0.2">
       <c r="A32" s="28" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>63</v>
@@ -2840,15 +2839,15 @@
         <v>102</v>
       </c>
       <c r="M32" s="23" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N32" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="33" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="A33" s="34" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>63</v>
@@ -2877,15 +2876,15 @@
         <v>5</v>
       </c>
       <c r="M33" s="23" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="N33" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="34" spans="1:14" ht="85" x14ac:dyDescent="0.2">
       <c r="A34" s="28" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>63</v>
@@ -2920,15 +2919,15 @@
         <v>95</v>
       </c>
       <c r="M34" s="23" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="N34" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="35" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A35" s="34" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>63</v>
@@ -2957,15 +2956,15 @@
         <v>7</v>
       </c>
       <c r="M35" s="23" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="N35" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="36" spans="1:14" ht="102" x14ac:dyDescent="0.2">
       <c r="A36" s="28" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>63</v>
@@ -2974,7 +2973,7 @@
         <v>56</v>
       </c>
       <c r="D36" s="23" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>19</v>
@@ -3000,15 +2999,15 @@
         <v>15</v>
       </c>
       <c r="M36" s="23" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="N36" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="37" spans="1:14" ht="153" x14ac:dyDescent="0.2">
       <c r="A37" s="28" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>63</v>
@@ -3020,10 +3019,10 @@
         <v>12</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F37" s="9" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G37" s="2"/>
       <c r="H37" s="2">
@@ -3039,27 +3038,27 @@
         <v>43</v>
       </c>
       <c r="M37" s="23" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="N37" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="38" spans="1:14" ht="69" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="B38" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="B38" s="2" t="s">
+      <c r="C38" s="2" t="s">
         <v>69</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>70</v>
       </c>
       <c r="D38" s="2" t="s">
         <v>25</v>
       </c>
       <c r="E38" s="33" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>15</v>
@@ -3080,15 +3079,15 @@
         <v>46</v>
       </c>
       <c r="M38" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="N38" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="39" spans="1:14" ht="102" x14ac:dyDescent="0.2">
       <c r="A39" s="28" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>63</v>
@@ -3103,10 +3102,10 @@
         <v>19</v>
       </c>
       <c r="F39" s="9" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G39" s="23" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H39" s="2"/>
       <c r="I39" s="2">
@@ -3121,15 +3120,15 @@
         <v>40</v>
       </c>
       <c r="M39" s="49" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="N39" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="40" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A40" s="28" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>63</v>
@@ -3145,7 +3144,7 @@
         <v>15</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H40" s="2">
         <v>61</v>
@@ -3162,15 +3161,15 @@
         <v>155</v>
       </c>
       <c r="M40" s="23" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="N40" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="41" spans="1:14" ht="136" x14ac:dyDescent="0.2">
       <c r="A41" s="28" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>63</v>
@@ -3185,7 +3184,7 @@
         <v>19</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G41" s="2"/>
       <c r="H41" s="2">
@@ -3201,27 +3200,27 @@
         <v>50</v>
       </c>
       <c r="M41" s="23" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="N41" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="42" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A42" s="28" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>63</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D42" s="2" t="s">
         <v>25</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>15</v>
@@ -3244,18 +3243,18 @@
         <v>110</v>
       </c>
       <c r="M42" s="23" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="N42" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="43" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B43" s="2" t="s">
         <v>100</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>101</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" s="2" t="s">
@@ -3264,7 +3263,7 @@
       <c r="E43" s="2"/>
       <c r="F43" s="2"/>
       <c r="G43" s="23" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H43" s="2">
         <v>13</v>
@@ -3282,7 +3281,7 @@
       </c>
       <c r="M43" s="23"/>
       <c r="N43" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="44" spans="1:14" ht="51" x14ac:dyDescent="0.2">
@@ -3323,7 +3322,7 @@
       </c>
       <c r="M44" s="2"/>
       <c r="N44" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="45" spans="1:14" ht="51" x14ac:dyDescent="0.2">
@@ -3361,15 +3360,15 @@
         <v>44</v>
       </c>
       <c r="M45" s="23" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="N45" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="46" spans="1:14" ht="68" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>48</v>
@@ -3385,7 +3384,7 @@
         <v>15</v>
       </c>
       <c r="G46" s="23" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H46" s="2"/>
       <c r="I46" s="2"/>
@@ -3400,27 +3399,27 @@
         <v>26</v>
       </c>
       <c r="M46" s="22" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="N46" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="47" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="B47" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="B47" s="2" t="s">
+      <c r="C47" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D47" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="C47" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>211</v>
-      </c>
       <c r="E47" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F47" s="2"/>
       <c r="G47" s="23"/>
@@ -3439,10 +3438,10 @@
         <v>8</v>
       </c>
       <c r="M47" s="22" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="N47" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="48" spans="1:14" ht="34" x14ac:dyDescent="0.2">
@@ -3478,10 +3477,10 @@
         <v>21</v>
       </c>
       <c r="M48" s="23" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="N48" s="21" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="49" spans="1:14" ht="85" x14ac:dyDescent="0.2">
@@ -3492,7 +3491,7 @@
         <v>52</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D49" s="2" t="s">
         <v>25</v>
@@ -3502,7 +3501,7 @@
         <v>15</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H49" s="2">
         <v>76</v>
@@ -3517,10 +3516,10 @@
         <v>189</v>
       </c>
       <c r="M49" s="23" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="N49" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="50" spans="1:14" ht="51" x14ac:dyDescent="0.2">
@@ -3539,7 +3538,7 @@
         <v>15</v>
       </c>
       <c r="G50" s="23" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H50" s="2">
         <v>36</v>
@@ -3556,10 +3555,10 @@
         <v>72</v>
       </c>
       <c r="M50" s="23" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="N50" s="21" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.2">
@@ -3620,15 +3619,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B1" t="s">
         <v>134</v>
-      </c>
-      <c r="B1" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="13" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B2" s="14" t="s">
         <v>61</v>
@@ -3636,7 +3635,7 @@
     </row>
     <row r="3" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="13" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B3" s="14" t="s">
         <v>62</v>
@@ -3644,15 +3643,15 @@
     </row>
     <row r="4" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="13" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="13" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B5" s="14" t="s">
         <v>28</v>
@@ -3660,7 +3659,7 @@
     </row>
     <row r="6" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="13" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B6" s="14" t="s">
         <v>29</v>
@@ -3668,7 +3667,7 @@
     </row>
     <row r="7" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" s="13" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B7" s="14" t="s">
         <v>33</v>
@@ -3676,15 +3675,15 @@
     </row>
     <row r="8" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="B8" s="14" t="s">
         <v>137</v>
-      </c>
-      <c r="B8" s="14" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" s="13" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B9" s="14" t="s">
         <v>35</v>
@@ -3692,15 +3691,15 @@
     </row>
     <row r="10" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A10" s="13" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" s="13" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B11" s="14" t="s">
         <v>36</v>
@@ -3708,7 +3707,7 @@
     </row>
     <row r="12" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" s="15" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B12" s="14" t="s">
         <v>10</v>
@@ -3716,39 +3715,39 @@
     </row>
     <row r="13" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="15" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" s="15" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A15" s="15" t="s">
+        <v>138</v>
+      </c>
+      <c r="B15" s="14" t="s">
         <v>139</v>
-      </c>
-      <c r="B15" s="14" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A16" s="15" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A17" s="15" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B17" s="14" t="s">
         <v>47</v>
@@ -3756,7 +3755,7 @@
     </row>
     <row r="18" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A18" s="15" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B18" s="14" t="s">
         <v>45</v>
@@ -3764,63 +3763,63 @@
     </row>
     <row r="19" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A19" s="16" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B19" s="17" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A20" s="16" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B20" s="17" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A21" s="16" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B21" s="17" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A22" s="16" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B22" s="17" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A23" s="16" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B23" s="17" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A24" s="16" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B24" s="17" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A25" s="13" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B25" s="14" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A26" s="13" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B26" s="14" t="s">
         <v>59</v>
@@ -3828,7 +3827,7 @@
     </row>
     <row r="27" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A27" s="15" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B27" s="24" t="s">
         <v>49</v>
@@ -3836,23 +3835,23 @@
     </row>
     <row r="28" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A28" s="26" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B28" s="14" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A29" s="16" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B29" s="25" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A30" s="13" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B30" s="14" t="s">
         <v>51</v>
@@ -3860,23 +3859,23 @@
     </row>
     <row r="31" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A31" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="B31" s="14" t="s">
         <v>146</v>
-      </c>
-      <c r="B31" s="14" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A32" s="13" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B32" s="14" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A33" s="13" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B33" s="14" t="s">
         <v>47</v>
@@ -3884,95 +3883,95 @@
     </row>
     <row r="34" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A34" s="13" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B34" s="14" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A35" s="13" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B35" s="14" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A36" s="13" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B36" s="14" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A37" s="13" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B37" s="14" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A38" s="13" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B38" s="14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" s="18" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B39" s="17" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" s="18" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B40" s="17" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" s="18" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B41" s="17" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" s="18" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B42" s="17" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" s="18" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B43" s="17" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" s="18" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B44" s="17" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" s="18" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B45" s="14" t="s">
         <v>28</v>
@@ -3980,7 +3979,7 @@
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" s="18" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B46" s="14" t="s">
         <v>29</v>
@@ -3988,7 +3987,7 @@
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" s="18" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B47" s="14" t="s">
         <v>33</v>
@@ -3996,7 +3995,7 @@
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" s="18" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B48" s="14" t="s">
         <v>34</v>
@@ -4004,7 +4003,7 @@
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" s="18" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B49" s="14" t="s">
         <v>35</v>
@@ -4012,7 +4011,7 @@
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" s="18" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B50" s="14" t="s">
         <v>36</v>
@@ -4020,74 +4019,74 @@
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" s="18" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B51" s="14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" s="18" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B52" s="14" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" s="18" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B53" s="14" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" s="18" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B54" s="14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" s="19" t="s">
+        <v>151</v>
+      </c>
+      <c r="B55" s="14" t="s">
         <v>152</v>
-      </c>
-      <c r="B55" s="14" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" s="18" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B56" s="14" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="57" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A57" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="B57" s="20" t="s">
         <v>154</v>
-      </c>
-      <c r="B57" s="20" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" s="18" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B58" s="20" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" s="18" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B59" s="14" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>
@@ -4112,15 +4111,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>134</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="35" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B2" s="36" t="s">
         <v>62</v>
@@ -4128,7 +4127,7 @@
     </row>
     <row r="3" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="35" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B3" s="36" t="s">
         <v>62</v>
@@ -4136,23 +4135,23 @@
     </row>
     <row r="4" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="35" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B4" s="36" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="35" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B5" s="36" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="37" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B6" s="36" t="s">
         <v>10</v>
@@ -4160,39 +4159,39 @@
     </row>
     <row r="7" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" s="37" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B7" s="36" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" s="37" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B8" s="36" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" s="37" t="s">
+        <v>138</v>
+      </c>
+      <c r="B9" s="36" t="s">
         <v>139</v>
-      </c>
-      <c r="B9" s="36" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A10" s="37" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B10" s="36" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" s="37" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B11" s="36" t="s">
         <v>47</v>
@@ -4200,7 +4199,7 @@
     </row>
     <row r="12" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" s="37" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B12" s="36" t="s">
         <v>45</v>
@@ -4208,23 +4207,23 @@
     </row>
     <row r="13" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="38" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B13" s="17" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" s="35" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B14" s="36" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A15" s="35" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B15" s="36" t="s">
         <v>59</v>
@@ -4232,7 +4231,7 @@
     </row>
     <row r="16" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A16" s="37" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B16" s="39" t="s">
         <v>49</v>
@@ -4240,23 +4239,23 @@
     </row>
     <row r="17" spans="1:1023 1025:2047 2049:3071 3073:4095 4097:5119 5121:6143 6145:7167 7169:8191 8193:9215 9217:10239 10241:11263 11265:12287 12289:13311 13313:14335 14337:15359 15361:16383" ht="17" x14ac:dyDescent="0.2">
       <c r="A17" s="40" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B17" s="41" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="18" spans="1:1023 1025:2047 2049:3071 3073:4095 4097:5119 5121:6143 6145:7167 7169:8191 8193:9215 9217:10239 10241:11263 11265:12287 12289:13311 13313:14335 14337:15359 15361:16383" ht="17" x14ac:dyDescent="0.2">
       <c r="A18" s="38" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B18" s="42" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="19" spans="1:1023 1025:2047 2049:3071 3073:4095 4097:5119 5121:6143 6145:7167 7169:8191 8193:9215 9217:10239 10241:11263 11265:12287 12289:13311 13313:14335 14337:15359 15361:16383" ht="17" x14ac:dyDescent="0.2">
       <c r="A19" s="35" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B19" s="36" t="s">
         <v>51</v>
@@ -4264,7 +4263,7 @@
     </row>
     <row r="20" spans="1:1023 1025:2047 2049:3071 3073:4095 4097:5119 5121:6143 6145:7167 7169:8191 8193:9215 9217:10239 10241:11263 11265:12287 12289:13311 13313:14335 14337:15359 15361:16383" ht="17" x14ac:dyDescent="0.2">
       <c r="A20" s="35" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B20" s="36" t="s">
         <v>47</v>
@@ -4272,18 +4271,18 @@
     </row>
     <row r="21" spans="1:1023 1025:2047 2049:3071 3073:4095 4097:5119 5121:6143 6145:7167 7169:8191 8193:9215 9217:10239 10241:11263 11265:12287 12289:13311 13313:14335 14337:15359 15361:16383" ht="17" x14ac:dyDescent="0.2">
       <c r="A21" s="37" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B21" s="39" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="22" spans="1:1023 1025:2047 2049:3071 3073:4095 4097:5119 5121:6143 6145:7167 7169:8191 8193:9215 9217:10239 10241:11263 11265:12287 12289:13311 13313:14335 14337:15359 15361:16383" s="48" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A22" s="37" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B22" s="14" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E22" s="27"/>
       <c r="G22" s="27"/>
@@ -12478,10 +12477,10 @@
     </row>
     <row r="23" spans="1:1023 1025:2047 2049:3071 3073:4095 4097:5119 5121:6143 6145:7167 7169:8191 8193:9215 9217:10239 10241:11263 11265:12287 12289:13311 13313:14335 14337:15359 15361:16383" s="48" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A23" s="37" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B23" s="14" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C23" s="27"/>
       <c r="E23" s="27"/>
@@ -20677,10 +20676,10 @@
     </row>
     <row r="24" spans="1:1023 1025:2047 2049:3071 3073:4095 4097:5119 5121:6143 6145:7167 7169:8191 8193:9215 9217:10239 10241:11263 11265:12287 12289:13311 13313:14335 14337:15359 15361:16383" s="48" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A24" s="37" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B24" s="14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C24" s="27"/>
       <c r="E24" s="27"/>
@@ -28876,55 +28875,55 @@
     </row>
     <row r="25" spans="1:1023 1025:2047 2049:3071 3073:4095 4097:5119 5121:6143 6145:7167 7169:8191 8193:9215 9217:10239 10241:11263 11265:12287 12289:13311 13313:14335 14337:15359 15361:16383" x14ac:dyDescent="0.2">
       <c r="A25" s="21" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B25" s="47" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="26" spans="1:1023 1025:2047 2049:3071 3073:4095 4097:5119 5121:6143 6145:7167 7169:8191 8193:9215 9217:10239 10241:11263 11265:12287 12289:13311 13313:14335 14337:15359 15361:16383" x14ac:dyDescent="0.2">
       <c r="A26" s="21" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B26" s="17" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="27" spans="1:1023 1025:2047 2049:3071 3073:4095 4097:5119 5121:6143 6145:7167 7169:8191 8193:9215 9217:10239 10241:11263 11265:12287 12289:13311 13313:14335 14337:15359 15361:16383" x14ac:dyDescent="0.2">
       <c r="A27" s="21" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B27" s="17" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="28" spans="1:1023 1025:2047 2049:3071 3073:4095 4097:5119 5121:6143 6145:7167 7169:8191 8193:9215 9217:10239 10241:11263 11265:12287 12289:13311 13313:14335 14337:15359 15361:16383" x14ac:dyDescent="0.2">
       <c r="A28" s="21" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B28" s="17" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="29" spans="1:1023 1025:2047 2049:3071 3073:4095 4097:5119 5121:6143 6145:7167 7169:8191 8193:9215 9217:10239 10241:11263 11265:12287 12289:13311 13313:14335 14337:15359 15361:16383" x14ac:dyDescent="0.2">
       <c r="A29" s="21" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B29" s="17" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="30" spans="1:1023 1025:2047 2049:3071 3073:4095 4097:5119 5121:6143 6145:7167 7169:8191 8193:9215 9217:10239 10241:11263 11265:12287 12289:13311 13313:14335 14337:15359 15361:16383" x14ac:dyDescent="0.2">
       <c r="A30" s="21" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B30" s="17" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="31" spans="1:1023 1025:2047 2049:3071 3073:4095 4097:5119 5121:6143 6145:7167 7169:8191 8193:9215 9217:10239 10241:11263 11265:12287 12289:13311 13313:14335 14337:15359 15361:16383" x14ac:dyDescent="0.2">
       <c r="A31" s="21" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B31" s="36" t="s">
         <v>28</v>
@@ -28932,7 +28931,7 @@
     </row>
     <row r="32" spans="1:1023 1025:2047 2049:3071 3073:4095 4097:5119 5121:6143 6145:7167 7169:8191 8193:9215 9217:10239 10241:11263 11265:12287 12289:13311 13313:14335 14337:15359 15361:16383" x14ac:dyDescent="0.2">
       <c r="A32" s="21" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B32" s="36" t="s">
         <v>29</v>
@@ -28940,7 +28939,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" s="21" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B33" s="36" t="s">
         <v>33</v>
@@ -28948,7 +28947,7 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" s="21" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B34" s="36" t="s">
         <v>34</v>
@@ -28956,7 +28955,7 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" s="21" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B35" s="36" t="s">
         <v>35</v>
@@ -28964,7 +28963,7 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" s="21" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B36" s="36" t="s">
         <v>36</v>
@@ -28972,138 +28971,138 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" s="21" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B37" s="36" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" s="21" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B38" s="36" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" s="21" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B39" s="36" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" s="21" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B40" s="36" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" s="21" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B41" s="36" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" s="21" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B42" s="36" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" s="21" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B43" s="17" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" s="43" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B44" s="36" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" s="44" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B45" s="36" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A46" s="35" t="s">
+        <v>153</v>
+      </c>
+      <c r="B46" s="20" t="s">
         <v>154</v>
-      </c>
-      <c r="B46" s="20" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A47" s="45" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B47" s="20" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" s="21" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B48" s="20" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" s="21" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B49" s="36" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" s="21" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B50" s="36" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B51" s="29" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B52" s="29" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A53" s="46" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B53" s="29" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -29128,130 +29127,130 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="51" t="s">
+        <v>243</v>
+      </c>
+      <c r="B2" s="51" t="s">
         <v>244</v>
       </c>
-      <c r="B2" s="51" t="s">
+      <c r="C2" t="s">
         <v>245</v>
-      </c>
-      <c r="C2" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>246</v>
+      </c>
+      <c r="B3" t="s">
         <v>247</v>
-      </c>
-      <c r="B3" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B4" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>249</v>
+      </c>
+      <c r="B5" t="s">
         <v>250</v>
-      </c>
-      <c r="B5" t="s">
-        <v>251</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B6" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B7" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B8" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
+        <v>254</v>
+      </c>
+      <c r="B9" t="s">
         <v>255</v>
-      </c>
-      <c r="B9" t="s">
-        <v>256</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B10" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B11" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B12" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B13" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
+        <v>260</v>
+      </c>
+      <c r="B14" t="s">
         <v>261</v>
-      </c>
-      <c r="B14" t="s">
-        <v>262</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C15" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C16" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
   </sheetData>

--- a/data-raw/Data_summaryforpackage.xlsx
+++ b/data-raw/Data_summaryforpackage.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xutaowang/Desktop/curatedTBData/data-raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82695455-FACB-DF49-A6B6-696DC3D4E48E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB7DD196-56C5-434D-B937-A490B5AFCADC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-33220" yWindow="3140" windowWidth="30520" windowHeight="20540" xr2:uid="{B39B7F83-2537-C248-AAB4-54D9192DC10F}"/>
+    <workbookView xWindow="4520" yWindow="1160" windowWidth="30520" windowHeight="20540" xr2:uid="{B39B7F83-2537-C248-AAB4-54D9192DC10F}"/>
   </bookViews>
   <sheets>
     <sheet name="DataSummary" sheetId="1" r:id="rId1"/>
@@ -42,9 +42,6 @@
   </si>
   <si>
     <t>Platform</t>
-  </si>
-  <si>
-    <t>Country</t>
   </si>
   <si>
     <t>Tissue</t>
@@ -898,6 +895,9 @@
   <si>
     <t>Malawi, South Africa</t>
   </si>
+  <si>
+    <t>Country/Region</t>
+  </si>
 </sst>
 </file>
 
@@ -1542,8 +1542,8 @@
   <dimension ref="A1:N51"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E26" sqref="E26"/>
+      <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1564,60 +1564,60 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="30" t="s">
+      <c r="H1" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="J1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="M1" s="2" t="s">
-        <v>9</v>
-      </c>
       <c r="N1" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="82" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
@@ -1631,33 +1631,33 @@
         <v>27</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>21</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>22</v>
       </c>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
@@ -1670,33 +1670,33 @@
         <v>9</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A4" s="28" t="s">
+        <v>93</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="C4" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="D4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" s="31" t="s">
         <v>96</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E4" s="31" t="s">
-        <v>97</v>
-      </c>
       <c r="F4" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G4" s="23" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H4" s="2">
         <v>9</v>
@@ -1714,30 +1714,30 @@
       </c>
       <c r="M4" s="2"/>
       <c r="N4" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="69" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="C5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="E5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" s="2" t="s">
+      <c r="F5" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="2" t="s">
-        <v>15</v>
-      </c>
       <c r="G5" s="23" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H5" s="2">
         <v>6</v>
@@ -1754,30 +1754,30 @@
         <v>21</v>
       </c>
       <c r="M5" s="23" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="28" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>18</v>
-      </c>
       <c r="D6" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
@@ -1795,24 +1795,24 @@
         <v>109</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" s="28" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B7" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>219</v>
-      </c>
       <c r="D7" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E7" s="31"/>
       <c r="F7" s="2"/>
@@ -1830,30 +1830,30 @@
       </c>
       <c r="M7" s="2"/>
       <c r="N7" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="130" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="12" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D8" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="E8" s="31" t="s">
-        <v>26</v>
-      </c>
       <c r="F8" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G8" s="23" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H8" s="2"/>
       <c r="I8" s="2">
@@ -1868,33 +1868,33 @@
         <v>144</v>
       </c>
       <c r="M8" s="23" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="130" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="28" t="s">
+        <v>219</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G9" s="23" t="s">
         <v>220</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E9" s="31" t="s">
-        <v>31</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G9" s="23" t="s">
-        <v>221</v>
       </c>
       <c r="H9" s="2">
         <v>12</v>
@@ -1912,28 +1912,28 @@
       </c>
       <c r="M9" s="23"/>
       <c r="N9" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="119" x14ac:dyDescent="0.2">
       <c r="A10" s="28" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E10" s="31"/>
       <c r="F10" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G10" s="23" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="H10" s="2">
         <v>100</v>
@@ -1948,33 +1948,33 @@
         <v>138</v>
       </c>
       <c r="M10" s="23" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="119" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B11" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C11" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="D11" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="D11" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>91</v>
-      </c>
       <c r="F11" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H11" s="7"/>
       <c r="I11" s="7">
@@ -1989,33 +1989,33 @@
         <v>334</v>
       </c>
       <c r="M11" s="8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="12" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A12" s="28" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B12" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>25</v>
-      </c>
       <c r="E12" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H12" s="2"/>
       <c r="I12" s="2">
@@ -2030,33 +2030,33 @@
         <v>54</v>
       </c>
       <c r="M12" s="23" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="13" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A13" s="28" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B13" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="E13" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G13" s="2" t="s">
         <v>21</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>22</v>
       </c>
       <c r="H13" s="2"/>
       <c r="I13" s="2">
@@ -2071,33 +2071,33 @@
         <v>47</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="14" spans="1:14" ht="62" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="12" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B14" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C14" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>25</v>
-      </c>
       <c r="E14" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H14" s="2">
         <v>15</v>
@@ -2112,33 +2112,33 @@
         <v>31</v>
       </c>
       <c r="M14" s="11" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="N14" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="15" spans="1:14" ht="49" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="12" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B15" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C15" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>25</v>
-      </c>
       <c r="E15" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H15" s="2">
         <v>50</v>
@@ -2155,33 +2155,33 @@
         <v>161</v>
       </c>
       <c r="M15" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N15" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="16" spans="1:14" ht="49" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="28" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G16" s="23" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H16" s="2"/>
       <c r="I16" s="2">
@@ -2197,28 +2197,28 @@
       </c>
       <c r="M16" s="23"/>
       <c r="N16" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="17" spans="1:14" ht="49" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F17" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G17" s="10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H17" s="2">
         <v>16</v>
@@ -2234,30 +2234,30 @@
       </c>
       <c r="M17" s="23"/>
       <c r="N17" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="18" spans="1:14" ht="49" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="11" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E18" s="32" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G18" s="23" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H18" s="2"/>
       <c r="I18" s="2">
@@ -2272,31 +2272,31 @@
         <v>51</v>
       </c>
       <c r="M18" s="11" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="N18" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="19" spans="1:14" ht="109" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="23" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E19" s="32" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F19" s="2"/>
       <c r="G19" s="23" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="H19" s="2">
         <v>32</v>
@@ -2311,31 +2311,31 @@
         <v>48</v>
       </c>
       <c r="M19" s="11" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="N19" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="20" spans="1:14" ht="86" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="28" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H20" s="2">
         <v>12</v>
@@ -2350,33 +2350,33 @@
         <v>19</v>
       </c>
       <c r="M20" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="N20" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21" s="28" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H21" s="2">
         <v>12</v>
@@ -2394,30 +2394,30 @@
       </c>
       <c r="M21" s="2"/>
       <c r="N21" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="22" spans="1:14" ht="86" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="28" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H22" s="2"/>
       <c r="I22" s="2">
@@ -2432,33 +2432,33 @@
         <v>51</v>
       </c>
       <c r="M22" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="N22" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="23" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A23" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="B23" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="C23" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" s="23" t="s">
+        <v>240</v>
+      </c>
+      <c r="E23" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C23" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D23" s="23" t="s">
-        <v>241</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>31</v>
-      </c>
       <c r="F23" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H23" s="2">
         <v>16</v>
@@ -2474,30 +2474,30 @@
       </c>
       <c r="M23" s="2"/>
       <c r="N23" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A24" s="28" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B24" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E24" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C24" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>31</v>
-      </c>
       <c r="F24" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H24" s="2">
         <v>12</v>
@@ -2515,28 +2515,28 @@
       </c>
       <c r="M24" s="2"/>
       <c r="N24" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="25" spans="1:14" ht="102" x14ac:dyDescent="0.2">
       <c r="A25" s="28" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E25" s="33" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H25" s="2">
         <v>81</v>
@@ -2551,31 +2551,31 @@
         <v>274</v>
       </c>
       <c r="M25" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="N25" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="26" spans="1:14" ht="109" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="23" t="s">
+        <v>228</v>
+      </c>
+      <c r="B26" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="B26" s="2" t="s">
-        <v>230</v>
-      </c>
       <c r="C26" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E26" s="32"/>
       <c r="F26" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G26" s="23" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H26" s="2">
         <v>6</v>
@@ -2589,33 +2589,33 @@
         <v>15</v>
       </c>
       <c r="M26" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="N26" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="27" spans="1:14" ht="153" x14ac:dyDescent="0.2">
       <c r="A27" s="28" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C27" s="23" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F27" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G27" s="23" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H27" s="2"/>
       <c r="I27" s="2">
@@ -2632,33 +2632,33 @@
         <v>537</v>
       </c>
       <c r="M27" s="23" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="N27" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="28" spans="1:14" ht="85" x14ac:dyDescent="0.2">
       <c r="A28" s="28" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B28" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C28" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C28" s="2" t="s">
+      <c r="D28" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E28" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="D28" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E28" s="2" t="s">
+      <c r="F28" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="F28" s="9" t="s">
-        <v>66</v>
-      </c>
       <c r="G28" s="23" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="H28" s="2"/>
       <c r="I28" s="2">
@@ -2675,33 +2675,33 @@
         <v>157</v>
       </c>
       <c r="M28" s="23" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="N28" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="29" spans="1:14" ht="85" x14ac:dyDescent="0.2">
       <c r="A29" s="28" t="s">
+        <v>61</v>
+      </c>
+      <c r="B29" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="B29" s="2" t="s">
-        <v>63</v>
-      </c>
       <c r="C29" s="23" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E29" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F29" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="F29" s="9" t="s">
-        <v>66</v>
-      </c>
       <c r="G29" s="23" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="H29" s="2"/>
       <c r="I29" s="2">
@@ -2718,24 +2718,24 @@
         <v>334</v>
       </c>
       <c r="M29" s="23" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="N29" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="30" spans="1:14" ht="108" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="28" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C30" s="50" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" s="9"/>
@@ -2753,33 +2753,33 @@
         <v>75</v>
       </c>
       <c r="M30" s="49" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="N30" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="31" spans="1:14" ht="68" x14ac:dyDescent="0.2">
       <c r="A31" s="28" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H31" s="2">
         <v>23</v>
@@ -2796,33 +2796,33 @@
         <v>42</v>
       </c>
       <c r="M31" s="23" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="N31" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="32" spans="1:14" ht="85" x14ac:dyDescent="0.2">
       <c r="A32" s="28" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H32" s="2">
         <v>52</v>
@@ -2839,30 +2839,30 @@
         <v>102</v>
       </c>
       <c r="M32" s="23" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="N32" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="33" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="A33" s="34" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G33" s="2"/>
       <c r="H33" s="2"/>
@@ -2876,33 +2876,33 @@
         <v>5</v>
       </c>
       <c r="M33" s="23" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N33" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="34" spans="1:14" ht="85" x14ac:dyDescent="0.2">
       <c r="A34" s="28" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H34" s="2">
         <v>38</v>
@@ -2919,30 +2919,30 @@
         <v>95</v>
       </c>
       <c r="M34" s="23" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="N34" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="35" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A35" s="34" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G35" s="2"/>
       <c r="H35" s="2"/>
@@ -2956,33 +2956,33 @@
         <v>7</v>
       </c>
       <c r="M35" s="23" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="N35" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="36" spans="1:14" ht="102" x14ac:dyDescent="0.2">
       <c r="A36" s="28" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D36" s="23" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H36" s="2">
         <v>5</v>
@@ -2999,30 +2999,30 @@
         <v>15</v>
       </c>
       <c r="M36" s="23" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="N36" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="37" spans="1:14" ht="153" x14ac:dyDescent="0.2">
       <c r="A37" s="28" t="s">
+        <v>72</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E37" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="B37" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>74</v>
-      </c>
       <c r="F37" s="9" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G37" s="2"/>
       <c r="H37" s="2">
@@ -3038,33 +3038,33 @@
         <v>43</v>
       </c>
       <c r="M37" s="23" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="N37" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="38" spans="1:14" ht="69" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="B38" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="B38" s="2" t="s">
+      <c r="C38" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="C38" s="2" t="s">
+      <c r="D38" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E38" s="33" t="s">
         <v>69</v>
       </c>
-      <c r="D38" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E38" s="33" t="s">
-        <v>70</v>
-      </c>
       <c r="F38" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G38" s="23" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H38" s="2">
         <v>23</v>
@@ -3079,33 +3079,33 @@
         <v>46</v>
       </c>
       <c r="M38" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="N38" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="39" spans="1:14" ht="102" x14ac:dyDescent="0.2">
       <c r="A39" s="28" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F39" s="9" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G39" s="23" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="H39" s="2"/>
       <c r="I39" s="2">
@@ -3120,31 +3120,31 @@
         <v>40</v>
       </c>
       <c r="M39" s="49" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="N39" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="40" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A40" s="28" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D40" s="23" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H40" s="2">
         <v>61</v>
@@ -3161,30 +3161,30 @@
         <v>155</v>
       </c>
       <c r="M40" s="23" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="N40" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="41" spans="1:14" ht="136" x14ac:dyDescent="0.2">
       <c r="A41" s="28" t="s">
+        <v>214</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D41" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F41" s="2" t="s">
         <v>215</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D41" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F41" s="2" t="s">
-        <v>216</v>
       </c>
       <c r="G41" s="2"/>
       <c r="H41" s="2">
@@ -3200,33 +3200,33 @@
         <v>50</v>
       </c>
       <c r="M41" s="23" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="N41" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="42" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A42" s="28" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H42" s="2">
         <v>29</v>
@@ -3243,27 +3243,27 @@
         <v>110</v>
       </c>
       <c r="M42" s="23" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="N42" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="43" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B43" s="2" t="s">
         <v>99</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>100</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" s="2"/>
       <c r="G43" s="23" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H43" s="2">
         <v>13</v>
@@ -3281,30 +3281,30 @@
       </c>
       <c r="M43" s="23"/>
       <c r="N43" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="44" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B44" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B44" s="2" t="s">
-        <v>46</v>
-      </c>
       <c r="C44" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E44" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="D44" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E44" s="2" t="s">
+      <c r="F44" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G44" s="3" t="s">
         <v>54</v>
-      </c>
-      <c r="F44" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G44" s="3" t="s">
-        <v>55</v>
       </c>
       <c r="H44" s="2">
         <v>37</v>
@@ -3322,27 +3322,27 @@
       </c>
       <c r="M44" s="2"/>
       <c r="N44" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="45" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B45" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B45" s="2" t="s">
-        <v>48</v>
-      </c>
       <c r="C45" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E45" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="D45" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>57</v>
-      </c>
       <c r="F45" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G45" s="2"/>
       <c r="H45" s="2">
@@ -3360,31 +3360,31 @@
         <v>44</v>
       </c>
       <c r="M45" s="23" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="N45" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="46" spans="1:14" ht="68" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G46" s="23" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H46" s="2"/>
       <c r="I46" s="2"/>
@@ -3399,27 +3399,27 @@
         <v>26</v>
       </c>
       <c r="M46" s="22" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="N46" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="47" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="B47" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="B47" s="2" t="s">
+      <c r="C47" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D47" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="C47" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>210</v>
-      </c>
       <c r="E47" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F47" s="2"/>
       <c r="G47" s="23"/>
@@ -3438,28 +3438,28 @@
         <v>8</v>
       </c>
       <c r="M47" s="22" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="N47" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="48" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B48" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B48" s="2" t="s">
-        <v>50</v>
-      </c>
       <c r="C48" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G48" s="2"/>
       <c r="H48" s="2">
@@ -3477,31 +3477,31 @@
         <v>21</v>
       </c>
       <c r="M48" s="23" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="N48" s="21" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="49" spans="1:14" ht="85" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B49" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B49" s="2" t="s">
-        <v>52</v>
-      </c>
       <c r="C49" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H49" s="2">
         <v>76</v>
@@ -3516,29 +3516,29 @@
         <v>189</v>
       </c>
       <c r="M49" s="23" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="N49" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="50" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B50" s="2" t="s">
         <v>59</v>
-      </c>
-      <c r="B50" s="2" t="s">
-        <v>60</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G50" s="23" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H50" s="2">
         <v>36</v>
@@ -3555,15 +3555,15 @@
         <v>72</v>
       </c>
       <c r="M50" s="23" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="N50" s="21" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
@@ -3619,474 +3619,474 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B1" t="s">
         <v>133</v>
-      </c>
-      <c r="B1" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="13" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="13" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="13" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="13" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="13" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" s="13" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="B8" s="14" t="s">
         <v>136</v>
-      </c>
-      <c r="B8" s="14" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" s="13" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A10" s="13" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" s="13" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" s="15" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="15" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" s="15" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A15" s="15" t="s">
+        <v>137</v>
+      </c>
+      <c r="B15" s="14" t="s">
         <v>138</v>
-      </c>
-      <c r="B15" s="14" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A16" s="15" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A17" s="15" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A18" s="15" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B18" s="14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A19" s="16" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B19" s="17" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A20" s="16" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B20" s="17" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A21" s="16" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B21" s="17" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A22" s="16" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B22" s="17" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A23" s="16" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B23" s="17" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A24" s="16" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B24" s="17" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A25" s="13" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B25" s="14" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A26" s="13" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B26" s="14" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A27" s="15" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B27" s="24" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A28" s="26" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B28" s="14" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A29" s="16" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B29" s="25" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A30" s="13" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B30" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A31" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="B31" s="14" t="s">
         <v>145</v>
-      </c>
-      <c r="B31" s="14" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A32" s="13" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B32" s="14" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A33" s="13" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B33" s="14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A34" s="13" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B34" s="14" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A35" s="13" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B35" s="14" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A36" s="13" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B36" s="14" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A37" s="13" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B37" s="14" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A38" s="13" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B38" s="14" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" s="18" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B39" s="17" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" s="18" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B40" s="17" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" s="18" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B41" s="17" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" s="18" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B42" s="17" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" s="18" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B43" s="17" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" s="18" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B44" s="17" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" s="18" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B45" s="14" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" s="18" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B46" s="14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" s="18" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B47" s="14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" s="18" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B48" s="14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" s="18" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B49" s="14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" s="18" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B50" s="14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" s="18" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B51" s="14" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" s="18" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B52" s="14" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" s="18" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B53" s="14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" s="18" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B54" s="14" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" s="19" t="s">
+        <v>150</v>
+      </c>
+      <c r="B55" s="14" t="s">
         <v>151</v>
-      </c>
-      <c r="B55" s="14" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" s="18" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B56" s="14" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="57" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A57" s="13" t="s">
+        <v>152</v>
+      </c>
+      <c r="B57" s="20" t="s">
         <v>153</v>
-      </c>
-      <c r="B57" s="20" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" s="18" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B58" s="20" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" s="18" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B59" s="14" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
   </sheetData>
@@ -4111,178 +4111,178 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>133</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="35" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B2" s="36" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="35" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B3" s="36" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="35" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B4" s="36" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="35" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B5" s="36" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="37" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B6" s="36" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" s="37" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B7" s="36" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" s="37" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B8" s="36" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" s="37" t="s">
+        <v>137</v>
+      </c>
+      <c r="B9" s="36" t="s">
         <v>138</v>
-      </c>
-      <c r="B9" s="36" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A10" s="37" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B10" s="36" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" s="37" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B11" s="36" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" s="37" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B12" s="36" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="38" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B13" s="17" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" s="35" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B14" s="36" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A15" s="35" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B15" s="36" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A16" s="37" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B16" s="39" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="17" spans="1:1023 1025:2047 2049:3071 3073:4095 4097:5119 5121:6143 6145:7167 7169:8191 8193:9215 9217:10239 10241:11263 11265:12287 12289:13311 13313:14335 14337:15359 15361:16383" ht="17" x14ac:dyDescent="0.2">
       <c r="A17" s="40" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B17" s="41" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="18" spans="1:1023 1025:2047 2049:3071 3073:4095 4097:5119 5121:6143 6145:7167 7169:8191 8193:9215 9217:10239 10241:11263 11265:12287 12289:13311 13313:14335 14337:15359 15361:16383" ht="17" x14ac:dyDescent="0.2">
       <c r="A18" s="38" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B18" s="42" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="19" spans="1:1023 1025:2047 2049:3071 3073:4095 4097:5119 5121:6143 6145:7167 7169:8191 8193:9215 9217:10239 10241:11263 11265:12287 12289:13311 13313:14335 14337:15359 15361:16383" ht="17" x14ac:dyDescent="0.2">
       <c r="A19" s="35" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B19" s="36" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="20" spans="1:1023 1025:2047 2049:3071 3073:4095 4097:5119 5121:6143 6145:7167 7169:8191 8193:9215 9217:10239 10241:11263 11265:12287 12289:13311 13313:14335 14337:15359 15361:16383" ht="17" x14ac:dyDescent="0.2">
       <c r="A20" s="35" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B20" s="36" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="21" spans="1:1023 1025:2047 2049:3071 3073:4095 4097:5119 5121:6143 6145:7167 7169:8191 8193:9215 9217:10239 10241:11263 11265:12287 12289:13311 13313:14335 14337:15359 15361:16383" ht="17" x14ac:dyDescent="0.2">
       <c r="A21" s="37" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B21" s="39" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="22" spans="1:1023 1025:2047 2049:3071 3073:4095 4097:5119 5121:6143 6145:7167 7169:8191 8193:9215 9217:10239 10241:11263 11265:12287 12289:13311 13313:14335 14337:15359 15361:16383" s="48" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A22" s="37" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B22" s="14" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E22" s="27"/>
       <c r="G22" s="27"/>
@@ -12477,10 +12477,10 @@
     </row>
     <row r="23" spans="1:1023 1025:2047 2049:3071 3073:4095 4097:5119 5121:6143 6145:7167 7169:8191 8193:9215 9217:10239 10241:11263 11265:12287 12289:13311 13313:14335 14337:15359 15361:16383" s="48" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A23" s="37" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B23" s="14" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C23" s="27"/>
       <c r="E23" s="27"/>
@@ -20676,10 +20676,10 @@
     </row>
     <row r="24" spans="1:1023 1025:2047 2049:3071 3073:4095 4097:5119 5121:6143 6145:7167 7169:8191 8193:9215 9217:10239 10241:11263 11265:12287 12289:13311 13313:14335 14337:15359 15361:16383" s="48" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A24" s="37" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B24" s="14" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C24" s="27"/>
       <c r="E24" s="27"/>
@@ -28875,234 +28875,234 @@
     </row>
     <row r="25" spans="1:1023 1025:2047 2049:3071 3073:4095 4097:5119 5121:6143 6145:7167 7169:8191 8193:9215 9217:10239 10241:11263 11265:12287 12289:13311 13313:14335 14337:15359 15361:16383" x14ac:dyDescent="0.2">
       <c r="A25" s="21" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B25" s="47" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="26" spans="1:1023 1025:2047 2049:3071 3073:4095 4097:5119 5121:6143 6145:7167 7169:8191 8193:9215 9217:10239 10241:11263 11265:12287 12289:13311 13313:14335 14337:15359 15361:16383" x14ac:dyDescent="0.2">
       <c r="A26" s="21" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B26" s="17" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="27" spans="1:1023 1025:2047 2049:3071 3073:4095 4097:5119 5121:6143 6145:7167 7169:8191 8193:9215 9217:10239 10241:11263 11265:12287 12289:13311 13313:14335 14337:15359 15361:16383" x14ac:dyDescent="0.2">
       <c r="A27" s="21" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B27" s="17" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="28" spans="1:1023 1025:2047 2049:3071 3073:4095 4097:5119 5121:6143 6145:7167 7169:8191 8193:9215 9217:10239 10241:11263 11265:12287 12289:13311 13313:14335 14337:15359 15361:16383" x14ac:dyDescent="0.2">
       <c r="A28" s="21" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B28" s="17" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="29" spans="1:1023 1025:2047 2049:3071 3073:4095 4097:5119 5121:6143 6145:7167 7169:8191 8193:9215 9217:10239 10241:11263 11265:12287 12289:13311 13313:14335 14337:15359 15361:16383" x14ac:dyDescent="0.2">
       <c r="A29" s="21" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B29" s="17" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="30" spans="1:1023 1025:2047 2049:3071 3073:4095 4097:5119 5121:6143 6145:7167 7169:8191 8193:9215 9217:10239 10241:11263 11265:12287 12289:13311 13313:14335 14337:15359 15361:16383" x14ac:dyDescent="0.2">
       <c r="A30" s="21" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B30" s="17" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="31" spans="1:1023 1025:2047 2049:3071 3073:4095 4097:5119 5121:6143 6145:7167 7169:8191 8193:9215 9217:10239 10241:11263 11265:12287 12289:13311 13313:14335 14337:15359 15361:16383" x14ac:dyDescent="0.2">
       <c r="A31" s="21" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B31" s="36" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="32" spans="1:1023 1025:2047 2049:3071 3073:4095 4097:5119 5121:6143 6145:7167 7169:8191 8193:9215 9217:10239 10241:11263 11265:12287 12289:13311 13313:14335 14337:15359 15361:16383" x14ac:dyDescent="0.2">
       <c r="A32" s="21" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B32" s="36" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" s="21" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B33" s="36" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" s="21" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B34" s="36" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" s="21" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B35" s="36" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" s="21" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B36" s="36" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" s="21" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B37" s="36" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" s="21" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B38" s="36" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" s="21" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B39" s="36" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" s="21" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B40" s="36" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" s="21" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B41" s="36" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" s="21" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B42" s="36" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" s="21" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B43" s="17" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" s="43" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B44" s="36" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" s="44" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B45" s="36" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A46" s="35" t="s">
+        <v>152</v>
+      </c>
+      <c r="B46" s="20" t="s">
         <v>153</v>
-      </c>
-      <c r="B46" s="20" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A47" s="45" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B47" s="20" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" s="21" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B48" s="20" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" s="21" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B49" s="36" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" s="21" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B50" s="36" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B51" s="29" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B52" s="29" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A53" s="46" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B53" s="29" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
   </sheetData>
@@ -29116,7 +29116,7 @@
   <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -29127,130 +29127,130 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="51" t="s">
+        <v>242</v>
+      </c>
+      <c r="B2" s="51" t="s">
         <v>243</v>
       </c>
-      <c r="B2" s="51" t="s">
+      <c r="C2" t="s">
         <v>244</v>
-      </c>
-      <c r="C2" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>245</v>
+      </c>
+      <c r="B3" t="s">
         <v>246</v>
-      </c>
-      <c r="B3" t="s">
-        <v>247</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B4" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>248</v>
+      </c>
+      <c r="B5" t="s">
         <v>249</v>
-      </c>
-      <c r="B5" t="s">
-        <v>250</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B6" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B7" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B8" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
+        <v>253</v>
+      </c>
+      <c r="B9" t="s">
         <v>254</v>
-      </c>
-      <c r="B9" t="s">
-        <v>255</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B10" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B11" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B12" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B13" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
+        <v>259</v>
+      </c>
+      <c r="B14" t="s">
         <v>260</v>
-      </c>
-      <c r="B14" t="s">
-        <v>261</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C15" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C16" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
   </sheetData>

--- a/data-raw/Data_summaryforpackage.xlsx
+++ b/data-raw/Data_summaryforpackage.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xutaowang/Desktop/curatedTBData/data-raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB7DD196-56C5-434D-B937-A490B5AFCADC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6ED3FFD-2E82-6B40-8035-B444ECD8EBBD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4520" yWindow="1160" windowWidth="30520" windowHeight="20540" xr2:uid="{B39B7F83-2537-C248-AAB4-54D9192DC10F}"/>
+    <workbookView xWindow="3800" yWindow="1200" windowWidth="30520" windowHeight="20540" activeTab="3" xr2:uid="{B39B7F83-2537-C248-AAB4-54D9192DC10F}"/>
   </bookViews>
   <sheets>
     <sheet name="DataSummary" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="671" uniqueCount="270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="675" uniqueCount="274">
   <si>
     <t>GEO accession</t>
   </si>
@@ -898,6 +898,18 @@
   <si>
     <t>Country/Region</t>
   </si>
+  <si>
+    <t>TimeToTB</t>
+  </si>
+  <si>
+    <t>Mainly in progression, measure the time from non-progressor to the onsite of TB</t>
+  </si>
+  <si>
+    <t>TimeFromExposure</t>
+  </si>
+  <si>
+    <t>Mainly in progression, measure the time being exposed to TB</t>
+  </si>
 </sst>
 </file>
 
@@ -1541,7 +1553,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{715BD991-25C2-914C-95C3-220CF25B2F79}">
   <dimension ref="A1:N51"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C13" sqref="C13"/>
     </sheetView>
@@ -29113,10 +29125,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D9EDD64-6A39-0C49-83EF-08EB873769A2}">
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -29253,6 +29265,22 @@
         <v>265</v>
       </c>
     </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B17" t="s">
+        <v>270</v>
+      </c>
+      <c r="C17" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B18" t="s">
+        <v>272</v>
+      </c>
+      <c r="C18" t="s">
+        <v>273</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data-raw/Data_summaryforpackage.xlsx
+++ b/data-raw/Data_summaryforpackage.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xutaowang/Desktop/curatedTBData/data-raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C34EA44-2EA8-4C4C-9A82-411BE5591E80}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F33E2AA4-22AF-3D48-A603-CDEBC6ABA2AA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1040" windowWidth="30520" windowHeight="20540" activeTab="1" xr2:uid="{B39B7F83-2537-C248-AAB4-54D9192DC10F}"/>
+    <workbookView xWindow="0" yWindow="1020" windowWidth="30520" windowHeight="20540" xr2:uid="{B39B7F83-2537-C248-AAB4-54D9192DC10F}"/>
   </bookViews>
   <sheets>
     <sheet name="DataSummary" sheetId="1" r:id="rId1"/>
@@ -1393,9 +1393,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{715BD991-25C2-914C-95C3-220CF25B2F79}">
   <dimension ref="A1:N51"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E45" sqref="E45"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3459,7 +3459,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FA3E69C-C1F1-F041-B7CA-C28168AEBC17}">
   <dimension ref="A1:XFC58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView topLeftCell="A31" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="B53" sqref="B53"/>
     </sheetView>
   </sheetViews>

--- a/data-raw/Data_summaryforpackage.xlsx
+++ b/data-raw/Data_summaryforpackage.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10411"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xutaowang/Desktop/curatedTBData/data-raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F33E2AA4-22AF-3D48-A603-CDEBC6ABA2AA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6462405A-0EAF-5D4F-B678-867600DD2516}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="1020" windowWidth="30520" windowHeight="20540" xr2:uid="{B39B7F83-2537-C248-AAB4-54D9192DC10F}"/>
   </bookViews>
@@ -1394,8 +1394,8 @@
   <dimension ref="A1:N51"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A28" sqref="A28"/>
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1788,16 +1788,18 @@
         <v>146</v>
       </c>
       <c r="H10" s="2">
-        <v>100</v>
+        <v>21</v>
       </c>
       <c r="I10" s="2"/>
       <c r="J10" s="2">
-        <v>38</v>
-      </c>
-      <c r="K10" s="2"/>
+        <v>91</v>
+      </c>
+      <c r="K10" s="2">
+        <v>17</v>
+      </c>
       <c r="L10" s="2">
         <f t="shared" si="0"/>
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="M10" s="18" t="s">
         <v>153</v>
@@ -3425,7 +3427,7 @@
       <c r="G51" s="18"/>
       <c r="H51" s="2">
         <f>SUM(H3:H50)</f>
-        <v>841</v>
+        <v>762</v>
       </c>
       <c r="I51" s="2">
         <f>SUM(I3:I50)</f>
@@ -3433,15 +3435,15 @@
       </c>
       <c r="J51" s="2">
         <f>SUM(J3:J50)</f>
-        <v>1392</v>
+        <v>1445</v>
       </c>
       <c r="K51" s="2">
         <f>SUM(K3:K50)</f>
-        <v>855</v>
+        <v>872</v>
       </c>
       <c r="L51" s="2">
         <f>SUM(L3:L50)</f>
-        <v>4175</v>
+        <v>4166</v>
       </c>
       <c r="M51" s="18"/>
       <c r="N51" s="2"/>

--- a/data-raw/Data_summaryforpackage.xlsx
+++ b/data-raw/Data_summaryforpackage.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xutaowang/Desktop/curatedTBData/data-raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6462405A-0EAF-5D4F-B678-867600DD2516}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15DDF0BF-F29E-A545-B4BC-7684D1B817BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1020" windowWidth="30520" windowHeight="20540" xr2:uid="{B39B7F83-2537-C248-AAB4-54D9192DC10F}"/>
+    <workbookView xWindow="-30780" yWindow="1500" windowWidth="30520" windowHeight="20540" xr2:uid="{B39B7F83-2537-C248-AAB4-54D9192DC10F}"/>
   </bookViews>
   <sheets>
     <sheet name="DataSummary" sheetId="1" r:id="rId1"/>
@@ -512,9 +512,6 @@
     <t>Sputum culture, chest radiography</t>
   </si>
   <si>
-    <t>Samples from the TB cases have been collected on the start day of TB treatment (DX) and on 1,4 and 24 weeks after treatment as well. ODs was Lung Dx or MTP. 2 NA's in TB status</t>
-  </si>
-  <si>
     <t xml:space="preserve">chest radiograph, sputum culture, TST
 </t>
   </si>
@@ -875,6 +872,9 @@
   </si>
   <si>
     <t>Unable to find training data</t>
+  </si>
+  <si>
+    <t>Samples from the TB cases have been collected on the start day of TB treatment (DX) and on 1,4 and 24 weeks after treatment as well. ODs was Lung Dx or MTP. Exclude samples with NA 's in TBStatus</t>
   </si>
 </sst>
 </file>
@@ -1395,7 +1395,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H10" sqref="H10"/>
+      <selection pane="bottomLeft" activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1416,7 +1416,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>2</v>
@@ -1483,7 +1483,7 @@
         <v>27</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="N2" s="2" t="s">
         <v>129</v>
@@ -1548,7 +1548,7 @@
         <v>14</v>
       </c>
       <c r="G4" s="18" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H4" s="2">
         <v>9</v>
@@ -1606,7 +1606,7 @@
         <v>21</v>
       </c>
       <c r="M5" s="18" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="N5" s="2" t="s">
         <v>129</v>
@@ -1655,13 +1655,13 @@
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" s="20" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B7" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>197</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>198</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>24</v>
@@ -1720,7 +1720,7 @@
         <v>144</v>
       </c>
       <c r="M8" s="18" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="N8" s="2" t="s">
         <v>130</v>
@@ -1728,7 +1728,7 @@
     </row>
     <row r="9" spans="1:14" ht="130" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="20" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>102</v>
@@ -1746,7 +1746,7 @@
         <v>14</v>
       </c>
       <c r="G9" s="18" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="H9" s="2">
         <v>12</v>
@@ -1792,17 +1792,17 @@
       </c>
       <c r="I10" s="2"/>
       <c r="J10" s="2">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="K10" s="2">
         <v>17</v>
       </c>
       <c r="L10" s="2">
         <f t="shared" si="0"/>
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="M10" s="18" t="s">
-        <v>153</v>
+        <v>262</v>
       </c>
       <c r="N10" s="2" t="s">
         <v>130</v>
@@ -2035,7 +2035,7 @@
         <v>14</v>
       </c>
       <c r="G16" s="18" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H16" s="2"/>
       <c r="I16" s="2">
@@ -2105,7 +2105,7 @@
         <v>11</v>
       </c>
       <c r="E18" s="23" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>14</v>
@@ -2126,7 +2126,7 @@
         <v>51</v>
       </c>
       <c r="M18" s="11" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="N18" s="2" t="s">
         <v>130</v>
@@ -2134,7 +2134,7 @@
     </row>
     <row r="19" spans="1:14" ht="109" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="18" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>102</v>
@@ -2146,11 +2146,11 @@
         <v>24</v>
       </c>
       <c r="E19" s="23" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F19" s="2"/>
       <c r="G19" s="18" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="H19" s="2">
         <v>32</v>
@@ -2165,7 +2165,7 @@
         <v>48</v>
       </c>
       <c r="M19" s="11" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="N19" s="2" t="s">
         <v>130</v>
@@ -2183,7 +2183,7 @@
         <v>24</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>14</v>
@@ -2204,7 +2204,7 @@
         <v>19</v>
       </c>
       <c r="M20" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="N20" s="2" t="s">
         <v>92</v>
@@ -2303,7 +2303,7 @@
         <v>26</v>
       </c>
       <c r="D23" s="18" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>30</v>
@@ -2405,7 +2405,7 @@
         <v>274</v>
       </c>
       <c r="M25" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="N25" s="2" t="s">
         <v>92</v>
@@ -2413,10 +2413,10 @@
     </row>
     <row r="26" spans="1:14" ht="109" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="18" t="s">
+        <v>207</v>
+      </c>
+      <c r="B26" s="2" t="s">
         <v>208</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>209</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>26</v>
@@ -2443,7 +2443,7 @@
         <v>15</v>
       </c>
       <c r="M26" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="N26" s="2" t="s">
         <v>92</v>
@@ -2457,7 +2457,7 @@
         <v>62</v>
       </c>
       <c r="C27" s="18" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>24</v>
@@ -2486,7 +2486,7 @@
         <v>537</v>
       </c>
       <c r="M27" s="18" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="N27" s="2" t="s">
         <v>92</v>
@@ -2512,7 +2512,7 @@
         <v>65</v>
       </c>
       <c r="G28" s="18" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H28" s="2"/>
       <c r="I28" s="2">
@@ -2529,7 +2529,7 @@
         <v>157</v>
       </c>
       <c r="M28" s="18" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="N28" s="2" t="s">
         <v>92</v>
@@ -2555,7 +2555,7 @@
         <v>65</v>
       </c>
       <c r="G29" s="18" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H29" s="2"/>
       <c r="I29" s="2">
@@ -2572,7 +2572,7 @@
         <v>334</v>
       </c>
       <c r="M29" s="18" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="N29" s="2" t="s">
         <v>92</v>
@@ -2586,7 +2586,7 @@
         <v>62</v>
       </c>
       <c r="C30" s="31" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>24</v>
@@ -2892,7 +2892,7 @@
         <v>43</v>
       </c>
       <c r="M37" s="18" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="N37" s="2" t="s">
         <v>92</v>
@@ -2959,7 +2959,7 @@
         <v>142</v>
       </c>
       <c r="G39" s="18" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="H39" s="2"/>
       <c r="I39" s="2">
@@ -2974,7 +2974,7 @@
         <v>40</v>
       </c>
       <c r="M39" s="30" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="N39" s="2" t="s">
         <v>92</v>
@@ -2982,7 +2982,7 @@
     </row>
     <row r="40" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A40" s="20" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>62</v>
@@ -3015,7 +3015,7 @@
         <v>155</v>
       </c>
       <c r="M40" s="18" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="N40" s="2" t="s">
         <v>92</v>
@@ -3023,7 +3023,7 @@
     </row>
     <row r="41" spans="1:14" ht="136" x14ac:dyDescent="0.2">
       <c r="A41" s="20" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>62</v>
@@ -3038,7 +3038,7 @@
         <v>18</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G41" s="2"/>
       <c r="H41" s="2">
@@ -3054,7 +3054,7 @@
         <v>50</v>
       </c>
       <c r="M41" s="18" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="N41" s="2" t="s">
         <v>92</v>
@@ -3062,7 +3062,7 @@
     </row>
     <row r="42" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A42" s="20" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>62</v>
@@ -3117,7 +3117,7 @@
       <c r="E43" s="2"/>
       <c r="F43" s="2"/>
       <c r="G43" s="18" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H43" s="2">
         <v>13</v>
@@ -3135,7 +3135,7 @@
       </c>
       <c r="M43" s="18"/>
       <c r="N43" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="44" spans="1:14" ht="51" x14ac:dyDescent="0.2">
@@ -3214,7 +3214,7 @@
         <v>44</v>
       </c>
       <c r="M45" s="18" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="N45" s="2" t="s">
         <v>138</v>
@@ -3253,7 +3253,7 @@
         <v>26</v>
       </c>
       <c r="M46" s="17" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="N46" s="2" t="s">
         <v>138</v>
@@ -3261,19 +3261,19 @@
     </row>
     <row r="47" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="B47" s="2" t="s">
         <v>187</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>188</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>86</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F47" s="2"/>
       <c r="G47" s="18"/>
@@ -3292,7 +3292,7 @@
         <v>8</v>
       </c>
       <c r="M47" s="17" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="N47" s="2" t="s">
         <v>138</v>
@@ -3370,7 +3370,7 @@
         <v>189</v>
       </c>
       <c r="M49" s="18" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="N49" s="2" t="s">
         <v>140</v>
@@ -3409,7 +3409,7 @@
         <v>72</v>
       </c>
       <c r="M50" s="18" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="N50" s="16" t="s">
         <v>141</v>
@@ -3435,7 +3435,7 @@
       </c>
       <c r="J51" s="2">
         <f>SUM(J3:J50)</f>
-        <v>1445</v>
+        <v>1454</v>
       </c>
       <c r="K51" s="2">
         <f>SUM(K3:K50)</f>
@@ -3443,7 +3443,7 @@
       </c>
       <c r="L51" s="2">
         <f>SUM(L3:L50)</f>
-        <v>4166</v>
+        <v>4175</v>
       </c>
       <c r="M51" s="18"/>
       <c r="N51" s="2"/>
@@ -3481,7 +3481,7 @@
     </row>
     <row r="2" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="27" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B2" s="26" t="s">
         <v>61</v>
@@ -3489,7 +3489,7 @@
     </row>
     <row r="3" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="27" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B3" s="26" t="s">
         <v>61</v>
@@ -3497,7 +3497,7 @@
     </row>
     <row r="4" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="27" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B4" s="26" t="s">
         <v>33</v>
@@ -3505,7 +3505,7 @@
     </row>
     <row r="5" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="27" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B5" s="26" t="s">
         <v>33</v>
@@ -3513,23 +3513,23 @@
     </row>
     <row r="6" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="27" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B6" s="26" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" s="27" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B7" s="26" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" s="27" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B8" s="26" t="s">
         <v>9</v>
@@ -3537,7 +3537,7 @@
     </row>
     <row r="9" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" s="27" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B9" s="26" t="s">
         <v>119</v>
@@ -3545,7 +3545,7 @@
     </row>
     <row r="10" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A10" s="27" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B10" s="26" t="s">
         <v>120</v>
@@ -3553,7 +3553,7 @@
     </row>
     <row r="11" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" s="27" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B11" s="26" t="s">
         <v>133</v>
@@ -3561,7 +3561,7 @@
     </row>
     <row r="12" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" s="27" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B12" s="26" t="s">
         <v>66</v>
@@ -3569,7 +3569,7 @@
     </row>
     <row r="13" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="27" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B13" s="26" t="s">
         <v>46</v>
@@ -3577,7 +3577,7 @@
     </row>
     <row r="14" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" s="27" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B14" s="26" t="s">
         <v>44</v>
@@ -3585,7 +3585,7 @@
     </row>
     <row r="15" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A15" s="27" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B15" s="14" t="s">
         <v>78</v>
@@ -3601,10 +3601,10 @@
     </row>
     <row r="17" spans="1:1023 1025:2047 2049:3071 3073:4095 4097:5119 5121:6143 6145:7167 7169:8191 8193:9215 9217:10239 10241:11263 11265:12287 12289:13311 13313:14335 14337:15359 15361:16383" ht="17" x14ac:dyDescent="0.2">
       <c r="A17" s="27" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B17" s="15" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="18" spans="1:1023 1025:2047 2049:3071 3073:4095 4097:5119 5121:6143 6145:7167 7169:8191 8193:9215 9217:10239 10241:11263 11265:12287 12289:13311 13313:14335 14337:15359 15361:16383" ht="17" x14ac:dyDescent="0.2">
@@ -3617,7 +3617,7 @@
     </row>
     <row r="19" spans="1:1023 1025:2047 2049:3071 3073:4095 4097:5119 5121:6143 6145:7167 7169:8191 8193:9215 9217:10239 10241:11263 11265:12287 12289:13311 13313:14335 14337:15359 15361:16383" ht="17" x14ac:dyDescent="0.2">
       <c r="A19" s="27" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B19" s="28" t="s">
         <v>101</v>
@@ -3625,7 +3625,7 @@
     </row>
     <row r="20" spans="1:1023 1025:2047 2049:3071 3073:4095 4097:5119 5121:6143 6145:7167 7169:8191 8193:9215 9217:10239 10241:11263 11265:12287 12289:13311 13313:14335 14337:15359 15361:16383" ht="17" x14ac:dyDescent="0.2">
       <c r="A20" s="27" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B20" s="26" t="s">
         <v>136</v>
@@ -3633,7 +3633,7 @@
     </row>
     <row r="21" spans="1:1023 1025:2047 2049:3071 3073:4095 4097:5119 5121:6143 6145:7167 7169:8191 8193:9215 9217:10239 10241:11263 11265:12287 12289:13311 13313:14335 14337:15359 15361:16383" ht="17" x14ac:dyDescent="0.2">
       <c r="A21" s="27" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B21" s="26" t="s">
         <v>50</v>
@@ -3641,7 +3641,7 @@
     </row>
     <row r="22" spans="1:1023 1025:2047 2049:3071 3073:4095 4097:5119 5121:6143 6145:7167 7169:8191 8193:9215 9217:10239 10241:11263 11265:12287 12289:13311 13313:14335 14337:15359 15361:16383" ht="17" x14ac:dyDescent="0.2">
       <c r="A22" s="27" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B22" s="26" t="s">
         <v>46</v>
@@ -3649,7 +3649,7 @@
     </row>
     <row r="23" spans="1:1023 1025:2047 2049:3071 3073:4095 4097:5119 5121:6143 6145:7167 7169:8191 8193:9215 9217:10239 10241:11263 11265:12287 12289:13311 13313:14335 14337:15359 15361:16383" ht="17" x14ac:dyDescent="0.2">
       <c r="A23" s="27" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B23" s="26" t="s">
         <v>124</v>
@@ -3657,7 +3657,7 @@
     </row>
     <row r="24" spans="1:1023 1025:2047 2049:3071 3073:4095 4097:5119 5121:6143 6145:7167 7169:8191 8193:9215 9217:10239 10241:11263 11265:12287 12289:13311 13313:14335 14337:15359 15361:16383" s="29" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A24" s="27" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B24" s="13" t="s">
         <v>125</v>
@@ -11855,7 +11855,7 @@
     </row>
     <row r="25" spans="1:1023 1025:2047 2049:3071 3073:4095 4097:5119 5121:6143 6145:7167 7169:8191 8193:9215 9217:10239 10241:11263 11265:12287 12289:13311 13313:14335 14337:15359 15361:16383" s="29" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A25" s="27" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B25" s="13" t="s">
         <v>126</v>
@@ -20054,7 +20054,7 @@
     </row>
     <row r="26" spans="1:1023 1025:2047 2049:3071 3073:4095 4097:5119 5121:6143 6145:7167 7169:8191 8193:9215 9217:10239 10241:11263 11265:12287 12289:13311 13313:14335 14337:15359 15361:16383" s="29" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A26" s="27" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B26" s="13" t="s">
         <v>127</v>
@@ -28253,7 +28253,7 @@
     </row>
     <row r="27" spans="1:1023 1025:2047 2049:3071 3073:4095 4097:5119 5121:6143 6145:7167 7169:8191 8193:9215 9217:10239 10241:11263 11265:12287 12289:13311 13313:14335 14337:15359 15361:16383" x14ac:dyDescent="0.2">
       <c r="A27" s="14" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B27" s="14" t="s">
         <v>75</v>
@@ -28261,7 +28261,7 @@
     </row>
     <row r="28" spans="1:1023 1025:2047 2049:3071 3073:4095 4097:5119 5121:6143 6145:7167 7169:8191 8193:9215 9217:10239 10241:11263 11265:12287 12289:13311 13313:14335 14337:15359 15361:16383" x14ac:dyDescent="0.2">
       <c r="A28" s="14" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B28" s="14" t="s">
         <v>76</v>
@@ -28269,7 +28269,7 @@
     </row>
     <row r="29" spans="1:1023 1025:2047 2049:3071 3073:4095 4097:5119 5121:6143 6145:7167 7169:8191 8193:9215 9217:10239 10241:11263 11265:12287 12289:13311 13313:14335 14337:15359 15361:16383" x14ac:dyDescent="0.2">
       <c r="A29" s="14" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B29" s="14" t="s">
         <v>77</v>
@@ -28277,7 +28277,7 @@
     </row>
     <row r="30" spans="1:1023 1025:2047 2049:3071 3073:4095 4097:5119 5121:6143 6145:7167 7169:8191 8193:9215 9217:10239 10241:11263 11265:12287 12289:13311 13313:14335 14337:15359 15361:16383" x14ac:dyDescent="0.2">
       <c r="A30" s="14" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B30" s="14" t="s">
         <v>78</v>
@@ -28285,7 +28285,7 @@
     </row>
     <row r="31" spans="1:1023 1025:2047 2049:3071 3073:4095 4097:5119 5121:6143 6145:7167 7169:8191 8193:9215 9217:10239 10241:11263 11265:12287 12289:13311 13313:14335 14337:15359 15361:16383" x14ac:dyDescent="0.2">
       <c r="A31" s="14" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B31" s="14" t="s">
         <v>79</v>
@@ -28293,7 +28293,7 @@
     </row>
     <row r="32" spans="1:1023 1025:2047 2049:3071 3073:4095 4097:5119 5121:6143 6145:7167 7169:8191 8193:9215 9217:10239 10241:11263 11265:12287 12289:13311 13313:14335 14337:15359 15361:16383" x14ac:dyDescent="0.2">
       <c r="A32" s="14" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B32" s="14" t="s">
         <v>80</v>
@@ -28301,7 +28301,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" s="14" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B33" s="26" t="s">
         <v>27</v>
@@ -28309,7 +28309,7 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" s="14" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B34" s="26" t="s">
         <v>28</v>
@@ -28317,7 +28317,7 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" s="14" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B35" s="26" t="s">
         <v>32</v>
@@ -28325,7 +28325,7 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" s="14" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B36" s="26" t="s">
         <v>33</v>
@@ -28333,7 +28333,7 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" s="14" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B37" s="26" t="s">
         <v>34</v>
@@ -28341,7 +28341,7 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" s="14" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B38" s="26" t="s">
         <v>35</v>
@@ -28349,7 +28349,7 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" s="14" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B39" s="26" t="s">
         <v>93</v>
@@ -28357,7 +28357,7 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" s="14" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B40" s="26" t="s">
         <v>70</v>
@@ -28365,7 +28365,7 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" s="14" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B41" s="26" t="s">
         <v>122</v>
@@ -28373,7 +28373,7 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" s="14" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B42" s="26" t="s">
         <v>122</v>
@@ -28381,7 +28381,7 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" s="14" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B43" s="26" t="s">
         <v>121</v>
@@ -28389,7 +28389,7 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" s="14" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B44" s="26" t="s">
         <v>121</v>
@@ -28397,7 +28397,7 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" s="14" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B45" s="14" t="s">
         <v>121</v>
@@ -28405,7 +28405,7 @@
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" s="14" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B46" s="26" t="s">
         <v>136</v>
@@ -28413,7 +28413,7 @@
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" s="14" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B47" s="26" t="s">
         <v>70</v>
@@ -28421,26 +28421,26 @@
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" s="14" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B48" s="26" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" s="14" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B49" s="26" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" s="14" t="s">
+        <v>260</v>
+      </c>
+      <c r="B50" s="15" t="s">
         <v>261</v>
-      </c>
-      <c r="B50" s="15" t="s">
-        <v>262</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="17" x14ac:dyDescent="0.2">
@@ -28448,28 +28448,28 @@
         <v>137</v>
       </c>
       <c r="B51" s="15" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A52" s="27" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B52" s="15" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" s="14" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B53" s="15" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" s="14" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B54" s="26" t="s">
         <v>109</v>
@@ -28477,7 +28477,7 @@
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" s="14" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B55" s="26" t="s">
         <v>109</v>
@@ -28485,23 +28485,23 @@
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" s="26" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B56" s="28" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" s="26" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B57" s="28" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="58" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A58" s="33" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B58" s="28" t="s">
         <v>93</v>
@@ -28529,146 +28529,146 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
+        <v>221</v>
+      </c>
+      <c r="B2" s="32" t="s">
         <v>222</v>
       </c>
-      <c r="B2" s="32" t="s">
+      <c r="C2" t="s">
         <v>223</v>
-      </c>
-      <c r="C2" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>224</v>
+      </c>
+      <c r="B3" t="s">
         <v>225</v>
-      </c>
-      <c r="B3" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>227</v>
+      </c>
+      <c r="B5" t="s">
         <v>228</v>
-      </c>
-      <c r="B5" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B6" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B7" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B8" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
+        <v>232</v>
+      </c>
+      <c r="B9" t="s">
         <v>233</v>
-      </c>
-      <c r="B9" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B10" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B11" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B12" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B13" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
+        <v>238</v>
+      </c>
+      <c r="B14" t="s">
         <v>239</v>
-      </c>
-      <c r="B14" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C15" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C16" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
+        <v>249</v>
+      </c>
+      <c r="C17" t="s">
         <v>250</v>
-      </c>
-      <c r="C17" t="s">
-        <v>251</v>
       </c>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
+        <v>251</v>
+      </c>
+      <c r="C18" t="s">
         <v>252</v>
-      </c>
-      <c r="C18" t="s">
-        <v>253</v>
       </c>
     </row>
   </sheetData>

--- a/data-raw/Data_summaryforpackage.xlsx
+++ b/data-raw/Data_summaryforpackage.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xutaowang/Desktop/curatedTBData/data-raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15DDF0BF-F29E-A545-B4BC-7684D1B817BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75AC14F8-26D5-0443-BAAD-6B059BAC96CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-30780" yWindow="1500" windowWidth="30520" windowHeight="20540" xr2:uid="{B39B7F83-2537-C248-AAB4-54D9192DC10F}"/>
+    <workbookView xWindow="5880" yWindow="460" windowWidth="30520" windowHeight="20540" activeTab="2" xr2:uid="{B39B7F83-2537-C248-AAB4-54D9192DC10F}"/>
   </bookViews>
   <sheets>
     <sheet name="DataSummary" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="567" uniqueCount="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="568" uniqueCount="264">
   <si>
     <t>GEO accession</t>
   </si>
@@ -628,9 +628,6 @@
     <t>25-65</t>
   </si>
   <si>
-    <t>Study for progressor. 13 out of 32 controls developed LTBI during follow up, including one control progressed to PTB. Extrapulmonary TB samples available from this dataset.</t>
-  </si>
-  <si>
     <t>ODs was sarcoidosis.  Extrapulmonary TB samples available from this dataset.</t>
   </si>
   <si>
@@ -875,6 +872,12 @@
   </si>
   <si>
     <t>Samples from the TB cases have been collected on the start day of TB treatment (DX) and on 1,4 and 24 weeks after treatment as well. ODs was Lung Dx or MTP. Exclude samples with NA 's in TBStatus</t>
+  </si>
+  <si>
+    <t>Study for progressor. 13 out of 32 controls developed LTBI during follow up, including one control progressed to PTB. Extrapulmonary TB samples available from this dataset. Eight EPTB samples.</t>
+  </si>
+  <si>
+    <t>Blood was processed sequentially into neutrophil, monicyte, CD4+ or CD8+ populations</t>
   </si>
 </sst>
 </file>
@@ -1393,9 +1396,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{715BD991-25C2-914C-95C3-220CF25B2F79}">
   <dimension ref="A1:N51"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M10" sqref="M10"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1416,7 +1419,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>2</v>
@@ -1483,7 +1486,7 @@
         <v>27</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="N2" s="2" t="s">
         <v>129</v>
@@ -1655,13 +1658,13 @@
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" s="20" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B7" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>196</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>197</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>24</v>
@@ -1720,7 +1723,7 @@
         <v>144</v>
       </c>
       <c r="M8" s="18" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="N8" s="2" t="s">
         <v>130</v>
@@ -1728,7 +1731,7 @@
     </row>
     <row r="9" spans="1:14" ht="130" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="20" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>102</v>
@@ -1746,7 +1749,7 @@
         <v>14</v>
       </c>
       <c r="G9" s="18" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="H9" s="2">
         <v>12</v>
@@ -1802,7 +1805,7 @@
         <v>138</v>
       </c>
       <c r="M10" s="18" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="N10" s="2" t="s">
         <v>130</v>
@@ -2134,7 +2137,7 @@
     </row>
     <row r="19" spans="1:14" ht="109" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="18" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>102</v>
@@ -2157,15 +2160,15 @@
       </c>
       <c r="I19" s="2"/>
       <c r="J19" s="2">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="K19" s="2"/>
       <c r="L19" s="2">
         <f t="shared" si="0"/>
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="M19" s="11" t="s">
-        <v>191</v>
+        <v>262</v>
       </c>
       <c r="N19" s="2" t="s">
         <v>130</v>
@@ -2204,7 +2207,7 @@
         <v>19</v>
       </c>
       <c r="M20" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="N20" s="2" t="s">
         <v>92</v>
@@ -2292,7 +2295,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="23" spans="1:14" ht="51" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:14" ht="68" x14ac:dyDescent="0.2">
       <c r="A23" s="20" t="s">
         <v>28</v>
       </c>
@@ -2303,7 +2306,7 @@
         <v>26</v>
       </c>
       <c r="D23" s="18" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>30</v>
@@ -2315,18 +2318,20 @@
         <v>118</v>
       </c>
       <c r="H23" s="2">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="I23" s="2"/>
       <c r="J23" s="2">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="K23" s="2"/>
       <c r="L23" s="2">
         <f>H23+I23+J23+K23</f>
-        <v>44</v>
-      </c>
-      <c r="M23" s="2"/>
+        <v>11</v>
+      </c>
+      <c r="M23" s="18" t="s">
+        <v>263</v>
+      </c>
       <c r="N23" s="2" t="s">
         <v>92</v>
       </c>
@@ -2405,7 +2410,7 @@
         <v>274</v>
       </c>
       <c r="M25" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="N25" s="2" t="s">
         <v>92</v>
@@ -2413,10 +2418,10 @@
     </row>
     <row r="26" spans="1:14" ht="109" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="18" t="s">
+        <v>206</v>
+      </c>
+      <c r="B26" s="2" t="s">
         <v>207</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>208</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>26</v>
@@ -2443,7 +2448,7 @@
         <v>15</v>
       </c>
       <c r="M26" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="N26" s="2" t="s">
         <v>92</v>
@@ -2457,7 +2462,7 @@
         <v>62</v>
       </c>
       <c r="C27" s="18" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>24</v>
@@ -2586,7 +2591,7 @@
         <v>62</v>
       </c>
       <c r="C30" s="31" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>24</v>
@@ -2892,7 +2897,7 @@
         <v>43</v>
       </c>
       <c r="M37" s="18" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="N37" s="2" t="s">
         <v>92</v>
@@ -2974,7 +2979,7 @@
         <v>40</v>
       </c>
       <c r="M39" s="30" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="N39" s="2" t="s">
         <v>92</v>
@@ -3015,7 +3020,7 @@
         <v>155</v>
       </c>
       <c r="M40" s="18" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="N40" s="2" t="s">
         <v>92</v>
@@ -3023,7 +3028,7 @@
     </row>
     <row r="41" spans="1:14" ht="136" x14ac:dyDescent="0.2">
       <c r="A41" s="20" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>62</v>
@@ -3038,7 +3043,7 @@
         <v>18</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G41" s="2"/>
       <c r="H41" s="2">
@@ -3054,7 +3059,7 @@
         <v>50</v>
       </c>
       <c r="M41" s="18" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="N41" s="2" t="s">
         <v>92</v>
@@ -3062,7 +3067,7 @@
     </row>
     <row r="42" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A42" s="20" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>62</v>
@@ -3135,7 +3140,7 @@
       </c>
       <c r="M43" s="18"/>
       <c r="N43" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="44" spans="1:14" ht="51" x14ac:dyDescent="0.2">
@@ -3214,7 +3219,7 @@
         <v>44</v>
       </c>
       <c r="M45" s="18" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="N45" s="2" t="s">
         <v>138</v>
@@ -3253,7 +3258,7 @@
         <v>26</v>
       </c>
       <c r="M46" s="17" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="N46" s="2" t="s">
         <v>138</v>
@@ -3292,7 +3297,7 @@
         <v>8</v>
       </c>
       <c r="M47" s="17" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="N47" s="2" t="s">
         <v>138</v>
@@ -3370,7 +3375,7 @@
         <v>189</v>
       </c>
       <c r="M49" s="18" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="N49" s="2" t="s">
         <v>140</v>
@@ -3427,7 +3432,7 @@
       <c r="G51" s="18"/>
       <c r="H51" s="2">
         <f>SUM(H3:H50)</f>
-        <v>762</v>
+        <v>750</v>
       </c>
       <c r="I51" s="2">
         <f>SUM(I3:I50)</f>
@@ -3435,7 +3440,7 @@
       </c>
       <c r="J51" s="2">
         <f>SUM(J3:J50)</f>
-        <v>1454</v>
+        <v>1425</v>
       </c>
       <c r="K51" s="2">
         <f>SUM(K3:K50)</f>
@@ -3443,7 +3448,7 @@
       </c>
       <c r="L51" s="2">
         <f>SUM(L3:L50)</f>
-        <v>4175</v>
+        <v>4134</v>
       </c>
       <c r="M51" s="18"/>
       <c r="N51" s="2"/>
@@ -3505,7 +3510,7 @@
     </row>
     <row r="5" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="27" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B5" s="26" t="s">
         <v>33</v>
@@ -3516,20 +3521,20 @@
         <v>175</v>
       </c>
       <c r="B6" s="26" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" s="27" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B7" s="26" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" s="27" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B8" s="26" t="s">
         <v>9</v>
@@ -3537,7 +3542,7 @@
     </row>
     <row r="9" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" s="27" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B9" s="26" t="s">
         <v>119</v>
@@ -3545,7 +3550,7 @@
     </row>
     <row r="10" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A10" s="27" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B10" s="26" t="s">
         <v>120</v>
@@ -3553,7 +3558,7 @@
     </row>
     <row r="11" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" s="27" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B11" s="26" t="s">
         <v>133</v>
@@ -3561,7 +3566,7 @@
     </row>
     <row r="12" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" s="27" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B12" s="26" t="s">
         <v>66</v>
@@ -3569,7 +3574,7 @@
     </row>
     <row r="13" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="27" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B13" s="26" t="s">
         <v>46</v>
@@ -3577,7 +3582,7 @@
     </row>
     <row r="14" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" s="27" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B14" s="26" t="s">
         <v>44</v>
@@ -3601,10 +3606,10 @@
     </row>
     <row r="17" spans="1:1023 1025:2047 2049:3071 3073:4095 4097:5119 5121:6143 6145:7167 7169:8191 8193:9215 9217:10239 10241:11263 11265:12287 12289:13311 13313:14335 14337:15359 15361:16383" ht="17" x14ac:dyDescent="0.2">
       <c r="A17" s="27" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B17" s="15" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="18" spans="1:1023 1025:2047 2049:3071 3073:4095 4097:5119 5121:6143 6145:7167 7169:8191 8193:9215 9217:10239 10241:11263 11265:12287 12289:13311 13313:14335 14337:15359 15361:16383" ht="17" x14ac:dyDescent="0.2">
@@ -28253,7 +28258,7 @@
     </row>
     <row r="27" spans="1:1023 1025:2047 2049:3071 3073:4095 4097:5119 5121:6143 6145:7167 7169:8191 8193:9215 9217:10239 10241:11263 11265:12287 12289:13311 13313:14335 14337:15359 15361:16383" x14ac:dyDescent="0.2">
       <c r="A27" s="14" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B27" s="14" t="s">
         <v>75</v>
@@ -28261,7 +28266,7 @@
     </row>
     <row r="28" spans="1:1023 1025:2047 2049:3071 3073:4095 4097:5119 5121:6143 6145:7167 7169:8191 8193:9215 9217:10239 10241:11263 11265:12287 12289:13311 13313:14335 14337:15359 15361:16383" x14ac:dyDescent="0.2">
       <c r="A28" s="14" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B28" s="14" t="s">
         <v>76</v>
@@ -28269,7 +28274,7 @@
     </row>
     <row r="29" spans="1:1023 1025:2047 2049:3071 3073:4095 4097:5119 5121:6143 6145:7167 7169:8191 8193:9215 9217:10239 10241:11263 11265:12287 12289:13311 13313:14335 14337:15359 15361:16383" x14ac:dyDescent="0.2">
       <c r="A29" s="14" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B29" s="14" t="s">
         <v>77</v>
@@ -28277,7 +28282,7 @@
     </row>
     <row r="30" spans="1:1023 1025:2047 2049:3071 3073:4095 4097:5119 5121:6143 6145:7167 7169:8191 8193:9215 9217:10239 10241:11263 11265:12287 12289:13311 13313:14335 14337:15359 15361:16383" x14ac:dyDescent="0.2">
       <c r="A30" s="14" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B30" s="14" t="s">
         <v>78</v>
@@ -28285,7 +28290,7 @@
     </row>
     <row r="31" spans="1:1023 1025:2047 2049:3071 3073:4095 4097:5119 5121:6143 6145:7167 7169:8191 8193:9215 9217:10239 10241:11263 11265:12287 12289:13311 13313:14335 14337:15359 15361:16383" x14ac:dyDescent="0.2">
       <c r="A31" s="14" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B31" s="14" t="s">
         <v>79</v>
@@ -28293,7 +28298,7 @@
     </row>
     <row r="32" spans="1:1023 1025:2047 2049:3071 3073:4095 4097:5119 5121:6143 6145:7167 7169:8191 8193:9215 9217:10239 10241:11263 11265:12287 12289:13311 13313:14335 14337:15359 15361:16383" x14ac:dyDescent="0.2">
       <c r="A32" s="14" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B32" s="14" t="s">
         <v>80</v>
@@ -28301,7 +28306,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" s="14" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B33" s="26" t="s">
         <v>27</v>
@@ -28309,7 +28314,7 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" s="14" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B34" s="26" t="s">
         <v>28</v>
@@ -28317,7 +28322,7 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" s="14" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B35" s="26" t="s">
         <v>32</v>
@@ -28325,7 +28330,7 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" s="14" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B36" s="26" t="s">
         <v>33</v>
@@ -28333,7 +28338,7 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" s="14" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B37" s="26" t="s">
         <v>34</v>
@@ -28341,7 +28346,7 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" s="14" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B38" s="26" t="s">
         <v>35</v>
@@ -28349,7 +28354,7 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" s="14" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B39" s="26" t="s">
         <v>93</v>
@@ -28357,7 +28362,7 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" s="14" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B40" s="26" t="s">
         <v>70</v>
@@ -28413,7 +28418,7 @@
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" s="14" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B47" s="26" t="s">
         <v>70</v>
@@ -28421,26 +28426,26 @@
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" s="14" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B48" s="26" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" s="14" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B49" s="26" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" s="14" t="s">
+        <v>259</v>
+      </c>
+      <c r="B50" s="15" t="s">
         <v>260</v>
-      </c>
-      <c r="B50" s="15" t="s">
-        <v>261</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="17" x14ac:dyDescent="0.2">
@@ -28448,7 +28453,7 @@
         <v>137</v>
       </c>
       <c r="B51" s="15" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="17" x14ac:dyDescent="0.2">
@@ -28456,7 +28461,7 @@
         <v>173</v>
       </c>
       <c r="B52" s="15" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
@@ -28464,7 +28469,7 @@
         <v>172</v>
       </c>
       <c r="B53" s="15" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
@@ -28485,23 +28490,23 @@
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" s="26" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B56" s="28" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" s="26" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B57" s="28" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="58" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A58" s="33" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B58" s="28" t="s">
         <v>93</v>
@@ -28517,8 +28522,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D9EDD64-6A39-0C49-83EF-08EB873769A2}">
   <dimension ref="A1:C18"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -28529,146 +28534,146 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
+        <v>220</v>
+      </c>
+      <c r="B2" s="32" t="s">
         <v>221</v>
       </c>
-      <c r="B2" s="32" t="s">
+      <c r="C2" t="s">
         <v>222</v>
-      </c>
-      <c r="C2" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>223</v>
+      </c>
+      <c r="B3" t="s">
         <v>224</v>
-      </c>
-      <c r="B3" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B4" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>226</v>
+      </c>
+      <c r="B5" t="s">
         <v>227</v>
-      </c>
-      <c r="B5" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B6" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B7" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B8" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
+        <v>231</v>
+      </c>
+      <c r="B9" t="s">
         <v>232</v>
-      </c>
-      <c r="B9" t="s">
-        <v>233</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B10" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B11" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B12" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B13" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
+        <v>237</v>
+      </c>
+      <c r="B14" t="s">
         <v>238</v>
-      </c>
-      <c r="B14" t="s">
-        <v>239</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C15" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C16" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
+        <v>248</v>
+      </c>
+      <c r="C17" t="s">
         <v>249</v>
-      </c>
-      <c r="C17" t="s">
-        <v>250</v>
       </c>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
+        <v>250</v>
+      </c>
+      <c r="C18" t="s">
         <v>251</v>
-      </c>
-      <c r="C18" t="s">
-        <v>252</v>
       </c>
     </row>
   </sheetData>

--- a/data-raw/Data_summaryforpackage.xlsx
+++ b/data-raw/Data_summaryforpackage.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10808"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xutaowang/Desktop/curatedTBData/data-raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75AC14F8-26D5-0443-BAAD-6B059BAC96CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38CFD83C-28A7-9345-ACAA-40D4F491C02F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5880" yWindow="460" windowWidth="30520" windowHeight="20540" activeTab="2" xr2:uid="{B39B7F83-2537-C248-AAB4-54D9192DC10F}"/>
+    <workbookView xWindow="7300" yWindow="1060" windowWidth="30520" windowHeight="20540" xr2:uid="{B39B7F83-2537-C248-AAB4-54D9192DC10F}"/>
   </bookViews>
   <sheets>
     <sheet name="DataSummary" sheetId="1" r:id="rId1"/>
@@ -37,9 +37,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="568" uniqueCount="264">
   <si>
-    <t>GEO accession</t>
-  </si>
-  <si>
     <t>Platform</t>
   </si>
   <si>
@@ -47,12 +44,6 @@
   </si>
   <si>
     <t>Age</t>
-  </si>
-  <si>
-    <t>HIV Status</t>
-  </si>
-  <si>
-    <t>Diagnosis  Method</t>
   </si>
   <si>
     <t>Latent</t>
@@ -829,9 +820,6 @@
     <t>Malawi, South Africa</t>
   </si>
   <si>
-    <t>Country/Region</t>
-  </si>
-  <si>
     <t>TimeToTB</t>
   </si>
   <si>
@@ -878,6 +866,18 @@
   </si>
   <si>
     <t>Blood was processed sequentially into neutrophil, monicyte, CD4+ or CD8+ populations</t>
+  </si>
+  <si>
+    <t>HIVStatus</t>
+  </si>
+  <si>
+    <t>DiagnosisMethod</t>
+  </si>
+  <si>
+    <t>GEOAccession</t>
+  </si>
+  <si>
+    <t>GeographicalRegion</t>
   </si>
 </sst>
 </file>
@@ -1396,15 +1396,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{715BD991-25C2-914C-95C3-220CF25B2F79}">
   <dimension ref="A1:N51"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G25" sqref="G25"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="17.1640625" customWidth="1"/>
-    <col min="3" max="3" width="15.83203125" customWidth="1"/>
+    <col min="3" max="3" width="18.1640625" customWidth="1"/>
     <col min="4" max="4" width="12" customWidth="1"/>
     <col min="6" max="6" width="13.1640625" customWidth="1"/>
     <col min="7" max="7" width="19.1640625" customWidth="1"/>
@@ -1413,66 +1413,66 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>247</v>
-      </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="G1" s="21" t="s">
+        <v>261</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="J1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="L1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="21" t="s">
+      <c r="M1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>8</v>
-      </c>
       <c r="N1" s="2" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="82" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
@@ -1486,33 +1486,33 @@
         <v>27</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
@@ -1525,33 +1525,33 @@
         <v>9</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A4" s="20" t="s">
+        <v>90</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="22" t="s">
         <v>93</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E4" s="22" t="s">
-        <v>96</v>
-      </c>
       <c r="F4" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G4" s="18" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="H4" s="2">
         <v>9</v>
@@ -1569,30 +1569,30 @@
       </c>
       <c r="M4" s="2"/>
       <c r="N4" s="2" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="69" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="2" t="s">
+      <c r="F5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>14</v>
-      </c>
       <c r="G5" s="18" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="H5" s="2">
         <v>6</v>
@@ -1609,30 +1609,30 @@
         <v>21</v>
       </c>
       <c r="M5" s="18" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="20" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
@@ -1650,24 +1650,24 @@
         <v>109</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" s="20" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E7" s="22"/>
       <c r="F7" s="2"/>
@@ -1685,30 +1685,30 @@
       </c>
       <c r="M7" s="2"/>
       <c r="N7" s="2" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="130" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="12" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E8" s="22" t="s">
-        <v>25</v>
-      </c>
       <c r="F8" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G8" s="18" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="H8" s="2"/>
       <c r="I8" s="2">
@@ -1723,33 +1723,33 @@
         <v>144</v>
       </c>
       <c r="M8" s="18" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="130" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="20" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E9" s="22" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G9" s="18" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="H9" s="2">
         <v>12</v>
@@ -1767,28 +1767,28 @@
       </c>
       <c r="M9" s="18"/>
       <c r="N9" s="2" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="119" x14ac:dyDescent="0.2">
       <c r="A10" s="20" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E10" s="22"/>
       <c r="F10" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G10" s="18" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="H10" s="2">
         <v>21</v>
@@ -1805,33 +1805,33 @@
         <v>138</v>
       </c>
       <c r="M10" s="18" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="119" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="H11" s="7"/>
       <c r="I11" s="7">
@@ -1846,33 +1846,33 @@
         <v>334</v>
       </c>
       <c r="M11" s="8" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="12" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A12" s="20" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B12" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="2" t="s">
-        <v>26</v>
-      </c>
       <c r="D12" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="H12" s="2"/>
       <c r="I12" s="2">
@@ -1887,33 +1887,33 @@
         <v>54</v>
       </c>
       <c r="M12" s="18" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="13" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A13" s="20" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="H13" s="2"/>
       <c r="I13" s="2">
@@ -1928,33 +1928,33 @@
         <v>47</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="14" spans="1:14" ht="62" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="12" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B14" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="2" t="s">
-        <v>26</v>
-      </c>
       <c r="D14" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="H14" s="2">
         <v>15</v>
@@ -1969,33 +1969,33 @@
         <v>31</v>
       </c>
       <c r="M14" s="11" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="N14" s="2" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="15" spans="1:14" ht="49" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="12" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B15" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C15" s="2" t="s">
-        <v>26</v>
-      </c>
       <c r="D15" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="H15" s="2">
         <v>50</v>
@@ -2012,33 +2012,33 @@
         <v>161</v>
       </c>
       <c r="M15" s="11" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="N15" s="2" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="16" spans="1:14" ht="49" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="20" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G16" s="18" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="H16" s="2"/>
       <c r="I16" s="2">
@@ -2054,28 +2054,28 @@
       </c>
       <c r="M16" s="18"/>
       <c r="N16" s="2" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="17" spans="1:14" ht="49" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F17" s="9" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="G17" s="10" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="H17" s="2">
         <v>16</v>
@@ -2091,30 +2091,30 @@
       </c>
       <c r="M17" s="18"/>
       <c r="N17" s="2" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="18" spans="1:14" ht="49" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="11" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D18" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18" s="23" t="s">
+        <v>153</v>
+      </c>
+      <c r="F18" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E18" s="23" t="s">
-        <v>156</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>14</v>
-      </c>
       <c r="G18" s="18" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="H18" s="2"/>
       <c r="I18" s="2">
@@ -2129,31 +2129,31 @@
         <v>51</v>
       </c>
       <c r="M18" s="11" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="N18" s="2" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="19" spans="1:14" ht="109" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="18" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E19" s="23" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="F19" s="2"/>
       <c r="G19" s="18" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="H19" s="2">
         <v>32</v>
@@ -2168,31 +2168,31 @@
         <v>40</v>
       </c>
       <c r="M19" s="11" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="N19" s="2" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="20" spans="1:14" ht="86" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="20" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="H20" s="2">
         <v>12</v>
@@ -2207,33 +2207,33 @@
         <v>19</v>
       </c>
       <c r="M20" s="1" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="N20" s="2" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21" s="20" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="H21" s="2">
         <v>12</v>
@@ -2251,30 +2251,30 @@
       </c>
       <c r="M21" s="2"/>
       <c r="N21" s="2" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="22" spans="1:14" ht="86" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="20" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="H22" s="2"/>
       <c r="I22" s="2">
@@ -2289,33 +2289,33 @@
         <v>51</v>
       </c>
       <c r="M22" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="N22" s="2" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="23" spans="1:14" ht="68" x14ac:dyDescent="0.2">
       <c r="A23" s="20" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D23" s="18" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="H23" s="2">
         <v>4</v>
@@ -2330,33 +2330,33 @@
         <v>11</v>
       </c>
       <c r="M23" s="18" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="N23" s="2" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A24" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E24" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B24" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>30</v>
-      </c>
       <c r="F24" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="H24" s="2">
         <v>12</v>
@@ -2374,28 +2374,28 @@
       </c>
       <c r="M24" s="2"/>
       <c r="N24" s="2" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="25" spans="1:14" ht="102" x14ac:dyDescent="0.2">
       <c r="A25" s="20" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E25" s="24" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="H25" s="2">
         <v>81</v>
@@ -2410,31 +2410,31 @@
         <v>274</v>
       </c>
       <c r="M25" s="1" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="N25" s="2" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="26" spans="1:14" ht="109" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="18" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E26" s="23"/>
       <c r="F26" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G26" s="18" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="H26" s="2">
         <v>6</v>
@@ -2448,33 +2448,33 @@
         <v>15</v>
       </c>
       <c r="M26" s="3" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="N26" s="2" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="27" spans="1:14" ht="153" x14ac:dyDescent="0.2">
       <c r="A27" s="20" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B27" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C27" s="18" t="s">
+        <v>243</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F27" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="C27" s="18" t="s">
-        <v>246</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F27" s="9" t="s">
-        <v>65</v>
-      </c>
       <c r="G27" s="18" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="H27" s="2"/>
       <c r="I27" s="2">
@@ -2491,33 +2491,33 @@
         <v>537</v>
       </c>
       <c r="M27" s="18" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="N27" s="2" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="28" spans="1:14" ht="85" x14ac:dyDescent="0.2">
       <c r="A28" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C28" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="D28" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F28" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="C28" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="F28" s="9" t="s">
-        <v>65</v>
-      </c>
       <c r="G28" s="18" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="H28" s="2"/>
       <c r="I28" s="2">
@@ -2534,33 +2534,33 @@
         <v>157</v>
       </c>
       <c r="M28" s="18" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="N28" s="2" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="29" spans="1:14" ht="85" x14ac:dyDescent="0.2">
       <c r="A29" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C29" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E29" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="F29" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="C29" s="18" t="s">
-        <v>100</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="F29" s="9" t="s">
-        <v>65</v>
-      </c>
       <c r="G29" s="18" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="H29" s="2"/>
       <c r="I29" s="2">
@@ -2577,24 +2577,24 @@
         <v>334</v>
       </c>
       <c r="M29" s="18" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="N29" s="2" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="30" spans="1:14" ht="108" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="20" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C30" s="31" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" s="9"/>
@@ -2612,33 +2612,33 @@
         <v>75</v>
       </c>
       <c r="M30" s="30" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="N30" s="2" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="31" spans="1:14" ht="68" x14ac:dyDescent="0.2">
       <c r="A31" s="20" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E31" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G31" s="2" t="s">
         <v>18</v>
-      </c>
-      <c r="F31" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G31" s="2" t="s">
-        <v>21</v>
       </c>
       <c r="H31" s="2">
         <v>23</v>
@@ -2655,33 +2655,33 @@
         <v>42</v>
       </c>
       <c r="M31" s="18" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="N31" s="2" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="32" spans="1:14" ht="85" x14ac:dyDescent="0.2">
       <c r="A32" s="20" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E32" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G32" s="2" t="s">
         <v>18</v>
-      </c>
-      <c r="F32" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G32" s="2" t="s">
-        <v>21</v>
       </c>
       <c r="H32" s="2">
         <v>52</v>
@@ -2698,30 +2698,30 @@
         <v>102</v>
       </c>
       <c r="M32" s="18" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="N32" s="2" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="33" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="A33" s="25" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G33" s="2"/>
       <c r="H33" s="2"/>
@@ -2735,33 +2735,33 @@
         <v>5</v>
       </c>
       <c r="M33" s="18" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="N33" s="2" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="34" spans="1:14" ht="85" x14ac:dyDescent="0.2">
       <c r="A34" s="20" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E34" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G34" s="2" t="s">
         <v>18</v>
-      </c>
-      <c r="F34" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G34" s="2" t="s">
-        <v>21</v>
       </c>
       <c r="H34" s="2">
         <v>38</v>
@@ -2778,30 +2778,30 @@
         <v>95</v>
       </c>
       <c r="M34" s="18" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="N34" s="2" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="35" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A35" s="25" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G35" s="2"/>
       <c r="H35" s="2"/>
@@ -2815,33 +2815,33 @@
         <v>7</v>
       </c>
       <c r="M35" s="18" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="N35" s="2" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="36" spans="1:14" ht="102" x14ac:dyDescent="0.2">
       <c r="A36" s="20" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D36" s="18" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E36" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G36" s="2" t="s">
         <v>18</v>
-      </c>
-      <c r="F36" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G36" s="2" t="s">
-        <v>21</v>
       </c>
       <c r="H36" s="2">
         <v>5</v>
@@ -2858,30 +2858,30 @@
         <v>15</v>
       </c>
       <c r="M36" s="18" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="N36" s="2" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="37" spans="1:14" ht="153" x14ac:dyDescent="0.2">
       <c r="A37" s="20" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="F37" s="9" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="G37" s="2"/>
       <c r="H37" s="2">
@@ -2897,33 +2897,33 @@
         <v>43</v>
       </c>
       <c r="M37" s="18" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="N37" s="2" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="38" spans="1:14" ht="69" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E38" s="24" t="s">
         <v>66</v>
       </c>
-      <c r="B38" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E38" s="24" t="s">
-        <v>69</v>
-      </c>
       <c r="F38" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G38" s="18" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="H38" s="2">
         <v>23</v>
@@ -2938,33 +2938,33 @@
         <v>46</v>
       </c>
       <c r="M38" s="1" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="N38" s="2" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="39" spans="1:14" ht="102" x14ac:dyDescent="0.2">
       <c r="A39" s="20" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F39" s="9" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="G39" s="18" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="H39" s="2"/>
       <c r="I39" s="2">
@@ -2979,31 +2979,31 @@
         <v>40</v>
       </c>
       <c r="M39" s="30" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="N39" s="2" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="40" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A40" s="20" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D40" s="18" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="H40" s="2">
         <v>61</v>
@@ -3020,30 +3020,30 @@
         <v>155</v>
       </c>
       <c r="M40" s="18" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="N40" s="2" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="41" spans="1:14" ht="136" x14ac:dyDescent="0.2">
       <c r="A41" s="20" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D41" s="18" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="G41" s="2"/>
       <c r="H41" s="2">
@@ -3059,33 +3059,33 @@
         <v>50</v>
       </c>
       <c r="M41" s="18" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="N41" s="2" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="42" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A42" s="20" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="H42" s="2">
         <v>29</v>
@@ -3102,27 +3102,27 @@
         <v>110</v>
       </c>
       <c r="M42" s="18" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="N42" s="2" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="43" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" s="2"/>
       <c r="G43" s="18" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="H43" s="2">
         <v>13</v>
@@ -3140,30 +3140,30 @@
       </c>
       <c r="M43" s="18"/>
       <c r="N43" s="2" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
     </row>
     <row r="44" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="H44" s="2">
         <v>37</v>
@@ -3181,27 +3181,27 @@
       </c>
       <c r="M44" s="2"/>
       <c r="N44" s="2" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="45" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G45" s="2"/>
       <c r="H45" s="2">
@@ -3219,31 +3219,31 @@
         <v>44</v>
       </c>
       <c r="M45" s="18" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="N45" s="2" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="46" spans="1:14" ht="68" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G46" s="18" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="H46" s="2"/>
       <c r="I46" s="2"/>
@@ -3258,27 +3258,27 @@
         <v>26</v>
       </c>
       <c r="M46" s="17" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="N46" s="2" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="47" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="B47" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="E47" s="2" t="s">
         <v>187</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="E47" s="2" t="s">
-        <v>190</v>
       </c>
       <c r="F47" s="2"/>
       <c r="G47" s="18"/>
@@ -3297,28 +3297,28 @@
         <v>8</v>
       </c>
       <c r="M47" s="17" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="N47" s="2" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="48" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G48" s="2"/>
       <c r="H48" s="2">
@@ -3336,31 +3336,31 @@
         <v>21</v>
       </c>
       <c r="M48" s="18" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="N48" s="16" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="49" spans="1:14" ht="85" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="H49" s="2">
         <v>76</v>
@@ -3375,29 +3375,29 @@
         <v>189</v>
       </c>
       <c r="M49" s="18" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="N49" s="2" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="50" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G50" s="18" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="H50" s="2">
         <v>36</v>
@@ -3414,15 +3414,15 @@
         <v>72</v>
       </c>
       <c r="M50" s="18" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="N50" s="16" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
@@ -3478,194 +3478,194 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="26" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B1" s="26" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="27" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="B2" s="26" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="27" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="B3" s="26" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="27" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B4" s="26" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="27" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="B5" s="26" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="27" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B6" s="26" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" s="27" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="B7" s="26" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" s="27" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="B8" s="26" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" s="27" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="B9" s="26" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A10" s="27" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="B10" s="26" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" s="27" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="B11" s="26" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" s="27" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="B12" s="26" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="27" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="B13" s="26" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" s="27" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="B14" s="26" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A15" s="27" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A16" s="27" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B16" s="26" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="17" spans="1:1023 1025:2047 2049:3071 3073:4095 4097:5119 5121:6143 6145:7167 7169:8191 8193:9215 9217:10239 10241:11263 11265:12287 12289:13311 13313:14335 14337:15359 15361:16383" ht="17" x14ac:dyDescent="0.2">
       <c r="A17" s="27" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="B17" s="15" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
     </row>
     <row r="18" spans="1:1023 1025:2047 2049:3071 3073:4095 4097:5119 5121:6143 6145:7167 7169:8191 8193:9215 9217:10239 10241:11263 11265:12287 12289:13311 13313:14335 14337:15359 15361:16383" ht="17" x14ac:dyDescent="0.2">
       <c r="A18" s="27" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B18" s="26" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="19" spans="1:1023 1025:2047 2049:3071 3073:4095 4097:5119 5121:6143 6145:7167 7169:8191 8193:9215 9217:10239 10241:11263 11265:12287 12289:13311 13313:14335 14337:15359 15361:16383" ht="17" x14ac:dyDescent="0.2">
       <c r="A19" s="27" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B19" s="28" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="20" spans="1:1023 1025:2047 2049:3071 3073:4095 4097:5119 5121:6143 6145:7167 7169:8191 8193:9215 9217:10239 10241:11263 11265:12287 12289:13311 13313:14335 14337:15359 15361:16383" ht="17" x14ac:dyDescent="0.2">
       <c r="A20" s="27" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="B20" s="26" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="21" spans="1:1023 1025:2047 2049:3071 3073:4095 4097:5119 5121:6143 6145:7167 7169:8191 8193:9215 9217:10239 10241:11263 11265:12287 12289:13311 13313:14335 14337:15359 15361:16383" ht="17" x14ac:dyDescent="0.2">
       <c r="A21" s="27" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="B21" s="26" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="22" spans="1:1023 1025:2047 2049:3071 3073:4095 4097:5119 5121:6143 6145:7167 7169:8191 8193:9215 9217:10239 10241:11263 11265:12287 12289:13311 13313:14335 14337:15359 15361:16383" ht="17" x14ac:dyDescent="0.2">
       <c r="A22" s="27" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="B22" s="26" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="23" spans="1:1023 1025:2047 2049:3071 3073:4095 4097:5119 5121:6143 6145:7167 7169:8191 8193:9215 9217:10239 10241:11263 11265:12287 12289:13311 13313:14335 14337:15359 15361:16383" ht="17" x14ac:dyDescent="0.2">
       <c r="A23" s="27" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B23" s="26" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="24" spans="1:1023 1025:2047 2049:3071 3073:4095 4097:5119 5121:6143 6145:7167 7169:8191 8193:9215 9217:10239 10241:11263 11265:12287 12289:13311 13313:14335 14337:15359 15361:16383" s="29" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A24" s="27" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B24" s="13" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="E24" s="19"/>
       <c r="G24" s="19"/>
@@ -11860,10 +11860,10 @@
     </row>
     <row r="25" spans="1:1023 1025:2047 2049:3071 3073:4095 4097:5119 5121:6143 6145:7167 7169:8191 8193:9215 9217:10239 10241:11263 11265:12287 12289:13311 13313:14335 14337:15359 15361:16383" s="29" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A25" s="27" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B25" s="13" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C25" s="19"/>
       <c r="E25" s="19"/>
@@ -20059,10 +20059,10 @@
     </row>
     <row r="26" spans="1:1023 1025:2047 2049:3071 3073:4095 4097:5119 5121:6143 6145:7167 7169:8191 8193:9215 9217:10239 10241:11263 11265:12287 12289:13311 13313:14335 14337:15359 15361:16383" s="29" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A26" s="27" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B26" s="13" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C26" s="19"/>
       <c r="E26" s="19"/>
@@ -28258,258 +28258,258 @@
     </row>
     <row r="27" spans="1:1023 1025:2047 2049:3071 3073:4095 4097:5119 5121:6143 6145:7167 7169:8191 8193:9215 9217:10239 10241:11263 11265:12287 12289:13311 13313:14335 14337:15359 15361:16383" x14ac:dyDescent="0.2">
       <c r="A27" s="14" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="B27" s="14" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="28" spans="1:1023 1025:2047 2049:3071 3073:4095 4097:5119 5121:6143 6145:7167 7169:8191 8193:9215 9217:10239 10241:11263 11265:12287 12289:13311 13313:14335 14337:15359 15361:16383" x14ac:dyDescent="0.2">
       <c r="A28" s="14" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="B28" s="14" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="29" spans="1:1023 1025:2047 2049:3071 3073:4095 4097:5119 5121:6143 6145:7167 7169:8191 8193:9215 9217:10239 10241:11263 11265:12287 12289:13311 13313:14335 14337:15359 15361:16383" x14ac:dyDescent="0.2">
       <c r="A29" s="14" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="B29" s="14" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="30" spans="1:1023 1025:2047 2049:3071 3073:4095 4097:5119 5121:6143 6145:7167 7169:8191 8193:9215 9217:10239 10241:11263 11265:12287 12289:13311 13313:14335 14337:15359 15361:16383" x14ac:dyDescent="0.2">
       <c r="A30" s="14" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="B30" s="14" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="31" spans="1:1023 1025:2047 2049:3071 3073:4095 4097:5119 5121:6143 6145:7167 7169:8191 8193:9215 9217:10239 10241:11263 11265:12287 12289:13311 13313:14335 14337:15359 15361:16383" x14ac:dyDescent="0.2">
       <c r="A31" s="14" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="B31" s="14" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="32" spans="1:1023 1025:2047 2049:3071 3073:4095 4097:5119 5121:6143 6145:7167 7169:8191 8193:9215 9217:10239 10241:11263 11265:12287 12289:13311 13313:14335 14337:15359 15361:16383" x14ac:dyDescent="0.2">
       <c r="A32" s="14" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="B32" s="14" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" s="14" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="B33" s="26" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" s="14" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="B34" s="26" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" s="14" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="B35" s="26" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" s="14" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="B36" s="26" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" s="14" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="B37" s="26" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" s="14" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="B38" s="26" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" s="14" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="B39" s="26" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" s="14" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="B40" s="26" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" s="14" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="B41" s="26" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" s="14" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B42" s="26" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" s="14" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B43" s="26" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" s="14" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="B44" s="26" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" s="14" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="B45" s="14" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" s="14" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B46" s="26" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" s="14" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="B47" s="26" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" s="14" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="B48" s="26" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" s="14" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="B49" s="26" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" s="14" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="B50" s="15" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A51" s="27" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B51" s="15" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A52" s="27" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B52" s="15" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" s="14" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B53" s="15" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" s="14" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B54" s="26" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" s="14" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="B55" s="26" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" s="26" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="B56" s="28" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" s="26" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="B57" s="28" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
     </row>
     <row r="58" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A58" s="33" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="B58" s="28" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -28522,7 +28522,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D9EDD64-6A39-0C49-83EF-08EB873769A2}">
   <dimension ref="A1:C18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
@@ -28534,146 +28534,146 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="B2" s="32" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="C2" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="B3" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="B4" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="B5" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="B6" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="B7" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="B8" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="B9" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="B10" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="B11" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="B12" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B13" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="B14" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
+        <v>236</v>
+      </c>
+      <c r="C15" t="s">
         <v>239</v>
-      </c>
-      <c r="C15" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
+        <v>237</v>
+      </c>
+      <c r="C16" t="s">
         <v>240</v>
-      </c>
-      <c r="C16" t="s">
-        <v>243</v>
       </c>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="C17" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="C18" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
     </row>
   </sheetData>

--- a/data-raw/Data_summaryforpackage.xlsx
+++ b/data-raw/Data_summaryforpackage.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xutaowang/Desktop/curatedTBData/data-raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38CFD83C-28A7-9345-ACAA-40D4F491C02F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BADE7BA0-1319-9C4E-BBD1-C0EC37DD5B9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7300" yWindow="1060" windowWidth="30520" windowHeight="20540" xr2:uid="{B39B7F83-2537-C248-AAB4-54D9192DC10F}"/>
   </bookViews>
@@ -44,9 +44,6 @@
   </si>
   <si>
     <t>Age</t>
-  </si>
-  <si>
-    <t>Latent</t>
   </si>
   <si>
     <t>Total</t>
@@ -879,6 +876,9 @@
   <si>
     <t>GeographicalRegion</t>
   </si>
+  <si>
+    <t>LTBI</t>
+  </si>
 </sst>
 </file>
 
@@ -1397,8 +1397,8 @@
   <dimension ref="A1:N51"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
+      <pane ySplit="1" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1413,13 +1413,13 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>1</v>
@@ -1428,51 +1428,51 @@
         <v>2</v>
       </c>
       <c r="F1" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="G1" s="21" t="s">
         <v>260</v>
       </c>
-      <c r="G1" s="21" t="s">
-        <v>261</v>
-      </c>
       <c r="H1" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="K1" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="M1" s="2" t="s">
-        <v>5</v>
-      </c>
       <c r="N1" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="82" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
@@ -1486,33 +1486,33 @@
         <v>27</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>17</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>18</v>
       </c>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
@@ -1525,33 +1525,33 @@
         <v>9</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A4" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="C4" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="D4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="22" t="s">
         <v>92</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4" s="22" t="s">
-        <v>93</v>
-      </c>
       <c r="F4" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G4" s="18" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H4" s="2">
         <v>9</v>
@@ -1569,30 +1569,30 @@
       </c>
       <c r="M4" s="2"/>
       <c r="N4" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="69" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="C5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="E5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" s="2" t="s">
+      <c r="F5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="2" t="s">
-        <v>11</v>
-      </c>
       <c r="G5" s="18" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H5" s="2">
         <v>6</v>
@@ -1609,30 +1609,30 @@
         <v>21</v>
       </c>
       <c r="M5" s="18" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="20" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>14</v>
-      </c>
       <c r="D6" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
@@ -1650,24 +1650,24 @@
         <v>109</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" s="20" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B7" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>193</v>
-      </c>
       <c r="D7" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E7" s="22"/>
       <c r="F7" s="2"/>
@@ -1685,30 +1685,30 @@
       </c>
       <c r="M7" s="2"/>
       <c r="N7" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="130" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="12" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D8" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="E8" s="22" t="s">
-        <v>22</v>
-      </c>
       <c r="F8" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G8" s="18" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H8" s="2"/>
       <c r="I8" s="2">
@@ -1723,33 +1723,33 @@
         <v>144</v>
       </c>
       <c r="M8" s="18" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="130" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="20" t="s">
+        <v>193</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G9" s="18" t="s">
         <v>194</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G9" s="18" t="s">
-        <v>195</v>
       </c>
       <c r="H9" s="2">
         <v>12</v>
@@ -1767,28 +1767,28 @@
       </c>
       <c r="M9" s="18"/>
       <c r="N9" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="119" x14ac:dyDescent="0.2">
       <c r="A10" s="20" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E10" s="22"/>
       <c r="F10" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G10" s="18" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H10" s="2">
         <v>21</v>
@@ -1805,33 +1805,33 @@
         <v>138</v>
       </c>
       <c r="M10" s="18" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="119" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B11" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C11" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="D11" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="D11" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>87</v>
-      </c>
       <c r="F11" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H11" s="7"/>
       <c r="I11" s="7">
@@ -1846,33 +1846,33 @@
         <v>334</v>
       </c>
       <c r="M11" s="8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="12" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A12" s="20" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B12" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>21</v>
-      </c>
       <c r="E12" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H12" s="2"/>
       <c r="I12" s="2">
@@ -1887,33 +1887,33 @@
         <v>54</v>
       </c>
       <c r="M12" s="18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="13" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A13" s="20" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B13" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="E13" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G13" s="2" t="s">
         <v>17</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>18</v>
       </c>
       <c r="H13" s="2"/>
       <c r="I13" s="2">
@@ -1928,33 +1928,33 @@
         <v>47</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="14" spans="1:14" ht="62" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="12" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B14" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D14" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C14" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>21</v>
-      </c>
       <c r="E14" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H14" s="2">
         <v>15</v>
@@ -1969,33 +1969,33 @@
         <v>31</v>
       </c>
       <c r="M14" s="11" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="N14" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="15" spans="1:14" ht="49" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="12" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B15" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D15" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C15" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>21</v>
-      </c>
       <c r="E15" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H15" s="2">
         <v>50</v>
@@ -2012,33 +2012,33 @@
         <v>161</v>
       </c>
       <c r="M15" s="11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="N15" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="16" spans="1:14" ht="49" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="20" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G16" s="18" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H16" s="2"/>
       <c r="I16" s="2">
@@ -2054,28 +2054,28 @@
       </c>
       <c r="M16" s="18"/>
       <c r="N16" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="17" spans="1:14" ht="49" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F17" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G17" s="10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H17" s="2">
         <v>16</v>
@@ -2091,30 +2091,30 @@
       </c>
       <c r="M17" s="18"/>
       <c r="N17" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="18" spans="1:14" ht="49" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="11" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E18" s="23" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G18" s="18" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H18" s="2"/>
       <c r="I18" s="2">
@@ -2129,31 +2129,31 @@
         <v>51</v>
       </c>
       <c r="M18" s="11" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="N18" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="19" spans="1:14" ht="109" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="18" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E19" s="23" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F19" s="2"/>
       <c r="G19" s="18" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="H19" s="2">
         <v>32</v>
@@ -2168,31 +2168,31 @@
         <v>40</v>
       </c>
       <c r="M19" s="11" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="N19" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="20" spans="1:14" ht="86" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="20" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H20" s="2">
         <v>12</v>
@@ -2207,33 +2207,33 @@
         <v>19</v>
       </c>
       <c r="M20" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="N20" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21" s="20" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H21" s="2">
         <v>12</v>
@@ -2251,30 +2251,30 @@
       </c>
       <c r="M21" s="2"/>
       <c r="N21" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="22" spans="1:14" ht="86" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="20" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H22" s="2"/>
       <c r="I22" s="2">
@@ -2289,33 +2289,33 @@
         <v>51</v>
       </c>
       <c r="M22" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="N22" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="23" spans="1:14" ht="68" x14ac:dyDescent="0.2">
       <c r="A23" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="C23" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D23" s="18" t="s">
+        <v>214</v>
+      </c>
+      <c r="E23" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C23" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D23" s="18" t="s">
-        <v>215</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>27</v>
-      </c>
       <c r="F23" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H23" s="2">
         <v>4</v>
@@ -2330,33 +2330,33 @@
         <v>11</v>
       </c>
       <c r="M23" s="18" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="N23" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A24" s="20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E24" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C24" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>27</v>
-      </c>
       <c r="F24" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H24" s="2">
         <v>12</v>
@@ -2374,28 +2374,28 @@
       </c>
       <c r="M24" s="2"/>
       <c r="N24" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="25" spans="1:14" ht="102" x14ac:dyDescent="0.2">
       <c r="A25" s="20" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E25" s="24" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H25" s="2">
         <v>81</v>
@@ -2410,31 +2410,31 @@
         <v>274</v>
       </c>
       <c r="M25" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="N25" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="26" spans="1:14" ht="109" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="18" t="s">
+        <v>202</v>
+      </c>
+      <c r="B26" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="B26" s="2" t="s">
-        <v>204</v>
-      </c>
       <c r="C26" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E26" s="23"/>
       <c r="F26" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G26" s="18" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H26" s="2">
         <v>6</v>
@@ -2448,33 +2448,33 @@
         <v>15</v>
       </c>
       <c r="M26" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="N26" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="27" spans="1:14" ht="153" x14ac:dyDescent="0.2">
       <c r="A27" s="20" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C27" s="18" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F27" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G27" s="18" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H27" s="2"/>
       <c r="I27" s="2">
@@ -2491,33 +2491,33 @@
         <v>537</v>
       </c>
       <c r="M27" s="18" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="N27" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="28" spans="1:14" ht="85" x14ac:dyDescent="0.2">
       <c r="A28" s="20" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B28" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C28" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C28" s="2" t="s">
+      <c r="D28" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E28" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="D28" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E28" s="2" t="s">
+      <c r="F28" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="F28" s="9" t="s">
-        <v>62</v>
-      </c>
       <c r="G28" s="18" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H28" s="2"/>
       <c r="I28" s="2">
@@ -2534,33 +2534,33 @@
         <v>157</v>
       </c>
       <c r="M28" s="18" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="N28" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="29" spans="1:14" ht="85" x14ac:dyDescent="0.2">
       <c r="A29" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="B29" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="B29" s="2" t="s">
-        <v>59</v>
-      </c>
       <c r="C29" s="18" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E29" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F29" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="F29" s="9" t="s">
-        <v>62</v>
-      </c>
       <c r="G29" s="18" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H29" s="2"/>
       <c r="I29" s="2">
@@ -2577,24 +2577,24 @@
         <v>334</v>
       </c>
       <c r="M29" s="18" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="N29" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="30" spans="1:14" ht="108" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="20" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C30" s="31" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" s="9"/>
@@ -2612,33 +2612,33 @@
         <v>75</v>
       </c>
       <c r="M30" s="30" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="N30" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="31" spans="1:14" ht="68" x14ac:dyDescent="0.2">
       <c r="A31" s="20" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H31" s="2">
         <v>23</v>
@@ -2655,33 +2655,33 @@
         <v>42</v>
       </c>
       <c r="M31" s="18" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="N31" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="32" spans="1:14" ht="85" x14ac:dyDescent="0.2">
       <c r="A32" s="20" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H32" s="2">
         <v>52</v>
@@ -2698,30 +2698,30 @@
         <v>102</v>
       </c>
       <c r="M32" s="18" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="N32" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="33" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="A33" s="25" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G33" s="2"/>
       <c r="H33" s="2"/>
@@ -2735,33 +2735,33 @@
         <v>5</v>
       </c>
       <c r="M33" s="18" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="N33" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="34" spans="1:14" ht="85" x14ac:dyDescent="0.2">
       <c r="A34" s="20" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H34" s="2">
         <v>38</v>
@@ -2778,30 +2778,30 @@
         <v>95</v>
       </c>
       <c r="M34" s="18" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N34" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="35" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A35" s="25" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G35" s="2"/>
       <c r="H35" s="2"/>
@@ -2815,33 +2815,33 @@
         <v>7</v>
       </c>
       <c r="M35" s="18" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="N35" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="36" spans="1:14" ht="102" x14ac:dyDescent="0.2">
       <c r="A36" s="20" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D36" s="18" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H36" s="2">
         <v>5</v>
@@ -2858,30 +2858,30 @@
         <v>15</v>
       </c>
       <c r="M36" s="18" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="N36" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="37" spans="1:14" ht="153" x14ac:dyDescent="0.2">
       <c r="A37" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E37" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="B37" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>70</v>
-      </c>
       <c r="F37" s="9" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G37" s="2"/>
       <c r="H37" s="2">
@@ -2897,33 +2897,33 @@
         <v>43</v>
       </c>
       <c r="M37" s="18" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="N37" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="38" spans="1:14" ht="69" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="B38" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="B38" s="2" t="s">
+      <c r="C38" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="C38" s="2" t="s">
+      <c r="D38" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E38" s="24" t="s">
         <v>65</v>
       </c>
-      <c r="D38" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E38" s="24" t="s">
-        <v>66</v>
-      </c>
       <c r="F38" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G38" s="18" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H38" s="2">
         <v>23</v>
@@ -2938,33 +2938,33 @@
         <v>46</v>
       </c>
       <c r="M38" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="N38" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="39" spans="1:14" ht="102" x14ac:dyDescent="0.2">
       <c r="A39" s="20" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F39" s="9" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G39" s="18" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H39" s="2"/>
       <c r="I39" s="2">
@@ -2979,31 +2979,31 @@
         <v>40</v>
       </c>
       <c r="M39" s="30" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="N39" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="40" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A40" s="20" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D40" s="18" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H40" s="2">
         <v>61</v>
@@ -3020,30 +3020,30 @@
         <v>155</v>
       </c>
       <c r="M40" s="18" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="N40" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="41" spans="1:14" ht="136" x14ac:dyDescent="0.2">
       <c r="A41" s="20" t="s">
+        <v>188</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D41" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F41" s="2" t="s">
         <v>189</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D41" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F41" s="2" t="s">
-        <v>190</v>
       </c>
       <c r="G41" s="2"/>
       <c r="H41" s="2">
@@ -3059,33 +3059,33 @@
         <v>50</v>
       </c>
       <c r="M41" s="18" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="N41" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="42" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A42" s="20" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H42" s="2">
         <v>29</v>
@@ -3102,27 +3102,27 @@
         <v>110</v>
       </c>
       <c r="M42" s="18" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="N42" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="43" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B43" s="2" t="s">
         <v>95</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>96</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" s="2"/>
       <c r="G43" s="18" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H43" s="2">
         <v>13</v>
@@ -3140,30 +3140,30 @@
       </c>
       <c r="M43" s="18"/>
       <c r="N43" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="44" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B44" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B44" s="2" t="s">
-        <v>42</v>
-      </c>
       <c r="C44" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E44" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="D44" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E44" s="2" t="s">
+      <c r="F44" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G44" s="3" t="s">
         <v>50</v>
-      </c>
-      <c r="F44" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G44" s="3" t="s">
-        <v>51</v>
       </c>
       <c r="H44" s="2">
         <v>37</v>
@@ -3181,27 +3181,27 @@
       </c>
       <c r="M44" s="2"/>
       <c r="N44" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="45" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B45" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B45" s="2" t="s">
-        <v>44</v>
-      </c>
       <c r="C45" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E45" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="D45" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>53</v>
-      </c>
       <c r="F45" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G45" s="2"/>
       <c r="H45" s="2">
@@ -3219,31 +3219,31 @@
         <v>44</v>
       </c>
       <c r="M45" s="18" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="N45" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="46" spans="1:14" ht="68" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G46" s="18" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H46" s="2"/>
       <c r="I46" s="2"/>
@@ -3258,27 +3258,27 @@
         <v>26</v>
       </c>
       <c r="M46" s="17" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="N46" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="47" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="B47" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="B47" s="2" t="s">
+      <c r="C47" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D47" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="C47" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>185</v>
-      </c>
       <c r="E47" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F47" s="2"/>
       <c r="G47" s="18"/>
@@ -3297,28 +3297,28 @@
         <v>8</v>
       </c>
       <c r="M47" s="17" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="N47" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="48" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B48" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B48" s="2" t="s">
-        <v>46</v>
-      </c>
       <c r="C48" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G48" s="2"/>
       <c r="H48" s="2">
@@ -3336,31 +3336,31 @@
         <v>21</v>
       </c>
       <c r="M48" s="18" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="N48" s="16" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="49" spans="1:14" ht="85" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B49" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B49" s="2" t="s">
-        <v>48</v>
-      </c>
       <c r="C49" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H49" s="2">
         <v>76</v>
@@ -3375,29 +3375,29 @@
         <v>189</v>
       </c>
       <c r="M49" s="18" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="N49" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="50" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B50" s="2" t="s">
         <v>55</v>
-      </c>
-      <c r="B50" s="2" t="s">
-        <v>56</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G50" s="18" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H50" s="2">
         <v>36</v>
@@ -3414,15 +3414,15 @@
         <v>72</v>
       </c>
       <c r="M50" s="18" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="N50" s="16" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
@@ -3478,194 +3478,194 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="26" t="s">
+        <v>127</v>
+      </c>
+      <c r="B1" s="26" t="s">
         <v>128</v>
-      </c>
-      <c r="B1" s="26" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="27" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B2" s="26" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="27" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B3" s="26" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="27" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B4" s="26" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="27" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B5" s="26" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="27" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B6" s="26" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" s="27" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B7" s="26" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" s="27" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B8" s="26" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" s="27" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B9" s="26" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A10" s="27" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B10" s="26" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" s="27" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B11" s="26" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" s="27" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B12" s="26" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="27" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B13" s="26" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" s="27" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B14" s="26" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A15" s="27" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A16" s="27" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B16" s="26" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="17" spans="1:1023 1025:2047 2049:3071 3073:4095 4097:5119 5121:6143 6145:7167 7169:8191 8193:9215 9217:10239 10241:11263 11265:12287 12289:13311 13313:14335 14337:15359 15361:16383" ht="17" x14ac:dyDescent="0.2">
       <c r="A17" s="27" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B17" s="15" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="18" spans="1:1023 1025:2047 2049:3071 3073:4095 4097:5119 5121:6143 6145:7167 7169:8191 8193:9215 9217:10239 10241:11263 11265:12287 12289:13311 13313:14335 14337:15359 15361:16383" ht="17" x14ac:dyDescent="0.2">
       <c r="A18" s="27" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B18" s="26" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="19" spans="1:1023 1025:2047 2049:3071 3073:4095 4097:5119 5121:6143 6145:7167 7169:8191 8193:9215 9217:10239 10241:11263 11265:12287 12289:13311 13313:14335 14337:15359 15361:16383" ht="17" x14ac:dyDescent="0.2">
       <c r="A19" s="27" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B19" s="28" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="20" spans="1:1023 1025:2047 2049:3071 3073:4095 4097:5119 5121:6143 6145:7167 7169:8191 8193:9215 9217:10239 10241:11263 11265:12287 12289:13311 13313:14335 14337:15359 15361:16383" ht="17" x14ac:dyDescent="0.2">
       <c r="A20" s="27" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B20" s="26" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="21" spans="1:1023 1025:2047 2049:3071 3073:4095 4097:5119 5121:6143 6145:7167 7169:8191 8193:9215 9217:10239 10241:11263 11265:12287 12289:13311 13313:14335 14337:15359 15361:16383" ht="17" x14ac:dyDescent="0.2">
       <c r="A21" s="27" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B21" s="26" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="22" spans="1:1023 1025:2047 2049:3071 3073:4095 4097:5119 5121:6143 6145:7167 7169:8191 8193:9215 9217:10239 10241:11263 11265:12287 12289:13311 13313:14335 14337:15359 15361:16383" ht="17" x14ac:dyDescent="0.2">
       <c r="A22" s="27" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B22" s="26" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="23" spans="1:1023 1025:2047 2049:3071 3073:4095 4097:5119 5121:6143 6145:7167 7169:8191 8193:9215 9217:10239 10241:11263 11265:12287 12289:13311 13313:14335 14337:15359 15361:16383" ht="17" x14ac:dyDescent="0.2">
       <c r="A23" s="27" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B23" s="26" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="24" spans="1:1023 1025:2047 2049:3071 3073:4095 4097:5119 5121:6143 6145:7167 7169:8191 8193:9215 9217:10239 10241:11263 11265:12287 12289:13311 13313:14335 14337:15359 15361:16383" s="29" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A24" s="27" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B24" s="13" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E24" s="19"/>
       <c r="G24" s="19"/>
@@ -11860,10 +11860,10 @@
     </row>
     <row r="25" spans="1:1023 1025:2047 2049:3071 3073:4095 4097:5119 5121:6143 6145:7167 7169:8191 8193:9215 9217:10239 10241:11263 11265:12287 12289:13311 13313:14335 14337:15359 15361:16383" s="29" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A25" s="27" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B25" s="13" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C25" s="19"/>
       <c r="E25" s="19"/>
@@ -20059,10 +20059,10 @@
     </row>
     <row r="26" spans="1:1023 1025:2047 2049:3071 3073:4095 4097:5119 5121:6143 6145:7167 7169:8191 8193:9215 9217:10239 10241:11263 11265:12287 12289:13311 13313:14335 14337:15359 15361:16383" s="29" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A26" s="27" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B26" s="13" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C26" s="19"/>
       <c r="E26" s="19"/>
@@ -28258,258 +28258,258 @@
     </row>
     <row r="27" spans="1:1023 1025:2047 2049:3071 3073:4095 4097:5119 5121:6143 6145:7167 7169:8191 8193:9215 9217:10239 10241:11263 11265:12287 12289:13311 13313:14335 14337:15359 15361:16383" x14ac:dyDescent="0.2">
       <c r="A27" s="14" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B27" s="14" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="28" spans="1:1023 1025:2047 2049:3071 3073:4095 4097:5119 5121:6143 6145:7167 7169:8191 8193:9215 9217:10239 10241:11263 11265:12287 12289:13311 13313:14335 14337:15359 15361:16383" x14ac:dyDescent="0.2">
       <c r="A28" s="14" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B28" s="14" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="29" spans="1:1023 1025:2047 2049:3071 3073:4095 4097:5119 5121:6143 6145:7167 7169:8191 8193:9215 9217:10239 10241:11263 11265:12287 12289:13311 13313:14335 14337:15359 15361:16383" x14ac:dyDescent="0.2">
       <c r="A29" s="14" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B29" s="14" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="30" spans="1:1023 1025:2047 2049:3071 3073:4095 4097:5119 5121:6143 6145:7167 7169:8191 8193:9215 9217:10239 10241:11263 11265:12287 12289:13311 13313:14335 14337:15359 15361:16383" x14ac:dyDescent="0.2">
       <c r="A30" s="14" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B30" s="14" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="31" spans="1:1023 1025:2047 2049:3071 3073:4095 4097:5119 5121:6143 6145:7167 7169:8191 8193:9215 9217:10239 10241:11263 11265:12287 12289:13311 13313:14335 14337:15359 15361:16383" x14ac:dyDescent="0.2">
       <c r="A31" s="14" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B31" s="14" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="32" spans="1:1023 1025:2047 2049:3071 3073:4095 4097:5119 5121:6143 6145:7167 7169:8191 8193:9215 9217:10239 10241:11263 11265:12287 12289:13311 13313:14335 14337:15359 15361:16383" x14ac:dyDescent="0.2">
       <c r="A32" s="14" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B32" s="14" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" s="14" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B33" s="26" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" s="14" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B34" s="26" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" s="14" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B35" s="26" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" s="14" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B36" s="26" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" s="14" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B37" s="26" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" s="14" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B38" s="26" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" s="14" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B39" s="26" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" s="14" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B40" s="26" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" s="14" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B41" s="26" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" s="14" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B42" s="26" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" s="14" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B43" s="26" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" s="14" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B44" s="26" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" s="14" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B45" s="14" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" s="14" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B46" s="26" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" s="14" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B47" s="26" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" s="14" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B48" s="26" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" s="14" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B49" s="26" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" s="14" t="s">
+        <v>254</v>
+      </c>
+      <c r="B50" s="15" t="s">
         <v>255</v>
-      </c>
-      <c r="B50" s="15" t="s">
-        <v>256</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A51" s="27" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B51" s="15" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A52" s="27" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B52" s="15" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" s="14" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B53" s="15" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" s="14" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B54" s="26" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" s="14" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B55" s="26" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" s="26" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B56" s="28" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" s="26" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B57" s="28" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="58" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A58" s="33" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B58" s="28" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -28534,146 +28534,146 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
+        <v>216</v>
+      </c>
+      <c r="B2" s="32" t="s">
         <v>217</v>
       </c>
-      <c r="B2" s="32" t="s">
+      <c r="C2" t="s">
         <v>218</v>
-      </c>
-      <c r="C2" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>219</v>
+      </c>
+      <c r="B3" t="s">
         <v>220</v>
-      </c>
-      <c r="B3" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B4" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>222</v>
+      </c>
+      <c r="B5" t="s">
         <v>223</v>
-      </c>
-      <c r="B5" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B6" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B7" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B8" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
+        <v>227</v>
+      </c>
+      <c r="B9" t="s">
         <v>228</v>
-      </c>
-      <c r="B9" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B10" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B11" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B12" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B13" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
+        <v>233</v>
+      </c>
+      <c r="B14" t="s">
         <v>234</v>
-      </c>
-      <c r="B14" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C15" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C16" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
+        <v>243</v>
+      </c>
+      <c r="C17" t="s">
         <v>244</v>
-      </c>
-      <c r="C17" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
+        <v>245</v>
+      </c>
+      <c r="C18" t="s">
         <v>246</v>
-      </c>
-      <c r="C18" t="s">
-        <v>247</v>
       </c>
     </row>
   </sheetData>
